--- a/on_trucks/Processed_Stand_Alone/2_245-70R19.xlsx
+++ b/on_trucks/Processed_Stand_Alone/2_245-70R19.xlsx
@@ -10567,19 +10567,19 @@
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D2">
         <v>122</v>
       </c>
       <c r="E2">
-        <v>0.005143253249056489</v>
+        <v>0.005139101441527469</v>
       </c>
       <c r="F2">
         <v>0.5005446924574898</v>
       </c>
       <c r="G2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H2">
         <v>2</v>
@@ -10608,19 +10608,19 @@
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D3">
         <v>118</v>
       </c>
       <c r="E3">
-        <v>0.009236688482255952</v>
+        <v>0.009223035548227046</v>
       </c>
       <c r="F3">
         <v>0.5000316260373691</v>
       </c>
       <c r="G3">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H3">
         <v>2</v>
@@ -10649,19 +10649,19 @@
         <v>0.5</v>
       </c>
       <c r="C4">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D4">
         <v>123</v>
       </c>
       <c r="E4">
-        <v>0.006061319323306618</v>
+        <v>0.005955792488659505</v>
       </c>
       <c r="F4">
         <v>0.5150391731178837</v>
       </c>
       <c r="G4">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H4">
         <v>2</v>
@@ -10690,19 +10690,19 @@
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D5">
         <v>127</v>
       </c>
       <c r="E5">
-        <v>0.006185575005221948</v>
+        <v>0.006178230158552155</v>
       </c>
       <c r="F5">
         <v>0.51735872193015</v>
       </c>
       <c r="G5">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H5">
         <v>2</v>
@@ -10826,19 +10826,19 @@
         <v>0.7</v>
       </c>
       <c r="C2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D2">
         <v>140</v>
       </c>
       <c r="E2">
-        <v>0.005143253249056489</v>
+        <v>0.005139101441527469</v>
       </c>
       <c r="F2">
         <v>0.7019299274356311</v>
       </c>
       <c r="G2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H2">
         <v>2</v>
@@ -10867,19 +10867,19 @@
         <v>0.7</v>
       </c>
       <c r="C3">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D3">
         <v>138</v>
       </c>
       <c r="E3">
-        <v>0.009236688482255952</v>
+        <v>0.009223035548227046</v>
       </c>
       <c r="F3">
         <v>0.7064313791524552</v>
       </c>
       <c r="G3">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H3">
         <v>2</v>
@@ -10908,19 +10908,19 @@
         <v>0.7</v>
       </c>
       <c r="C4">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D4">
         <v>144</v>
       </c>
       <c r="E4">
-        <v>0.006061319323306618</v>
+        <v>0.005955792488659505</v>
       </c>
       <c r="F4">
         <v>0.7055260486431973</v>
       </c>
       <c r="G4">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H4">
         <v>2</v>
@@ -10949,19 +10949,19 @@
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D5">
         <v>145</v>
       </c>
       <c r="E5">
-        <v>0.006185575005221948</v>
+        <v>0.006178230158552155</v>
       </c>
       <c r="F5">
         <v>0.7043408815540976</v>
       </c>
       <c r="G5">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H5">
         <v>2</v>
@@ -11085,19 +11085,19 @@
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D2">
         <v>153</v>
       </c>
       <c r="E2">
-        <v>0.005143253249056489</v>
+        <v>0.005139101441527469</v>
       </c>
       <c r="F2">
         <v>0.8093121394945839</v>
       </c>
       <c r="G2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H2">
         <v>2</v>
@@ -11126,19 +11126,19 @@
         <v>0.8</v>
       </c>
       <c r="C3">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D3">
         <v>151</v>
       </c>
       <c r="E3">
-        <v>0.009236688482255952</v>
+        <v>0.009223035548227046</v>
       </c>
       <c r="F3">
         <v>0.8105513238728983</v>
       </c>
       <c r="G3">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H3">
         <v>2</v>
@@ -11167,19 +11167,19 @@
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D4">
         <v>152</v>
       </c>
       <c r="E4">
-        <v>0.006061319323306618</v>
+        <v>0.005955792488659505</v>
       </c>
       <c r="F4">
         <v>0.8014169554085957</v>
       </c>
       <c r="G4">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H4">
         <v>2</v>
@@ -11208,19 +11208,19 @@
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D5">
         <v>158</v>
       </c>
       <c r="E5">
-        <v>0.006185575005221948</v>
+        <v>0.006178230158552155</v>
       </c>
       <c r="F5">
         <v>0.8105078529940949</v>
       </c>
       <c r="G5">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H5">
         <v>2</v>
@@ -11344,19 +11344,19 @@
         <v>0.9</v>
       </c>
       <c r="C2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D2">
         <v>168</v>
       </c>
       <c r="E2">
-        <v>0.005143253249056489</v>
+        <v>0.005139101441527469</v>
       </c>
       <c r="F2">
         <v>0.9004296573808047</v>
       </c>
       <c r="G2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H2">
         <v>2</v>
@@ -11385,19 +11385,19 @@
         <v>0.9</v>
       </c>
       <c r="C3">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D3">
         <v>171</v>
       </c>
       <c r="E3">
-        <v>0.009236688482255952</v>
+        <v>0.009223035548227046</v>
       </c>
       <c r="F3">
         <v>0.9002924253388984</v>
       </c>
       <c r="G3">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H3">
         <v>2</v>
@@ -11426,19 +11426,19 @@
         <v>0.9</v>
       </c>
       <c r="C4">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D4">
         <v>172</v>
       </c>
       <c r="E4">
-        <v>0.006061319323306618</v>
+        <v>0.005955792488659505</v>
       </c>
       <c r="F4">
         <v>0.9033557367197034</v>
       </c>
       <c r="G4">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H4">
         <v>2</v>
@@ -11467,19 +11467,19 @@
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D5">
         <v>175</v>
       </c>
       <c r="E5">
-        <v>0.006185575005221948</v>
+        <v>0.006178230158552155</v>
       </c>
       <c r="F5">
         <v>0.9026733376205642</v>
       </c>
       <c r="G5">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H5">
         <v>2</v>

--- a/on_trucks/Processed_Stand_Alone/2_245-70R19.xlsx
+++ b/on_trucks/Processed_Stand_Alone/2_245-70R19.xlsx
@@ -1994,604 +1994,604 @@
         <v>257</v>
       </c>
       <c r="B2">
-        <v>0.0001576477148989771</v>
+        <v>9.613517961684913E-05</v>
       </c>
       <c r="C2">
-        <v>0.0001420723444149651</v>
+        <v>8.04019424419404E-05</v>
       </c>
       <c r="D2">
-        <v>0.0001319547641005565</v>
+        <v>7.018181375311224E-05</v>
       </c>
       <c r="E2">
-        <v>0.0001267655839393003</v>
+        <v>6.494003781563575E-05</v>
       </c>
       <c r="F2">
-        <v>6.255310194386713E-05</v>
+        <v>7.671980591372089E-08</v>
       </c>
       <c r="G2">
-        <v>3.774890617306506E-05</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>2.455514276306264E-05</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>8.42222426172459E-06</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>3.256803301206698E-06</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>3.65197131348673E-05</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>6.040664587716499E-05</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>5.782191679684332E-05</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>6.247715194150695E-05</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>8.890879276288264E-05</v>
+        <v>2.66995429990944E-05</v>
       </c>
       <c r="P2">
-        <v>8.094406251537489E-05</v>
+        <v>1.865408493780205E-05</v>
       </c>
       <c r="Q2">
-        <v>5.143497559836611E-05</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>1.779220555290118E-05</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>1.669542051881807E-05</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>1.265717439332766E-05</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>2.897416790038593E-05</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>2.558918379519595E-05</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>7.846988243848859E-06</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>1.083706533676691E-06</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <v>1.703462552935902E-06</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>6.89558421428353E-06</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>1.752982054474744E-05</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>4.293203133413311E-05</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>7.931039246460783E-05</v>
+        <v>1.700385655956558E-05</v>
       </c>
       <c r="AD2">
-        <v>7.281924226289228E-05</v>
+        <v>1.044691425335334E-05</v>
       </c>
       <c r="AE2">
-        <v>6.141872190861573E-05</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>5.78949897991141E-05</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>5.394491167636356E-05</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>6.621380205762511E-05</v>
+        <v>3.77452353874243E-06</v>
       </c>
       <c r="AI2">
-        <v>4.372236935869324E-05</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>8.276907757208811E-05</v>
+        <v>2.049759773029214E-05</v>
       </c>
       <c r="AK2">
-        <v>7.571641835292339E-05</v>
+        <v>1.337345514101466E-05</v>
       </c>
       <c r="AL2">
-        <v>7.973868247791714E-05</v>
+        <v>1.743648757569179E-05</v>
       </c>
       <c r="AM2">
-        <v>4.468028938846106E-05</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>2.419944875200928E-05</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>1.002521731153835E-05</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>4.166484829475481E-10</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>1.983670761643504E-06</v>
+        <v>0</v>
       </c>
       <c r="AR2">
-        <v>3.381446105080031E-05</v>
+        <v>0</v>
       </c>
       <c r="AS2">
-        <v>4.413618937155289E-05</v>
+        <v>0</v>
       </c>
       <c r="AT2">
-        <v>2.897416790038593E-05</v>
+        <v>0</v>
       </c>
       <c r="AU2">
-        <v>4.286911133217784E-05</v>
+        <v>0</v>
       </c>
       <c r="AV2">
-        <v>2.522604778391133E-05</v>
+        <v>0</v>
       </c>
       <c r="AW2">
-        <v>9.465971294159521E-05</v>
+        <v>3.25087525609813E-05</v>
       </c>
       <c r="AX2">
-        <v>0.0001005908431259079</v>
+        <v>3.849999867617577E-05</v>
       </c>
       <c r="AY2">
-        <v>9.536193296341702E-05</v>
+        <v>3.321809004760052E-05</v>
       </c>
       <c r="AZ2">
-        <v>5.63703017517337E-05</v>
+        <v>0</v>
       </c>
       <c r="BA2">
-        <v>7.232825224763454E-05</v>
+        <v>9.950947729250968E-06</v>
       </c>
       <c r="BB2">
-        <v>5.745728578551224E-05</v>
+        <v>0</v>
       </c>
       <c r="BC2">
-        <v>3.001749293280774E-05</v>
+        <v>0</v>
       </c>
       <c r="BD2">
-        <v>1.388152043137479E-05</v>
+        <v>0</v>
       </c>
       <c r="BE2">
-        <v>1.271704839518827E-07</v>
+        <v>0</v>
       </c>
       <c r="BF2">
-        <v>2.325309472260088E-08</v>
+        <v>0</v>
       </c>
       <c r="BG2">
-        <v>4.151807529019376E-06</v>
+        <v>0</v>
       </c>
       <c r="BH2">
-        <v>7.279133226202496E-06</v>
+        <v>0</v>
       </c>
       <c r="BI2">
-        <v>1.732930853851643E-05</v>
+        <v>0</v>
       </c>
       <c r="BJ2">
-        <v>2.384634974103656E-05</v>
+        <v>0</v>
       </c>
       <c r="BK2">
-        <v>6.04813318794859E-05</v>
+        <v>0</v>
       </c>
       <c r="BL2">
-        <v>5.590250473719669E-05</v>
+        <v>0</v>
       </c>
       <c r="BM2">
-        <v>5.013439455794994E-05</v>
+        <v>0</v>
       </c>
       <c r="BN2">
-        <v>5.992235486211543E-05</v>
+        <v>0</v>
       </c>
       <c r="BO2">
-        <v>5.844444381618865E-05</v>
+        <v>0</v>
       </c>
       <c r="BP2">
-        <v>0.0001649671551264321</v>
+        <v>0.0001035288072165475</v>
       </c>
       <c r="BQ2">
-        <v>0.000160069074974222</v>
+        <v>9.858108177941973E-05</v>
       </c>
       <c r="BR2">
-        <v>0.0001420723444149651</v>
+        <v>8.04019424419404E-05</v>
       </c>
       <c r="BS2">
-        <v>0.000105317598272794</v>
+        <v>4.327466261563183E-05</v>
       </c>
       <c r="BT2">
-        <v>0.0001115687884670527</v>
+        <v>4.958921276085584E-05</v>
       </c>
       <c r="BU2">
-        <v>9.663247300289966E-05</v>
+        <v>3.450150785149273E-05</v>
       </c>
       <c r="BV2">
-        <v>2.384634974103656E-05</v>
+        <v>0</v>
       </c>
       <c r="BW2">
-        <v>4.865100151185281E-06</v>
+        <v>0</v>
       </c>
       <c r="BX2">
-        <v>1.154639735880974E-07</v>
+        <v>0</v>
       </c>
       <c r="BY2">
-        <v>8.394371260859044E-06</v>
+        <v>0</v>
       </c>
       <c r="BZ2">
-        <v>3.381446105080031E-05</v>
+        <v>0</v>
       </c>
       <c r="CA2">
-        <v>2.391675874322455E-05</v>
+        <v>0</v>
       </c>
       <c r="CB2">
-        <v>5.69124947685826E-05</v>
+        <v>0</v>
       </c>
       <c r="CC2">
-        <v>6.153168191212603E-05</v>
+        <v>0</v>
       </c>
       <c r="CD2">
-        <v>0.0001199910537287786</v>
+        <v>5.809684325662788E-05</v>
       </c>
       <c r="CE2">
-        <v>0.0001971176261255232</v>
+        <v>0.0001360051445231276</v>
       </c>
       <c r="CF2">
-        <v>0.0002077079764546233</v>
+        <v>0.0001467028350637244</v>
       </c>
       <c r="CG2">
-        <v>0.000168564425238219</v>
+        <v>0.0001071625380423439</v>
       </c>
       <c r="CH2">
-        <v>0.0001258479639107848</v>
+        <v>6.401311710065822E-05</v>
       </c>
       <c r="CI2">
-        <v>0.0001388280043141457</v>
+        <v>7.712471880641562E-05</v>
       </c>
       <c r="CJ2">
-        <v>6.731260209177084E-05</v>
+        <v>4.884460638650161E-06</v>
       </c>
       <c r="CK2">
-        <v>1.871552458159375E-05</v>
+        <v>0</v>
       </c>
       <c r="CL2">
-        <v>3.55363361043084E-08</v>
+        <v>0</v>
       </c>
       <c r="CM2">
-        <v>4.151807529019376E-06</v>
+        <v>0</v>
       </c>
       <c r="CN2">
-        <v>0.0421926213111556</v>
+        <v>0.04255716106081821</v>
       </c>
       <c r="CO2">
-        <v>0.00378419101759552</v>
+        <v>0.003759435899491893</v>
       </c>
       <c r="CP2">
-        <v>0.1381690842936694</v>
+        <v>0.1395064090329782</v>
       </c>
       <c r="CQ2">
-        <v>0.01943860860406393</v>
+        <v>0.01957252137157039</v>
       </c>
       <c r="CR2">
-        <v>0.0007902921845587021</v>
+        <v>0.0007351919197931467</v>
       </c>
       <c r="CS2">
-        <v>0.01220702037933891</v>
+        <v>0.01226763621280857</v>
       </c>
       <c r="CT2">
-        <v>0.02455356076301347</v>
+        <v>0.02473931695679718</v>
       </c>
       <c r="CU2">
-        <v>0.005510280171234555</v>
+        <v>0.005503020109390263</v>
       </c>
       <c r="CV2">
-        <v>0.0001052190382697312</v>
+        <v>4.317510364169036E-05</v>
       </c>
       <c r="CW2">
-        <v>0.04603505143056093</v>
+        <v>0.04643853675320847</v>
       </c>
       <c r="CX2">
-        <v>0.00437811413605196</v>
+        <v>0.004359378821936563</v>
       </c>
       <c r="CY2">
-        <v>0.00229599897134925</v>
+        <v>0.002256160041659828</v>
       </c>
       <c r="CZ2">
-        <v>0.002957574091908009</v>
+        <v>0.002924440664034383</v>
       </c>
       <c r="DA2">
-        <v>0.03524135909514185</v>
+        <v>0.03553544320044438</v>
       </c>
       <c r="DB2">
-        <v>0.002656156282541309</v>
+        <v>0.002619967785628335</v>
       </c>
       <c r="DC2">
-        <v>0.009457328293890935</v>
+        <v>0.009490074177752635</v>
       </c>
       <c r="DD2">
-        <v>0.03884064920699148</v>
+        <v>0.03917121450034142</v>
       </c>
       <c r="DE2">
-        <v>0.001861488957846647</v>
+        <v>0.001817245981520673</v>
       </c>
       <c r="DF2">
-        <v>0.003735599016085501</v>
+        <v>0.003710351385878208</v>
       </c>
       <c r="DG2">
-        <v>0.02801835787068368</v>
+        <v>0.0282392320768818</v>
       </c>
       <c r="DH2">
-        <v>0.02062810664102814</v>
+        <v>0.02077407575859808</v>
       </c>
       <c r="DI2">
-        <v>0.008668793269386837</v>
+        <v>0.008693546828757608</v>
       </c>
       <c r="DJ2">
-        <v>0.0004782296448612117</v>
+        <v>0.0004199664196674947</v>
       </c>
       <c r="DK2">
-        <v>0.0002240770669633005</v>
+        <v>0.0001632378371411984</v>
       </c>
       <c r="DL2">
-        <v>0.00834981925947457</v>
+        <v>0.008371339806091095</v>
       </c>
       <c r="DM2">
-        <v>0.002581196680211904</v>
+        <v>0.002544248418105362</v>
       </c>
       <c r="DN2">
-        <v>0.0002260946570259981</v>
+        <v>0.000165275876814845</v>
       </c>
       <c r="DO2">
-        <v>1.149678635726806E-06</v>
+        <v>0</v>
       </c>
       <c r="DP2">
-        <v>0.006474282201191371</v>
+        <v>0.006476792938099076</v>
       </c>
       <c r="DQ2">
-        <v>0.0125829113910199</v>
+        <v>0.01264733712873633</v>
       </c>
       <c r="DR2">
-        <v>0.01164220736178708</v>
+        <v>0.01169709844141234</v>
       </c>
       <c r="DS2">
-        <v>0.001316016240895825</v>
+        <v>0.001266244537475501</v>
       </c>
       <c r="DT2">
-        <v>0.00977617830379935</v>
+        <v>0.009812155943593168</v>
       </c>
       <c r="DU2">
-        <v>0.009880930307054567</v>
+        <v>0.009917969677748184</v>
       </c>
       <c r="DV2">
-        <v>0.0006530391602934997</v>
+        <v>0.0005965477452642273</v>
       </c>
       <c r="DW2">
-        <v>0.01585324049264692</v>
+        <v>0.01595081318079686</v>
       </c>
       <c r="DX2">
-        <v>0.001405834043686956</v>
+        <v>0.001356972703158148</v>
       </c>
       <c r="DY2">
-        <v>0.0482846255004675</v>
+        <v>0.04871091174555268</v>
       </c>
       <c r="DZ2">
-        <v>0.006985208717068654</v>
+        <v>0.006992898032452919</v>
       </c>
       <c r="EA2">
-        <v>0.005165394160517059</v>
+        <v>0.005154638450636373</v>
       </c>
       <c r="EB2">
-        <v>0.01607290749947318</v>
+        <v>0.01617270665815892</v>
       </c>
       <c r="EC2">
-        <v>1.516238047117812E-05</v>
+        <v>0</v>
       </c>
       <c r="ED2">
-        <v>0.0003579485111234187</v>
+        <v>0.0002984661570120307</v>
       </c>
       <c r="EE2">
-        <v>0.00479932314914123</v>
+        <v>0.004784857067217809</v>
       </c>
       <c r="EF2">
-        <v>0.006799008011282379</v>
+        <v>0.006804810059246887</v>
       </c>
       <c r="EG2">
-        <v>0.02669030882941393</v>
+        <v>0.02689772237939786</v>
       </c>
       <c r="EH2">
-        <v>0.01793091255721156</v>
+        <v>0.01804954382717425</v>
       </c>
       <c r="EI2">
-        <v>0.007918852246082067</v>
+        <v>0.007936004656713654</v>
       </c>
       <c r="EJ2">
-        <v>0.01809205556221916</v>
+        <v>0.01821232012321578</v>
       </c>
       <c r="EK2">
-        <v>0.004704305546188513</v>
+        <v>0.004688876397956621</v>
       </c>
       <c r="EL2">
-        <v>1.29493224024063E-05</v>
+        <v>0</v>
       </c>
       <c r="EM2">
-        <v>0.001179826436663663</v>
+        <v>0.001128674359418518</v>
       </c>
       <c r="EN2">
-        <v>0.008736898271503233</v>
+        <v>0.008762342120156603</v>
       </c>
       <c r="EO2">
-        <v>0.004781041148573108</v>
+        <v>0.004766389766471072</v>
       </c>
       <c r="EP2">
-        <v>0.008265332256849096</v>
+        <v>0.008285996471762824</v>
       </c>
       <c r="EQ2">
-        <v>0.01984584061671885</v>
+        <v>0.01998388095026498</v>
       </c>
       <c r="ER2">
-        <v>0.01084631733705442</v>
+        <v>0.01089314154439236</v>
       </c>
       <c r="ES2">
-        <v>0.005174027160785333</v>
+        <v>0.005163358952077494</v>
       </c>
       <c r="ET2">
-        <v>0.006570087504168567</v>
+        <v>0.006573569291245954</v>
       </c>
       <c r="EU2">
-        <v>0.0006600537205114805</v>
+        <v>0.000603633402693722</v>
       </c>
       <c r="EV2">
-        <v>0.006507172202213444</v>
+        <v>0.006510016301054996</v>
       </c>
       <c r="EW2">
-        <v>0.01903095759139598</v>
+        <v>0.01916073854602026</v>
       </c>
       <c r="EX2">
-        <v>0.01577170849011328</v>
+        <v>0.01586845479744259</v>
       </c>
       <c r="EY2">
-        <v>0.004333103634653238</v>
+        <v>0.004313912109308791</v>
       </c>
       <c r="EZ2">
-        <v>3.184701098966088E-09</v>
+        <v>0</v>
       </c>
       <c r="FA2">
-        <v>0.001591297049450306</v>
+        <v>0.001544315499263158</v>
       </c>
       <c r="FB2">
-        <v>0.006908350214680239</v>
+        <v>0.006915260518261749</v>
       </c>
       <c r="FC2">
-        <v>0.007040712218793451</v>
+        <v>0.007048964098911536</v>
       </c>
       <c r="FD2">
-        <v>0.01052510582707263</v>
+        <v>0.01056867434311186</v>
       </c>
       <c r="FE2">
-        <v>0.001400976143535994</v>
+        <v>0.00135206556497318</v>
       </c>
       <c r="FF2">
-        <v>0.008306866258139785</v>
+        <v>0.008327951447652492</v>
       </c>
       <c r="FG2">
-        <v>0.01654826551424515</v>
+        <v>0.01665288274110207</v>
       </c>
       <c r="FH2">
-        <v>0.01999497062135314</v>
+        <v>0.0201345224862217</v>
       </c>
       <c r="FI2">
-        <v>0.004381292636150734</v>
+        <v>0.004362589538238034</v>
       </c>
       <c r="FJ2">
-        <v>0.0002113229065669589</v>
+        <v>0.0001503544048858662</v>
       </c>
       <c r="FK2">
-        <v>0.0005217129162124748</v>
+        <v>0.0004638904227602362</v>
       </c>
       <c r="FL2">
-        <v>0.0005851864881849459</v>
+        <v>0.0005280073414047482</v>
       </c>
       <c r="FM2">
-        <v>0.00876835227248068</v>
+        <v>0.008794114928256802</v>
       </c>
       <c r="FN2">
-        <v>0.005480729170316243</v>
+        <v>0.005473169589514605</v>
       </c>
       <c r="FO2">
-        <v>0.002155532066984175</v>
+        <v>0.002114269412228605</v>
       </c>
       <c r="FP2">
-        <v>0.0005788138579869135</v>
+        <v>0.0005215701203809176</v>
       </c>
       <c r="FQ2">
-        <v>0.005440977569080943</v>
+        <v>0.005433015079484852</v>
       </c>
       <c r="FR2">
-        <v>0.003129787397259619</v>
+        <v>0.003098399465242554</v>
       </c>
       <c r="FS2">
-        <v>0.0001825619356731982</v>
+        <v>0.0001213019225120648</v>
       </c>
       <c r="FT2">
-        <v>0.001258295739102133</v>
+        <v>0.001207939000184617</v>
       </c>
       <c r="FU2">
-        <v>0.003029838794153669</v>
+        <v>0.002997437816877213</v>
       </c>
       <c r="FV2">
-        <v>0.003182401698894633</v>
+        <v>0.0031515470476558</v>
       </c>
       <c r="FW2">
-        <v>0.007965935247545193</v>
+        <v>0.007983564875565998</v>
       </c>
       <c r="FX2">
-        <v>0.008630826268206994</v>
+        <v>0.008655195006886296</v>
       </c>
       <c r="FY2">
-        <v>0.001248942938811491</v>
+        <v>0.001198491403071387</v>
       </c>
       <c r="FZ2">
-        <v>4.7074941462876E-06</v>
+        <v>0</v>
       </c>
       <c r="GA2">
-        <v>0.002018419662723342</v>
+        <v>0.001975767282980892</v>
       </c>
       <c r="GB2">
-        <v>0.001423899544248349</v>
+        <v>0.001375221309527262</v>
       </c>
       <c r="GC2">
-        <v>0.001548859048131525</v>
+        <v>0.001501447360706657</v>
       </c>
       <c r="GD2">
-        <v>0.005103447658592043</v>
+        <v>0.005092064079905182</v>
       </c>
       <c r="GE2">
-        <v>0.009233080286922322</v>
+        <v>0.009263553268779113</v>
       </c>
       <c r="GF2">
-        <v>0.00204005466339566</v>
+        <v>0.001997621568707597</v>
       </c>
       <c r="GG2">
-        <v>0.0002529930278618776</v>
+        <v>0.0001924468804461199</v>
       </c>
       <c r="GH2">
-        <v>4.199314130495666E-05</v>
+        <v>0</v>
       </c>
       <c r="GI2">
-        <v>4.250246132078403E-06</v>
+        <v>0</v>
       </c>
       <c r="GJ2">
-        <v>3.41504360612409E-05</v>
+        <v>0</v>
       </c>
       <c r="GK2">
-        <v>0.0003632382512877999</v>
+        <v>0.0003038095121948356</v>
       </c>
       <c r="GL2">
-        <v>0.002412036374955167</v>
+        <v>0.00237337356116914</v>
       </c>
       <c r="GM2">
-        <v>0.006178247491991954</v>
+        <v>0.006177757721144169</v>
       </c>
       <c r="GN2">
-        <v>0.01110443434507553</v>
+        <v>0.01115387473916564</v>
       </c>
       <c r="GO2">
-        <v>0.009841820305839206</v>
+        <v>0.009878463270779318</v>
       </c>
       <c r="GP2">
-        <v>0.0009443128693449675</v>
+        <v>0.0008907737061828584</v>
       </c>
       <c r="GQ2">
-        <v>8.186940254413028E-06</v>
+        <v>0</v>
       </c>
       <c r="GR2">
-        <v>0.0007316110227351574</v>
+        <v>0.0006759159855470408</v>
       </c>
       <c r="GS2">
-        <v>0.003995957124176251</v>
+        <v>0.003973348395753968</v>
       </c>
       <c r="GT2">
         <v>0</v>
@@ -2767,604 +2767,604 @@
         <v>258</v>
       </c>
       <c r="B3">
-        <v>0.0004669443609886166</v>
+        <v>0.000453004801612034</v>
       </c>
       <c r="C3">
-        <v>0.0002629904205568044</v>
+        <v>0.0002484703798361035</v>
       </c>
       <c r="D3">
-        <v>0.0001522547703223545</v>
+        <v>0.0001374195605053674</v>
       </c>
       <c r="E3">
-        <v>7.570693616028705E-05</v>
+        <v>6.065386053708083E-05</v>
       </c>
       <c r="F3">
-        <v>3.342821207077435E-05</v>
+        <v>1.825480530547238E-05</v>
       </c>
       <c r="G3">
-        <v>2.733591605787572E-06</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>3.035343306426442E-05</v>
+        <v>1.51712750493088E-05</v>
       </c>
       <c r="I3">
-        <v>1.138666902410791E-05</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>1.052159402227636E-05</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>3.323075707035631E-05</v>
+        <v>1.80567883205994E-05</v>
       </c>
       <c r="L3">
-        <v>3.052531006462831E-05</v>
+        <v>1.534364123557409E-05</v>
       </c>
       <c r="M3">
-        <v>1.522521503223489E-05</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>7.982361016900289E-05</v>
+        <v>6.478225117385895E-05</v>
       </c>
       <c r="O3">
-        <v>9.088776019242795E-05</v>
+        <v>7.58778913105102E-05</v>
       </c>
       <c r="P3">
-        <v>9.255690419596188E-05</v>
+        <v>7.755178593054434E-05</v>
       </c>
       <c r="Q3">
-        <v>0.0002610262305526459</v>
+        <v>0.0002465005994733998</v>
       </c>
       <c r="R3">
-        <v>0.0003858077408168338</v>
+        <v>0.0003716372553094061</v>
       </c>
       <c r="S3">
-        <v>0.0003638772007704023</v>
+        <v>0.0003496442978890497</v>
       </c>
       <c r="T3">
-        <v>0.0001896346804014953</v>
+        <v>0.0001749058590190725</v>
       </c>
       <c r="U3">
-        <v>3.028505506411965E-05</v>
+        <v>1.510270243584423E-05</v>
       </c>
       <c r="V3">
-        <v>2.341328604957071E-05</v>
+        <v>8.211375408806834E-06</v>
       </c>
       <c r="W3">
-        <v>5.911839712516573E-06</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>2.606515005518525E-06</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>7.654900416206987E-05</v>
+        <v>6.14983251817747E-05</v>
       </c>
       <c r="Z3">
-        <v>6.642457414063439E-05</v>
+        <v>5.134507962122861E-05</v>
       </c>
       <c r="AA3">
-        <v>8.987111019027551E-06</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>2.502066305297385E-06</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>3.234942006849033E-07</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>4.268419009037115E-05</v>
+        <v>2.753712712872686E-05</v>
       </c>
       <c r="AE3">
-        <v>3.305140506997658E-05</v>
+        <v>1.787692585942627E-05</v>
       </c>
       <c r="AF3">
-        <v>7.140993015118942E-05</v>
+        <v>5.634462464991091E-05</v>
       </c>
       <c r="AG3">
-        <v>0.0002245831004754883</v>
+        <v>0.0002099537471681437</v>
       </c>
       <c r="AH3">
-        <v>0.0002026208804289898</v>
+        <v>0.0001879290195820241</v>
       </c>
       <c r="AI3">
-        <v>1.410498502986313E-05</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>0.0003616241707656322</v>
+        <v>0.0003473848554468305</v>
       </c>
       <c r="AK3">
-        <v>9.393902019888809E-05</v>
+        <v>7.893783562827147E-05</v>
       </c>
       <c r="AL3">
-        <v>1.017123202153458E-05</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>0.0001335151902826789</v>
+        <v>0.000118626645008742</v>
       </c>
       <c r="AN3">
-        <v>0.0001901060004024933</v>
+        <v>0.0001753785204624917</v>
       </c>
       <c r="AO3">
-        <v>9.799370020747269E-05</v>
+        <v>8.300405582135248E-05</v>
       </c>
       <c r="AP3">
-        <v>6.511188013785516E-05</v>
+        <v>5.002864950833776E-05</v>
       </c>
       <c r="AQ3">
-        <v>4.796190510154515E-05</v>
+        <v>3.282986325249654E-05</v>
       </c>
       <c r="AR3">
-        <v>1.229259302602593E-06</v>
+        <v>0</v>
       </c>
       <c r="AS3">
-        <v>1.309014402771451E-07</v>
+        <v>0</v>
       </c>
       <c r="AT3">
-        <v>6.114252612945122E-07</v>
+        <v>0</v>
       </c>
       <c r="AU3">
-        <v>7.428524415727703E-06</v>
+        <v>0</v>
       </c>
       <c r="AV3">
-        <v>0.0002039969504319032</v>
+        <v>0.0001893090060719796</v>
       </c>
       <c r="AW3">
-        <v>0.0001914389704053154</v>
+        <v>0.0001767152842837479</v>
       </c>
       <c r="AX3">
-        <v>0.0002796496605920755</v>
+        <v>0.0002651770343906881</v>
       </c>
       <c r="AY3">
-        <v>0.0004048655408571831</v>
+        <v>0.0003907492965051845</v>
       </c>
       <c r="AZ3">
-        <v>0.0003258619006899162</v>
+        <v>0.0003115208009654869</v>
       </c>
       <c r="BA3">
-        <v>0.0001009114102136501</v>
+        <v>8.593007003691434E-05</v>
       </c>
       <c r="BB3">
-        <v>0.0001512966003203258</v>
+        <v>0.0001364586634179512</v>
       </c>
       <c r="BC3">
-        <v>0.0001588927303364084</v>
+        <v>0.0001440764130789031</v>
       </c>
       <c r="BD3">
-        <v>0.0001107703402345234</v>
+        <v>9.5817059946888E-05</v>
       </c>
       <c r="BE3">
-        <v>9.487675620087348E-05</v>
+        <v>7.987824055763188E-05</v>
       </c>
       <c r="BF3">
-        <v>0.0003333767507058267</v>
+        <v>0.0003190570392920563</v>
       </c>
       <c r="BG3">
-        <v>0.0001757966003721973</v>
+        <v>0.0001610283938850866</v>
       </c>
       <c r="BH3">
-        <v>6.508865713780599E-06</v>
+        <v>0</v>
       </c>
       <c r="BI3">
-        <v>1.048135352219117E-05</v>
+        <v>0</v>
       </c>
       <c r="BJ3">
-        <v>1.877468803974985E-05</v>
+        <v>3.559575302464256E-06</v>
       </c>
       <c r="BK3">
-        <v>3.059395706477366E-05</v>
+        <v>1.541248361465073E-05</v>
       </c>
       <c r="BL3">
-        <v>1.72042440364249E-05</v>
+        <v>1.984661596597732E-06</v>
       </c>
       <c r="BM3">
-        <v>4.994332610574022E-05</v>
+        <v>3.481692365706478E-05</v>
       </c>
       <c r="BN3">
-        <v>0.0001246067302638179</v>
+        <v>0.0001096928302708948</v>
       </c>
       <c r="BO3">
-        <v>0.0001435131003038466</v>
+        <v>0.0001286530104754635</v>
       </c>
       <c r="BP3">
-        <v>0.0001238782102622755</v>
+        <v>0.0001089622367998778</v>
       </c>
       <c r="BQ3">
-        <v>0.0001560414403303716</v>
+        <v>0.0001412170079040607</v>
       </c>
       <c r="BR3">
-        <v>9.563582020248057E-05</v>
+        <v>8.063946496119538E-05</v>
       </c>
       <c r="BS3">
-        <v>7.60865201610907E-05</v>
+        <v>6.103452488686193E-05</v>
       </c>
       <c r="BT3">
-        <v>0.0001115903942362597</v>
+        <v>9.663944793662255E-05</v>
       </c>
       <c r="BU3">
-        <v>4.296933209097486E-05</v>
+        <v>2.782308068321094E-05</v>
       </c>
       <c r="BV3">
-        <v>0.0001322595002800204</v>
+        <v>0.0001173673811373022</v>
       </c>
       <c r="BW3">
-        <v>0.0001167107802471006</v>
+        <v>0.0001017744072797937</v>
       </c>
       <c r="BX3">
-        <v>1.674168403544556E-06</v>
+        <v>0</v>
       </c>
       <c r="BY3">
-        <v>2.06110470436378E-05</v>
+        <v>5.401160840051944E-06</v>
       </c>
       <c r="BZ3">
-        <v>1.907267904038076E-06</v>
+        <v>0</v>
       </c>
       <c r="CA3">
-        <v>4.578886009694437E-05</v>
+        <v>3.06506334589065E-05</v>
       </c>
       <c r="CB3">
-        <v>7.241309515331332E-05</v>
+        <v>5.735064479946452E-05</v>
       </c>
       <c r="CC3">
-        <v>3.437063407276966E-05</v>
+        <v>1.919990957185193E-05</v>
       </c>
       <c r="CD3">
-        <v>5.329718011284102E-05</v>
+        <v>3.818032320017187E-05</v>
       </c>
       <c r="CE3">
-        <v>0.000128634270272345</v>
+        <v>0.0001137318332196951</v>
       </c>
       <c r="CF3">
-        <v>0.0001752193603709752</v>
+        <v>0.0001604495109783581</v>
       </c>
       <c r="CG3">
-        <v>0.0001672378703540767</v>
+        <v>0.0001524453045283117</v>
       </c>
       <c r="CH3">
-        <v>0.000150493750318626</v>
+        <v>0.0001356535283932353</v>
       </c>
       <c r="CI3">
-        <v>7.130505015096736E-05</v>
+        <v>5.623944614658872E-05</v>
       </c>
       <c r="CJ3">
-        <v>5.91765701252889E-05</v>
+        <v>4.407644677613803E-05</v>
       </c>
       <c r="CK3">
-        <v>4.817790610200247E-05</v>
+        <v>3.304647902191008E-05</v>
       </c>
       <c r="CL3">
-        <v>1.365293402890605E-05</v>
+        <v>0</v>
       </c>
       <c r="CM3">
-        <v>0.00159531620337761</v>
+        <v>0.001584588147551037</v>
       </c>
       <c r="CN3">
-        <v>0.04399449809314534</v>
+        <v>0.04410444401910495</v>
       </c>
       <c r="CO3">
-        <v>0.09704745020546927</v>
+        <v>0.09730839222832412</v>
       </c>
       <c r="CP3">
-        <v>0.02544185505386561</v>
+        <v>0.02549899757163615</v>
       </c>
       <c r="CQ3">
-        <v>0.0001021340502162386</v>
+        <v>8.715618984337712E-05</v>
       </c>
       <c r="CR3">
-        <v>0.01329962402815802</v>
+        <v>0.01332220806389348</v>
       </c>
       <c r="CS3">
-        <v>0.01845581003907472</v>
+        <v>0.0184930692989309</v>
       </c>
       <c r="CT3">
-        <v>0.01493903003162898</v>
+        <v>0.01496628004537122</v>
       </c>
       <c r="CU3">
-        <v>2.634596605577979E-05</v>
+        <v>1.115240223110718E-05</v>
       </c>
       <c r="CV3">
-        <v>0.07267476615386732</v>
+        <v>0.07286634012054198</v>
       </c>
       <c r="CW3">
-        <v>0.0001433643503035316</v>
+        <v>0.0001285038371119131</v>
       </c>
       <c r="CX3">
-        <v>0.008085981017119674</v>
+        <v>0.008093726298102996</v>
       </c>
       <c r="CY3">
-        <v>0.01614744603418744</v>
+        <v>0.01617813536831709</v>
       </c>
       <c r="CZ3">
-        <v>0.02698304505712862</v>
+        <v>0.02704457401647878</v>
       </c>
       <c r="DA3">
-        <v>0.001374215102909494</v>
+        <v>0.001362857762531154</v>
       </c>
       <c r="DB3">
-        <v>0.03475105807357509</v>
+        <v>0.0348346958807728</v>
       </c>
       <c r="DC3">
-        <v>0.02556710505413078</v>
+        <v>0.025624604050861</v>
       </c>
       <c r="DD3">
-        <v>0.003342021707075743</v>
+        <v>0.003336265018590339</v>
       </c>
       <c r="DE3">
-        <v>0.01821392203856259</v>
+        <v>0.01825049285145195</v>
       </c>
       <c r="DF3">
-        <v>0.01313432302780805</v>
+        <v>0.01315643659385479</v>
       </c>
       <c r="DG3">
-        <v>0.03714826307865046</v>
+        <v>0.03723872366544501</v>
       </c>
       <c r="DH3">
-        <v>0.005256232011128517</v>
+        <v>0.005255923431995005</v>
       </c>
       <c r="DI3">
-        <v>0.0003933627708328293</v>
+        <v>0.0003792137879939416</v>
       </c>
       <c r="DJ3">
-        <v>0.002064434004370828</v>
+        <v>0.002055041123197385</v>
       </c>
       <c r="DK3">
-        <v>0.005130635610862603</v>
+        <v>0.005129969566866738</v>
       </c>
       <c r="DL3">
-        <v>0.003551200707518617</v>
+        <v>0.003546039371626457</v>
       </c>
       <c r="DM3">
-        <v>0.0002940383606225393</v>
+        <v>0.0002796066866671154</v>
       </c>
       <c r="DN3">
-        <v>0.0001766642203740342</v>
+        <v>0.0001618984832543885</v>
       </c>
       <c r="DO3">
-        <v>0.001460795503092802</v>
+        <v>0.001449684582602042</v>
       </c>
       <c r="DP3">
-        <v>0.006750553414292301</v>
+        <v>0.006754497882169388</v>
       </c>
       <c r="DQ3">
-        <v>0.00732056401549913</v>
+        <v>0.007326130813002453</v>
       </c>
       <c r="DR3">
-        <v>0.003406014507211228</v>
+        <v>0.003400439951155127</v>
       </c>
       <c r="DS3">
-        <v>0.006676350314135197</v>
+        <v>0.006680083589645881</v>
       </c>
       <c r="DT3">
-        <v>0.01736674603676895</v>
+        <v>0.01740090566866722</v>
       </c>
       <c r="DU3">
-        <v>4.741504810038734E-07</v>
+        <v>0</v>
       </c>
       <c r="DV3">
-        <v>0.01122342052376227</v>
+        <v>0.01124009539491703</v>
       </c>
       <c r="DW3">
-        <v>0.0001226688002597149</v>
+        <v>0.0001077493846478672</v>
       </c>
       <c r="DX3">
-        <v>0.03298881306984405</v>
+        <v>0.03306743528211741</v>
       </c>
       <c r="DY3">
-        <v>0.008392476017768586</v>
+        <v>0.00840109362624686</v>
       </c>
       <c r="DZ3">
-        <v>0.002688617405692352</v>
+        <v>0.002681001037485553</v>
       </c>
       <c r="EA3">
-        <v>0.01424545303016053</v>
+        <v>0.01427072902707716</v>
       </c>
       <c r="EB3">
-        <v>7.288761615431796E-08</v>
+        <v>0</v>
       </c>
       <c r="EC3">
-        <v>0.0003745809407930644</v>
+        <v>0.0003603785022478373</v>
       </c>
       <c r="ED3">
-        <v>0.00538723121140587</v>
+        <v>0.005387295474256652</v>
       </c>
       <c r="EE3">
-        <v>0.005370566611370587</v>
+        <v>0.005370583444446749</v>
       </c>
       <c r="EF3">
-        <v>0.024987198052903</v>
+        <v>0.02504304655347304</v>
       </c>
       <c r="EG3">
-        <v>0.02603450805512037</v>
+        <v>0.02609333734594388</v>
       </c>
       <c r="EH3">
-        <v>0.009881352020920841</v>
+        <v>0.009894207178042232</v>
       </c>
       <c r="EI3">
-        <v>0.02318209204908123</v>
+        <v>0.02323280296634615</v>
       </c>
       <c r="EJ3">
-        <v>0.01029930902180574</v>
+        <v>0.01031335374281172</v>
       </c>
       <c r="EK3">
-        <v>0.0002148955004549777</v>
+        <v>0.0002002385748875959</v>
       </c>
       <c r="EL3">
-        <v>0.0001572493003329289</v>
+        <v>0.0001424283056445519</v>
       </c>
       <c r="EM3">
-        <v>0.007914507016756629</v>
+        <v>0.007921764258832729</v>
       </c>
       <c r="EN3">
-        <v>0.006754903014301509</v>
+        <v>0.006758859861746523</v>
       </c>
       <c r="EO3">
-        <v>0.00726369201537872</v>
+        <v>0.00726909694724217</v>
       </c>
       <c r="EP3">
-        <v>0.0201362700426326</v>
+        <v>0.02017831212590243</v>
       </c>
       <c r="EQ3">
-        <v>0.01400208302964527</v>
+        <v>0.01402666636161648</v>
       </c>
       <c r="ER3">
-        <v>0.007575177616038199</v>
+        <v>0.007581469079339881</v>
       </c>
       <c r="ES3">
-        <v>0.01085588802298413</v>
+        <v>0.0108715168454104</v>
       </c>
       <c r="ET3">
-        <v>0.004070597708618287</v>
+        <v>0.004066914648991303</v>
       </c>
       <c r="EU3">
-        <v>0.001699645403598496</v>
+        <v>0.00168921428321846</v>
       </c>
       <c r="EV3">
-        <v>0.01317572702789571</v>
+        <v>0.01319795843549811</v>
       </c>
       <c r="EW3">
-        <v>0.0133992260283689</v>
+        <v>0.01342209354528074</v>
       </c>
       <c r="EX3">
-        <v>0.0041062166086937</v>
+        <v>0.004102634925421338</v>
       </c>
       <c r="EY3">
-        <v>1.455276103081117E-05</v>
+        <v>0</v>
       </c>
       <c r="EZ3">
-        <v>6.652580514084872E-05</v>
+        <v>5.144659873898038E-05</v>
       </c>
       <c r="FA3">
-        <v>0.002944732806234601</v>
+        <v>0.002937845378158311</v>
       </c>
       <c r="FB3">
-        <v>0.005742395312157824</v>
+        <v>0.005743470421546559</v>
       </c>
       <c r="FC3">
-        <v>0.008992735019039457</v>
+        <v>0.00900306104830695</v>
       </c>
       <c r="FD3">
-        <v>0.003006528006365434</v>
+        <v>0.002999816456042504</v>
       </c>
       <c r="FE3">
-        <v>0.003022591806399444</v>
+        <v>0.003015925975890584</v>
       </c>
       <c r="FF3">
-        <v>0.01170491102478169</v>
+        <v>0.01172295628501851</v>
       </c>
       <c r="FG3">
-        <v>0.01537467003255132</v>
+        <v>0.01540315993846113</v>
       </c>
       <c r="FH3">
-        <v>0.005342552011311274</v>
+        <v>0.005342489110930643</v>
       </c>
       <c r="FI3">
-        <v>0.0001624827403440092</v>
+        <v>0.000147676640755406</v>
       </c>
       <c r="FJ3">
-        <v>0.002776956405879384</v>
+        <v>0.002769591462780911</v>
       </c>
       <c r="FK3">
-        <v>0.0002291770804852147</v>
+        <v>0.0002145608022853441</v>
       </c>
       <c r="FL3">
-        <v>0.003255686006892952</v>
+        <v>0.003249683594970279</v>
       </c>
       <c r="FM3">
-        <v>0.003673530607777615</v>
+        <v>0.003668717439833463</v>
       </c>
       <c r="FN3">
-        <v>0.0009870318020897481</v>
+        <v>0.0009745724840668273</v>
       </c>
       <c r="FO3">
-        <v>0.0001726335903655006</v>
+        <v>0.0001578563815110109</v>
       </c>
       <c r="FP3">
-        <v>0.004765966010090524</v>
+        <v>0.004764262065578654</v>
       </c>
       <c r="FQ3">
-        <v>0.005130635610862603</v>
+        <v>0.005129969566866738</v>
       </c>
       <c r="FR3">
-        <v>0.0005915203412523695</v>
+        <v>0.0005779353424805747</v>
       </c>
       <c r="FS3">
-        <v>0.001079852902286269</v>
+        <v>0.001067657766053073</v>
       </c>
       <c r="FT3">
-        <v>0.003583731007587491</v>
+        <v>0.003578662257463807</v>
       </c>
       <c r="FU3">
-        <v>0.002213090204685564</v>
+        <v>0.002204120419779775</v>
       </c>
       <c r="FV3">
-        <v>0.004997313010580332</v>
+        <v>0.004996267511879894</v>
       </c>
       <c r="FW3">
-        <v>0.005638861011938621</v>
+        <v>0.005639641448277027</v>
       </c>
       <c r="FX3">
-        <v>0.0002860872806057052</v>
+        <v>0.0002716329767682325</v>
       </c>
       <c r="FY3">
-        <v>0.0001026697702173729</v>
+        <v>8.769343457830993E-05</v>
       </c>
       <c r="FZ3">
-        <v>0.00297962730630848</v>
+        <v>0.002972839192843431</v>
       </c>
       <c r="GA3">
-        <v>0.00418678070886427</v>
+        <v>0.004183428322251025</v>
       </c>
       <c r="GB3">
-        <v>0.002992722706336205</v>
+        <v>0.002985971864205037</v>
       </c>
       <c r="GC3">
-        <v>0.006769235214331855</v>
+        <v>0.006773232853215956</v>
       </c>
       <c r="GD3">
-        <v>0.012065911025546</v>
+        <v>0.01208498374210569</v>
       </c>
       <c r="GE3">
-        <v>0.005193918510996587</v>
+        <v>0.005193432578955664</v>
       </c>
       <c r="GF3">
-        <v>0.001428033303023438</v>
+        <v>0.001416829136744476</v>
       </c>
       <c r="GG3">
-        <v>0.0003433952507270379</v>
+        <v>0.0003291040533608316</v>
       </c>
       <c r="GH3">
-        <v>0.0001743553103691458</v>
+        <v>0.0001595830017697814</v>
       </c>
       <c r="GI3">
-        <v>7.241309515331332E-05</v>
+        <v>5.735064479946452E-05</v>
       </c>
       <c r="GJ3">
-        <v>0.0001598746203384872</v>
+        <v>0.000145061097676796</v>
       </c>
       <c r="GK3">
-        <v>0.001655921103505923</v>
+        <v>0.001645365537672984</v>
       </c>
       <c r="GL3">
-        <v>0.005602928311862544</v>
+        <v>0.005603606478727785</v>
       </c>
       <c r="GM3">
-        <v>0.01170625502478453</v>
+        <v>0.01172430411023271</v>
       </c>
       <c r="GN3">
-        <v>0.01287488452725876</v>
+        <v>0.01289625969516917</v>
       </c>
       <c r="GO3">
-        <v>0.003806181008058463</v>
+        <v>0.003801745381643981</v>
       </c>
       <c r="GP3">
-        <v>0.001148195602430965</v>
+        <v>0.00113619497904884</v>
       </c>
       <c r="GQ3">
-        <v>9.204828519488503E-05</v>
+        <v>7.704171932889274E-05</v>
       </c>
       <c r="GR3">
-        <v>0.001133794502400475</v>
+        <v>0.001121752891480258</v>
       </c>
       <c r="GS3">
-        <v>0.001697338103593612</v>
+        <v>0.001686900416316141</v>
       </c>
       <c r="GT3">
         <v>0</v>
@@ -3540,604 +3540,604 @@
         <v>259</v>
       </c>
       <c r="B4">
-        <v>2.305806057840545E-06</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>8.405423210847853E-06</v>
+        <v>6.102342646071303E-06</v>
       </c>
       <c r="D4">
-        <v>1.077012427016576E-06</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>3.824946095947777E-07</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>4.724826118521033E-06</v>
+        <v>2.420100951862945E-06</v>
       </c>
       <c r="G4">
-        <v>4.481305112412372E-05</v>
+        <v>4.25262385864815E-05</v>
       </c>
       <c r="H4">
-        <v>9.17463423014331E-05</v>
+        <v>8.948050097499405E-05</v>
       </c>
       <c r="I4">
-        <v>0.0001475144537003617</v>
+        <v>0.0001452735312494843</v>
       </c>
       <c r="J4">
-        <v>0.000201967375066299</v>
+        <v>0.000199750783824377</v>
       </c>
       <c r="K4">
-        <v>6.753821169417845E-05</v>
+        <v>6.52615534442494E-05</v>
       </c>
       <c r="L4">
-        <v>7.51372878847993E-05</v>
+        <v>7.286402513149417E-05</v>
       </c>
       <c r="M4">
-        <v>1.993303950001511E-05</v>
+        <v>1.763510982216349E-05</v>
       </c>
       <c r="N4">
-        <v>9.490797238074178E-05</v>
+        <v>9.264354376605757E-05</v>
       </c>
       <c r="O4">
-        <v>4.633196116222518E-05</v>
+        <v>4.404582731943705E-05</v>
       </c>
       <c r="P4">
-        <v>3.286571582442792E-05</v>
+        <v>3.057356485673743E-05</v>
       </c>
       <c r="Q4">
-        <v>3.067541576948482E-05</v>
+        <v>2.838228610961447E-05</v>
       </c>
       <c r="R4">
-        <v>5.502761138035329E-07</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>4.066085101996686E-05</v>
+        <v>3.837218315398184E-05</v>
       </c>
       <c r="T4">
-        <v>2.526616863379526E-05</v>
+        <v>2.297062195902382E-05</v>
       </c>
       <c r="U4">
-        <v>8.111519203475348E-06</v>
+        <v>5.808307313516663E-06</v>
       </c>
       <c r="V4">
-        <v>4.660245516901045E-05</v>
+        <v>4.431644219110956E-05</v>
       </c>
       <c r="W4">
-        <v>6.619008666036109E-05</v>
+        <v>6.391282602747309E-05</v>
       </c>
       <c r="X4">
-        <v>0.0002767180069413992</v>
+        <v>0.0002745348165381846</v>
       </c>
       <c r="Y4">
-        <v>0.0001769074044376762</v>
+        <v>0.0001746796156444294</v>
       </c>
       <c r="Z4">
-        <v>0.0001250717031373911</v>
+        <v>0.0001228207525881165</v>
       </c>
       <c r="AA4">
-        <v>0.0001394153534971978</v>
+        <v>0.0001371708121238743</v>
       </c>
       <c r="AB4">
-        <v>3.380340084794951E-05</v>
+        <v>3.151166886623203E-05</v>
       </c>
       <c r="AC4">
-        <v>5.34309513403015E-07</v>
+        <v>0</v>
       </c>
       <c r="AD4">
-        <v>1.163212129178873E-05</v>
+        <v>9.330482513114264E-06</v>
       </c>
       <c r="AE4">
-        <v>1.594660540001644E-06</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>5.367805534650004E-06</v>
+        <v>3.063367670603702E-06</v>
       </c>
       <c r="AG4">
-        <v>5.367805534650004E-06</v>
+        <v>3.063367670603702E-06</v>
       </c>
       <c r="AH4">
-        <v>1.544942638754484E-06</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>4.633196116222518E-05</v>
+        <v>4.404582731943705E-05</v>
       </c>
       <c r="AJ4">
-        <v>8.290767207971737E-06</v>
+        <v>5.987635411432153E-06</v>
       </c>
       <c r="AK4">
-        <v>1.622158640691427E-06</v>
+        <v>0</v>
       </c>
       <c r="AL4">
-        <v>0.0002116743453097958</v>
+        <v>0.0002094620914351884</v>
       </c>
       <c r="AM4">
-        <v>6.05178975180757E-06</v>
+        <v>3.747657512555903E-06</v>
       </c>
       <c r="AN4">
-        <v>4.675060117272666E-05</v>
+        <v>4.446465439093208E-05</v>
       </c>
       <c r="AO4">
-        <v>0.0002277411157128266</v>
+        <v>0.0002255360409562188</v>
       </c>
       <c r="AP4">
-        <v>0.0001283087832185924</v>
+        <v>0.0001260592790944109</v>
       </c>
       <c r="AQ4">
-        <v>3.381054684812876E-05</v>
+        <v>3.151881805945987E-05</v>
       </c>
       <c r="AR4">
-        <v>8.902384623313999E-05</v>
+        <v>8.675678841327771E-05</v>
       </c>
       <c r="AS4">
-        <v>0.0001553165838960761</v>
+        <v>0.0001530791476724814</v>
       </c>
       <c r="AT4">
-        <v>6.438200161500574E-05</v>
+        <v>6.210393307514152E-05</v>
       </c>
       <c r="AU4">
-        <v>0.0001537908038578023</v>
+        <v>0.0001515526858696301</v>
       </c>
       <c r="AV4">
-        <v>0.0002084133752279953</v>
+        <v>0.0002061996642535213</v>
       </c>
       <c r="AW4">
-        <v>4.291650607654938E-05</v>
+        <v>4.062884610533173E-05</v>
       </c>
       <c r="AX4">
-        <v>1.088142027295759E-05</v>
+        <v>8.57944605840762E-06</v>
       </c>
       <c r="AY4">
-        <v>5.310699133217505E-05</v>
+        <v>5.082388477737457E-05</v>
       </c>
       <c r="AZ4">
-        <v>2.385320159835135E-05</v>
+        <v>2.155702356725735E-05</v>
       </c>
       <c r="BA4">
-        <v>1.232097130906836E-06</v>
+        <v>0</v>
       </c>
       <c r="BB4">
-        <v>2.154917954055556E-06</v>
+        <v>0</v>
       </c>
       <c r="BC4">
-        <v>2.757880469180713E-05</v>
+        <v>2.52842913726345E-05</v>
       </c>
       <c r="BD4">
-        <v>0.0001717758943089536</v>
+        <v>0.000169545812602084</v>
       </c>
       <c r="BE4">
-        <v>0.0002466198361863944</v>
+        <v>0.0002444231970119579</v>
       </c>
       <c r="BF4">
-        <v>0.0002164446954294588</v>
+        <v>0.0002142345730912803</v>
       </c>
       <c r="BG4">
-        <v>0.0002098746952646521</v>
+        <v>0.0002076616372520811</v>
       </c>
       <c r="BH4">
-        <v>0.0003046089376410359</v>
+        <v>0.0003024382097475597</v>
       </c>
       <c r="BI4">
-        <v>2.32516345832612E-05</v>
+        <v>2.095518775386624E-05</v>
       </c>
       <c r="BJ4">
-        <v>2.57828786467568E-05</v>
+        <v>2.34875628536163E-05</v>
       </c>
       <c r="BK4">
-        <v>0.0001308561232824918</v>
+        <v>0.0001286077573867436</v>
       </c>
       <c r="BL4">
-        <v>3.923873098429335E-05</v>
+        <v>3.694942767214898E-05</v>
       </c>
       <c r="BM4">
-        <v>4.590687715156206E-05</v>
+        <v>4.362055336840659E-05</v>
       </c>
       <c r="BN4">
-        <v>2.414781760574172E-05</v>
+        <v>2.185177121797295E-05</v>
       </c>
       <c r="BO4">
-        <v>6.152849554342629E-06</v>
+        <v>3.848762471661276E-06</v>
       </c>
       <c r="BP4">
-        <v>3.101623077803407E-05</v>
+        <v>2.872325340459721E-05</v>
       </c>
       <c r="BQ4">
-        <v>6.617972166010109E-06</v>
+        <v>4.314092914151611E-06</v>
       </c>
       <c r="BR4">
-        <v>9.272860232607285E-05</v>
+        <v>9.046319990306282E-05</v>
       </c>
       <c r="BS4">
-        <v>0.0001581334039667353</v>
+        <v>0.0001558972263833753</v>
       </c>
       <c r="BT4">
-        <v>7.12871217882189E-05</v>
+        <v>6.901213866448262E-05</v>
       </c>
       <c r="BU4">
-        <v>0.0001545527538769156</v>
+        <v>0.0001523149763510118</v>
       </c>
       <c r="BV4">
-        <v>0.0001018042625537334</v>
+        <v>9.95429154096665E-05</v>
       </c>
       <c r="BW4">
-        <v>5.736285143893219E-05</v>
+        <v>5.50816465308927E-05</v>
       </c>
       <c r="BX4">
-        <v>0.0001360688834132525</v>
+        <v>0.0001338228467360806</v>
       </c>
       <c r="BY4">
-        <v>8.844579221863967E-05</v>
+        <v>8.617847610679486E-05</v>
       </c>
       <c r="BZ4">
-        <v>4.040820701362935E-05</v>
+        <v>3.811942625867611E-05</v>
       </c>
       <c r="CA4">
-        <v>8.332801609026158E-05</v>
+        <v>8.105841320155995E-05</v>
       </c>
       <c r="CB4">
-        <v>1.108478827805903E-05</v>
+        <v>8.782904934472498E-06</v>
       </c>
       <c r="CC4">
-        <v>5.646319441636453E-07</v>
+        <v>0</v>
       </c>
       <c r="CD4">
-        <v>6.340099159039737E-05</v>
+        <v>6.112248470564186E-05</v>
       </c>
       <c r="CE4">
-        <v>1.205873230249016E-05</v>
+        <v>9.757284146492739E-06</v>
       </c>
       <c r="CF4">
-        <v>3.559564289290743E-06</v>
+        <v>1.254318448473337E-06</v>
       </c>
       <c r="CG4">
-        <v>1.468121936827456E-06</v>
+        <v>0</v>
       </c>
       <c r="CH4">
-        <v>5.056963426852611E-07</v>
+        <v>0</v>
       </c>
       <c r="CI4">
-        <v>2.213564855526698E-06</v>
+        <v>0</v>
       </c>
       <c r="CJ4">
-        <v>1.562345039191018E-05</v>
+        <v>1.332359505955794E-05</v>
       </c>
       <c r="CK4">
-        <v>3.18118627979923E-05</v>
+        <v>2.951924093695851E-05</v>
       </c>
       <c r="CL4">
-        <v>7.371497184912088E-05</v>
+        <v>7.144107356207769E-05</v>
       </c>
       <c r="CM4">
-        <v>0.0001502599337692313</v>
+        <v>0.0001480202380817225</v>
       </c>
       <c r="CN4">
-        <v>0.1080293387098878</v>
+        <v>0.1080753026429821</v>
       </c>
       <c r="CO4">
-        <v>0.04433572411215009</v>
+        <v>0.04435322781561809</v>
       </c>
       <c r="CP4">
-        <v>0.06659360167048316</v>
+        <v>0.06662105086550951</v>
       </c>
       <c r="CQ4">
-        <v>1.474673336991797E-05</v>
+        <v>1.244648629393615E-05</v>
       </c>
       <c r="CR4">
-        <v>0.003323295483364002</v>
+        <v>0.003322473595739736</v>
       </c>
       <c r="CS4">
-        <v>0.001057477726526554</v>
+        <v>0.001055643403133677</v>
       </c>
       <c r="CT4">
-        <v>0.05428386136169653</v>
+        <v>0.05430581019317718</v>
       </c>
       <c r="CU4">
-        <v>1.344610033729193E-05</v>
+        <v>1.114527209921086E-05</v>
       </c>
       <c r="CV4">
-        <v>0.02468373461918506</v>
+        <v>0.02469245722054234</v>
       </c>
       <c r="CW4">
-        <v>0.008299541208191831</v>
+        <v>0.008300942857367913</v>
       </c>
       <c r="CX4">
-        <v>0.002662924666798772</v>
+        <v>0.002661807705560037</v>
       </c>
       <c r="CY4">
-        <v>0.0003383387284871389</v>
+        <v>0.0003361830720823636</v>
       </c>
       <c r="CZ4">
-        <v>0.003355210284164576</v>
+        <v>0.003354402657036673</v>
       </c>
       <c r="DA4">
-        <v>0.01685959142291846</v>
+        <v>0.01686481796091993</v>
       </c>
       <c r="DB4">
-        <v>0.01432029435922086</v>
+        <v>0.0143243862626443</v>
       </c>
       <c r="DC4">
-        <v>0.005523310638550809</v>
+        <v>0.005523471784106452</v>
       </c>
       <c r="DD4">
-        <v>0.02212813155507842</v>
+        <v>0.02213571223584449</v>
       </c>
       <c r="DE4">
-        <v>0.005679367742465461</v>
+        <v>0.005679598619045796</v>
       </c>
       <c r="DF4">
-        <v>0.001737454943583605</v>
+        <v>0.001735924454536766</v>
       </c>
       <c r="DG4">
-        <v>0.05071331327213026</v>
+        <v>0.05073366667494569</v>
       </c>
       <c r="DH4">
-        <v>3.797543595260392E-05</v>
+        <v>3.568556816210619E-05</v>
       </c>
       <c r="DI4">
-        <v>0.004548887114107648</v>
+        <v>0.004548612857819103</v>
       </c>
       <c r="DJ4">
-        <v>0.005229369131177363</v>
+        <v>0.005229398934794739</v>
       </c>
       <c r="DK4">
-        <v>0.002381495759739201</v>
+        <v>0.002380253047569719</v>
       </c>
       <c r="DL4">
-        <v>0.01235839531000713</v>
+        <v>0.01236161057771447</v>
       </c>
       <c r="DM4">
-        <v>0.0001214518530465881</v>
+        <v>0.0001191992850390259</v>
       </c>
       <c r="DN4">
-        <v>9.447589236990317E-06</v>
+        <v>7.144974343452557E-06</v>
       </c>
       <c r="DO4">
-        <v>0.004887447822600356</v>
+        <v>0.004887324845455992</v>
       </c>
       <c r="DP4">
-        <v>0.008197364205628747</v>
+        <v>0.00819872019903582</v>
       </c>
       <c r="DQ4">
-        <v>0.01080724027109681</v>
+        <v>0.01080976243591036</v>
       </c>
       <c r="DR4">
-        <v>0.01100161527597265</v>
+        <v>0.01100422429340569</v>
       </c>
       <c r="DS4">
-        <v>0.0002249713756433484</v>
+        <v>0.0002227650632832716</v>
       </c>
       <c r="DT4">
-        <v>0.01506922737800764</v>
+        <v>0.0150736539273108</v>
       </c>
       <c r="DU4">
-        <v>0.001012078425387724</v>
+        <v>0.001010223816216698</v>
       </c>
       <c r="DV4">
-        <v>0.007485687187776514</v>
+        <v>0.007486725182409681</v>
       </c>
       <c r="DW4">
-        <v>0.005294567532812848</v>
+        <v>0.005294626469044121</v>
       </c>
       <c r="DX4">
-        <v>0.01931480548450687</v>
+        <v>0.01932112908626294</v>
       </c>
       <c r="DY4">
-        <v>0.01650294041397197</v>
+        <v>0.01650800758953695</v>
       </c>
       <c r="DZ4">
-        <v>0.004161635104393533</v>
+        <v>0.004161187812217649</v>
       </c>
       <c r="EA4">
-        <v>0.0154253583869411</v>
+        <v>0.01542994406632905</v>
       </c>
       <c r="EB4">
-        <v>0.003369443484521612</v>
+        <v>0.003368642217217265</v>
       </c>
       <c r="EC4">
-        <v>0.001786342844809945</v>
+        <v>0.00178483420035308</v>
       </c>
       <c r="ED4">
-        <v>0.003568205389507503</v>
+        <v>0.003567492935022032</v>
       </c>
       <c r="EE4">
-        <v>1.841074746182881E-05</v>
+        <v>1.611213757794338E-05</v>
       </c>
       <c r="EF4">
-        <v>0.01858257746613912</v>
+        <v>0.0185885738863139</v>
       </c>
       <c r="EG4">
-        <v>0.02616101765624232</v>
+        <v>0.0261704003522531</v>
       </c>
       <c r="EH4">
-        <v>0.01042368626147546</v>
+        <v>0.01042603704277974</v>
       </c>
       <c r="EI4">
-        <v>0.02018560350635061</v>
+        <v>0.02019231620694831</v>
       </c>
       <c r="EJ4">
-        <v>0.01316944333035206</v>
+        <v>0.01317302099879678</v>
       </c>
       <c r="EK4">
-        <v>0.0002609565065460261</v>
+        <v>0.0002587662734286659</v>
       </c>
       <c r="EL4">
-        <v>0.0001225816030749276</v>
+        <v>0.0001203295398737801</v>
       </c>
       <c r="EM4">
-        <v>0.00327161338206757</v>
+        <v>0.003270768401320395</v>
       </c>
       <c r="EN4">
-        <v>0.0130197803265978</v>
+        <v>0.01302329112109479</v>
       </c>
       <c r="EO4">
-        <v>0.007350140484376361</v>
+        <v>0.007351117912650903</v>
       </c>
       <c r="EP4">
-        <v>0.01944864748786426</v>
+        <v>0.01945503089426752</v>
       </c>
       <c r="EQ4">
-        <v>0.02545472463852514</v>
+        <v>0.02546379174149579</v>
       </c>
       <c r="ER4">
-        <v>0.01083716027184734</v>
+        <v>0.01083969580582038</v>
       </c>
       <c r="ES4">
-        <v>0.008090411202945859</v>
+        <v>0.008091719406522903</v>
       </c>
       <c r="ET4">
-        <v>0.006215677155918643</v>
+        <v>0.006216147671733679</v>
       </c>
       <c r="EU4">
-        <v>0.0003038953676231362</v>
+        <v>0.0003017243208850365</v>
       </c>
       <c r="EV4">
-        <v>0.008585210215357762</v>
+        <v>0.008586739510069311</v>
       </c>
       <c r="EW4">
-        <v>0.01695518042531629</v>
+        <v>0.01696044967536943</v>
       </c>
       <c r="EX4">
-        <v>0.009106518228434638</v>
+        <v>0.009108280459302375</v>
       </c>
       <c r="EY4">
-        <v>0.002375510059589051</v>
+        <v>0.00237426467282806</v>
       </c>
       <c r="EZ4">
-        <v>0.0007741644694197141</v>
+        <v>0.000772203553111608</v>
       </c>
       <c r="FA4">
-        <v>0.003420621985805412</v>
+        <v>0.003419843586600287</v>
       </c>
       <c r="FB4">
-        <v>0.007350033784373684</v>
+        <v>0.007351011164971443</v>
       </c>
       <c r="FC4">
-        <v>0.01328471733324368</v>
+        <v>0.0132883465095925</v>
       </c>
       <c r="FD4">
-        <v>0.008511452213507562</v>
+        <v>0.00851294855091746</v>
       </c>
       <c r="FE4">
-        <v>6.241781556573465E-05</v>
+        <v>6.013886936825367E-05</v>
       </c>
       <c r="FF4">
-        <v>0.01024498325699274</v>
+        <v>0.01024725418840038</v>
       </c>
       <c r="FG4">
-        <v>0.01215923230501118</v>
+        <v>0.01216235858067605</v>
       </c>
       <c r="FH4">
-        <v>0.01150733028865838</v>
+        <v>0.01151016527482436</v>
       </c>
       <c r="FI4">
-        <v>0.001915743948055938</v>
+        <v>0.001914293123918041</v>
       </c>
       <c r="FJ4">
-        <v>0.0002609565065460261</v>
+        <v>0.0002587662734286659</v>
       </c>
       <c r="FK4">
-        <v>0.0003349609384024079</v>
+        <v>0.0003328037726990625</v>
       </c>
       <c r="FL4">
-        <v>0.00421989910585507</v>
+        <v>0.004219477847793768</v>
       </c>
       <c r="FM4">
-        <v>0.006215677155918643</v>
+        <v>0.006216147671733679</v>
       </c>
       <c r="FN4">
-        <v>0.003892964597654003</v>
+        <v>0.003892397255385753</v>
       </c>
       <c r="FO4">
-        <v>0.002699997367728731</v>
+        <v>0.00269889697169183</v>
       </c>
       <c r="FP4">
-        <v>9.429916236546993E-05</v>
+        <v>9.203446171609366E-05</v>
       </c>
       <c r="FQ4">
-        <v>0.003507300787979727</v>
+        <v>0.003506561119479857</v>
       </c>
       <c r="FR4">
-        <v>0.0007476459187545032</v>
+        <v>0.0007456731531574841</v>
       </c>
       <c r="FS4">
-        <v>9.25617823218882E-06</v>
+        <v>6.953477810436276E-06</v>
       </c>
       <c r="FT4">
-        <v>0.002644947766347826</v>
+        <v>0.002643822772487329</v>
       </c>
       <c r="FU4">
-        <v>0.00135525943399633</v>
+        <v>0.001353558168459043</v>
       </c>
       <c r="FV4">
-        <v>0.002529465863450993</v>
+        <v>0.002528289268790401</v>
       </c>
       <c r="FW4">
-        <v>0.009235805231677769</v>
+        <v>0.009237625231881149</v>
       </c>
       <c r="FX4">
-        <v>0.003507300787979727</v>
+        <v>0.003506561119479857</v>
       </c>
       <c r="FY4">
-        <v>0.0001474995236999871</v>
+        <v>0.000145258594577935</v>
       </c>
       <c r="FZ4">
-        <v>0.0005892978147823822</v>
+        <v>0.0005872542944726906</v>
       </c>
       <c r="GA4">
-        <v>0.003414714085657214</v>
+        <v>0.00341393304662397</v>
       </c>
       <c r="GB4">
-        <v>0.002610408265481411</v>
+        <v>0.002609267838329335</v>
       </c>
       <c r="GC4">
-        <v>0.003639425891294051</v>
+        <v>0.003638745260278605</v>
       </c>
       <c r="GD4">
-        <v>0.009455418237186704</v>
+        <v>0.009457336367110075</v>
       </c>
       <c r="GE4">
-        <v>0.005752143644291025</v>
+        <v>0.005752407039341073</v>
       </c>
       <c r="GF4">
-        <v>0.001418528035583407</v>
+        <v>0.001416855040367103</v>
       </c>
       <c r="GG4">
-        <v>0.000210188945272535</v>
+        <v>0.0002079760276763533</v>
       </c>
       <c r="GH4">
-        <v>5.955228149385348E-05</v>
+        <v>5.727205488925158E-05</v>
       </c>
       <c r="GI4">
-        <v>3.158153879221468E-05</v>
+        <v>2.928881401546266E-05</v>
       </c>
       <c r="GJ4">
-        <v>0.0002377074059628284</v>
+        <v>0.0002355067844455419</v>
       </c>
       <c r="GK4">
-        <v>0.002188905154908116</v>
+        <v>0.00218757638744295</v>
       </c>
       <c r="GL4">
-        <v>0.005559765139465261</v>
+        <v>0.00555994257399231</v>
       </c>
       <c r="GM4">
-        <v>0.0124769243129804</v>
+        <v>0.01248019254302412</v>
       </c>
       <c r="GN4">
-        <v>0.01427382335805514</v>
+        <v>0.01427789449683252</v>
       </c>
       <c r="GO4">
-        <v>0.008366762209878051</v>
+        <v>0.008368193895426786</v>
       </c>
       <c r="GP4">
-        <v>0.002139423553666882</v>
+        <v>0.002138072676328655</v>
       </c>
       <c r="GQ4">
-        <v>0.000487797612236276</v>
+        <v>0.0004857087385722519</v>
       </c>
       <c r="GR4">
-        <v>0.0009766040244978578</v>
+        <v>0.0009747335642937012</v>
       </c>
       <c r="GS4">
-        <v>0.002578111064671245</v>
+        <v>0.002576956206154939</v>
       </c>
       <c r="GT4">
         <v>0</v>
@@ -4313,604 +4313,604 @@
         <v>260</v>
       </c>
       <c r="B5">
-        <v>0.0001457326334482237</v>
+        <v>9.595293826899174E-05</v>
       </c>
       <c r="C5">
-        <v>0.0002708708478223211</v>
+        <v>0.0002221312065458249</v>
       </c>
       <c r="D5">
-        <v>2.235756299485963E-05</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>1.105297950308556E-05</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>2.179424602018496E-05</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>5.042462173303456E-06</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>9.897918555014226E-05</v>
+        <v>4.881091118112438E-05</v>
       </c>
       <c r="I5">
-        <v>3.806424128872649E-07</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>2.675983579694441E-05</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.0002567535884569979</v>
+        <v>0.0002078966152306072</v>
       </c>
       <c r="L5">
-        <v>0.0002342173094701729</v>
+        <v>0.000185173031789818</v>
       </c>
       <c r="M5">
-        <v>0.0001722934122541172</v>
+        <v>0.0001227344701181897</v>
       </c>
       <c r="N5">
-        <v>0.0003729018832352598</v>
+        <v>0.0003250102465200573</v>
       </c>
       <c r="O5">
-        <v>0.0002130075604237105</v>
+        <v>0.000163787003399894</v>
       </c>
       <c r="P5">
-        <v>5.05706097264713E-05</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>8.573702614547677E-05</v>
+        <v>3.545869299354948E-05</v>
       </c>
       <c r="R5">
-        <v>7.106746180498386E-05</v>
+        <v>2.066720636321032E-05</v>
       </c>
       <c r="S5">
-        <v>3.504450642448625E-07</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>1.101978750457779E-05</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>3.136286659000361E-06</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>0.0001094823150779477</v>
+        <v>5.940133475344669E-05</v>
       </c>
       <c r="W5">
-        <v>0.0001065746792086678</v>
+        <v>5.646953282067685E-05</v>
       </c>
       <c r="X5">
-        <v>1.288358642078603E-05</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>3.651288435847163E-06</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>5.155265368232105E-06</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>9.733031562427136E-06</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>8.58458461405845E-06</v>
+        <v>0</v>
       </c>
       <c r="AC5">
-        <v>0.0001921112013631587</v>
+        <v>0.0001427169696556926</v>
       </c>
       <c r="AD5">
-        <v>0.0002754946876144448</v>
+        <v>0.0002267934761864603</v>
       </c>
       <c r="AE5">
-        <v>0.0001357771038957995</v>
+        <v>8.591466590761357E-05</v>
       </c>
       <c r="AF5">
-        <v>6.864583691385409E-05</v>
+        <v>1.822545476313253E-05</v>
       </c>
       <c r="AG5">
-        <v>9.947681552777005E-05</v>
+        <v>4.931267708160307E-05</v>
       </c>
       <c r="AH5">
-        <v>6.155440223266733E-05</v>
+        <v>1.107508145673801E-05</v>
       </c>
       <c r="AI5">
-        <v>8.976125596455742E-05</v>
+        <v>3.951636915793539E-05</v>
       </c>
       <c r="AJ5">
-        <v>5.724292442650064E-05</v>
+        <v>6.727769917915872E-06</v>
       </c>
       <c r="AK5">
-        <v>4.104856815455858E-05</v>
+        <v>0</v>
       </c>
       <c r="AL5">
-        <v>1.788286819603077E-05</v>
+        <v>0</v>
       </c>
       <c r="AM5">
-        <v>3.754208031220154E-05</v>
+        <v>0</v>
       </c>
       <c r="AN5">
-        <v>6.671427700069221E-07</v>
+        <v>0</v>
       </c>
       <c r="AO5">
-        <v>8.312066126310202E-07</v>
+        <v>0</v>
       </c>
       <c r="AP5">
-        <v>4.668264790126439E-06</v>
+        <v>0</v>
       </c>
       <c r="AQ5">
-        <v>4.953117777320157E-06</v>
+        <v>0</v>
       </c>
       <c r="AR5">
-        <v>4.149788413435846E-05</v>
+        <v>0</v>
       </c>
       <c r="AS5">
-        <v>4.305696506426606E-05</v>
+        <v>0</v>
       </c>
       <c r="AT5">
-        <v>0.0002089441506063912</v>
+        <v>0.0001596898216028477</v>
       </c>
       <c r="AU5">
-        <v>7.885013645509419E-05</v>
+        <v>2.851456470074622E-05</v>
       </c>
       <c r="AV5">
-        <v>0.000147304843377541</v>
+        <v>9.753821521449664E-05</v>
       </c>
       <c r="AW5">
-        <v>0.0002674286579770734</v>
+        <v>0.0002186604078299742</v>
       </c>
       <c r="AX5">
-        <v>9.739514962135658E-05</v>
+        <v>4.721370994741528E-05</v>
       </c>
       <c r="AY5">
-        <v>2.48318488836219E-05</v>
+        <v>0</v>
       </c>
       <c r="AZ5">
-        <v>4.818372083377988E-05</v>
+        <v>0</v>
       </c>
       <c r="BA5">
-        <v>3.772596230393467E-05</v>
+        <v>0</v>
       </c>
       <c r="BB5">
-        <v>1.205460145805513E-07</v>
+        <v>0</v>
       </c>
       <c r="BC5">
-        <v>2.499946387608635E-06</v>
+        <v>0</v>
       </c>
       <c r="BD5">
-        <v>4.886633780309112E-06</v>
+        <v>0</v>
       </c>
       <c r="BE5">
-        <v>3.466110844172287E-05</v>
+        <v>0</v>
       </c>
       <c r="BF5">
-        <v>1.607212627743722E-05</v>
+        <v>0</v>
       </c>
       <c r="BG5">
-        <v>1.030218853683925E-05</v>
+        <v>0</v>
       </c>
       <c r="BH5">
-        <v>2.670817679926687E-05</v>
+        <v>0</v>
       </c>
       <c r="BI5">
-        <v>6.553620705365531E-05</v>
+        <v>1.508998001863251E-05</v>
       </c>
       <c r="BJ5">
-        <v>6.505180207543295E-05</v>
+        <v>1.460154903372126E-05</v>
       </c>
       <c r="BK5">
-        <v>0.000160059752804112</v>
+        <v>0.0001103991337718076</v>
       </c>
       <c r="BL5">
-        <v>0.0002477092388636094</v>
+        <v>0.0001987770958648245</v>
       </c>
       <c r="BM5">
-        <v>8.6571676107953E-05</v>
+        <v>3.630027993331305E-05</v>
       </c>
       <c r="BN5">
-        <v>9.553069970517759E-05</v>
+        <v>4.533376413798357E-05</v>
       </c>
       <c r="BO5">
-        <v>5.323366460674699E-05</v>
+        <v>2.685188172134482E-06</v>
       </c>
       <c r="BP5">
-        <v>2.005782409825017E-05</v>
+        <v>0</v>
       </c>
       <c r="BQ5">
-        <v>4.471157798987878E-05</v>
+        <v>0</v>
       </c>
       <c r="BR5">
-        <v>2.817352173338861E-05</v>
+        <v>0</v>
       </c>
       <c r="BS5">
-        <v>3.145139858602343E-08</v>
+        <v>0</v>
       </c>
       <c r="BT5">
-        <v>1.401930636972689E-05</v>
+        <v>0</v>
       </c>
       <c r="BU5">
-        <v>4.350069804431692E-06</v>
+        <v>0</v>
       </c>
       <c r="BV5">
-        <v>2.418881991253088E-05</v>
+        <v>0</v>
       </c>
       <c r="BW5">
-        <v>2.49814368768968E-05</v>
+        <v>0</v>
       </c>
       <c r="BX5">
-        <v>2.324009395518324E-07</v>
+        <v>0</v>
       </c>
       <c r="BY5">
-        <v>4.412810301611036E-06</v>
+        <v>0</v>
       </c>
       <c r="BZ5">
-        <v>4.085675216318215E-05</v>
+        <v>0</v>
       </c>
       <c r="CA5">
-        <v>0.0001144509448545705</v>
+        <v>6.441126001136006E-05</v>
       </c>
       <c r="CB5">
-        <v>8.985594596030039E-05</v>
+        <v>3.961184614508715E-05</v>
       </c>
       <c r="CC5">
-        <v>0.0001492514532900263</v>
+        <v>9.950100387179386E-05</v>
       </c>
       <c r="CD5">
-        <v>0.0001229400944729194</v>
+        <v>7.297096500110881E-05</v>
       </c>
       <c r="CE5">
-        <v>1.335401639963667E-05</v>
+        <v>0</v>
       </c>
       <c r="CF5">
-        <v>1.320837090618453E-05</v>
+        <v>0</v>
       </c>
       <c r="CG5">
-        <v>8.947750597731412E-05</v>
+        <v>3.923026085606287E-05</v>
       </c>
       <c r="CH5">
-        <v>5.448014155070849E-05</v>
+        <v>3.942024886824063E-06</v>
       </c>
       <c r="CI5">
-        <v>9.149799588647792E-06</v>
+        <v>0</v>
       </c>
       <c r="CJ5">
-        <v>3.378438848113801E-05</v>
+        <v>0</v>
       </c>
       <c r="CK5">
-        <v>3.504450642448625E-07</v>
+        <v>0</v>
       </c>
       <c r="CL5">
-        <v>7.344846669793981E-06</v>
+        <v>0</v>
       </c>
       <c r="CM5">
-        <v>0.00413210781423072</v>
+        <v>0.004115459845321347</v>
       </c>
       <c r="CN5">
-        <v>0.06106933325447483</v>
+        <v>0.06152590430843754</v>
       </c>
       <c r="CO5">
-        <v>0.09444228575410998</v>
+        <v>0.09517622747111647</v>
       </c>
       <c r="CP5">
-        <v>0.06018125029440083</v>
+        <v>0.06063044027653669</v>
       </c>
       <c r="CQ5">
-        <v>0.0004124878814555718</v>
+        <v>0.0003649252535259642</v>
       </c>
       <c r="CR5">
-        <v>0.008677166609896194</v>
+        <v>0.00869829372162257</v>
       </c>
       <c r="CS5">
-        <v>0.004584438393895064</v>
+        <v>0.004571549853606752</v>
       </c>
       <c r="CT5">
-        <v>0.03082288461427985</v>
+        <v>0.03102807013338039</v>
       </c>
       <c r="CU5">
-        <v>0.0003397177647271351</v>
+        <v>0.0002915503267937689</v>
       </c>
       <c r="CV5">
-        <v>0.02624603882004345</v>
+        <v>0.02641318506909108</v>
       </c>
       <c r="CW5">
-        <v>0.0007136492679161058</v>
+        <v>0.0006685896649569934</v>
       </c>
       <c r="CX5">
-        <v>0.008569539614734837</v>
+        <v>0.008589772212527821</v>
       </c>
       <c r="CY5">
-        <v>0.0001773130120284485</v>
+        <v>0.0001277957889977646</v>
       </c>
       <c r="CZ5">
-        <v>0.004929627078376241</v>
+        <v>0.004919607484558603</v>
       </c>
       <c r="DA5">
-        <v>0.0004403370302035435</v>
+        <v>0.0003930058632707869</v>
       </c>
       <c r="DB5">
-        <v>0.006110449725289394</v>
+        <v>0.006110244233490898</v>
       </c>
       <c r="DC5">
-        <v>0.01204875545831795</v>
+        <v>0.01209790465872252</v>
       </c>
       <c r="DD5">
-        <v>0.001547494930428481</v>
+        <v>0.001509365620025587</v>
       </c>
       <c r="DE5">
-        <v>0.002784831574800906</v>
+        <v>0.002756986067890127</v>
       </c>
       <c r="DF5">
-        <v>0.008517822617059904</v>
+        <v>0.008537625382402917</v>
       </c>
       <c r="DG5">
-        <v>0.03400769847109855</v>
+        <v>0.03423935374684248</v>
       </c>
       <c r="DH5">
-        <v>0.00322601205496653</v>
+        <v>0.003201833305508717</v>
       </c>
       <c r="DI5">
-        <v>0.002620710882179364</v>
+        <v>0.002591501328580413</v>
       </c>
       <c r="DJ5">
-        <v>0.00196637691159659</v>
+        <v>0.001931729030439578</v>
       </c>
       <c r="DK5">
-        <v>0.003531414341236404</v>
+        <v>0.003509773863890975</v>
       </c>
       <c r="DL5">
-        <v>0.006688984699279902</v>
+        <v>0.006693587551284116</v>
       </c>
       <c r="DM5">
-        <v>0.0001219450745176531</v>
+        <v>7.19676751948385E-05</v>
       </c>
       <c r="DN5">
-        <v>0.000129676844170052</v>
+        <v>7.976370545094067E-05</v>
       </c>
       <c r="DO5">
-        <v>0.006059011127601945</v>
+        <v>0.006058378117202967</v>
       </c>
       <c r="DP5">
-        <v>0.01637017326403777</v>
+        <v>0.01645523881083317</v>
       </c>
       <c r="DQ5">
-        <v>0.01757797120973818</v>
+        <v>0.01767307505677164</v>
       </c>
       <c r="DR5">
-        <v>0.003102373160525027</v>
+        <v>0.00307716681837431</v>
       </c>
       <c r="DS5">
-        <v>0.00491000477925841</v>
+        <v>0.004899822099776811</v>
       </c>
       <c r="DT5">
-        <v>0.01258092743439283</v>
+        <v>0.01263449964453436</v>
       </c>
       <c r="DU5">
-        <v>9.24313018445188E-05</v>
+        <v>4.220860643364129E-05</v>
       </c>
       <c r="DV5">
-        <v>0.01243009144117404</v>
+        <v>0.0124824100169705</v>
       </c>
       <c r="DW5">
-        <v>0.0004510945997199099</v>
+        <v>0.0004038528415438262</v>
       </c>
       <c r="DX5">
-        <v>0.04855871781692095</v>
+        <v>0.04891131012644868</v>
       </c>
       <c r="DY5">
-        <v>0.01958335111958129</v>
+        <v>0.01969512216305935</v>
       </c>
       <c r="DZ5">
-        <v>0.01070651951866154</v>
+        <v>0.01074451307221263</v>
       </c>
       <c r="EA5">
-        <v>0.02435674190498153</v>
+        <v>0.02450818575137171</v>
       </c>
       <c r="EB5">
-        <v>3.315723550933325E-06</v>
+        <v>0</v>
       </c>
       <c r="EC5">
-        <v>0.0008221127630398572</v>
+        <v>0.0007779546263672189</v>
       </c>
       <c r="ED5">
-        <v>0.004665295390259935</v>
+        <v>0.004653078871983872</v>
       </c>
       <c r="EE5">
-        <v>0.003160519657910905</v>
+        <v>0.003135796585334068</v>
       </c>
       <c r="EF5">
-        <v>0.01806345518791203</v>
+        <v>0.01816259400946339</v>
       </c>
       <c r="EG5">
-        <v>0.02484409888307117</v>
+        <v>0.02499959327093362</v>
       </c>
       <c r="EH5">
-        <v>0.01188807746554164</v>
+        <v>0.01193589123236737</v>
       </c>
       <c r="EI5">
-        <v>0.02281484697430129</v>
+        <v>0.02295347575977436</v>
       </c>
       <c r="EJ5">
-        <v>0.009541842571022516</v>
+        <v>0.00957015621335802</v>
       </c>
       <c r="EK5">
-        <v>5.246406264134637E-06</v>
+        <v>0</v>
       </c>
       <c r="EL5">
-        <v>0.0009869095556310037</v>
+        <v>0.0009441210848765664</v>
       </c>
       <c r="EM5">
-        <v>0.006022514029242764</v>
+        <v>0.006021577682650467</v>
       </c>
       <c r="EN5">
-        <v>0.005851611236926129</v>
+        <v>0.005849254475978181</v>
       </c>
       <c r="EO5">
-        <v>0.004991552075592248</v>
+        <v>0.004982047155372546</v>
       </c>
       <c r="EP5">
-        <v>0.01867414916045675</v>
+        <v>0.01877836360700963</v>
       </c>
       <c r="EQ5">
-        <v>0.01907771714231334</v>
+        <v>0.01918528573976767</v>
       </c>
       <c r="ER5">
-        <v>0.005425545156080998</v>
+        <v>0.005419647257100814</v>
       </c>
       <c r="ES5">
-        <v>0.005976081131330272</v>
+        <v>0.005974758869716486</v>
       </c>
       <c r="ET5">
-        <v>0.002307901796242481</v>
+        <v>0.002276092410831425</v>
       </c>
       <c r="EU5">
-        <v>0.004458139799573135</v>
+        <v>0.004444201561184275</v>
       </c>
       <c r="EV5">
-        <v>0.0201792490927912</v>
+        <v>0.02029597278814918</v>
       </c>
       <c r="EW5">
-        <v>0.01727199122349428</v>
+        <v>0.01736455199701143</v>
       </c>
       <c r="EX5">
-        <v>0.006625398702138571</v>
+        <v>0.006629473075573573</v>
       </c>
       <c r="EY5">
-        <v>1.571365229355332E-05</v>
+        <v>0</v>
       </c>
       <c r="EZ5">
-        <v>0.0002032071508643125</v>
+        <v>0.0001539051402712434</v>
       </c>
       <c r="FA5">
-        <v>0.005858491736616798</v>
+        <v>0.005856192161162442</v>
       </c>
       <c r="FB5">
-        <v>0.007602358358216896</v>
+        <v>0.007614552479150308</v>
       </c>
       <c r="FC5">
-        <v>0.01116517649804146</v>
+        <v>0.01120698206044858</v>
       </c>
       <c r="FD5">
-        <v>0.004387706302739649</v>
+        <v>0.004373182674558939</v>
       </c>
       <c r="FE5">
-        <v>0.004360613203957688</v>
+        <v>0.004345864398493872</v>
       </c>
       <c r="FF5">
-        <v>0.01961412211819791</v>
+        <v>0.01972614890687229</v>
       </c>
       <c r="FG5">
-        <v>0.01871239715873722</v>
+        <v>0.01881692949363525</v>
       </c>
       <c r="FH5">
-        <v>0.007544102260835946</v>
+        <v>0.007555812201283467</v>
       </c>
       <c r="FI5">
-        <v>0.001057820452443026</v>
+        <v>0.001015621339266885</v>
       </c>
       <c r="FJ5">
-        <v>0.0006388493012789261</v>
+        <v>0.0005931680177435438</v>
       </c>
       <c r="FK5">
-        <v>9.611752567879536E-05</v>
+        <v>4.592546736390306E-05</v>
       </c>
       <c r="FL5">
-        <v>0.008748042606709786</v>
+        <v>0.008769758785952146</v>
       </c>
       <c r="FM5">
-        <v>0.008706974608556101</v>
+        <v>0.008728349461753729</v>
       </c>
       <c r="FN5">
-        <v>0.003027699863882152</v>
+        <v>0.003001872893940061</v>
       </c>
       <c r="FO5">
-        <v>0.001765333920634982</v>
+        <v>0.001729015122656814</v>
       </c>
       <c r="FP5">
-        <v>0.003324357850545148</v>
+        <v>0.003300996476730904</v>
       </c>
       <c r="FQ5">
-        <v>0.004446139800112625</v>
+        <v>0.004432101826831957</v>
       </c>
       <c r="FR5">
-        <v>0.0001477903033557159</v>
+        <v>9.802770996771969E-05</v>
       </c>
       <c r="FS5">
-        <v>0.0008033140638849998</v>
+        <v>0.0007589996866864745</v>
       </c>
       <c r="FT5">
-        <v>0.004784103284918628</v>
+        <v>0.004772874207730275</v>
       </c>
       <c r="FU5">
-        <v>0.002976787366171052</v>
+        <v>0.002950537250172359</v>
       </c>
       <c r="FV5">
-        <v>0.007336408970173319</v>
+        <v>0.007346392721553767</v>
       </c>
       <c r="FW5">
-        <v>0.01096758050692489</v>
+        <v>0.01100774380135852</v>
       </c>
       <c r="FX5">
-        <v>0.001778371420048849</v>
+        <v>0.001742160979875009</v>
       </c>
       <c r="FY5">
-        <v>0.0003194055856403202</v>
+        <v>0.0002710693282840624</v>
       </c>
       <c r="FZ5">
-        <v>0.0005355673759222242</v>
+        <v>0.0004890276913773134</v>
       </c>
       <c r="GA5">
-        <v>0.002312704096026582</v>
+        <v>0.002280934623688103</v>
       </c>
       <c r="GB5">
-        <v>0.001164362547653159</v>
+        <v>0.001123048931545065</v>
       </c>
       <c r="GC5">
-        <v>0.004127613114432792</v>
+        <v>0.004110927788988568</v>
       </c>
       <c r="GD5">
-        <v>0.01219395645179008</v>
+        <v>0.01224431245269677</v>
       </c>
       <c r="GE5">
-        <v>0.004266123608205705</v>
+        <v>0.004250589476905802</v>
       </c>
       <c r="GF5">
-        <v>0.0008104091635660217</v>
+        <v>0.0007661537554534025</v>
       </c>
       <c r="GG5">
-        <v>0.0002537208085933442</v>
+        <v>0.0002048386292015217</v>
       </c>
       <c r="GH5">
-        <v>0.000131389104093073</v>
+        <v>8.149019637944907E-05</v>
       </c>
       <c r="GI5">
-        <v>1.189900446505039E-05</v>
+        <v>0</v>
       </c>
       <c r="GJ5">
-        <v>0.0001767812420523555</v>
+        <v>0.0001272595993530535</v>
       </c>
       <c r="GK5">
-        <v>0.002311262896091375</v>
+        <v>0.00227948144559239</v>
       </c>
       <c r="GL5">
-        <v>0.005913682434135562</v>
+        <v>0.005911841561888983</v>
       </c>
       <c r="GM5">
-        <v>0.01324966040432826</v>
+        <v>0.01330879061558678</v>
       </c>
       <c r="GN5">
-        <v>0.01415951936342326</v>
+        <v>0.0142262116320923</v>
       </c>
       <c r="GO5">
-        <v>0.002911731869095785</v>
+        <v>0.002884941061159255</v>
       </c>
       <c r="GP5">
-        <v>0.0002786545874723836</v>
+        <v>0.0002299796387347846</v>
       </c>
       <c r="GQ5">
-        <v>0.0001648991625865442</v>
+        <v>0.0001152787650569704</v>
       </c>
       <c r="GR5">
-        <v>0.004190759111593905</v>
+        <v>0.00417459860777286</v>
       </c>
       <c r="GS5">
-        <v>0.004783412184949698</v>
+        <v>0.0047721773638627</v>
       </c>
       <c r="GT5">
         <v>0</v>
@@ -5086,604 +5086,604 @@
         <v>261</v>
       </c>
       <c r="B6">
-        <v>5.093390371927265E-06</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>4.150740977122772E-07</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>6.570283963787217E-05</v>
+        <v>5.64422106546333E-05</v>
       </c>
       <c r="E6">
-        <v>0.0001690809390680934</v>
+        <v>0.0001599990431406819</v>
       </c>
       <c r="F6">
-        <v>9.358044948422191E-06</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>9.358044948422191E-06</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>4.828878773385147E-05</v>
+        <v>3.89980511482452E-05</v>
       </c>
       <c r="I6">
-        <v>6.965990961606238E-06</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>4.150740977122772E-07</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>2.064350288622125E-05</v>
+        <v>1.130496965638115E-05</v>
       </c>
       <c r="L6">
-        <v>0.0001437009792079776</v>
+        <v>0.0001345752032149857</v>
       </c>
       <c r="M6">
-        <v>0.0002360646886989057</v>
+        <v>0.0002270986026995958</v>
       </c>
       <c r="N6">
-        <v>0.0002825858784424994</v>
+        <v>0.0002737002241250392</v>
       </c>
       <c r="O6">
-        <v>0.0002841561784338446</v>
+        <v>0.0002752732390484402</v>
       </c>
       <c r="P6">
-        <v>0.0001789563990136637</v>
+        <v>0.000169891577023029</v>
       </c>
       <c r="Q6">
-        <v>9.197094949309282E-05</v>
+        <v>8.27557361208113E-05</v>
       </c>
       <c r="R6">
-        <v>3.953785978208309E-05</v>
+        <v>3.023199349199623E-05</v>
       </c>
       <c r="S6">
-        <v>6.923217361841988E-06</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>5.303008370771934E-07</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>2.585271385751016E-05</v>
+        <v>1.652318696654144E-05</v>
       </c>
       <c r="V6">
-        <v>1.933574789342907E-06</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>1.344430392590036E-05</v>
+        <v>4.093323815756029E-06</v>
       </c>
       <c r="X6">
-        <v>3.619440780051087E-05</v>
+        <v>2.688276093027239E-05</v>
       </c>
       <c r="Y6">
-        <v>5.078347372010176E-05</v>
+        <v>4.149705026128066E-05</v>
       </c>
       <c r="Z6">
-        <v>4.275284976436335E-05</v>
+        <v>3.345254195317245E-05</v>
       </c>
       <c r="AA6">
-        <v>0.000141444379220415</v>
+        <v>0.0001323147017336466</v>
       </c>
       <c r="AB6">
-        <v>8.631206952428231E-05</v>
+        <v>7.708707236883045E-05</v>
       </c>
       <c r="AC6">
-        <v>8.356109953944457E-05</v>
+        <v>7.433134616120868E-05</v>
       </c>
       <c r="AD6">
-        <v>0.0001724943290492801</v>
+        <v>0.0001634183346196271</v>
       </c>
       <c r="AE6">
-        <v>0.00020050072889492</v>
+        <v>0.0001914731554505117</v>
       </c>
       <c r="AF6">
-        <v>0.0001213560993311336</v>
+        <v>0.0001121916907004313</v>
       </c>
       <c r="AG6">
-        <v>0.0001578711791298771</v>
+        <v>0.0001487699023601026</v>
       </c>
       <c r="AH6">
-        <v>1.011469394425184E-05</v>
+        <v>7.579571857456869E-07</v>
       </c>
       <c r="AI6">
-        <v>7.672418957712688E-06</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
-        <v>6.340565465053333E-06</v>
+        <v>0</v>
       </c>
       <c r="AK6">
-        <v>2.5340912860331E-08</v>
+        <v>0</v>
       </c>
       <c r="AL6">
-        <v>1.864874489721556E-05</v>
+        <v>9.306762878966931E-06</v>
       </c>
       <c r="AM6">
-        <v>5.457435969920791E-05</v>
+        <v>4.529449040068839E-05</v>
       </c>
       <c r="AN6">
-        <v>5.789353968091391E-06</v>
+        <v>0</v>
       </c>
       <c r="AO6">
-        <v>5.30609347075493E-06</v>
+        <v>0</v>
       </c>
       <c r="AP6">
-        <v>3.11989578280438E-08</v>
+        <v>0</v>
       </c>
       <c r="AQ6">
-        <v>3.768314979230552E-05</v>
+        <v>2.837407684639916E-05</v>
       </c>
       <c r="AR6">
-        <v>4.740222973873782E-05</v>
+        <v>3.810996036020435E-05</v>
       </c>
       <c r="AS6">
-        <v>2.35355748702813E-05</v>
+        <v>1.420204181810198E-05</v>
       </c>
       <c r="AT6">
-        <v>0.0001461716491943602</v>
+        <v>0.0001370501448062735</v>
       </c>
       <c r="AU6">
-        <v>0.0001812096490012447</v>
+        <v>0.0001721487227124854</v>
       </c>
       <c r="AV6">
-        <v>5.268769970960642E-06</v>
+        <v>0</v>
       </c>
       <c r="AW6">
-        <v>0.0002360646886989057</v>
+        <v>0.0002270986026995958</v>
       </c>
       <c r="AX6">
-        <v>6.511889964109061E-05</v>
+        <v>5.585726106896764E-05</v>
       </c>
       <c r="AY6">
-        <v>1.404951992256465E-06</v>
+        <v>0</v>
       </c>
       <c r="AZ6">
-        <v>5.404227670214054E-05</v>
+        <v>4.476148747163791E-05</v>
       </c>
       <c r="BA6">
-        <v>9.197094949309282E-05</v>
+        <v>8.27557361208113E-05</v>
       </c>
       <c r="BB6">
-        <v>2.907789283973426E-05</v>
+        <v>1.975394204368565E-05</v>
       </c>
       <c r="BC6">
-        <v>1.806036590045847E-06</v>
+        <v>0</v>
       </c>
       <c r="BD6">
-        <v>8.397544953716083E-08</v>
+        <v>0</v>
       </c>
       <c r="BE6">
-        <v>4.034789477761851E-05</v>
+        <v>3.104342897787609E-05</v>
       </c>
       <c r="BF6">
-        <v>0.0001024276194354598</v>
+        <v>9.323048486887195E-05</v>
       </c>
       <c r="BG6">
-        <v>5.878743467598712E-05</v>
+        <v>4.951484947118939E-05</v>
       </c>
       <c r="BH6">
-        <v>7.985123355989186E-05</v>
+        <v>7.061506609891611E-05</v>
       </c>
       <c r="BI6">
-        <v>0.0002809792984513542</v>
+        <v>0.000272090866476413</v>
       </c>
       <c r="BJ6">
-        <v>0.0003363162981463588</v>
+        <v>0.0003275235397339064</v>
       </c>
       <c r="BK6">
-        <v>0.0002269445187491724</v>
+        <v>0.0002179626646533917</v>
       </c>
       <c r="BL6">
-        <v>0.0002458733486448442</v>
+        <v>0.000236924221090073</v>
       </c>
       <c r="BM6">
-        <v>7.428350959057894E-05</v>
+        <v>6.503771594838567E-05</v>
       </c>
       <c r="BN6">
-        <v>5.924807267344827E-06</v>
+        <v>0</v>
       </c>
       <c r="BO6">
-        <v>5.093390371927265E-06</v>
+        <v>0</v>
       </c>
       <c r="BP6">
-        <v>7.672418957712688E-06</v>
+        <v>0</v>
       </c>
       <c r="BQ6">
-        <v>1.608478291134709E-05</v>
+        <v>6.738367993255218E-06</v>
       </c>
       <c r="BR6">
-        <v>4.967857372619153E-06</v>
+        <v>0</v>
       </c>
       <c r="BS6">
-        <v>7.078806960984442E-05</v>
+        <v>6.153623261153741E-05</v>
       </c>
       <c r="BT6">
-        <v>1.864874489721556E-05</v>
+        <v>9.306762878966931E-06</v>
       </c>
       <c r="BU6">
-        <v>1.399713392285338E-05</v>
+        <v>4.647109614714048E-06</v>
       </c>
       <c r="BV6">
-        <v>2.228548887717128E-05</v>
+        <v>1.294979451915612E-05</v>
       </c>
       <c r="BW6">
-        <v>4.024485977818639E-05</v>
+        <v>3.094021583858256E-05</v>
       </c>
       <c r="BX6">
-        <v>7.018189961318538E-05</v>
+        <v>6.092901459197554E-05</v>
       </c>
       <c r="BY6">
-        <v>3.42164298114127E-05</v>
+        <v>2.490136316413924E-05</v>
       </c>
       <c r="BZ6">
-        <v>1.535474391537078E-05</v>
+        <v>6.007066814076241E-06</v>
       </c>
       <c r="CA6">
-        <v>1.230652493217134E-05</v>
+        <v>2.953577686651857E-06</v>
       </c>
       <c r="CB6">
-        <v>2.038998688761853E-05</v>
+        <v>1.105101534744596E-05</v>
       </c>
       <c r="CC6">
-        <v>2.399748986773541E-06</v>
+        <v>0</v>
       </c>
       <c r="CD6">
-        <v>3.953785978208309E-05</v>
+        <v>3.023199349199623E-05</v>
       </c>
       <c r="CE6">
-        <v>2.710061685063221E-05</v>
+        <v>1.777324749125449E-05</v>
       </c>
       <c r="CF6">
-        <v>1.140729493712754E-05</v>
+        <v>2.052792989734141E-06</v>
       </c>
       <c r="CG6">
-        <v>2.556891585907434E-05</v>
+        <v>1.623889830244454E-05</v>
       </c>
       <c r="CH6">
-        <v>1.024147194355309E-05</v>
+        <v>8.849543747916867E-07</v>
       </c>
       <c r="CI6">
-        <v>2.798177584577562E-05</v>
+        <v>1.865592994485515E-05</v>
       </c>
       <c r="CJ6">
-        <v>7.159560960539357E-05</v>
+        <v>6.234516878376134E-05</v>
       </c>
       <c r="CK6">
-        <v>4.931745972818184E-06</v>
+        <v>0</v>
       </c>
       <c r="CL6">
-        <v>9.422647948066125E-06</v>
+        <v>6.471469343213075E-08</v>
       </c>
       <c r="CM6">
-        <v>3.070983783073963E-05</v>
+        <v>2.138870854637282E-05</v>
       </c>
       <c r="CN6">
-        <v>0.05140050471670093</v>
+        <v>0.05147999814743006</v>
       </c>
       <c r="CO6">
-        <v>0.002501800686211073</v>
+        <v>0.002496751889470953</v>
       </c>
       <c r="CP6">
-        <v>0.09404006548168869</v>
+        <v>0.09419327954605945</v>
       </c>
       <c r="CQ6">
-        <v>0.009814162945908251</v>
+        <v>0.009821756680412136</v>
       </c>
       <c r="CR6">
-        <v>0.0008871350351104657</v>
+        <v>0.0008792946013838723</v>
       </c>
       <c r="CS6">
-        <v>0.01224185993252775</v>
+        <v>0.01225365097481185</v>
       </c>
       <c r="CT6">
-        <v>0.04384586975833907</v>
+        <v>0.04391230178632225</v>
       </c>
       <c r="CU6">
-        <v>0.003363414381462202</v>
+        <v>0.003359855250807488</v>
       </c>
       <c r="CV6">
-        <v>0.004330005976134735</v>
+        <v>0.00432811801055662</v>
       </c>
       <c r="CW6">
-        <v>0.03045886583212289</v>
+        <v>0.03050215272459581</v>
       </c>
       <c r="CX6">
-        <v>0.006235291965633559</v>
+        <v>0.006236698098022084</v>
       </c>
       <c r="CY6">
-        <v>0.0009304387948717926</v>
+        <v>0.0009226732301295742</v>
       </c>
       <c r="CZ6">
-        <v>5.133405271706718E-05</v>
+        <v>4.204858116843929E-05</v>
       </c>
       <c r="DA6">
-        <v>0.0211819758832534</v>
+        <v>0.02120922372201694</v>
       </c>
       <c r="DB6">
-        <v>0.007482663658758544</v>
+        <v>0.007486226404159821</v>
       </c>
       <c r="DC6">
-        <v>0.00119325219342327</v>
+        <v>0.001185941013527498</v>
       </c>
       <c r="DD6">
-        <v>0.02701888985108266</v>
+        <v>0.0270562292805779</v>
       </c>
       <c r="DE6">
-        <v>0.00170083969062565</v>
+        <v>0.001694406091813055</v>
       </c>
       <c r="DF6">
-        <v>0.001368075792459712</v>
+        <v>0.001361066869582193</v>
       </c>
       <c r="DG6">
-        <v>0.03868969478675784</v>
+        <v>0.03874721217117406</v>
       </c>
       <c r="DH6">
-        <v>0.00771337045748698</v>
+        <v>0.007717332077808228</v>
       </c>
       <c r="DI6">
-        <v>0.01315654692748636</v>
+        <v>0.0131699193956492</v>
       </c>
       <c r="DJ6">
-        <v>0.0003670987979766979</v>
+        <v>0.0003583592602201775</v>
       </c>
       <c r="DK6">
-        <v>2.021093988860536E-05</v>
+        <v>1.087165878946967E-05</v>
       </c>
       <c r="DL6">
-        <v>0.01148027093672533</v>
+        <v>0.01149074524820034</v>
       </c>
       <c r="DM6">
-        <v>0.0006969512261586829</v>
+        <v>0.0006887819787517239</v>
       </c>
       <c r="DN6">
-        <v>0.0002741413184890425</v>
+        <v>0.0002652410641546162</v>
       </c>
       <c r="DO6">
-        <v>0.001745758890378074</v>
+        <v>0.001739402953525616</v>
       </c>
       <c r="DP6">
-        <v>0.01066760294120443</v>
+        <v>0.01067667221007357</v>
       </c>
       <c r="DQ6">
-        <v>0.01239951593165882</v>
+        <v>0.012411579549456</v>
       </c>
       <c r="DR6">
-        <v>0.01482636191828301</v>
+        <v>0.01484262137254461</v>
       </c>
       <c r="DS6">
-        <v>0.0002816457984476808</v>
+        <v>0.000272758518801731</v>
       </c>
       <c r="DT6">
-        <v>0.01411025292222992</v>
+        <v>0.01412527427722411</v>
       </c>
       <c r="DU6">
-        <v>0.009334090948554214</v>
+        <v>0.009340854674230532</v>
       </c>
       <c r="DV6">
-        <v>0.003120200982802697</v>
+        <v>0.003116221354245621</v>
       </c>
       <c r="DW6">
-        <v>0.0162397269104931</v>
+        <v>0.01625842996785294</v>
       </c>
       <c r="DX6">
-        <v>0.01033659894302879</v>
+        <v>0.01034509593056939</v>
       </c>
       <c r="DY6">
-        <v>0.04092285377444956</v>
+        <v>0.04098423212489454</v>
       </c>
       <c r="DZ6">
-        <v>0.008703436952030129</v>
+        <v>0.008709110323786325</v>
       </c>
       <c r="EA6">
-        <v>0.01864274389724863</v>
+        <v>0.01866560159250194</v>
       </c>
       <c r="EB6">
-        <v>0.01407924392240083</v>
+        <v>0.01409421166513741</v>
       </c>
       <c r="EC6">
-        <v>0.0008877630451070044</v>
+        <v>0.0008799236971630515</v>
       </c>
       <c r="ED6">
-        <v>0.0007957093956143674</v>
+        <v>0.0007877108937474407</v>
       </c>
       <c r="EE6">
-        <v>0.001607419691140544</v>
+        <v>0.001600824576087319</v>
       </c>
       <c r="EF6">
-        <v>0.008223132954677373</v>
+        <v>0.008227975916495234</v>
       </c>
       <c r="EG6">
-        <v>0.02533218986037908</v>
+        <v>0.0253666131108648</v>
       </c>
       <c r="EH6">
-        <v>0.01825536389938372</v>
+        <v>0.01827755184339216</v>
       </c>
       <c r="EI6">
-        <v>0.01793663390114043</v>
+        <v>0.01795827078465459</v>
       </c>
       <c r="EJ6">
-        <v>0.02233254187691194</v>
+        <v>0.02236177895882379</v>
       </c>
       <c r="EK6">
-        <v>0.004679296974209582</v>
+        <v>0.004678012906824634</v>
       </c>
       <c r="EL6">
-        <v>1.527224391582548E-05</v>
+        <v>5.924424178159162E-06</v>
       </c>
       <c r="EM6">
-        <v>0.002087543988494291</v>
+        <v>0.002081778972691448</v>
       </c>
       <c r="EN6">
-        <v>0.008809932451443167</v>
+        <v>0.008815789946008226</v>
       </c>
       <c r="EO6">
-        <v>0.003266601081995799</v>
+        <v>0.003262874568336814</v>
       </c>
       <c r="EP6">
-        <v>0.009280094948851821</v>
+        <v>0.009286765319455038</v>
       </c>
       <c r="EQ6">
-        <v>0.0223684368767141</v>
+        <v>0.02239773601841462</v>
       </c>
       <c r="ER6">
-        <v>0.01153805293640686</v>
+        <v>0.01154862714866773</v>
       </c>
       <c r="ES6">
-        <v>0.006020610666816796</v>
+        <v>0.006021645631184454</v>
       </c>
       <c r="ET6">
-        <v>0.009111920949778729</v>
+        <v>0.00911830056002815</v>
       </c>
       <c r="EU6">
-        <v>0.0001093378393973735</v>
+        <v>0.0001001526520878646</v>
       </c>
       <c r="EV6">
-        <v>0.008463409953353061</v>
+        <v>0.008468668336255805</v>
       </c>
       <c r="EW6">
-        <v>0.02068565788598891</v>
+        <v>0.02071204762779765</v>
       </c>
       <c r="EX6">
-        <v>0.01327450792683621</v>
+        <v>0.01328808434080574</v>
       </c>
       <c r="EY6">
-        <v>0.002676575385247785</v>
+        <v>0.002671828760981451</v>
       </c>
       <c r="EZ6">
-        <v>4.095140377429221E-06</v>
+        <v>0</v>
       </c>
       <c r="FA6">
-        <v>0.002185963587951841</v>
+        <v>0.002180368732326651</v>
       </c>
       <c r="FB6">
-        <v>0.004188767576913184</v>
+        <v>0.004186635420632859</v>
       </c>
       <c r="FC6">
-        <v>0.009149591949571101</v>
+        <v>0.009156036690181267</v>
       </c>
       <c r="FD6">
-        <v>0.01080097594046933</v>
+        <v>0.01081027580134834</v>
       </c>
       <c r="FE6">
-        <v>0.0007821528656890856</v>
+        <v>0.0007741309255887873</v>
       </c>
       <c r="FF6">
-        <v>0.01134050793749565</v>
+        <v>0.01135074060912545</v>
       </c>
       <c r="FG6">
-        <v>0.01826511989932995</v>
+        <v>0.0182873247107377</v>
       </c>
       <c r="FH6">
-        <v>0.02100855288420924</v>
+        <v>0.02103550088748788</v>
       </c>
       <c r="FI6">
-        <v>0.003201880282352514</v>
+        <v>0.003198041871237883</v>
       </c>
       <c r="FJ6">
-        <v>6.160061966048196E-06</v>
+        <v>0</v>
       </c>
       <c r="FK6">
-        <v>0.0005513131969613817</v>
+        <v>0.0005428921522187531</v>
       </c>
       <c r="FL6">
-        <v>0.00143432559209457</v>
+        <v>0.001427431210200121</v>
       </c>
       <c r="FM6">
-        <v>0.007175805960449821</v>
+        <v>0.007178838171681625</v>
       </c>
       <c r="FN6">
-        <v>0.004288207276365113</v>
+        <v>0.004286247043939565</v>
       </c>
       <c r="FO6">
-        <v>0.00223320598769146</v>
+        <v>0.002227692810666637</v>
       </c>
       <c r="FP6">
-        <v>4.202405376838018E-05</v>
+        <v>3.272248592304128E-05</v>
       </c>
       <c r="FQ6">
-        <v>0.007358912959440608</v>
+        <v>0.007362261749073964</v>
       </c>
       <c r="FR6">
-        <v>0.002431501586598534</v>
+        <v>0.002426331247936431</v>
       </c>
       <c r="FS6">
-        <v>8.616134952511303E-05</v>
+        <v>7.693609178597686E-05</v>
       </c>
       <c r="FT6">
-        <v>0.002797599984580745</v>
+        <v>0.002793062602857931</v>
       </c>
       <c r="FU6">
-        <v>0.003005595583434357</v>
+        <v>0.003001417810653733</v>
       </c>
       <c r="FV6">
-        <v>0.002487943486287449</v>
+        <v>0.002482870731477861</v>
       </c>
       <c r="FW6">
-        <v>0.009868077945611092</v>
+        <v>0.009875764895145094</v>
       </c>
       <c r="FX6">
-        <v>0.006909853961915642</v>
+        <v>0.006912426361894741</v>
       </c>
       <c r="FY6">
-        <v>0.0008618287952499436</v>
+        <v>0.0008539446089141738</v>
       </c>
       <c r="FZ6">
-        <v>2.30735498728278E-05</v>
+        <v>1.373921801374335E-05</v>
       </c>
       <c r="GA6">
-        <v>0.002614080185592233</v>
+        <v>0.002609225511767332</v>
       </c>
       <c r="GB6">
-        <v>0.001903409589509166</v>
+        <v>0.00189732621900649</v>
       </c>
       <c r="GC6">
-        <v>0.002755201684814427</v>
+        <v>0.00275059099958032</v>
       </c>
       <c r="GD6">
-        <v>0.009254949948990409</v>
+        <v>0.009261576845756432</v>
       </c>
       <c r="GE6">
-        <v>0.01259738893056822</v>
+        <v>0.01260979465608411</v>
       </c>
       <c r="GF6">
-        <v>0.003328739981653314</v>
+        <v>0.003325120901536663</v>
       </c>
       <c r="GG6">
-        <v>0.0008777134951623934</v>
+        <v>0.0008698567722929853</v>
       </c>
       <c r="GH6">
-        <v>0.0002725989984975431</v>
+        <v>0.0002636960776064025</v>
       </c>
       <c r="GI6">
-        <v>3.913825378428556E-07</v>
+        <v>0</v>
       </c>
       <c r="GJ6">
-        <v>0.0001942106489295884</v>
+        <v>0.0001851722004040962</v>
       </c>
       <c r="GK6">
-        <v>0.0006367441964905201</v>
+        <v>0.0006284708556009551</v>
       </c>
       <c r="GL6">
-        <v>0.003474682980848934</v>
+        <v>0.00347131622533843</v>
       </c>
       <c r="GM6">
-        <v>0.007460086958882978</v>
+        <v>0.007463610670846985</v>
       </c>
       <c r="GN6">
-        <v>0.01371226492442347</v>
+        <v>0.01372659818772878</v>
       </c>
       <c r="GO6">
-        <v>0.01091957643981565</v>
+        <v>0.01092908135214935</v>
       </c>
       <c r="GP6">
-        <v>0.001791263790127269</v>
+        <v>0.001784986527866742</v>
       </c>
       <c r="GQ6">
-        <v>0.0002860462684234271</v>
+        <v>0.0002771665968632342</v>
       </c>
       <c r="GR6">
-        <v>0.0006851170962239079</v>
+        <v>0.000676927388485235</v>
       </c>
       <c r="GS6">
-        <v>0.003305100981783602</v>
+        <v>0.003301441031591891</v>
       </c>
       <c r="GT6">
         <v>0</v>
@@ -6645,772 +6645,772 @@
         <v>257</v>
       </c>
       <c r="B2">
-        <v>0.0001576477148989771</v>
+        <v>9.613517961684913E-05</v>
       </c>
       <c r="C2">
-        <v>0.0002997200593139422</v>
+        <v>0.0001765371220587895</v>
       </c>
       <c r="D2">
-        <v>0.0004316748234144986</v>
+        <v>0.0002467189358119018</v>
       </c>
       <c r="E2">
-        <v>0.0005584404073537989</v>
+        <v>0.0003116589736275375</v>
       </c>
       <c r="F2">
-        <v>0.000620993509297666</v>
+        <v>0.0003117356934334512</v>
       </c>
       <c r="G2">
-        <v>0.0006587424154707311</v>
+        <v>0.0003117356934334512</v>
       </c>
       <c r="H2">
-        <v>0.0006832975582337937</v>
+        <v>0.0003117356934334512</v>
       </c>
       <c r="I2">
-        <v>0.0006917197824955183</v>
+        <v>0.0003117356934334512</v>
       </c>
       <c r="J2">
-        <v>0.000694976585796725</v>
+        <v>0.0003117356934334512</v>
       </c>
       <c r="K2">
-        <v>0.0007314962989315923</v>
+        <v>0.0003117356934334512</v>
       </c>
       <c r="L2">
-        <v>0.0007919029448087572</v>
+        <v>0.0003117356934334512</v>
       </c>
       <c r="M2">
-        <v>0.0008497248616056005</v>
+        <v>0.0003117356934334512</v>
       </c>
       <c r="N2">
-        <v>0.0009122020135471074</v>
+        <v>0.0003117356934334512</v>
       </c>
       <c r="O2">
-        <v>0.00100111080630999</v>
+        <v>0.0003384352364325456</v>
       </c>
       <c r="P2">
-        <v>0.001082054868825365</v>
+        <v>0.0003570893213703477</v>
       </c>
       <c r="Q2">
-        <v>0.001133489844423731</v>
+        <v>0.0003570893213703477</v>
       </c>
       <c r="R2">
-        <v>0.001151282049976632</v>
+        <v>0.0003570893213703477</v>
       </c>
       <c r="S2">
-        <v>0.00116797747049545</v>
+        <v>0.0003570893213703477</v>
       </c>
       <c r="T2">
-        <v>0.001180634644888778</v>
+        <v>0.0003570893213703477</v>
       </c>
       <c r="U2">
-        <v>0.001209608812789164</v>
+        <v>0.0003570893213703477</v>
       </c>
       <c r="V2">
-        <v>0.00123519799658436</v>
+        <v>0.0003570893213703477</v>
       </c>
       <c r="W2">
-        <v>0.001243044984828209</v>
+        <v>0.0003570893213703477</v>
       </c>
       <c r="X2">
-        <v>0.001244128691361885</v>
+        <v>0.0003570893213703477</v>
       </c>
       <c r="Y2">
-        <v>0.001245832153914821</v>
+        <v>0.0003570893213703477</v>
       </c>
       <c r="Z2">
-        <v>0.001252727738129105</v>
+        <v>0.0003570893213703477</v>
       </c>
       <c r="AA2">
-        <v>0.001270257558673852</v>
+        <v>0.0003570893213703477</v>
       </c>
       <c r="AB2">
-        <v>0.001313189590007985</v>
+        <v>0.0003570893213703477</v>
       </c>
       <c r="AC2">
-        <v>0.001392499982472593</v>
+        <v>0.0003740931779299133</v>
       </c>
       <c r="AD2">
-        <v>0.001465319224735485</v>
+        <v>0.0003845400921832667</v>
       </c>
       <c r="AE2">
-        <v>0.001526737946644101</v>
+        <v>0.0003845400921832667</v>
       </c>
       <c r="AF2">
-        <v>0.001584632936443215</v>
+        <v>0.0003845400921832667</v>
       </c>
       <c r="AG2">
-        <v>0.001638577848119579</v>
+        <v>0.0003845400921832667</v>
       </c>
       <c r="AH2">
-        <v>0.001704791650177204</v>
+        <v>0.0003883146157220091</v>
       </c>
       <c r="AI2">
-        <v>0.001748514019535897</v>
+        <v>0.0003883146157220091</v>
       </c>
       <c r="AJ2">
-        <v>0.001831283097107985</v>
+        <v>0.0004088122134523012</v>
       </c>
       <c r="AK2">
-        <v>0.001906999515460909</v>
+        <v>0.0004221856685933159</v>
       </c>
       <c r="AL2">
-        <v>0.001986738197938826</v>
+        <v>0.0004396221561690077</v>
       </c>
       <c r="AM2">
-        <v>0.002031418487327287</v>
+        <v>0.0004396221561690077</v>
       </c>
       <c r="AN2">
-        <v>0.002055617936079297</v>
+        <v>0.0004396221561690077</v>
       </c>
       <c r="AO2">
-        <v>0.002065643153390835</v>
+        <v>0.0004396221561690077</v>
       </c>
       <c r="AP2">
-        <v>0.002065643570039318</v>
+        <v>0.0004396221561690077</v>
       </c>
       <c r="AQ2">
-        <v>0.002067627240800961</v>
+        <v>0.0004396221561690077</v>
       </c>
       <c r="AR2">
-        <v>0.002101441701851762</v>
+        <v>0.0004396221561690077</v>
       </c>
       <c r="AS2">
-        <v>0.002145577891223315</v>
+        <v>0.0004396221561690077</v>
       </c>
       <c r="AT2">
-        <v>0.002174552059123701</v>
+        <v>0.0004396221561690077</v>
       </c>
       <c r="AU2">
-        <v>0.002217421170455879</v>
+        <v>0.0004396221561690077</v>
       </c>
       <c r="AV2">
-        <v>0.00224264721823979</v>
+        <v>0.0004396221561690077</v>
       </c>
       <c r="AW2">
-        <v>0.002337306931181385</v>
+        <v>0.000472130908729989</v>
       </c>
       <c r="AX2">
-        <v>0.002437897774307293</v>
+        <v>0.0005106309074061647</v>
       </c>
       <c r="AY2">
-        <v>0.00253325970727071</v>
+        <v>0.0005438489974537653</v>
       </c>
       <c r="AZ2">
-        <v>0.002589630009022444</v>
+        <v>0.0005438489974537653</v>
       </c>
       <c r="BA2">
-        <v>0.002661958261270079</v>
+        <v>0.0005537999451830163</v>
       </c>
       <c r="BB2">
-        <v>0.002719415547055591</v>
+        <v>0.0005537999451830163</v>
       </c>
       <c r="BC2">
-        <v>0.002749433039988399</v>
+        <v>0.0005537999451830163</v>
       </c>
       <c r="BD2">
-        <v>0.002763314560419774</v>
+        <v>0.0005537999451830163</v>
       </c>
       <c r="BE2">
-        <v>0.002763441730903726</v>
+        <v>0.0005537999451830163</v>
       </c>
       <c r="BF2">
-        <v>0.002763464983998448</v>
+        <v>0.0005537999451830163</v>
       </c>
       <c r="BG2">
-        <v>0.002767616791527468</v>
+        <v>0.0005537999451830163</v>
       </c>
       <c r="BH2">
-        <v>0.00277489592475367</v>
+        <v>0.0005537999451830163</v>
       </c>
       <c r="BI2">
-        <v>0.002792225233292187</v>
+        <v>0.0005537999451830163</v>
       </c>
       <c r="BJ2">
-        <v>0.002816071583033223</v>
+        <v>0.0005537999451830163</v>
       </c>
       <c r="BK2">
-        <v>0.002876552914912709</v>
+        <v>0.0005537999451830163</v>
       </c>
       <c r="BL2">
-        <v>0.002932455419649906</v>
+        <v>0.0005537999451830163</v>
       </c>
       <c r="BM2">
-        <v>0.002982589814207856</v>
+        <v>0.0005537999451830163</v>
       </c>
       <c r="BN2">
-        <v>0.003042512169069971</v>
+        <v>0.0005537999451830163</v>
       </c>
       <c r="BO2">
-        <v>0.00310095661288616</v>
+        <v>0.0005537999451830163</v>
       </c>
       <c r="BP2">
-        <v>0.003265923768012591</v>
+        <v>0.0006573287523995638</v>
       </c>
       <c r="BQ2">
-        <v>0.003425992842986813</v>
+        <v>0.0007559098341789835</v>
       </c>
       <c r="BR2">
-        <v>0.003568065187401778</v>
+        <v>0.0008363117766209239</v>
       </c>
       <c r="BS2">
-        <v>0.003673382785674572</v>
+        <v>0.0008795864392365557</v>
       </c>
       <c r="BT2">
-        <v>0.003784951574141625</v>
+        <v>0.0009291756519974115</v>
       </c>
       <c r="BU2">
-        <v>0.003881584047144524</v>
+        <v>0.0009636771598489043</v>
       </c>
       <c r="BV2">
-        <v>0.003905430396885561</v>
+        <v>0.0009636771598489043</v>
       </c>
       <c r="BW2">
-        <v>0.003910295497036746</v>
+        <v>0.0009636771598489043</v>
       </c>
       <c r="BX2">
-        <v>0.003910410961010334</v>
+        <v>0.0009636771598489043</v>
       </c>
       <c r="BY2">
-        <v>0.003918805332271193</v>
+        <v>0.0009636771598489043</v>
       </c>
       <c r="BZ2">
-        <v>0.003952619793321993</v>
+        <v>0.0009636771598489043</v>
       </c>
       <c r="CA2">
-        <v>0.003976536552065217</v>
+        <v>0.0009636771598489043</v>
       </c>
       <c r="CB2">
-        <v>0.0040334490468338</v>
+        <v>0.0009636771598489043</v>
       </c>
       <c r="CC2">
-        <v>0.004094980728745926</v>
+        <v>0.0009636771598489043</v>
       </c>
       <c r="CD2">
-        <v>0.004214971782474704</v>
+        <v>0.001021774003105532</v>
       </c>
       <c r="CE2">
-        <v>0.004412089408600228</v>
+        <v>0.00115777914762866</v>
       </c>
       <c r="CF2">
-        <v>0.004619797385054851</v>
+        <v>0.001304481982692384</v>
       </c>
       <c r="CG2">
-        <v>0.00478836181029307</v>
+        <v>0.001411644520734728</v>
       </c>
       <c r="CH2">
-        <v>0.004914209774203855</v>
+        <v>0.001475657637835386</v>
       </c>
       <c r="CI2">
-        <v>0.005053037778518001</v>
+        <v>0.001552782356641802</v>
       </c>
       <c r="CJ2">
-        <v>0.005120350380609771</v>
+        <v>0.001557666817280452</v>
       </c>
       <c r="CK2">
-        <v>0.005139065905191365</v>
+        <v>0.001557666817280452</v>
       </c>
       <c r="CL2">
-        <v>0.005139101441527469</v>
+        <v>0.001557666817280452</v>
       </c>
       <c r="CM2">
-        <v>0.005143253249056489</v>
+        <v>0.001557666817280452</v>
       </c>
       <c r="CN2">
-        <v>0.04733587456021209</v>
+        <v>0.04411482787809866</v>
       </c>
       <c r="CO2">
-        <v>0.05112006557780761</v>
+        <v>0.04787426377759055</v>
       </c>
       <c r="CP2">
-        <v>0.189289149871477</v>
+        <v>0.1873806728105688</v>
       </c>
       <c r="CQ2">
-        <v>0.208727758475541</v>
+        <v>0.2069531941821392</v>
       </c>
       <c r="CR2">
-        <v>0.2095180506600997</v>
+        <v>0.2076883861019323</v>
       </c>
       <c r="CS2">
-        <v>0.2217250710394386</v>
+        <v>0.2199560223147409</v>
       </c>
       <c r="CT2">
-        <v>0.2462786318024521</v>
+        <v>0.2446953392715381</v>
       </c>
       <c r="CU2">
-        <v>0.2517889119736866</v>
+        <v>0.2501983593809283</v>
       </c>
       <c r="CV2">
-        <v>0.2518941310119563</v>
+        <v>0.25024153448457</v>
       </c>
       <c r="CW2">
-        <v>0.2979291824425173</v>
+        <v>0.2966800712377785</v>
       </c>
       <c r="CX2">
-        <v>0.3023072965785692</v>
+        <v>0.3010394500597151</v>
       </c>
       <c r="CY2">
-        <v>0.3046032955499184</v>
+        <v>0.3032956101013749</v>
       </c>
       <c r="CZ2">
-        <v>0.3075608696418264</v>
+        <v>0.3062200507654093</v>
       </c>
       <c r="DA2">
-        <v>0.3428022287369683</v>
+        <v>0.3417554939658536</v>
       </c>
       <c r="DB2">
-        <v>0.3454583850195096</v>
+        <v>0.344375461751482</v>
       </c>
       <c r="DC2">
-        <v>0.3549157133134005</v>
+        <v>0.3538655359292346</v>
       </c>
       <c r="DD2">
-        <v>0.393756362520392</v>
+        <v>0.3930367504295761</v>
       </c>
       <c r="DE2">
-        <v>0.3956178514782387</v>
+        <v>0.3948539964110968</v>
       </c>
       <c r="DF2">
-        <v>0.3993534504943242</v>
+        <v>0.398564347796975</v>
       </c>
       <c r="DG2">
-        <v>0.4273718083650079</v>
+        <v>0.4268035798738568</v>
       </c>
       <c r="DH2">
-        <v>0.447999915006036</v>
+        <v>0.4475776556324548</v>
       </c>
       <c r="DI2">
-        <v>0.4566687082754229</v>
+        <v>0.4562712024612124</v>
       </c>
       <c r="DJ2">
-        <v>0.4571469379202841</v>
+        <v>0.45669116888088</v>
       </c>
       <c r="DK2">
-        <v>0.4573710149872474</v>
+        <v>0.4568544067180211</v>
       </c>
       <c r="DL2">
-        <v>0.465720834246722</v>
+        <v>0.4652257465241122</v>
       </c>
       <c r="DM2">
-        <v>0.4683020309269339</v>
+        <v>0.4677699949422176</v>
       </c>
       <c r="DN2">
-        <v>0.4685281255839599</v>
+        <v>0.4679352708190325</v>
       </c>
       <c r="DO2">
-        <v>0.4685292752625956</v>
+        <v>0.4679352708190325</v>
       </c>
       <c r="DP2">
-        <v>0.475003557463787</v>
+        <v>0.4744120637571315</v>
       </c>
       <c r="DQ2">
-        <v>0.4875864688548069</v>
+        <v>0.4870594008858679</v>
       </c>
       <c r="DR2">
-        <v>0.499228676216594</v>
+        <v>0.4987564993272802</v>
       </c>
       <c r="DS2">
-        <v>0.5005446924574898</v>
+        <v>0.5000227438647556</v>
       </c>
       <c r="DT2">
-        <v>0.5103208707612892</v>
+        <v>0.5098348998083488</v>
       </c>
       <c r="DU2">
-        <v>0.5202018010683438</v>
+        <v>0.519752869486097</v>
       </c>
       <c r="DV2">
-        <v>0.5208548402286373</v>
+        <v>0.5203494172313612</v>
       </c>
       <c r="DW2">
-        <v>0.5367080807212842</v>
+        <v>0.536300230412158</v>
       </c>
       <c r="DX2">
-        <v>0.5381139147649712</v>
+        <v>0.5376572031153162</v>
       </c>
       <c r="DY2">
-        <v>0.5863985402654387</v>
+        <v>0.5863681148608688</v>
       </c>
       <c r="DZ2">
-        <v>0.5933837489825073</v>
+        <v>0.5933610128933218</v>
       </c>
       <c r="EA2">
-        <v>0.5985491431430244</v>
+        <v>0.5985156513439581</v>
       </c>
       <c r="EB2">
-        <v>0.6146220506424976</v>
+        <v>0.6146883580021171</v>
       </c>
       <c r="EC2">
-        <v>0.6146372130229688</v>
+        <v>0.6146883580021171</v>
       </c>
       <c r="ED2">
-        <v>0.6149951615340923</v>
+        <v>0.6149868241591291</v>
       </c>
       <c r="EE2">
-        <v>0.6197944846832335</v>
+        <v>0.6197716812263468</v>
       </c>
       <c r="EF2">
-        <v>0.6265934926945159</v>
+        <v>0.6265764912855938</v>
       </c>
       <c r="EG2">
-        <v>0.6532838015239298</v>
+        <v>0.6534742136649916</v>
       </c>
       <c r="EH2">
-        <v>0.6712147140811414</v>
+        <v>0.6715237574921659</v>
       </c>
       <c r="EI2">
-        <v>0.6791335663272234</v>
+        <v>0.6794597621488795</v>
       </c>
       <c r="EJ2">
-        <v>0.6972256218894426</v>
+        <v>0.6976720822720953</v>
       </c>
       <c r="EK2">
-        <v>0.7019299274356311</v>
+        <v>0.7023609586700519</v>
       </c>
       <c r="EL2">
-        <v>0.7019428767580335</v>
+        <v>0.7023609586700519</v>
       </c>
       <c r="EM2">
-        <v>0.7031227031946972</v>
+        <v>0.7034896330294704</v>
       </c>
       <c r="EN2">
-        <v>0.7118596014662004</v>
+        <v>0.712251975149627</v>
       </c>
       <c r="EO2">
-        <v>0.7166406426147736</v>
+        <v>0.717018364916098</v>
       </c>
       <c r="EP2">
-        <v>0.7249059748716227</v>
+        <v>0.7253043613878609</v>
       </c>
       <c r="EQ2">
-        <v>0.7447518154883416</v>
+        <v>0.7452882423381259</v>
       </c>
       <c r="ER2">
-        <v>0.755598132825396</v>
+        <v>0.7561813838825182</v>
       </c>
       <c r="ES2">
-        <v>0.7607721599861813</v>
+        <v>0.7613447428345957</v>
       </c>
       <c r="ET2">
-        <v>0.7673422474903498</v>
+        <v>0.7679183121258417</v>
       </c>
       <c r="EU2">
-        <v>0.7680023012108613</v>
+        <v>0.7685219455285355</v>
       </c>
       <c r="EV2">
-        <v>0.7745094734130747</v>
+        <v>0.7750319618295904</v>
       </c>
       <c r="EW2">
-        <v>0.7935404310044707</v>
+        <v>0.7941927003756107</v>
       </c>
       <c r="EX2">
-        <v>0.8093121394945839</v>
+        <v>0.8100611551730533</v>
       </c>
       <c r="EY2">
-        <v>0.8136452431292371</v>
+        <v>0.8143750672823621</v>
       </c>
       <c r="EZ2">
-        <v>0.8136452463139382</v>
+        <v>0.8143750672823621</v>
       </c>
       <c r="FA2">
-        <v>0.8152365433633885</v>
+        <v>0.8159193827816252</v>
       </c>
       <c r="FB2">
-        <v>0.8221448935780687</v>
+        <v>0.822834643299887</v>
       </c>
       <c r="FC2">
-        <v>0.8291856057968622</v>
+        <v>0.8298836073987985</v>
       </c>
       <c r="FD2">
-        <v>0.8397107116239348</v>
+        <v>0.8404522817419103</v>
       </c>
       <c r="FE2">
-        <v>0.8411116877674708</v>
+        <v>0.8418043473068835</v>
       </c>
       <c r="FF2">
-        <v>0.8494185540256106</v>
+        <v>0.850132298754536</v>
       </c>
       <c r="FG2">
-        <v>0.8659668195398558</v>
+        <v>0.8667851814956381</v>
       </c>
       <c r="FH2">
-        <v>0.8859617901612089</v>
+        <v>0.8869197039818598</v>
       </c>
       <c r="FI2">
-        <v>0.8903430827973596</v>
+        <v>0.8912822935200978</v>
       </c>
       <c r="FJ2">
-        <v>0.8905544057039266</v>
+        <v>0.8914326479249837</v>
       </c>
       <c r="FK2">
-        <v>0.8910761186201391</v>
+        <v>0.8918965383477439</v>
       </c>
       <c r="FL2">
-        <v>0.8916613051083241</v>
+        <v>0.8924245456891486</v>
       </c>
       <c r="FM2">
-        <v>0.9004296573808047</v>
+        <v>0.9012186606174054</v>
       </c>
       <c r="FN2">
-        <v>0.905910386551121</v>
+        <v>0.90669183020692</v>
       </c>
       <c r="FO2">
-        <v>0.9080659186181052</v>
+        <v>0.9088060996191486</v>
       </c>
       <c r="FP2">
-        <v>0.908644732476092</v>
+        <v>0.9093276697395295</v>
       </c>
       <c r="FQ2">
-        <v>0.9140857100451729</v>
+        <v>0.9147606848190144</v>
       </c>
       <c r="FR2">
-        <v>0.9172154974424326</v>
+        <v>0.917859084284257</v>
       </c>
       <c r="FS2">
-        <v>0.9173980593781058</v>
+        <v>0.917980386206769</v>
       </c>
       <c r="FT2">
-        <v>0.918656355117208</v>
+        <v>0.9191883252069536</v>
       </c>
       <c r="FU2">
-        <v>0.9216861939113616</v>
+        <v>0.9221857630238308</v>
       </c>
       <c r="FV2">
-        <v>0.9248685956102562</v>
+        <v>0.9253373100714866</v>
       </c>
       <c r="FW2">
-        <v>0.9328345308578014</v>
+        <v>0.9333208749470525</v>
       </c>
       <c r="FX2">
-        <v>0.9414653571260084</v>
+        <v>0.9419760699539388</v>
       </c>
       <c r="FY2">
-        <v>0.9427143000648199</v>
+        <v>0.9431745613570102</v>
       </c>
       <c r="FZ2">
-        <v>0.9427190075589662</v>
+        <v>0.9431745613570102</v>
       </c>
       <c r="GA2">
-        <v>0.9447374272216895</v>
+        <v>0.945150328639991</v>
       </c>
       <c r="GB2">
-        <v>0.9461613267659379</v>
+        <v>0.9465255499495183</v>
       </c>
       <c r="GC2">
-        <v>0.9477101858140694</v>
+        <v>0.948026997310225</v>
       </c>
       <c r="GD2">
-        <v>0.9528136334726615</v>
+        <v>0.9531190613901301</v>
       </c>
       <c r="GE2">
-        <v>0.9620467137595837</v>
+        <v>0.9623826146589093</v>
       </c>
       <c r="GF2">
-        <v>0.9640867684229794</v>
+        <v>0.9643802362276169</v>
       </c>
       <c r="GG2">
-        <v>0.9643397614508412</v>
+        <v>0.9645726831080631</v>
       </c>
       <c r="GH2">
-        <v>0.9643817545921461</v>
+        <v>0.9645726831080631</v>
       </c>
       <c r="GI2">
-        <v>0.9643860048382782</v>
+        <v>0.9645726831080631</v>
       </c>
       <c r="GJ2">
-        <v>0.9644201552743394</v>
+        <v>0.9645726831080631</v>
       </c>
       <c r="GK2">
-        <v>0.9647833935256273</v>
+        <v>0.964876492620258</v>
       </c>
       <c r="GL2">
-        <v>0.9671954299005824</v>
+        <v>0.9672498661814272</v>
       </c>
       <c r="GM2">
-        <v>0.9733736773925743</v>
+        <v>0.9734276239025713</v>
       </c>
       <c r="GN2">
-        <v>0.9844781117376499</v>
+        <v>0.9845814986417369</v>
       </c>
       <c r="GO2">
-        <v>0.9943199320434891</v>
+        <v>0.9944599619125163</v>
       </c>
       <c r="GP2">
-        <v>0.9952642449128341</v>
+        <v>0.9953507356186991</v>
       </c>
       <c r="GQ2">
-        <v>0.9952724318530884</v>
+        <v>0.9953507356186991</v>
       </c>
       <c r="GR2">
-        <v>0.9960040428758236</v>
+        <v>0.9960266516042462</v>
       </c>
       <c r="GS2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GT2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GU2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GV2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GW2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GX2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GY2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GZ2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HA2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HB2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HC2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HD2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HE2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HF2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HG2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HH2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HI2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HJ2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HK2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HL2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HM2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HN2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HO2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HP2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HQ2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HR2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HS2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HT2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HU2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HV2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HW2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HX2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HY2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HZ2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IA2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IB2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IC2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="ID2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IE2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IF2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IG2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IH2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="II2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IJ2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IK2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IL2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IM2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IN2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IO2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IP2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IQ2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IR2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IS2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IT2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IU2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IV2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IW2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:257">
@@ -7418,601 +7418,601 @@
         <v>258</v>
       </c>
       <c r="B3">
-        <v>0.0004669443609886166</v>
+        <v>0.000453004801612034</v>
       </c>
       <c r="C3">
-        <v>0.0007299347815454211</v>
+        <v>0.0007014751814481376</v>
       </c>
       <c r="D3">
-        <v>0.0008821895518677755</v>
+        <v>0.0008388947419535049</v>
       </c>
       <c r="E3">
-        <v>0.0009578964880280625</v>
+        <v>0.0008995486024905858</v>
       </c>
       <c r="F3">
-        <v>0.0009913247000988368</v>
+        <v>0.0009178034077960581</v>
       </c>
       <c r="G3">
-        <v>0.0009940582917046244</v>
+        <v>0.0009178034077960581</v>
       </c>
       <c r="H3">
-        <v>0.001024411724768889</v>
+        <v>0.0009329746828453669</v>
       </c>
       <c r="I3">
-        <v>0.001035798393792997</v>
+        <v>0.0009329746828453669</v>
       </c>
       <c r="J3">
-        <v>0.001046319987815273</v>
+        <v>0.0009329746828453669</v>
       </c>
       <c r="K3">
-        <v>0.001079550744885629</v>
+        <v>0.0009510314711659662</v>
       </c>
       <c r="L3">
-        <v>0.001110076054950258</v>
+        <v>0.0009663751124015403</v>
       </c>
       <c r="M3">
-        <v>0.001125301269982493</v>
+        <v>0.0009663751124015403</v>
       </c>
       <c r="N3">
-        <v>0.001205124880151495</v>
+        <v>0.001031157363575399</v>
       </c>
       <c r="O3">
-        <v>0.001296012640343923</v>
+        <v>0.00110703525488591</v>
       </c>
       <c r="P3">
-        <v>0.001388569544539885</v>
+        <v>0.001184587040816454</v>
       </c>
       <c r="Q3">
-        <v>0.001649595775092531</v>
+        <v>0.001431087640289854</v>
       </c>
       <c r="R3">
-        <v>0.002035403515909365</v>
+        <v>0.00180272489559926</v>
       </c>
       <c r="S3">
-        <v>0.002399280716679767</v>
+        <v>0.002152369193488309</v>
       </c>
       <c r="T3">
-        <v>0.002588915397081263</v>
+        <v>0.002327275052507382</v>
       </c>
       <c r="U3">
-        <v>0.002619200452145382</v>
+        <v>0.002342377754943226</v>
       </c>
       <c r="V3">
-        <v>0.002642613738194953</v>
+        <v>0.002350589130352033</v>
       </c>
       <c r="W3">
-        <v>0.002648525577907469</v>
+        <v>0.002350589130352033</v>
       </c>
       <c r="X3">
-        <v>0.002651132092912988</v>
+        <v>0.002350589130352033</v>
       </c>
       <c r="Y3">
-        <v>0.002727681097075058</v>
+        <v>0.002412087455533808</v>
       </c>
       <c r="Z3">
-        <v>0.002794105671215692</v>
+        <v>0.002463432535155036</v>
       </c>
       <c r="AA3">
-        <v>0.00280309278223472</v>
+        <v>0.002463432535155036</v>
       </c>
       <c r="AB3">
-        <v>0.002805594848540017</v>
+        <v>0.002463432535155036</v>
       </c>
       <c r="AC3">
-        <v>0.002805918342740702</v>
+        <v>0.002463432535155036</v>
       </c>
       <c r="AD3">
-        <v>0.002848602532831073</v>
+        <v>0.002490969662283763</v>
       </c>
       <c r="AE3">
-        <v>0.00288165393790105</v>
+        <v>0.002508846588143189</v>
       </c>
       <c r="AF3">
-        <v>0.002953063868052239</v>
+        <v>0.002565191212793101</v>
       </c>
       <c r="AG3">
-        <v>0.003177646968527727</v>
+        <v>0.002775144959961244</v>
       </c>
       <c r="AH3">
-        <v>0.003380267848956717</v>
+        <v>0.002963073979543269</v>
       </c>
       <c r="AI3">
-        <v>0.00339437283398658</v>
+        <v>0.002963073979543269</v>
       </c>
       <c r="AJ3">
-        <v>0.003755997004752213</v>
+        <v>0.003310458834990099</v>
       </c>
       <c r="AK3">
-        <v>0.003849936024951101</v>
+        <v>0.003389396670618371</v>
       </c>
       <c r="AL3">
-        <v>0.003860107256972635</v>
+        <v>0.003389396670618371</v>
       </c>
       <c r="AM3">
-        <v>0.003993622447255314</v>
+        <v>0.003508023315627112</v>
       </c>
       <c r="AN3">
-        <v>0.004183728447657807</v>
+        <v>0.003683401836089604</v>
       </c>
       <c r="AO3">
-        <v>0.00428172214786528</v>
+        <v>0.003766405891910957</v>
       </c>
       <c r="AP3">
-        <v>0.004346834028003135</v>
+        <v>0.003816434541419294</v>
       </c>
       <c r="AQ3">
-        <v>0.00439479593310468</v>
+        <v>0.003849264404671791</v>
       </c>
       <c r="AR3">
-        <v>0.004396025192407283</v>
+        <v>0.003849264404671791</v>
       </c>
       <c r="AS3">
-        <v>0.004396156093847561</v>
+        <v>0.003849264404671791</v>
       </c>
       <c r="AT3">
-        <v>0.004396767519108855</v>
+        <v>0.003849264404671791</v>
       </c>
       <c r="AU3">
-        <v>0.004404196043524582</v>
+        <v>0.003849264404671791</v>
       </c>
       <c r="AV3">
-        <v>0.004608192993956485</v>
+        <v>0.004038573410743771</v>
       </c>
       <c r="AW3">
-        <v>0.004799631964361801</v>
+        <v>0.004215288695027518</v>
       </c>
       <c r="AX3">
-        <v>0.005079281624953877</v>
+        <v>0.004480465729418207</v>
       </c>
       <c r="AY3">
-        <v>0.005484147165811059</v>
+        <v>0.004871215025923391</v>
       </c>
       <c r="AZ3">
-        <v>0.005810009066500975</v>
+        <v>0.005182735826888878</v>
       </c>
       <c r="BA3">
-        <v>0.005910920476714625</v>
+        <v>0.005268665896925792</v>
       </c>
       <c r="BB3">
-        <v>0.006062217077034951</v>
+        <v>0.005405124560343743</v>
       </c>
       <c r="BC3">
-        <v>0.00622110980737136</v>
+        <v>0.005549200973422647</v>
       </c>
       <c r="BD3">
-        <v>0.006331880147605883</v>
+        <v>0.005645018033369535</v>
       </c>
       <c r="BE3">
-        <v>0.006426756903806756</v>
+        <v>0.005724896273927168</v>
       </c>
       <c r="BF3">
-        <v>0.006760133654512583</v>
+        <v>0.006043953313219223</v>
       </c>
       <c r="BG3">
-        <v>0.00693593025488478</v>
+        <v>0.00620498170710431</v>
       </c>
       <c r="BH3">
-        <v>0.006942439120598561</v>
+        <v>0.00620498170710431</v>
       </c>
       <c r="BI3">
-        <v>0.006952920474120752</v>
+        <v>0.00620498170710431</v>
       </c>
       <c r="BJ3">
-        <v>0.006971695162160502</v>
+        <v>0.006208541282406774</v>
       </c>
       <c r="BK3">
-        <v>0.007002289119225276</v>
+        <v>0.006223953766021424</v>
       </c>
       <c r="BL3">
-        <v>0.0070194933632617</v>
+        <v>0.006225938427618022</v>
       </c>
       <c r="BM3">
-        <v>0.00706943668936744</v>
+        <v>0.006260755351275087</v>
       </c>
       <c r="BN3">
-        <v>0.007194043419631257</v>
+        <v>0.006370448181545982</v>
       </c>
       <c r="BO3">
-        <v>0.007337556519935104</v>
+        <v>0.006499101192021446</v>
       </c>
       <c r="BP3">
-        <v>0.007461434730197379</v>
+        <v>0.006608063428821324</v>
       </c>
       <c r="BQ3">
-        <v>0.007617476170527751</v>
+        <v>0.006749280436725385</v>
       </c>
       <c r="BR3">
-        <v>0.007713111990730232</v>
+        <v>0.00682991990168658</v>
       </c>
       <c r="BS3">
-        <v>0.007789198510891323</v>
+        <v>0.006890954426573442</v>
       </c>
       <c r="BT3">
-        <v>0.007900788905127583</v>
+        <v>0.006987593874510064</v>
       </c>
       <c r="BU3">
-        <v>0.007943758237218558</v>
+        <v>0.007015416955193275</v>
       </c>
       <c r="BV3">
-        <v>0.008076017737498577</v>
+        <v>0.007132784336330578</v>
       </c>
       <c r="BW3">
-        <v>0.008192728517745678</v>
+        <v>0.007234558743610372</v>
       </c>
       <c r="BX3">
-        <v>0.008194402686149222</v>
+        <v>0.007234558743610372</v>
       </c>
       <c r="BY3">
-        <v>0.008215013733192861</v>
+        <v>0.007239959904450423</v>
       </c>
       <c r="BZ3">
-        <v>0.008216921001096899</v>
+        <v>0.007239959904450423</v>
       </c>
       <c r="CA3">
-        <v>0.008262709861193844</v>
+        <v>0.007270610537909329</v>
       </c>
       <c r="CB3">
-        <v>0.008335122956347156</v>
+        <v>0.007327961182708793</v>
       </c>
       <c r="CC3">
-        <v>0.008369493590419925</v>
+        <v>0.007347161092280645</v>
       </c>
       <c r="CD3">
-        <v>0.008422790770532766</v>
+        <v>0.007385341415480817</v>
       </c>
       <c r="CE3">
-        <v>0.008551425040805111</v>
+        <v>0.007499073248700513</v>
       </c>
       <c r="CF3">
-        <v>0.008726644401176086</v>
+        <v>0.00765952275967887</v>
       </c>
       <c r="CG3">
-        <v>0.008893882271530162</v>
+        <v>0.007811968064207182</v>
       </c>
       <c r="CH3">
-        <v>0.009044376021848788</v>
+        <v>0.007947621592600417</v>
       </c>
       <c r="CI3">
-        <v>0.009115681071999756</v>
+        <v>0.008003861038747005</v>
       </c>
       <c r="CJ3">
-        <v>0.009174857642125044</v>
+        <v>0.008047937485523142</v>
       </c>
       <c r="CK3">
-        <v>0.009223035548227046</v>
+        <v>0.008080983964545053</v>
       </c>
       <c r="CL3">
-        <v>0.009236688482255952</v>
+        <v>0.008080983964545053</v>
       </c>
       <c r="CM3">
-        <v>0.01083200468563356</v>
+        <v>0.00966557211209609</v>
       </c>
       <c r="CN3">
-        <v>0.0548265027787789</v>
+        <v>0.05377001613120104</v>
       </c>
       <c r="CO3">
-        <v>0.1518739529842482</v>
+        <v>0.1510784083595252</v>
       </c>
       <c r="CP3">
-        <v>0.1773158080381138</v>
+        <v>0.1765774059311613</v>
       </c>
       <c r="CQ3">
-        <v>0.17741794208833</v>
+        <v>0.1766645621210047</v>
       </c>
       <c r="CR3">
-        <v>0.190717566116488</v>
+        <v>0.1899867701848982</v>
       </c>
       <c r="CS3">
-        <v>0.2091733761555628</v>
+        <v>0.2084798394838291</v>
       </c>
       <c r="CT3">
-        <v>0.2241124061871917</v>
+        <v>0.2234461195292003</v>
       </c>
       <c r="CU3">
-        <v>0.2241387521532475</v>
+        <v>0.2234572719314314</v>
       </c>
       <c r="CV3">
-        <v>0.2968135183071148</v>
+        <v>0.2963236120519734</v>
       </c>
       <c r="CW3">
-        <v>0.2969568826574184</v>
+        <v>0.2964521158890853</v>
       </c>
       <c r="CX3">
-        <v>0.305042863674538</v>
+        <v>0.3045458421871883</v>
       </c>
       <c r="CY3">
-        <v>0.3211903097087255</v>
+        <v>0.3207239775555054</v>
       </c>
       <c r="CZ3">
-        <v>0.3481733547658541</v>
+        <v>0.3477685515719842</v>
       </c>
       <c r="DA3">
-        <v>0.3495475698687636</v>
+        <v>0.3491314093345153</v>
       </c>
       <c r="DB3">
-        <v>0.3842986279423387</v>
+        <v>0.3839661052152881</v>
       </c>
       <c r="DC3">
-        <v>0.4098657329964694</v>
+        <v>0.4095907092661491</v>
       </c>
       <c r="DD3">
-        <v>0.4132077547035452</v>
+        <v>0.4129269742847395</v>
       </c>
       <c r="DE3">
-        <v>0.4314216767421078</v>
+        <v>0.4311774671361914</v>
       </c>
       <c r="DF3">
-        <v>0.4445559997699158</v>
+        <v>0.4443339037300462</v>
       </c>
       <c r="DG3">
-        <v>0.4817042628485663</v>
+        <v>0.4815726273954912</v>
       </c>
       <c r="DH3">
-        <v>0.4869604948596948</v>
+        <v>0.4868285508274862</v>
       </c>
       <c r="DI3">
-        <v>0.4873538576305276</v>
+        <v>0.4872077646154802</v>
       </c>
       <c r="DJ3">
-        <v>0.4894182916348985</v>
+        <v>0.4892628057386775</v>
       </c>
       <c r="DK3">
-        <v>0.494548927245761</v>
+        <v>0.4943927753055443</v>
       </c>
       <c r="DL3">
-        <v>0.4981001279532797</v>
+        <v>0.4979388146771707</v>
       </c>
       <c r="DM3">
-        <v>0.4983941663139022</v>
+        <v>0.4982184213638378</v>
       </c>
       <c r="DN3">
-        <v>0.4985708305342763</v>
+        <v>0.4983803198470922</v>
       </c>
       <c r="DO3">
-        <v>0.5000316260373691</v>
+        <v>0.4998300044296942</v>
       </c>
       <c r="DP3">
-        <v>0.5067821794516614</v>
+        <v>0.5065845023118636</v>
       </c>
       <c r="DQ3">
-        <v>0.5141027434671605</v>
+        <v>0.5139106331248661</v>
       </c>
       <c r="DR3">
-        <v>0.5175087579743717</v>
+        <v>0.5173110730760212</v>
       </c>
       <c r="DS3">
-        <v>0.5241851082885068</v>
+        <v>0.5239911566656671</v>
       </c>
       <c r="DT3">
-        <v>0.5415518543252757</v>
+        <v>0.5413920623343343</v>
       </c>
       <c r="DU3">
-        <v>0.5415523284757567</v>
+        <v>0.5413920623343343</v>
       </c>
       <c r="DV3">
-        <v>0.552775748999519</v>
+        <v>0.5526321577292513</v>
       </c>
       <c r="DW3">
-        <v>0.5528984177997787</v>
+        <v>0.5527399071138992</v>
       </c>
       <c r="DX3">
-        <v>0.5858872308696227</v>
+        <v>0.5858073423960166</v>
       </c>
       <c r="DY3">
-        <v>0.5942797068873913</v>
+        <v>0.5942084360222635</v>
       </c>
       <c r="DZ3">
-        <v>0.5969683242930837</v>
+        <v>0.5968894370597491</v>
       </c>
       <c r="EA3">
-        <v>0.6112137773232442</v>
+        <v>0.6111601660868262</v>
       </c>
       <c r="EB3">
-        <v>0.6112138502108604</v>
+        <v>0.6111601660868262</v>
       </c>
       <c r="EC3">
-        <v>0.6115884311516534</v>
+        <v>0.611520544589074</v>
       </c>
       <c r="ED3">
-        <v>0.6169756623630592</v>
+        <v>0.6169078400633307</v>
       </c>
       <c r="EE3">
-        <v>0.6223462289744298</v>
+        <v>0.6222784235077774</v>
       </c>
       <c r="EF3">
-        <v>0.6473334270273328</v>
+        <v>0.6473214700612504</v>
       </c>
       <c r="EG3">
-        <v>0.6733679350824532</v>
+        <v>0.6734148074071943</v>
       </c>
       <c r="EH3">
-        <v>0.6832492871033741</v>
+        <v>0.6833090145852365</v>
       </c>
       <c r="EI3">
-        <v>0.7064313791524552</v>
+        <v>0.7065418175515826</v>
       </c>
       <c r="EJ3">
-        <v>0.716730688174261</v>
+        <v>0.7168551712943944</v>
       </c>
       <c r="EK3">
-        <v>0.7169455836747159</v>
+        <v>0.717055409869282</v>
       </c>
       <c r="EL3">
-        <v>0.7171028329750488</v>
+        <v>0.7171978381749265</v>
       </c>
       <c r="EM3">
-        <v>0.7250173399918055</v>
+        <v>0.7251196024337593</v>
       </c>
       <c r="EN3">
-        <v>0.731772243006107</v>
+        <v>0.7318784622955058</v>
       </c>
       <c r="EO3">
-        <v>0.7390359350214857</v>
+        <v>0.739147559242748</v>
       </c>
       <c r="EP3">
-        <v>0.7591722050641183</v>
+        <v>0.7593258713686504</v>
       </c>
       <c r="EQ3">
-        <v>0.7731742880937635</v>
+        <v>0.7733525377302669</v>
       </c>
       <c r="ER3">
-        <v>0.7807494657098017</v>
+        <v>0.7809340068096068</v>
       </c>
       <c r="ES3">
-        <v>0.7916053537327858</v>
+        <v>0.7918055236550172</v>
       </c>
       <c r="ET3">
-        <v>0.7956759514414041</v>
+        <v>0.7958724383040086</v>
       </c>
       <c r="EU3">
-        <v>0.7973755968450026</v>
+        <v>0.797561652587227</v>
       </c>
       <c r="EV3">
-        <v>0.8105513238728983</v>
+        <v>0.8107596110227251</v>
       </c>
       <c r="EW3">
-        <v>0.8239505499012671</v>
+        <v>0.8241817045680059</v>
       </c>
       <c r="EX3">
-        <v>0.8280567665099609</v>
+        <v>0.8282843394934272</v>
       </c>
       <c r="EY3">
-        <v>0.8280713192709916</v>
+        <v>0.8282843394934272</v>
       </c>
       <c r="EZ3">
-        <v>0.8281378450761325</v>
+        <v>0.8283357860921662</v>
       </c>
       <c r="FA3">
-        <v>0.8310825778823672</v>
+        <v>0.8312736314703245</v>
       </c>
       <c r="FB3">
-        <v>0.836824973194525</v>
+        <v>0.8370171018918711</v>
       </c>
       <c r="FC3">
-        <v>0.8458177082135644</v>
+        <v>0.846020162940178</v>
       </c>
       <c r="FD3">
-        <v>0.8488242362199299</v>
+        <v>0.8490199793962205</v>
       </c>
       <c r="FE3">
-        <v>0.8518468280263293</v>
+        <v>0.8520359053721112</v>
       </c>
       <c r="FF3">
-        <v>0.8635517390511109</v>
+        <v>0.8637588616571297</v>
       </c>
       <c r="FG3">
-        <v>0.8789264090836623</v>
+        <v>0.8791620215955908</v>
       </c>
       <c r="FH3">
-        <v>0.8842689610949735</v>
+        <v>0.8845045107065214</v>
       </c>
       <c r="FI3">
-        <v>0.8844314438353176</v>
+        <v>0.8846521873472768</v>
       </c>
       <c r="FJ3">
-        <v>0.887208400241197</v>
+        <v>0.8874217788100577</v>
       </c>
       <c r="FK3">
-        <v>0.8874375773216822</v>
+        <v>0.887636339612343</v>
       </c>
       <c r="FL3">
-        <v>0.8906932633285751</v>
+        <v>0.8908860232073132</v>
       </c>
       <c r="FM3">
-        <v>0.8943667939363528</v>
+        <v>0.8945547406471467</v>
       </c>
       <c r="FN3">
-        <v>0.8953538257384425</v>
+        <v>0.8955293131312135</v>
       </c>
       <c r="FO3">
-        <v>0.8955264593288079</v>
+        <v>0.8956871695127245</v>
       </c>
       <c r="FP3">
-        <v>0.9002924253388984</v>
+        <v>0.9004514315783032</v>
       </c>
       <c r="FQ3">
-        <v>0.905423060949761</v>
+        <v>0.9055814011451699</v>
       </c>
       <c r="FR3">
-        <v>0.9060145812910133</v>
+        <v>0.9061593364876506</v>
       </c>
       <c r="FS3">
-        <v>0.9070944341932996</v>
+        <v>0.9072269942537037</v>
       </c>
       <c r="FT3">
-        <v>0.9106781652008871</v>
+        <v>0.9108056565111675</v>
       </c>
       <c r="FU3">
-        <v>0.9128912554055726</v>
+        <v>0.9130097769309473</v>
       </c>
       <c r="FV3">
-        <v>0.917888568416153</v>
+        <v>0.9180060444428272</v>
       </c>
       <c r="FW3">
-        <v>0.9235274294280916</v>
+        <v>0.9236456858911042</v>
       </c>
       <c r="FX3">
-        <v>0.9238135167086974</v>
+        <v>0.9239173188678724</v>
       </c>
       <c r="FY3">
-        <v>0.9239161864789147</v>
+        <v>0.9240050123024507</v>
       </c>
       <c r="FZ3">
-        <v>0.9268958137852232</v>
+        <v>0.9269778514952941</v>
       </c>
       <c r="GA3">
-        <v>0.9310825944940875</v>
+        <v>0.9311612798175452</v>
       </c>
       <c r="GB3">
-        <v>0.9340753172004237</v>
+        <v>0.9341472516817502</v>
       </c>
       <c r="GC3">
-        <v>0.9408445524147555</v>
+        <v>0.9409204845349661</v>
       </c>
       <c r="GD3">
-        <v>0.9529104634403015</v>
+        <v>0.9530054682770718</v>
       </c>
       <c r="GE3">
-        <v>0.9581043819512981</v>
+        <v>0.9581989008560274</v>
       </c>
       <c r="GF3">
-        <v>0.9595324152543215</v>
+        <v>0.9596157299927719</v>
       </c>
       <c r="GG3">
-        <v>0.9598758105050486</v>
+        <v>0.9599448340461327</v>
       </c>
       <c r="GH3">
-        <v>0.9600501658154177</v>
+        <v>0.9601044170479025</v>
       </c>
       <c r="GI3">
-        <v>0.960122578910571</v>
+        <v>0.960161767692702</v>
       </c>
       <c r="GJ3">
-        <v>0.9602824535309095</v>
+        <v>0.9603068287903788</v>
       </c>
       <c r="GK3">
-        <v>0.9619383746344153</v>
+        <v>0.9619521943280518</v>
       </c>
       <c r="GL3">
-        <v>0.9675413029462779</v>
+        <v>0.9675558008067796</v>
       </c>
       <c r="GM3">
-        <v>0.9792475579710624</v>
+        <v>0.9792801049170123</v>
       </c>
       <c r="GN3">
-        <v>0.9921224424983212</v>
+        <v>0.9921763646121815</v>
       </c>
       <c r="GO3">
-        <v>0.9959286235063797</v>
+        <v>0.9959781099938255</v>
       </c>
       <c r="GP3">
-        <v>0.9970768191088106</v>
+        <v>0.9971143049728743</v>
       </c>
       <c r="GQ3">
-        <v>0.9971688673940056</v>
+        <v>0.9971913466922032</v>
       </c>
       <c r="GR3">
-        <v>0.998302661896406</v>
+        <v>0.9983130995836835</v>
       </c>
       <c r="GS3">
         <v>0.9999999999999997</v>
@@ -8191,772 +8191,772 @@
         <v>259</v>
       </c>
       <c r="B4">
-        <v>2.305806057840545E-06</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>1.07112292686884E-05</v>
+        <v>6.102342646071303E-06</v>
       </c>
       <c r="D4">
-        <v>1.178824169570497E-05</v>
+        <v>6.102342646071303E-06</v>
       </c>
       <c r="E4">
-        <v>1.217073630529975E-05</v>
+        <v>6.102342646071303E-06</v>
       </c>
       <c r="F4">
-        <v>1.689556242382079E-05</v>
+        <v>8.522443597934248E-06</v>
       </c>
       <c r="G4">
-        <v>6.170861354794451E-05</v>
+        <v>5.104868218441575E-05</v>
       </c>
       <c r="H4">
-        <v>0.0001534549558493776</v>
+        <v>0.0001405291831594098</v>
       </c>
       <c r="I4">
-        <v>0.0003009694095497393</v>
+        <v>0.0002858027144088942</v>
       </c>
       <c r="J4">
-        <v>0.0005029367846160383</v>
+        <v>0.0004855534982332712</v>
       </c>
       <c r="K4">
-        <v>0.0005704749963102168</v>
+        <v>0.0005508150516775205</v>
       </c>
       <c r="L4">
-        <v>0.0006456122841950161</v>
+        <v>0.0006236790768090147</v>
       </c>
       <c r="M4">
-        <v>0.0006655453236950312</v>
+        <v>0.0006413141866311782</v>
       </c>
       <c r="N4">
-        <v>0.000760453296075773</v>
+        <v>0.0007339577303972358</v>
       </c>
       <c r="O4">
-        <v>0.0008067852572379981</v>
+        <v>0.0007780035577166729</v>
       </c>
       <c r="P4">
-        <v>0.000839650973062426</v>
+        <v>0.0008085771225734103</v>
       </c>
       <c r="Q4">
-        <v>0.0008703263888319108</v>
+        <v>0.0008369594086830248</v>
       </c>
       <c r="R4">
-        <v>0.0008708766649457144</v>
+        <v>0.0008369594086830248</v>
       </c>
       <c r="S4">
-        <v>0.0009115375159656812</v>
+        <v>0.0008753315918370066</v>
       </c>
       <c r="T4">
-        <v>0.0009368036845994764</v>
+        <v>0.0008983022137960305</v>
       </c>
       <c r="U4">
-        <v>0.0009449152038029518</v>
+        <v>0.0009041105211095472</v>
       </c>
       <c r="V4">
-        <v>0.0009915176589719622</v>
+        <v>0.0009484269633006567</v>
       </c>
       <c r="W4">
-        <v>0.001057707745632323</v>
+        <v>0.00101233978932813</v>
       </c>
       <c r="X4">
-        <v>0.001334425752573722</v>
+        <v>0.001286874605866315</v>
       </c>
       <c r="Y4">
-        <v>0.001511333157011398</v>
+        <v>0.001461554221510744</v>
       </c>
       <c r="Z4">
-        <v>0.00163640486014879</v>
+        <v>0.00158437497409886</v>
       </c>
       <c r="AA4">
-        <v>0.001775820213645987</v>
+        <v>0.001721545786222735</v>
       </c>
       <c r="AB4">
-        <v>0.001809623614493937</v>
+        <v>0.001753057455088967</v>
       </c>
       <c r="AC4">
-        <v>0.00181015792400734</v>
+        <v>0.001753057455088967</v>
       </c>
       <c r="AD4">
-        <v>0.001821790045299129</v>
+        <v>0.001762387937602081</v>
       </c>
       <c r="AE4">
-        <v>0.00182338470583913</v>
+        <v>0.001762387937602081</v>
       </c>
       <c r="AF4">
-        <v>0.00182875251137378</v>
+        <v>0.001765451305272685</v>
       </c>
       <c r="AG4">
-        <v>0.00183412031690843</v>
+        <v>0.001768514672943288</v>
       </c>
       <c r="AH4">
-        <v>0.001835665259547185</v>
+        <v>0.001768514672943288</v>
       </c>
       <c r="AI4">
-        <v>0.00188199722070941</v>
+        <v>0.001812560500262726</v>
       </c>
       <c r="AJ4">
-        <v>0.001890287987917382</v>
+        <v>0.001818548135674158</v>
       </c>
       <c r="AK4">
-        <v>0.001891910146558073</v>
+        <v>0.001818548135674158</v>
       </c>
       <c r="AL4">
-        <v>0.002103584491867869</v>
+        <v>0.002028010227109346</v>
       </c>
       <c r="AM4">
-        <v>0.002109636281619677</v>
+        <v>0.002031757884621902</v>
       </c>
       <c r="AN4">
-        <v>0.002156386882792404</v>
+        <v>0.002076222539012834</v>
       </c>
       <c r="AO4">
-        <v>0.00238412799850523</v>
+        <v>0.002301758579969053</v>
       </c>
       <c r="AP4">
-        <v>0.002512436781723823</v>
+        <v>0.002427817859063464</v>
       </c>
       <c r="AQ4">
-        <v>0.002546247328571952</v>
+        <v>0.002459336677122924</v>
       </c>
       <c r="AR4">
-        <v>0.002635271174805092</v>
+        <v>0.002546093465536201</v>
       </c>
       <c r="AS4">
-        <v>0.002790587758701168</v>
+        <v>0.002699172613208683</v>
       </c>
       <c r="AT4">
-        <v>0.002854969760316173</v>
+        <v>0.002761276546283824</v>
       </c>
       <c r="AU4">
-        <v>0.003008760564173976</v>
+        <v>0.002912829232153454</v>
       </c>
       <c r="AV4">
-        <v>0.003217173939401971</v>
+        <v>0.003119028896406975</v>
       </c>
       <c r="AW4">
-        <v>0.00326009044547852</v>
+        <v>0.003159657742512307</v>
       </c>
       <c r="AX4">
-        <v>0.003270971865751478</v>
+        <v>0.003168237188570715</v>
       </c>
       <c r="AY4">
-        <v>0.003324078857083653</v>
+        <v>0.003219061073348089</v>
       </c>
       <c r="AZ4">
-        <v>0.003347932058682004</v>
+        <v>0.003240618096915346</v>
       </c>
       <c r="BA4">
-        <v>0.003349164155812911</v>
+        <v>0.003240618096915346</v>
       </c>
       <c r="BB4">
-        <v>0.003351319073766966</v>
+        <v>0.003240618096915346</v>
       </c>
       <c r="BC4">
-        <v>0.003378897878458773</v>
+        <v>0.003265902388287981</v>
       </c>
       <c r="BD4">
-        <v>0.003550673772767727</v>
+        <v>0.003435448200890065</v>
       </c>
       <c r="BE4">
-        <v>0.003797293608954121</v>
+        <v>0.003679871397902023</v>
       </c>
       <c r="BF4">
-        <v>0.00401373830438358</v>
+        <v>0.003894105970993303</v>
       </c>
       <c r="BG4">
-        <v>0.004223612999648232</v>
+        <v>0.004101767608245385</v>
       </c>
       <c r="BH4">
-        <v>0.004528221937289268</v>
+        <v>0.004404205817992945</v>
       </c>
       <c r="BI4">
-        <v>0.004551473571872529</v>
+        <v>0.004425161005746811</v>
       </c>
       <c r="BJ4">
-        <v>0.004577256450519286</v>
+        <v>0.004448648568600427</v>
       </c>
       <c r="BK4">
-        <v>0.004708112573801777</v>
+        <v>0.00457725632598717</v>
       </c>
       <c r="BL4">
-        <v>0.004747351304786071</v>
+        <v>0.00461420575365932</v>
       </c>
       <c r="BM4">
-        <v>0.004793258181937633</v>
+        <v>0.004657826307027726</v>
       </c>
       <c r="BN4">
-        <v>0.004817405999543375</v>
+        <v>0.004679678078245699</v>
       </c>
       <c r="BO4">
-        <v>0.004823558849097717</v>
+        <v>0.004683526840717361</v>
       </c>
       <c r="BP4">
-        <v>0.004854575079875751</v>
+        <v>0.004712250094121958</v>
       </c>
       <c r="BQ4">
-        <v>0.004861193052041761</v>
+        <v>0.004716564187036109</v>
       </c>
       <c r="BR4">
-        <v>0.004953921654367834</v>
+        <v>0.004807027386939172</v>
       </c>
       <c r="BS4">
-        <v>0.00511205505833457</v>
+        <v>0.004962924613322547</v>
       </c>
       <c r="BT4">
-        <v>0.005183342180122789</v>
+        <v>0.00503193675198703</v>
       </c>
       <c r="BU4">
-        <v>0.005337894933999704</v>
+        <v>0.005184251728338042</v>
       </c>
       <c r="BV4">
-        <v>0.005439699196553438</v>
+        <v>0.005283794643747708</v>
       </c>
       <c r="BW4">
-        <v>0.00549706204799237</v>
+        <v>0.005338876290278601</v>
       </c>
       <c r="BX4">
-        <v>0.005633130931405623</v>
+        <v>0.005472699137014681</v>
       </c>
       <c r="BY4">
-        <v>0.005721576723624263</v>
+        <v>0.005558877613121476</v>
       </c>
       <c r="BZ4">
-        <v>0.005761984930637893</v>
+        <v>0.005596997039380152</v>
       </c>
       <c r="CA4">
-        <v>0.005845312946728154</v>
+        <v>0.005678055452581712</v>
       </c>
       <c r="CB4">
-        <v>0.005856397735006213</v>
+        <v>0.005686838357516185</v>
       </c>
       <c r="CC4">
-        <v>0.005856962366950377</v>
+        <v>0.005686838357516185</v>
       </c>
       <c r="CD4">
-        <v>0.005920363358540774</v>
+        <v>0.005747960842221827</v>
       </c>
       <c r="CE4">
-        <v>0.005932422090843264</v>
+        <v>0.00575771812636832</v>
       </c>
       <c r="CF4">
-        <v>0.005935981655132555</v>
+        <v>0.005758972444816793</v>
       </c>
       <c r="CG4">
-        <v>0.005937449777069382</v>
+        <v>0.005758972444816793</v>
       </c>
       <c r="CH4">
-        <v>0.005937955473412067</v>
+        <v>0.005758972444816793</v>
       </c>
       <c r="CI4">
-        <v>0.005940169038267594</v>
+        <v>0.005758972444816793</v>
       </c>
       <c r="CJ4">
-        <v>0.005955792488659505</v>
+        <v>0.005772296039876351</v>
       </c>
       <c r="CK4">
-        <v>0.005987604351457497</v>
+        <v>0.005801815280813309</v>
       </c>
       <c r="CL4">
-        <v>0.006061319323306618</v>
+        <v>0.005873256354375387</v>
       </c>
       <c r="CM4">
-        <v>0.006211579257075849</v>
+        <v>0.006021276592457109</v>
       </c>
       <c r="CN4">
-        <v>0.1142409179669637</v>
+        <v>0.1140965792354392</v>
       </c>
       <c r="CO4">
-        <v>0.1585766420791138</v>
+        <v>0.1584498070510573</v>
       </c>
       <c r="CP4">
-        <v>0.2251702437495969</v>
+        <v>0.2250708579165668</v>
       </c>
       <c r="CQ4">
-        <v>0.2251849904829669</v>
+        <v>0.2250833044028608</v>
       </c>
       <c r="CR4">
-        <v>0.2285082859663309</v>
+        <v>0.2284057779986005</v>
       </c>
       <c r="CS4">
-        <v>0.2295657636928574</v>
+        <v>0.2294614214017342</v>
       </c>
       <c r="CT4">
-        <v>0.283849625054554</v>
+        <v>0.2837672315949114</v>
       </c>
       <c r="CU4">
-        <v>0.2838630711548912</v>
+        <v>0.2837783768670106</v>
       </c>
       <c r="CV4">
-        <v>0.3085468057740763</v>
+        <v>0.3084708340875529</v>
       </c>
       <c r="CW4">
-        <v>0.3168463469822681</v>
+        <v>0.3167717769449209</v>
       </c>
       <c r="CX4">
-        <v>0.3195092716490669</v>
+        <v>0.3194335846504809</v>
       </c>
       <c r="CY4">
-        <v>0.319847610377554</v>
+        <v>0.3197697677225633</v>
       </c>
       <c r="CZ4">
-        <v>0.3232028206617186</v>
+        <v>0.3231241703796</v>
       </c>
       <c r="DA4">
-        <v>0.3400624120846371</v>
+        <v>0.3399889883405199</v>
       </c>
       <c r="DB4">
-        <v>0.3543827064438579</v>
+        <v>0.3543133746031642</v>
       </c>
       <c r="DC4">
-        <v>0.3599060170824088</v>
+        <v>0.3598368463872706</v>
       </c>
       <c r="DD4">
-        <v>0.3820341486374872</v>
+        <v>0.3819725586231151</v>
       </c>
       <c r="DE4">
-        <v>0.3877135163799527</v>
+        <v>0.387652157242161</v>
       </c>
       <c r="DF4">
-        <v>0.3894509713235363</v>
+        <v>0.3893880816966977</v>
       </c>
       <c r="DG4">
-        <v>0.4401642845956665</v>
+        <v>0.4401217483716434</v>
       </c>
       <c r="DH4">
-        <v>0.4402022600316192</v>
+        <v>0.4401574339398054</v>
       </c>
       <c r="DI4">
-        <v>0.4447511471457268</v>
+        <v>0.4447060467976245</v>
       </c>
       <c r="DJ4">
-        <v>0.4499805162769042</v>
+        <v>0.4499354457324193</v>
       </c>
       <c r="DK4">
-        <v>0.4523620120366434</v>
+        <v>0.452315698779989</v>
       </c>
       <c r="DL4">
-        <v>0.4647204073466506</v>
+        <v>0.4646773093577035</v>
       </c>
       <c r="DM4">
-        <v>0.4648418591996972</v>
+        <v>0.4647965086427425</v>
       </c>
       <c r="DN4">
-        <v>0.4648513067889342</v>
+        <v>0.4648036536170859</v>
       </c>
       <c r="DO4">
-        <v>0.4697387546115345</v>
+        <v>0.4696909784625419</v>
       </c>
       <c r="DP4">
-        <v>0.4779361188171632</v>
+        <v>0.4778896986615778</v>
       </c>
       <c r="DQ4">
-        <v>0.4887433590882601</v>
+        <v>0.4886994610974881</v>
       </c>
       <c r="DR4">
-        <v>0.4997449743642327</v>
+        <v>0.4997036853908938</v>
       </c>
       <c r="DS4">
-        <v>0.4999699457398761</v>
+        <v>0.4999264504541771</v>
       </c>
       <c r="DT4">
-        <v>0.5150391731178837</v>
+        <v>0.5150001043814879</v>
       </c>
       <c r="DU4">
-        <v>0.5160512515432715</v>
+        <v>0.5160103281977046</v>
       </c>
       <c r="DV4">
-        <v>0.523536938731048</v>
+        <v>0.5234970533801143</v>
       </c>
       <c r="DW4">
-        <v>0.5288315062638609</v>
+        <v>0.5287916798491584</v>
       </c>
       <c r="DX4">
-        <v>0.5481463117483677</v>
+        <v>0.5481128089354214</v>
       </c>
       <c r="DY4">
-        <v>0.5646492521623396</v>
+        <v>0.5646208165249583</v>
       </c>
       <c r="DZ4">
-        <v>0.5688108872667331</v>
+        <v>0.568782004337176</v>
       </c>
       <c r="EA4">
-        <v>0.5842362456536743</v>
+        <v>0.584211948403505</v>
       </c>
       <c r="EB4">
-        <v>0.5876056891381959</v>
+        <v>0.5875805906207222</v>
       </c>
       <c r="EC4">
-        <v>0.5893920319830058</v>
+        <v>0.5893654248210752</v>
       </c>
       <c r="ED4">
-        <v>0.5929602373725134</v>
+        <v>0.5929329177560972</v>
       </c>
       <c r="EE4">
-        <v>0.5929786481199751</v>
+        <v>0.5929490298936752</v>
       </c>
       <c r="EF4">
-        <v>0.6115612255861143</v>
+        <v>0.611537603779989</v>
       </c>
       <c r="EG4">
-        <v>0.6377222432423566</v>
+        <v>0.6377080041322422</v>
       </c>
       <c r="EH4">
-        <v>0.6481459295038321</v>
+        <v>0.6481340411750219</v>
       </c>
       <c r="EI4">
-        <v>0.6683315330101827</v>
+        <v>0.6683263573819702</v>
       </c>
       <c r="EJ4">
-        <v>0.6815009763405347</v>
+        <v>0.681499378380767</v>
       </c>
       <c r="EK4">
-        <v>0.6817619328470808</v>
+        <v>0.6817581446541957</v>
       </c>
       <c r="EL4">
-        <v>0.6818845144501556</v>
+        <v>0.6818784741940694</v>
       </c>
       <c r="EM4">
-        <v>0.6851561278322232</v>
+        <v>0.6851492425953898</v>
       </c>
       <c r="EN4">
-        <v>0.698175908158821</v>
+        <v>0.6981725337164846</v>
       </c>
       <c r="EO4">
-        <v>0.7055260486431973</v>
+        <v>0.7055236516291354</v>
       </c>
       <c r="EP4">
-        <v>0.7249746961310616</v>
+        <v>0.7249786825234029</v>
       </c>
       <c r="EQ4">
-        <v>0.7504294207695867</v>
+        <v>0.7504424742648987</v>
       </c>
       <c r="ER4">
-        <v>0.7612665810414341</v>
+        <v>0.7612821700707191</v>
       </c>
       <c r="ES4">
-        <v>0.7693569922443799</v>
+        <v>0.7693738894772419</v>
       </c>
       <c r="ET4">
-        <v>0.7755726694002986</v>
+        <v>0.7755900371489757</v>
       </c>
       <c r="EU4">
-        <v>0.7758765647679217</v>
+        <v>0.7758917614698607</v>
       </c>
       <c r="EV4">
-        <v>0.7844617749832794</v>
+        <v>0.78447850097993</v>
       </c>
       <c r="EW4">
-        <v>0.8014169554085957</v>
+        <v>0.8014389506552995</v>
       </c>
       <c r="EX4">
-        <v>0.8105234736370304</v>
+        <v>0.8105472311146018</v>
       </c>
       <c r="EY4">
-        <v>0.8128989836966194</v>
+        <v>0.8129214957874299</v>
       </c>
       <c r="EZ4">
-        <v>0.8136731481660391</v>
+        <v>0.8136936993405415</v>
       </c>
       <c r="FA4">
-        <v>0.8170937701518445</v>
+        <v>0.8171135429271418</v>
       </c>
       <c r="FB4">
-        <v>0.8244438039362182</v>
+        <v>0.8244645540921132</v>
       </c>
       <c r="FC4">
-        <v>0.8377285212694618</v>
+        <v>0.8377529006017057</v>
       </c>
       <c r="FD4">
-        <v>0.8462399734829694</v>
+        <v>0.8462658491526232</v>
       </c>
       <c r="FE4">
-        <v>0.8463023912985351</v>
+        <v>0.8463259880219914</v>
       </c>
       <c r="FF4">
-        <v>0.8565473745555279</v>
+        <v>0.8565732422103918</v>
       </c>
       <c r="FG4">
-        <v>0.868706606860539</v>
+        <v>0.8687356007910678</v>
       </c>
       <c r="FH4">
-        <v>0.8802139371491974</v>
+        <v>0.8802457660658922</v>
       </c>
       <c r="FI4">
-        <v>0.8821296810972533</v>
+        <v>0.8821600591898102</v>
       </c>
       <c r="FJ4">
-        <v>0.8823906376037993</v>
+        <v>0.8824188254632389</v>
       </c>
       <c r="FK4">
-        <v>0.8827255985422018</v>
+        <v>0.882751629235938</v>
       </c>
       <c r="FL4">
-        <v>0.8869454976480569</v>
+        <v>0.8869711070837317</v>
       </c>
       <c r="FM4">
-        <v>0.8931611748039755</v>
+        <v>0.8931872547554655</v>
       </c>
       <c r="FN4">
-        <v>0.8970541394016295</v>
+        <v>0.8970796520108512</v>
       </c>
       <c r="FO4">
-        <v>0.8997541367693582</v>
+        <v>0.8997785489825429</v>
       </c>
       <c r="FP4">
-        <v>0.8998484359317237</v>
+        <v>0.8998705834442591</v>
       </c>
       <c r="FQ4">
-        <v>0.9033557367197034</v>
+        <v>0.903377144563739</v>
       </c>
       <c r="FR4">
-        <v>0.9041033826384579</v>
+        <v>0.9041228177168964</v>
       </c>
       <c r="FS4">
-        <v>0.9041126388166901</v>
+        <v>0.9041297711947068</v>
       </c>
       <c r="FT4">
-        <v>0.906757586583038</v>
+        <v>0.9067735939671941</v>
       </c>
       <c r="FU4">
-        <v>0.9081128460170342</v>
+        <v>0.9081271521356532</v>
       </c>
       <c r="FV4">
-        <v>0.9106423118804853</v>
+        <v>0.9106554414044437</v>
       </c>
       <c r="FW4">
-        <v>0.9198781171121631</v>
+        <v>0.9198930666363248</v>
       </c>
       <c r="FX4">
-        <v>0.9233854179001427</v>
+        <v>0.9233996277558046</v>
       </c>
       <c r="FY4">
-        <v>0.9235329174238427</v>
+        <v>0.9235448863503826</v>
       </c>
       <c r="FZ4">
-        <v>0.924122215238625</v>
+        <v>0.9241321406448553</v>
       </c>
       <c r="GA4">
-        <v>0.9275369293242822</v>
+        <v>0.9275460736914792</v>
       </c>
       <c r="GB4">
-        <v>0.9301473375897636</v>
+        <v>0.9301553415298086</v>
       </c>
       <c r="GC4">
-        <v>0.9337867634810577</v>
+        <v>0.9337940867900872</v>
       </c>
       <c r="GD4">
-        <v>0.9432421817182444</v>
+        <v>0.9432514231571973</v>
       </c>
       <c r="GE4">
-        <v>0.9489943253625354</v>
+        <v>0.9490038301965384</v>
       </c>
       <c r="GF4">
-        <v>0.9504128533981188</v>
+        <v>0.9504206852369056</v>
       </c>
       <c r="GG4">
-        <v>0.9506230423433913</v>
+        <v>0.9506286612645819</v>
       </c>
       <c r="GH4">
-        <v>0.9506825946248852</v>
+        <v>0.9506859333194712</v>
       </c>
       <c r="GI4">
-        <v>0.9507141761636775</v>
+        <v>0.9507152221334866</v>
       </c>
       <c r="GJ4">
-        <v>0.9509518835696403</v>
+        <v>0.9509507289179321</v>
       </c>
       <c r="GK4">
-        <v>0.9531407887245484</v>
+        <v>0.953138305305375</v>
       </c>
       <c r="GL4">
-        <v>0.9587005538640136</v>
+        <v>0.9586982478793673</v>
       </c>
       <c r="GM4">
-        <v>0.9711774781769941</v>
+        <v>0.9711784404223914</v>
       </c>
       <c r="GN4">
-        <v>0.9854513015350492</v>
+        <v>0.9854563349192239</v>
       </c>
       <c r="GO4">
-        <v>0.9938180637449273</v>
+        <v>0.9938245288146507</v>
       </c>
       <c r="GP4">
-        <v>0.9959574872985942</v>
+        <v>0.9959626014909794</v>
       </c>
       <c r="GQ4">
-        <v>0.9964452849108305</v>
+        <v>0.9964483102295516</v>
       </c>
       <c r="GR4">
-        <v>0.9974218889353283</v>
+        <v>0.9974230437938453</v>
       </c>
       <c r="GS4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="GT4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="GU4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="GV4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="GW4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="GX4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="GY4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="GZ4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HA4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HB4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HC4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HD4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HE4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HF4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HG4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HH4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HI4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HJ4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HK4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HL4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HM4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HN4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HO4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HP4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HQ4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HR4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HS4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HT4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HU4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HV4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HW4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HX4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HY4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HZ4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IA4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IB4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IC4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="ID4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IE4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IF4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IG4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IH4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="II4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IJ4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IK4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IL4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IM4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IN4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IO4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IP4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IQ4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IR4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IS4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IT4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IU4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IV4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IW4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:257">
@@ -8964,772 +8964,772 @@
         <v>260</v>
       </c>
       <c r="B5">
-        <v>0.0001457326334482237</v>
+        <v>9.595293826899174E-05</v>
       </c>
       <c r="C5">
-        <v>0.0004166034812705448</v>
+        <v>0.0003180841448148166</v>
       </c>
       <c r="D5">
-        <v>0.0004389610442654044</v>
+        <v>0.0003180841448148166</v>
       </c>
       <c r="E5">
-        <v>0.00045001402376849</v>
+        <v>0.0003180841448148166</v>
       </c>
       <c r="F5">
-        <v>0.000471808269788675</v>
+        <v>0.0003180841448148166</v>
       </c>
       <c r="G5">
-        <v>0.0004768507319619784</v>
+        <v>0.0003180841448148166</v>
       </c>
       <c r="H5">
-        <v>0.0005758299175121207</v>
+        <v>0.000366895055995941</v>
       </c>
       <c r="I5">
-        <v>0.0005762105599250079</v>
+        <v>0.000366895055995941</v>
       </c>
       <c r="J5">
-        <v>0.0006029703957219524</v>
+        <v>0.000366895055995941</v>
       </c>
       <c r="K5">
-        <v>0.0008597239841789503</v>
+        <v>0.0005747916712265481</v>
       </c>
       <c r="L5">
-        <v>0.001093941293649123</v>
+        <v>0.0007599647030163662</v>
       </c>
       <c r="M5">
-        <v>0.00126623470590324</v>
+        <v>0.0008826991731345559</v>
       </c>
       <c r="N5">
-        <v>0.0016391365891385</v>
+        <v>0.001207709419654613</v>
       </c>
       <c r="O5">
-        <v>0.001852144149562211</v>
+        <v>0.001371496423054507</v>
       </c>
       <c r="P5">
-        <v>0.001902714759288682</v>
+        <v>0.001371496423054507</v>
       </c>
       <c r="Q5">
-        <v>0.001988451785434159</v>
+        <v>0.001406955116048056</v>
       </c>
       <c r="R5">
-        <v>0.002059519247239142</v>
+        <v>0.001427622322411267</v>
       </c>
       <c r="S5">
-        <v>0.002059869692303387</v>
+        <v>0.001427622322411267</v>
       </c>
       <c r="T5">
-        <v>0.002070889479807965</v>
+        <v>0.001427622322411267</v>
       </c>
       <c r="U5">
-        <v>0.002074025766466965</v>
+        <v>0.001427622322411267</v>
       </c>
       <c r="V5">
-        <v>0.002183508081544913</v>
+        <v>0.001487023657164714</v>
       </c>
       <c r="W5">
-        <v>0.002290082760753581</v>
+        <v>0.00154349318998539</v>
       </c>
       <c r="X5">
-        <v>0.002302966347174367</v>
+        <v>0.00154349318998539</v>
       </c>
       <c r="Y5">
-        <v>0.002306617635610214</v>
+        <v>0.00154349318998539</v>
       </c>
       <c r="Z5">
-        <v>0.002311772900978446</v>
+        <v>0.00154349318998539</v>
       </c>
       <c r="AA5">
-        <v>0.002321505932540873</v>
+        <v>0.00154349318998539</v>
       </c>
       <c r="AB5">
-        <v>0.002330090517154932</v>
+        <v>0.00154349318998539</v>
       </c>
       <c r="AC5">
-        <v>0.00252220171851809</v>
+        <v>0.001686210159641083</v>
       </c>
       <c r="AD5">
-        <v>0.002797696406132535</v>
+        <v>0.001913003635827543</v>
       </c>
       <c r="AE5">
-        <v>0.002933473510028335</v>
+        <v>0.001998918301735157</v>
       </c>
       <c r="AF5">
-        <v>0.003002119346942189</v>
+        <v>0.00201714375649829</v>
       </c>
       <c r="AG5">
-        <v>0.003101596162469959</v>
+        <v>0.002066456433579893</v>
       </c>
       <c r="AH5">
-        <v>0.003163150564702627</v>
+        <v>0.002077531515036631</v>
       </c>
       <c r="AI5">
-        <v>0.003252911820667184</v>
+        <v>0.002117047884194566</v>
       </c>
       <c r="AJ5">
-        <v>0.003310154745093685</v>
+        <v>0.002123775654112483</v>
       </c>
       <c r="AK5">
-        <v>0.003351203313248243</v>
+        <v>0.002123775654112483</v>
       </c>
       <c r="AL5">
-        <v>0.003369086181444274</v>
+        <v>0.002123775654112483</v>
       </c>
       <c r="AM5">
-        <v>0.003406628261756476</v>
+        <v>0.002123775654112483</v>
       </c>
       <c r="AN5">
-        <v>0.003407295404526482</v>
+        <v>0.002123775654112483</v>
       </c>
       <c r="AO5">
-        <v>0.003408126611139113</v>
+        <v>0.002123775654112483</v>
       </c>
       <c r="AP5">
-        <v>0.00341279487592924</v>
+        <v>0.002123775654112483</v>
       </c>
       <c r="AQ5">
-        <v>0.00341774799370656</v>
+        <v>0.002123775654112483</v>
       </c>
       <c r="AR5">
-        <v>0.003459245877840918</v>
+        <v>0.002123775654112483</v>
       </c>
       <c r="AS5">
-        <v>0.003502302842905184</v>
+        <v>0.002123775654112483</v>
       </c>
       <c r="AT5">
-        <v>0.003711246993511575</v>
+        <v>0.00228346547571533</v>
       </c>
       <c r="AU5">
-        <v>0.003790097129966669</v>
+        <v>0.002311980040416076</v>
       </c>
       <c r="AV5">
-        <v>0.003937401973344211</v>
+        <v>0.002409518255630573</v>
       </c>
       <c r="AW5">
-        <v>0.004204830631321284</v>
+        <v>0.002628178663460547</v>
       </c>
       <c r="AX5">
-        <v>0.00430222578094264</v>
+        <v>0.002675392373407962</v>
       </c>
       <c r="AY5">
-        <v>0.004327057629826262</v>
+        <v>0.002675392373407962</v>
       </c>
       <c r="AZ5">
-        <v>0.004375241350660042</v>
+        <v>0.002675392373407962</v>
       </c>
       <c r="BA5">
-        <v>0.004412967312963977</v>
+        <v>0.002675392373407962</v>
       </c>
       <c r="BB5">
-        <v>0.004413087858978558</v>
+        <v>0.002675392373407962</v>
       </c>
       <c r="BC5">
-        <v>0.004415587805366166</v>
+        <v>0.002675392373407962</v>
       </c>
       <c r="BD5">
-        <v>0.004420474439146476</v>
+        <v>0.002675392373407962</v>
       </c>
       <c r="BE5">
-        <v>0.004455135547588199</v>
+        <v>0.002675392373407962</v>
       </c>
       <c r="BF5">
-        <v>0.004471207673865636</v>
+        <v>0.002675392373407962</v>
       </c>
       <c r="BG5">
-        <v>0.004481509862402475</v>
+        <v>0.002675392373407962</v>
       </c>
       <c r="BH5">
-        <v>0.004508218039201741</v>
+        <v>0.002675392373407962</v>
       </c>
       <c r="BI5">
-        <v>0.004573754246255396</v>
+        <v>0.002690482353426595</v>
       </c>
       <c r="BJ5">
-        <v>0.004638806048330829</v>
+        <v>0.002705083902460316</v>
       </c>
       <c r="BK5">
-        <v>0.004798865801134942</v>
+        <v>0.002815483036232124</v>
       </c>
       <c r="BL5">
-        <v>0.005046575039998551</v>
+        <v>0.003014260132096948</v>
       </c>
       <c r="BM5">
-        <v>0.005133146716106504</v>
+        <v>0.003050560412030261</v>
       </c>
       <c r="BN5">
-        <v>0.005228677415811681</v>
+        <v>0.003095894176168245</v>
       </c>
       <c r="BO5">
-        <v>0.005281911080418428</v>
+        <v>0.00309857936434038</v>
       </c>
       <c r="BP5">
-        <v>0.005301968904516678</v>
+        <v>0.00309857936434038</v>
       </c>
       <c r="BQ5">
-        <v>0.005346680482506557</v>
+        <v>0.00309857936434038</v>
       </c>
       <c r="BR5">
-        <v>0.005374854004239945</v>
+        <v>0.00309857936434038</v>
       </c>
       <c r="BS5">
-        <v>0.005374885455638531</v>
+        <v>0.00309857936434038</v>
       </c>
       <c r="BT5">
-        <v>0.005388904762008258</v>
+        <v>0.00309857936434038</v>
       </c>
       <c r="BU5">
-        <v>0.00539325483181269</v>
+        <v>0.00309857936434038</v>
       </c>
       <c r="BV5">
-        <v>0.005417443651725221</v>
+        <v>0.00309857936434038</v>
       </c>
       <c r="BW5">
-        <v>0.005442425088602118</v>
+        <v>0.00309857936434038</v>
       </c>
       <c r="BX5">
-        <v>0.005442657489541669</v>
+        <v>0.00309857936434038</v>
       </c>
       <c r="BY5">
-        <v>0.00544707029984328</v>
+        <v>0.00309857936434038</v>
       </c>
       <c r="BZ5">
-        <v>0.005487927052006463</v>
+        <v>0.00309857936434038</v>
       </c>
       <c r="CA5">
-        <v>0.005602377996861033</v>
+        <v>0.00316299062435174</v>
       </c>
       <c r="CB5">
-        <v>0.005692233942821334</v>
+        <v>0.003202602470496827</v>
       </c>
       <c r="CC5">
-        <v>0.00584148539611136</v>
+        <v>0.003302103474368621</v>
       </c>
       <c r="CD5">
-        <v>0.00596442549058428</v>
+        <v>0.00337507443936973</v>
       </c>
       <c r="CE5">
-        <v>0.005977779506983917</v>
+        <v>0.00337507443936973</v>
       </c>
       <c r="CF5">
-        <v>0.005990987877890101</v>
+        <v>0.00337507443936973</v>
       </c>
       <c r="CG5">
-        <v>0.006080465383867415</v>
+        <v>0.003414304700225793</v>
       </c>
       <c r="CH5">
-        <v>0.006134945525418124</v>
+        <v>0.003418246725112617</v>
       </c>
       <c r="CI5">
-        <v>0.006144095325006772</v>
+        <v>0.003418246725112617</v>
       </c>
       <c r="CJ5">
-        <v>0.00617787971348791</v>
+        <v>0.003418246725112617</v>
       </c>
       <c r="CK5">
-        <v>0.006178230158552155</v>
+        <v>0.003418246725112617</v>
       </c>
       <c r="CL5">
-        <v>0.006185575005221948</v>
+        <v>0.003418246725112617</v>
       </c>
       <c r="CM5">
-        <v>0.01031768281945267</v>
+        <v>0.007533706570433963</v>
       </c>
       <c r="CN5">
-        <v>0.0713870160739275</v>
+        <v>0.0690596108788715</v>
       </c>
       <c r="CO5">
-        <v>0.1658293018280375</v>
+        <v>0.164235838349988</v>
       </c>
       <c r="CP5">
-        <v>0.2260105521224383</v>
+        <v>0.2248662786265246</v>
       </c>
       <c r="CQ5">
-        <v>0.2264230400038939</v>
+        <v>0.2252312038800506</v>
       </c>
       <c r="CR5">
-        <v>0.2351002066137901</v>
+        <v>0.2339294976016732</v>
       </c>
       <c r="CS5">
-        <v>0.2396846450076851</v>
+        <v>0.2385010474552799</v>
       </c>
       <c r="CT5">
-        <v>0.270507529621965</v>
+        <v>0.2695291175886603</v>
       </c>
       <c r="CU5">
-        <v>0.2708472473866921</v>
+        <v>0.2698206679154541</v>
       </c>
       <c r="CV5">
-        <v>0.2970932862067356</v>
+        <v>0.2962338529845452</v>
       </c>
       <c r="CW5">
-        <v>0.2978069354746517</v>
+        <v>0.2969024426495022</v>
       </c>
       <c r="CX5">
-        <v>0.3063764750893865</v>
+        <v>0.30549221486203</v>
       </c>
       <c r="CY5">
-        <v>0.306553788101415</v>
+        <v>0.3056200106510277</v>
       </c>
       <c r="CZ5">
-        <v>0.3114834151797912</v>
+        <v>0.3105396181355863</v>
       </c>
       <c r="DA5">
-        <v>0.3119237522099947</v>
+        <v>0.3109326239988571</v>
       </c>
       <c r="DB5">
-        <v>0.3180342019352841</v>
+        <v>0.317042868232348</v>
       </c>
       <c r="DC5">
-        <v>0.3300829573936021</v>
+        <v>0.3291407728910705</v>
       </c>
       <c r="DD5">
-        <v>0.3316304523240306</v>
+        <v>0.3306501385110961</v>
       </c>
       <c r="DE5">
-        <v>0.3344152838988315</v>
+        <v>0.3334071245789862</v>
       </c>
       <c r="DF5">
-        <v>0.3429331065158914</v>
+        <v>0.3419447499613892</v>
       </c>
       <c r="DG5">
-        <v>0.37694080498699</v>
+        <v>0.3761841037082317</v>
       </c>
       <c r="DH5">
-        <v>0.3801668170419565</v>
+        <v>0.3793859370137404</v>
       </c>
       <c r="DI5">
-        <v>0.3827875279241359</v>
+        <v>0.3819774383423208</v>
       </c>
       <c r="DJ5">
-        <v>0.3847539048357325</v>
+        <v>0.3839091673727604</v>
       </c>
       <c r="DK5">
-        <v>0.3882853191769688</v>
+        <v>0.3874189412366514</v>
       </c>
       <c r="DL5">
-        <v>0.3949743038762488</v>
+        <v>0.3941125287879355</v>
       </c>
       <c r="DM5">
-        <v>0.3950962489507664</v>
+        <v>0.3941844964631304</v>
       </c>
       <c r="DN5">
-        <v>0.3952259257949364</v>
+        <v>0.3942642601685813</v>
       </c>
       <c r="DO5">
-        <v>0.4012849369225384</v>
+        <v>0.4003226382857842</v>
       </c>
       <c r="DP5">
-        <v>0.4176551101865761</v>
+        <v>0.4167778770966174</v>
       </c>
       <c r="DQ5">
-        <v>0.4352330813963143</v>
+        <v>0.434450952153389</v>
       </c>
       <c r="DR5">
-        <v>0.4383354545568394</v>
+        <v>0.4375281189717634</v>
       </c>
       <c r="DS5">
-        <v>0.4432454593360978</v>
+        <v>0.4424279410715402</v>
       </c>
       <c r="DT5">
-        <v>0.4558263867704906</v>
+        <v>0.4550624407160745</v>
       </c>
       <c r="DU5">
-        <v>0.4559188180723351</v>
+        <v>0.4551046493225081</v>
       </c>
       <c r="DV5">
-        <v>0.4683489095135091</v>
+        <v>0.4675870593394786</v>
       </c>
       <c r="DW5">
-        <v>0.468800004113229</v>
+        <v>0.4679909121810224</v>
       </c>
       <c r="DX5">
-        <v>0.51735872193015</v>
+        <v>0.5169022223074711</v>
       </c>
       <c r="DY5">
-        <v>0.5369420730497313</v>
+        <v>0.5365973444705304</v>
       </c>
       <c r="DZ5">
-        <v>0.5476485925683928</v>
+        <v>0.547341857542743</v>
       </c>
       <c r="EA5">
-        <v>0.5720053344733743</v>
+        <v>0.5718500432941147</v>
       </c>
       <c r="EB5">
-        <v>0.5720086501969253</v>
+        <v>0.5718500432941147</v>
       </c>
       <c r="EC5">
-        <v>0.5728307629599652</v>
+        <v>0.5726279979204819</v>
       </c>
       <c r="ED5">
-        <v>0.5774960583502251</v>
+        <v>0.5772810767924658</v>
       </c>
       <c r="EE5">
-        <v>0.580656578008136</v>
+        <v>0.5804168733777998</v>
       </c>
       <c r="EF5">
-        <v>0.5987200331960481</v>
+        <v>0.5985794673872632</v>
       </c>
       <c r="EG5">
-        <v>0.6235641320791192</v>
+        <v>0.6235790606581968</v>
       </c>
       <c r="EH5">
-        <v>0.6354522095446609</v>
+        <v>0.6355149518905642</v>
       </c>
       <c r="EI5">
-        <v>0.6582670565189621</v>
+        <v>0.6584684276503385</v>
       </c>
       <c r="EJ5">
-        <v>0.6678088990899846</v>
+        <v>0.6680385838636965</v>
       </c>
       <c r="EK5">
-        <v>0.6678141454962487</v>
+        <v>0.6680385838636965</v>
       </c>
       <c r="EL5">
-        <v>0.6688010550518797</v>
+        <v>0.668982704948573</v>
       </c>
       <c r="EM5">
-        <v>0.6748235690811225</v>
+        <v>0.6750042826312235</v>
       </c>
       <c r="EN5">
-        <v>0.6806751803180486</v>
+        <v>0.6808535371072016</v>
       </c>
       <c r="EO5">
-        <v>0.6856667323936408</v>
+        <v>0.6858355842625742</v>
       </c>
       <c r="EP5">
-        <v>0.7043408815540976</v>
+        <v>0.7046139478695838</v>
       </c>
       <c r="EQ5">
-        <v>0.7234185986964109</v>
+        <v>0.7237992336093514</v>
       </c>
       <c r="ER5">
-        <v>0.7288441438524919</v>
+        <v>0.7292188808664523</v>
       </c>
       <c r="ES5">
-        <v>0.7348202249838222</v>
+        <v>0.7351936397361687</v>
       </c>
       <c r="ET5">
-        <v>0.7371281267800647</v>
+        <v>0.7374697321470001</v>
       </c>
       <c r="EU5">
-        <v>0.7415862665796378</v>
+        <v>0.7419139337081844</v>
       </c>
       <c r="EV5">
-        <v>0.761765515672429</v>
+        <v>0.7622099064963336</v>
       </c>
       <c r="EW5">
-        <v>0.7790375068959233</v>
+        <v>0.7795744584933451</v>
       </c>
       <c r="EX5">
-        <v>0.7856629055980618</v>
+        <v>0.7862039315689187</v>
       </c>
       <c r="EY5">
-        <v>0.7856786192503554</v>
+        <v>0.7862039315689187</v>
       </c>
       <c r="EZ5">
-        <v>0.7858818264012197</v>
+        <v>0.7863578367091899</v>
       </c>
       <c r="FA5">
-        <v>0.7917403181378365</v>
+        <v>0.7922140288703523</v>
       </c>
       <c r="FB5">
-        <v>0.7993426764960534</v>
+        <v>0.7998285813495026</v>
       </c>
       <c r="FC5">
-        <v>0.8105078529940949</v>
+        <v>0.8110355634099512</v>
       </c>
       <c r="FD5">
-        <v>0.8148955592968345</v>
+        <v>0.8154087460845101</v>
       </c>
       <c r="FE5">
-        <v>0.8192561725007922</v>
+        <v>0.8197546104830039</v>
       </c>
       <c r="FF5">
-        <v>0.8388702946189901</v>
+        <v>0.8394807593898762</v>
       </c>
       <c r="FG5">
-        <v>0.8575826917777273</v>
+        <v>0.8582976888835114</v>
       </c>
       <c r="FH5">
-        <v>0.8651267940385632</v>
+        <v>0.8658535010847949</v>
       </c>
       <c r="FI5">
-        <v>0.8661846144910063</v>
+        <v>0.8668691224240618</v>
       </c>
       <c r="FJ5">
-        <v>0.8668234637922851</v>
+        <v>0.8674622904418053</v>
       </c>
       <c r="FK5">
-        <v>0.866919581317964</v>
+        <v>0.8675082159091693</v>
       </c>
       <c r="FL5">
-        <v>0.8756676239246738</v>
+        <v>0.8762779746951214</v>
       </c>
       <c r="FM5">
-        <v>0.8843745985332299</v>
+        <v>0.8850063241568751</v>
       </c>
       <c r="FN5">
-        <v>0.887402298397112</v>
+        <v>0.8880081970508151</v>
       </c>
       <c r="FO5">
-        <v>0.889167632317747</v>
+        <v>0.8897372121734719</v>
       </c>
       <c r="FP5">
-        <v>0.8924919901682922</v>
+        <v>0.8930382086502028</v>
       </c>
       <c r="FQ5">
-        <v>0.8969381299684048</v>
+        <v>0.8974703104770347</v>
       </c>
       <c r="FR5">
-        <v>0.8970859202717606</v>
+        <v>0.8975683381870024</v>
       </c>
       <c r="FS5">
-        <v>0.8978892343356456</v>
+        <v>0.8983273378736889</v>
       </c>
       <c r="FT5">
-        <v>0.9026733376205642</v>
+        <v>0.9031002120814192</v>
       </c>
       <c r="FU5">
-        <v>0.9056501249867352</v>
+        <v>0.9060507493315916</v>
       </c>
       <c r="FV5">
-        <v>0.9129865339569085</v>
+        <v>0.9133971420531454</v>
       </c>
       <c r="FW5">
-        <v>0.9239541144638335</v>
+        <v>0.9244048858545039</v>
       </c>
       <c r="FX5">
-        <v>0.9257324858838824</v>
+        <v>0.9261470468343789</v>
       </c>
       <c r="FY5">
-        <v>0.9260518914695227</v>
+        <v>0.9264181161626629</v>
       </c>
       <c r="FZ5">
-        <v>0.9265874588454449</v>
+        <v>0.9269071438540402</v>
       </c>
       <c r="GA5">
-        <v>0.9289001629414715</v>
+        <v>0.9291880784777282</v>
       </c>
       <c r="GB5">
-        <v>0.9300645254891247</v>
+        <v>0.9303111274092732</v>
       </c>
       <c r="GC5">
-        <v>0.9341921386035574</v>
+        <v>0.9344220551982618</v>
       </c>
       <c r="GD5">
-        <v>0.9463860950553475</v>
+        <v>0.9466663676509586</v>
       </c>
       <c r="GE5">
-        <v>0.9506522186635532</v>
+        <v>0.9509169571278644</v>
       </c>
       <c r="GF5">
-        <v>0.9514626278271192</v>
+        <v>0.9516831108833178</v>
       </c>
       <c r="GG5">
-        <v>0.9517163486357125</v>
+        <v>0.9518879495125193</v>
       </c>
       <c r="GH5">
-        <v>0.9518477377398056</v>
+        <v>0.9519694397088988</v>
       </c>
       <c r="GI5">
-        <v>0.9518596367442707</v>
+        <v>0.9519694397088988</v>
       </c>
       <c r="GJ5">
-        <v>0.952036417986323</v>
+        <v>0.9520966993082518</v>
       </c>
       <c r="GK5">
-        <v>0.9543476808824144</v>
+        <v>0.9543761807538442</v>
       </c>
       <c r="GL5">
-        <v>0.96026136331655</v>
+        <v>0.9602880223157332</v>
       </c>
       <c r="GM5">
-        <v>0.9735110237208783</v>
+        <v>0.9735968129313199</v>
       </c>
       <c r="GN5">
-        <v>0.9876705430843016</v>
+        <v>0.9878230245634122</v>
       </c>
       <c r="GO5">
-        <v>0.9905822749533973</v>
+        <v>0.9907079656245714</v>
       </c>
       <c r="GP5">
-        <v>0.9908609295408697</v>
+        <v>0.9909379452633063</v>
       </c>
       <c r="GQ5">
-        <v>0.9910258287034562</v>
+        <v>0.9910532240283633</v>
       </c>
       <c r="GR5">
-        <v>0.9952165878150502</v>
+        <v>0.9952278226361361</v>
       </c>
       <c r="GS5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999988</v>
       </c>
       <c r="GT5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999988</v>
       </c>
       <c r="GU5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999988</v>
       </c>
       <c r="GV5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999988</v>
       </c>
       <c r="GW5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999988</v>
       </c>
       <c r="GX5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999988</v>
       </c>
       <c r="GY5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999988</v>
       </c>
       <c r="GZ5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999988</v>
       </c>
       <c r="HA5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999988</v>
       </c>
       <c r="HB5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999988</v>
       </c>
       <c r="HC5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999988</v>
       </c>
       <c r="HD5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999988</v>
       </c>
       <c r="HE5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999988</v>
       </c>
       <c r="HF5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999988</v>
       </c>
       <c r="HG5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999988</v>
       </c>
       <c r="HH5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999988</v>
       </c>
       <c r="HI5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999988</v>
       </c>
       <c r="HJ5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999988</v>
       </c>
       <c r="HK5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999988</v>
       </c>
       <c r="HL5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999988</v>
       </c>
       <c r="HM5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999988</v>
       </c>
       <c r="HN5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999988</v>
       </c>
       <c r="HO5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999988</v>
       </c>
       <c r="HP5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999988</v>
       </c>
       <c r="HQ5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999988</v>
       </c>
       <c r="HR5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999988</v>
       </c>
       <c r="HS5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999988</v>
       </c>
       <c r="HT5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999988</v>
       </c>
       <c r="HU5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999988</v>
       </c>
       <c r="HV5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999988</v>
       </c>
       <c r="HW5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999988</v>
       </c>
       <c r="HX5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999988</v>
       </c>
       <c r="HY5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999988</v>
       </c>
       <c r="HZ5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999988</v>
       </c>
       <c r="IA5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999988</v>
       </c>
       <c r="IB5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999988</v>
       </c>
       <c r="IC5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999988</v>
       </c>
       <c r="ID5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999988</v>
       </c>
       <c r="IE5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999988</v>
       </c>
       <c r="IF5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999988</v>
       </c>
       <c r="IG5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999988</v>
       </c>
       <c r="IH5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999988</v>
       </c>
       <c r="II5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999988</v>
       </c>
       <c r="IJ5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999988</v>
       </c>
       <c r="IK5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999988</v>
       </c>
       <c r="IL5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999988</v>
       </c>
       <c r="IM5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999988</v>
       </c>
       <c r="IN5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999988</v>
       </c>
       <c r="IO5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999988</v>
       </c>
       <c r="IP5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999988</v>
       </c>
       <c r="IQ5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999988</v>
       </c>
       <c r="IR5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999988</v>
       </c>
       <c r="IS5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999988</v>
       </c>
       <c r="IT5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999988</v>
       </c>
       <c r="IU5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999988</v>
       </c>
       <c r="IV5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999988</v>
       </c>
       <c r="IW5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999988</v>
       </c>
     </row>
     <row r="6" spans="1:257">
@@ -9737,601 +9737,601 @@
         <v>261</v>
       </c>
       <c r="B6">
-        <v>5.093390371927265E-06</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>5.508464469639542E-06</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>7.121130410751171E-05</v>
+        <v>5.64422106546333E-05</v>
       </c>
       <c r="E6">
-        <v>0.0002402922431756051</v>
+        <v>0.0002164412537953152</v>
       </c>
       <c r="F6">
-        <v>0.0002496502881240273</v>
+        <v>0.0002164412537953152</v>
       </c>
       <c r="G6">
-        <v>0.0002590083330724495</v>
+        <v>0.0002164412537953152</v>
       </c>
       <c r="H6">
-        <v>0.0003072971208063009</v>
+        <v>0.0002554393049435604</v>
       </c>
       <c r="I6">
-        <v>0.0003142631117679072</v>
+        <v>0.0002554393049435604</v>
       </c>
       <c r="J6">
-        <v>0.0003146781858656194</v>
+        <v>0.0002554393049435604</v>
       </c>
       <c r="K6">
-        <v>0.0003353216887518407</v>
+        <v>0.0002667442745999415</v>
       </c>
       <c r="L6">
-        <v>0.0004790226679598183</v>
+        <v>0.0004013194778149272</v>
       </c>
       <c r="M6">
-        <v>0.0007150873566587239</v>
+        <v>0.0006284180805145229</v>
       </c>
       <c r="N6">
-        <v>0.0009976732351012233</v>
+        <v>0.0009021183046395622</v>
       </c>
       <c r="O6">
-        <v>0.001281829413535068</v>
+        <v>0.001177391543688002</v>
       </c>
       <c r="P6">
-        <v>0.001460785812548732</v>
+        <v>0.001347283120711032</v>
       </c>
       <c r="Q6">
-        <v>0.001552756762041825</v>
+        <v>0.001430038856831843</v>
       </c>
       <c r="R6">
-        <v>0.001592294621823908</v>
+        <v>0.001460270850323839</v>
       </c>
       <c r="S6">
-        <v>0.00159921783918575</v>
+        <v>0.001460270850323839</v>
       </c>
       <c r="T6">
-        <v>0.001599748140022827</v>
+        <v>0.001460270850323839</v>
       </c>
       <c r="U6">
-        <v>0.001625600853880337</v>
+        <v>0.001476794037290381</v>
       </c>
       <c r="V6">
-        <v>0.00162753442866968</v>
+        <v>0.001476794037290381</v>
       </c>
       <c r="W6">
-        <v>0.00164097873259558</v>
+        <v>0.001480887361106137</v>
       </c>
       <c r="X6">
-        <v>0.001677173140396091</v>
+        <v>0.001507770122036409</v>
       </c>
       <c r="Y6">
-        <v>0.001727956614116193</v>
+        <v>0.00154926717229769</v>
       </c>
       <c r="Z6">
-        <v>0.001770709463880556</v>
+        <v>0.001582719714250862</v>
       </c>
       <c r="AA6">
-        <v>0.001912153843100971</v>
+        <v>0.001715034415984509</v>
       </c>
       <c r="AB6">
-        <v>0.001998465912625253</v>
+        <v>0.001792121488353339</v>
       </c>
       <c r="AC6">
-        <v>0.002082027012164698</v>
+        <v>0.001866452834514548</v>
       </c>
       <c r="AD6">
-        <v>0.002254521341213978</v>
+        <v>0.002029871169134175</v>
       </c>
       <c r="AE6">
-        <v>0.002455022070108898</v>
+        <v>0.002221344324584686</v>
       </c>
       <c r="AF6">
-        <v>0.002576378169440031</v>
+        <v>0.002333536015285118</v>
       </c>
       <c r="AG6">
-        <v>0.002734249348569908</v>
+        <v>0.00248230591764522</v>
       </c>
       <c r="AH6">
-        <v>0.00274436404251416</v>
+        <v>0.002483063874830966</v>
       </c>
       <c r="AI6">
-        <v>0.002752036461471873</v>
+        <v>0.002483063874830966</v>
       </c>
       <c r="AJ6">
-        <v>0.002758377026936926</v>
+        <v>0.002483063874830966</v>
       </c>
       <c r="AK6">
-        <v>0.002758402367849786</v>
+        <v>0.002483063874830966</v>
       </c>
       <c r="AL6">
-        <v>0.002777051112747002</v>
+        <v>0.002492370637709932</v>
       </c>
       <c r="AM6">
-        <v>0.00283162547244621</v>
+        <v>0.002537665128110621</v>
       </c>
       <c r="AN6">
-        <v>0.002837414826414301</v>
+        <v>0.002537665128110621</v>
       </c>
       <c r="AO6">
-        <v>0.002842720919885056</v>
+        <v>0.002537665128110621</v>
       </c>
       <c r="AP6">
-        <v>0.002842752118842884</v>
+        <v>0.002537665128110621</v>
       </c>
       <c r="AQ6">
-        <v>0.00288043526863519</v>
+        <v>0.00256603920495702</v>
       </c>
       <c r="AR6">
-        <v>0.002927837498373928</v>
+        <v>0.002604149165317224</v>
       </c>
       <c r="AS6">
-        <v>0.002951373073244209</v>
+        <v>0.002618351207135326</v>
       </c>
       <c r="AT6">
-        <v>0.003097544722438569</v>
+        <v>0.0027554013519416</v>
       </c>
       <c r="AU6">
-        <v>0.003278754371439814</v>
+        <v>0.002927550074654085</v>
       </c>
       <c r="AV6">
-        <v>0.003284023141410775</v>
+        <v>0.002927550074654085</v>
       </c>
       <c r="AW6">
-        <v>0.003520087830109681</v>
+        <v>0.003154648677353681</v>
       </c>
       <c r="AX6">
-        <v>0.003585206729750771</v>
+        <v>0.003210505938422648</v>
       </c>
       <c r="AY6">
-        <v>0.003586611681743027</v>
+        <v>0.003210505938422648</v>
       </c>
       <c r="AZ6">
-        <v>0.003640653958445168</v>
+        <v>0.003255267425894286</v>
       </c>
       <c r="BA6">
-        <v>0.003732624907938261</v>
+        <v>0.003338023162015098</v>
       </c>
       <c r="BB6">
-        <v>0.003761702800777995</v>
+        <v>0.003357777104058783</v>
       </c>
       <c r="BC6">
-        <v>0.003763508837368041</v>
+        <v>0.003357777104058783</v>
       </c>
       <c r="BD6">
-        <v>0.003763592812817578</v>
+        <v>0.003357777104058783</v>
       </c>
       <c r="BE6">
-        <v>0.003803940707595196</v>
+        <v>0.003388820533036659</v>
       </c>
       <c r="BF6">
-        <v>0.003906368327030656</v>
+        <v>0.003482051017905531</v>
       </c>
       <c r="BG6">
-        <v>0.003965155761706644</v>
+        <v>0.00353156586737672</v>
       </c>
       <c r="BH6">
-        <v>0.004045006995266535</v>
+        <v>0.003602180933475637</v>
       </c>
       <c r="BI6">
-        <v>0.00432598629371789</v>
+        <v>0.00387427179995205</v>
       </c>
       <c r="BJ6">
-        <v>0.004662302591864249</v>
+        <v>0.004201795339685956</v>
       </c>
       <c r="BK6">
-        <v>0.004889247110613421</v>
+        <v>0.004419758004339348</v>
       </c>
       <c r="BL6">
-        <v>0.005135120459258266</v>
+        <v>0.00465668222542942</v>
       </c>
       <c r="BM6">
-        <v>0.005209403968848845</v>
+        <v>0.004721719941377807</v>
       </c>
       <c r="BN6">
-        <v>0.00521532877611619</v>
+        <v>0.004721719941377807</v>
       </c>
       <c r="BO6">
-        <v>0.005220422166488116</v>
+        <v>0.004721719941377807</v>
       </c>
       <c r="BP6">
-        <v>0.005228094585445829</v>
+        <v>0.004721719941377807</v>
       </c>
       <c r="BQ6">
-        <v>0.005244179368357176</v>
+        <v>0.004728458309371061</v>
       </c>
       <c r="BR6">
-        <v>0.005249147225729795</v>
+        <v>0.004728458309371061</v>
       </c>
       <c r="BS6">
-        <v>0.005319935295339639</v>
+        <v>0.004789994541982599</v>
       </c>
       <c r="BT6">
-        <v>0.005338584040236855</v>
+        <v>0.004799301304861566</v>
       </c>
       <c r="BU6">
-        <v>0.005352581174159709</v>
+        <v>0.00480394841447628</v>
       </c>
       <c r="BV6">
-        <v>0.00537486666303688</v>
+        <v>0.004816898208995436</v>
       </c>
       <c r="BW6">
-        <v>0.005415111522815066</v>
+        <v>0.004847838424834019</v>
       </c>
       <c r="BX6">
-        <v>0.005485293422428251</v>
+        <v>0.004908767439425994</v>
       </c>
       <c r="BY6">
-        <v>0.005519509852239663</v>
+        <v>0.004933668802590134</v>
       </c>
       <c r="BZ6">
-        <v>0.005534864596155034</v>
+        <v>0.00493967586940421</v>
       </c>
       <c r="CA6">
-        <v>0.005547171121087205</v>
+        <v>0.004942629447090862</v>
       </c>
       <c r="CB6">
-        <v>0.005567561107974824</v>
+        <v>0.004953680462438308</v>
       </c>
       <c r="CC6">
-        <v>0.005569960856961598</v>
+        <v>0.004953680462438308</v>
       </c>
       <c r="CD6">
-        <v>0.005609498716743681</v>
+        <v>0.004983912455930305</v>
       </c>
       <c r="CE6">
-        <v>0.005636599333594314</v>
+        <v>0.005001685703421559</v>
       </c>
       <c r="CF6">
-        <v>0.005648006628531441</v>
+        <v>0.005003738496411294</v>
       </c>
       <c r="CG6">
-        <v>0.005673575544390515</v>
+        <v>0.005019977394713738</v>
       </c>
       <c r="CH6">
-        <v>0.005683817016334069</v>
+        <v>0.00502086234908853</v>
       </c>
       <c r="CI6">
-        <v>0.005711798792179844</v>
+        <v>0.005039518279033385</v>
       </c>
       <c r="CJ6">
-        <v>0.005783394401785238</v>
+        <v>0.005101863447817146</v>
       </c>
       <c r="CK6">
-        <v>0.005788326147758056</v>
+        <v>0.005101863447817146</v>
       </c>
       <c r="CL6">
-        <v>0.005797748795706122</v>
+        <v>0.005101928162510578</v>
       </c>
       <c r="CM6">
-        <v>0.005828458633536862</v>
+        <v>0.005123316871056951</v>
       </c>
       <c r="CN6">
-        <v>0.05722896335023779</v>
+        <v>0.05660331501848701</v>
       </c>
       <c r="CO6">
-        <v>0.05973076403644886</v>
+        <v>0.05910006690795797</v>
       </c>
       <c r="CP6">
-        <v>0.1537708295181376</v>
+        <v>0.1532933464540174</v>
       </c>
       <c r="CQ6">
-        <v>0.1635849924640458</v>
+        <v>0.1631151031344296</v>
       </c>
       <c r="CR6">
-        <v>0.1644721274991563</v>
+        <v>0.1639943977358134</v>
       </c>
       <c r="CS6">
-        <v>0.176713987431684</v>
+        <v>0.1762480487106253</v>
       </c>
       <c r="CT6">
-        <v>0.2205598571900231</v>
+        <v>0.2201603504969475</v>
       </c>
       <c r="CU6">
-        <v>0.2239232715714853</v>
+        <v>0.223520205747755</v>
       </c>
       <c r="CV6">
-        <v>0.22825327754762</v>
+        <v>0.2278483237583116</v>
       </c>
       <c r="CW6">
-        <v>0.2587121433797429</v>
+        <v>0.2583504764829074</v>
       </c>
       <c r="CX6">
-        <v>0.2649474353453765</v>
+        <v>0.2645871745809295</v>
       </c>
       <c r="CY6">
-        <v>0.2658778741402483</v>
+        <v>0.2655098478110591</v>
       </c>
       <c r="CZ6">
-        <v>0.2659292081929653</v>
+        <v>0.2655518963922275</v>
       </c>
       <c r="DA6">
-        <v>0.2871111840762187</v>
+        <v>0.2867611201142445</v>
       </c>
       <c r="DB6">
-        <v>0.2945938477349773</v>
+        <v>0.2942473465184043</v>
       </c>
       <c r="DC6">
-        <v>0.2957870999284005</v>
+        <v>0.2954332875319318</v>
       </c>
       <c r="DD6">
-        <v>0.3228059897794832</v>
+        <v>0.3224895168125096</v>
       </c>
       <c r="DE6">
-        <v>0.3245068294701088</v>
+        <v>0.3241839229043227</v>
       </c>
       <c r="DF6">
-        <v>0.3258749052625686</v>
+        <v>0.3255449897739049</v>
       </c>
       <c r="DG6">
-        <v>0.3645646000493264</v>
+        <v>0.3642922019450789</v>
       </c>
       <c r="DH6">
-        <v>0.3722779705068134</v>
+        <v>0.3720095340228872</v>
       </c>
       <c r="DI6">
-        <v>0.3854345174342997</v>
+        <v>0.3851794534185364</v>
       </c>
       <c r="DJ6">
-        <v>0.3858016162322764</v>
+        <v>0.3855378126787565</v>
       </c>
       <c r="DK6">
-        <v>0.3858218271721651</v>
+        <v>0.385548684337546</v>
       </c>
       <c r="DL6">
-        <v>0.3973020981088904</v>
+        <v>0.3970394295857463</v>
       </c>
       <c r="DM6">
-        <v>0.3979990493350491</v>
+        <v>0.3977282115644981</v>
       </c>
       <c r="DN6">
-        <v>0.3982731906535381</v>
+        <v>0.3979934526286527</v>
       </c>
       <c r="DO6">
-        <v>0.4000189495439162</v>
+        <v>0.3997328555821782</v>
       </c>
       <c r="DP6">
-        <v>0.4106865524851206</v>
+        <v>0.4104095277922518</v>
       </c>
       <c r="DQ6">
-        <v>0.4230860684167795</v>
+        <v>0.4228211073417078</v>
       </c>
       <c r="DR6">
-        <v>0.4379124303350625</v>
+        <v>0.4376637287142524</v>
       </c>
       <c r="DS6">
-        <v>0.4381940761335102</v>
+        <v>0.4379364872330541</v>
       </c>
       <c r="DT6">
-        <v>0.4523043290557401</v>
+        <v>0.4520617615102782</v>
       </c>
       <c r="DU6">
-        <v>0.4616384200042943</v>
+        <v>0.4614026161845087</v>
       </c>
       <c r="DV6">
-        <v>0.464758620987097</v>
+        <v>0.4645188375387543</v>
       </c>
       <c r="DW6">
-        <v>0.4809983478975901</v>
+        <v>0.4807772675066073</v>
       </c>
       <c r="DX6">
-        <v>0.4913349468406188</v>
+        <v>0.4911223634371766</v>
       </c>
       <c r="DY6">
-        <v>0.5322578006150684</v>
+        <v>0.5321065955620712</v>
       </c>
       <c r="DZ6">
-        <v>0.5409612375670986</v>
+        <v>0.5408157058858575</v>
       </c>
       <c r="EA6">
-        <v>0.5596039814643472</v>
+        <v>0.5594813074783594</v>
       </c>
       <c r="EB6">
-        <v>0.573683225386748</v>
+        <v>0.5735755191434969</v>
       </c>
       <c r="EC6">
-        <v>0.5745709884318549</v>
+        <v>0.57445544284066</v>
       </c>
       <c r="ED6">
-        <v>0.5753666978274693</v>
+        <v>0.5752431537344074</v>
       </c>
       <c r="EE6">
-        <v>0.5769741175186098</v>
+        <v>0.5768439783104947</v>
       </c>
       <c r="EF6">
-        <v>0.5851972504732872</v>
+        <v>0.58507195422699</v>
       </c>
       <c r="EG6">
-        <v>0.6105294403336663</v>
+        <v>0.6104385673378548</v>
       </c>
       <c r="EH6">
-        <v>0.6287848042330501</v>
+        <v>0.628716119181247</v>
       </c>
       <c r="EI6">
-        <v>0.6467214381341905</v>
+        <v>0.6466743899659017</v>
       </c>
       <c r="EJ6">
-        <v>0.6690539800111024</v>
+        <v>0.6690361689247254</v>
       </c>
       <c r="EK6">
-        <v>0.6737332769853119</v>
+        <v>0.6737141818315501</v>
       </c>
       <c r="EL6">
-        <v>0.6737485492292278</v>
+        <v>0.6737201062557282</v>
       </c>
       <c r="EM6">
-        <v>0.6758360932177221</v>
+        <v>0.6758018852284197</v>
       </c>
       <c r="EN6">
-        <v>0.6846460256691652</v>
+        <v>0.6846176751744278</v>
       </c>
       <c r="EO6">
-        <v>0.687912626751161</v>
+        <v>0.6878805497427647</v>
       </c>
       <c r="EP6">
-        <v>0.6971927217000129</v>
+        <v>0.6971673150622197</v>
       </c>
       <c r="EQ6">
-        <v>0.719561158576727</v>
+        <v>0.7195650510806344</v>
       </c>
       <c r="ER6">
-        <v>0.7310992115131338</v>
+        <v>0.7311136782293022</v>
       </c>
       <c r="ES6">
-        <v>0.7371198221799506</v>
+        <v>0.7371353238604866</v>
       </c>
       <c r="ET6">
-        <v>0.7462317431297294</v>
+        <v>0.7462536244205148</v>
       </c>
       <c r="EU6">
-        <v>0.7463410809691268</v>
+        <v>0.7463537770726026</v>
       </c>
       <c r="EV6">
-        <v>0.7548044909224798</v>
+        <v>0.7548224454088585</v>
       </c>
       <c r="EW6">
-        <v>0.7754901488084687</v>
+        <v>0.7755344930366561</v>
       </c>
       <c r="EX6">
-        <v>0.7887646567353048</v>
+        <v>0.7888225773774619</v>
       </c>
       <c r="EY6">
-        <v>0.7914412321205526</v>
+        <v>0.7914944061384434</v>
       </c>
       <c r="EZ6">
-        <v>0.7914453272609301</v>
+        <v>0.7914944061384434</v>
       </c>
       <c r="FA6">
-        <v>0.793631290848882</v>
+        <v>0.79367477487077</v>
       </c>
       <c r="FB6">
-        <v>0.7978200584257952</v>
+        <v>0.7978614102914029</v>
       </c>
       <c r="FC6">
-        <v>0.8069696503753663</v>
+        <v>0.8070174469815842</v>
       </c>
       <c r="FD6">
-        <v>0.8177706263158356</v>
+        <v>0.8178277227829325</v>
       </c>
       <c r="FE6">
-        <v>0.8185527791815247</v>
+        <v>0.8186018537085212</v>
       </c>
       <c r="FF6">
-        <v>0.8298932871190203</v>
+        <v>0.8299525943176467</v>
       </c>
       <c r="FG6">
-        <v>0.8481584070183503</v>
+        <v>0.8482399190283844</v>
       </c>
       <c r="FH6">
-        <v>0.8691669599025595</v>
+        <v>0.8692754199158722</v>
       </c>
       <c r="FI6">
-        <v>0.872368840184912</v>
+        <v>0.87247346178711</v>
       </c>
       <c r="FJ6">
-        <v>0.8723750002468781</v>
+        <v>0.87247346178711</v>
       </c>
       <c r="FK6">
-        <v>0.8729263134438394</v>
+        <v>0.8730163539393287</v>
       </c>
       <c r="FL6">
-        <v>0.874360639035934</v>
+        <v>0.8744437851495289</v>
       </c>
       <c r="FM6">
-        <v>0.8815364449963838</v>
+        <v>0.8816226233212106</v>
       </c>
       <c r="FN6">
-        <v>0.885824652272749</v>
+        <v>0.8859088703651501</v>
       </c>
       <c r="FO6">
-        <v>0.8880578582604405</v>
+        <v>0.8881365631758167</v>
       </c>
       <c r="FP6">
-        <v>0.8880998823142089</v>
+        <v>0.8881692856617397</v>
       </c>
       <c r="FQ6">
-        <v>0.8954587952736495</v>
+        <v>0.8955315474108136</v>
       </c>
       <c r="FR6">
-        <v>0.897890296860248</v>
+        <v>0.8979578786587501</v>
       </c>
       <c r="FS6">
-        <v>0.8979764582097731</v>
+        <v>0.898034814750536</v>
       </c>
       <c r="FT6">
-        <v>0.9007740581943539</v>
+        <v>0.900827877353394</v>
       </c>
       <c r="FU6">
-        <v>0.9037796537777882</v>
+        <v>0.9038292951640478</v>
       </c>
       <c r="FV6">
-        <v>0.9062675972640757</v>
+        <v>0.9063121658955257</v>
       </c>
       <c r="FW6">
-        <v>0.9161356752096868</v>
+        <v>0.9161879307906707</v>
       </c>
       <c r="FX6">
-        <v>0.9230455291716024</v>
+        <v>0.9231003571525654</v>
       </c>
       <c r="FY6">
-        <v>0.9239073579668524</v>
+        <v>0.9239543017614796</v>
       </c>
       <c r="FZ6">
-        <v>0.9239304315167253</v>
+        <v>0.9239680409794934</v>
       </c>
       <c r="GA6">
-        <v>0.9265445117023176</v>
+        <v>0.9265772664912607</v>
       </c>
       <c r="GB6">
-        <v>0.9284479212918267</v>
+        <v>0.9284745927102672</v>
       </c>
       <c r="GC6">
-        <v>0.9312031229766412</v>
+        <v>0.9312251837098475</v>
       </c>
       <c r="GD6">
-        <v>0.9404580729256317</v>
+        <v>0.940486760555604</v>
       </c>
       <c r="GE6">
-        <v>0.9530554618561998</v>
+        <v>0.9530965552116881</v>
       </c>
       <c r="GF6">
-        <v>0.9563842018378531</v>
+        <v>0.9564216761132248</v>
       </c>
       <c r="GG6">
-        <v>0.9572619153330155</v>
+        <v>0.9572915328855178</v>
       </c>
       <c r="GH6">
-        <v>0.957534514331513</v>
+        <v>0.9575552289631243</v>
       </c>
       <c r="GI6">
-        <v>0.9575349057140509</v>
+        <v>0.9575552289631243</v>
       </c>
       <c r="GJ6">
-        <v>0.9577291163629804</v>
+        <v>0.9577404011635284</v>
       </c>
       <c r="GK6">
-        <v>0.9583658605594709</v>
+        <v>0.9583688720191293</v>
       </c>
       <c r="GL6">
-        <v>0.9618405435403199</v>
+        <v>0.9618401882444678</v>
       </c>
       <c r="GM6">
-        <v>0.9693006304992029</v>
+        <v>0.9693037989153148</v>
       </c>
       <c r="GN6">
-        <v>0.9830128954236264</v>
+        <v>0.9830303971030436</v>
       </c>
       <c r="GO6">
-        <v>0.993932471863442</v>
+        <v>0.9939594784551929</v>
       </c>
       <c r="GP6">
-        <v>0.9957237356535693</v>
+        <v>0.9957444649830597</v>
       </c>
       <c r="GQ6">
-        <v>0.9960097819219927</v>
+        <v>0.996021631579923</v>
       </c>
       <c r="GR6">
-        <v>0.9966948990182166</v>
+        <v>0.9966985589684082</v>
       </c>
       <c r="GS6">
         <v>1</v>
@@ -10567,19 +10567,19 @@
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D2">
         <v>122</v>
       </c>
       <c r="E2">
-        <v>0.005139101441527469</v>
+        <v>0.04411482787809866</v>
       </c>
       <c r="F2">
-        <v>0.5005446924574898</v>
+        <v>0.5000227438647556</v>
       </c>
       <c r="G2">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H2">
         <v>2</v>
@@ -10608,19 +10608,19 @@
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D3">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E3">
-        <v>0.009223035548227046</v>
+        <v>0.00966557211209609</v>
       </c>
       <c r="F3">
-        <v>0.5000316260373691</v>
+        <v>0.5065845023118636</v>
       </c>
       <c r="G3">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H3">
         <v>2</v>
@@ -10649,19 +10649,19 @@
         <v>0.5</v>
       </c>
       <c r="C4">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D4">
         <v>123</v>
       </c>
       <c r="E4">
-        <v>0.005955792488659505</v>
+        <v>0.005873256354375387</v>
       </c>
       <c r="F4">
-        <v>0.5150391731178837</v>
+        <v>0.5150001043814879</v>
       </c>
       <c r="G4">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H4">
         <v>2</v>
@@ -10690,19 +10690,19 @@
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D5">
         <v>127</v>
       </c>
       <c r="E5">
-        <v>0.006178230158552155</v>
+        <v>0.007533706570433963</v>
       </c>
       <c r="F5">
-        <v>0.51735872193015</v>
+        <v>0.5169022223074711</v>
       </c>
       <c r="G5">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H5">
         <v>2</v>
@@ -10731,19 +10731,19 @@
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D6">
         <v>128</v>
       </c>
       <c r="E6">
-        <v>0.005797748795706122</v>
+        <v>0.05660331501848701</v>
       </c>
       <c r="F6">
-        <v>0.5322578006150684</v>
+        <v>0.5321065955620712</v>
       </c>
       <c r="G6">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H6">
         <v>2</v>
@@ -10826,19 +10826,19 @@
         <v>0.7</v>
       </c>
       <c r="C2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D2">
         <v>140</v>
       </c>
       <c r="E2">
-        <v>0.005139101441527469</v>
+        <v>0.04411482787809866</v>
       </c>
       <c r="F2">
-        <v>0.7019299274356311</v>
+        <v>0.7023609586700519</v>
       </c>
       <c r="G2">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H2">
         <v>2</v>
@@ -10867,19 +10867,19 @@
         <v>0.7</v>
       </c>
       <c r="C3">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D3">
         <v>138</v>
       </c>
       <c r="E3">
-        <v>0.009223035548227046</v>
+        <v>0.00966557211209609</v>
       </c>
       <c r="F3">
-        <v>0.7064313791524552</v>
+        <v>0.7065418175515826</v>
       </c>
       <c r="G3">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H3">
         <v>2</v>
@@ -10908,19 +10908,19 @@
         <v>0.7</v>
       </c>
       <c r="C4">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D4">
         <v>144</v>
       </c>
       <c r="E4">
-        <v>0.005955792488659505</v>
+        <v>0.005873256354375387</v>
       </c>
       <c r="F4">
-        <v>0.7055260486431973</v>
+        <v>0.7055236516291354</v>
       </c>
       <c r="G4">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H4">
         <v>2</v>
@@ -10949,19 +10949,19 @@
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D5">
         <v>145</v>
       </c>
       <c r="E5">
-        <v>0.006178230158552155</v>
+        <v>0.007533706570433963</v>
       </c>
       <c r="F5">
-        <v>0.7043408815540976</v>
+        <v>0.7046139478695838</v>
       </c>
       <c r="G5">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H5">
         <v>2</v>
@@ -10990,19 +10990,19 @@
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D6">
         <v>146</v>
       </c>
       <c r="E6">
-        <v>0.005797748795706122</v>
+        <v>0.05660331501848701</v>
       </c>
       <c r="F6">
-        <v>0.719561158576727</v>
+        <v>0.7195650510806344</v>
       </c>
       <c r="G6">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H6">
         <v>2</v>
@@ -11085,19 +11085,19 @@
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D2">
         <v>153</v>
       </c>
       <c r="E2">
-        <v>0.005139101441527469</v>
+        <v>0.04411482787809866</v>
       </c>
       <c r="F2">
-        <v>0.8093121394945839</v>
+        <v>0.8100611551730533</v>
       </c>
       <c r="G2">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H2">
         <v>2</v>
@@ -11126,19 +11126,19 @@
         <v>0.8</v>
       </c>
       <c r="C3">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D3">
         <v>151</v>
       </c>
       <c r="E3">
-        <v>0.009223035548227046</v>
+        <v>0.00966557211209609</v>
       </c>
       <c r="F3">
-        <v>0.8105513238728983</v>
+        <v>0.8107596110227251</v>
       </c>
       <c r="G3">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H3">
         <v>2</v>
@@ -11167,19 +11167,19 @@
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D4">
         <v>152</v>
       </c>
       <c r="E4">
-        <v>0.005955792488659505</v>
+        <v>0.005873256354375387</v>
       </c>
       <c r="F4">
-        <v>0.8014169554085957</v>
+        <v>0.8014389506552995</v>
       </c>
       <c r="G4">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H4">
         <v>2</v>
@@ -11208,19 +11208,19 @@
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D5">
         <v>158</v>
       </c>
       <c r="E5">
-        <v>0.006178230158552155</v>
+        <v>0.007533706570433963</v>
       </c>
       <c r="F5">
-        <v>0.8105078529940949</v>
+        <v>0.8110355634099512</v>
       </c>
       <c r="G5">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H5">
         <v>2</v>
@@ -11249,19 +11249,19 @@
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D6">
         <v>158</v>
       </c>
       <c r="E6">
-        <v>0.005797748795706122</v>
+        <v>0.05660331501848701</v>
       </c>
       <c r="F6">
-        <v>0.8069696503753663</v>
+        <v>0.8070174469815842</v>
       </c>
       <c r="G6">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H6">
         <v>2</v>
@@ -11344,19 +11344,19 @@
         <v>0.9</v>
       </c>
       <c r="C2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D2">
         <v>168</v>
       </c>
       <c r="E2">
-        <v>0.005139101441527469</v>
+        <v>0.04411482787809866</v>
       </c>
       <c r="F2">
-        <v>0.9004296573808047</v>
+        <v>0.9012186606174054</v>
       </c>
       <c r="G2">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H2">
         <v>2</v>
@@ -11385,19 +11385,19 @@
         <v>0.9</v>
       </c>
       <c r="C3">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D3">
         <v>171</v>
       </c>
       <c r="E3">
-        <v>0.009223035548227046</v>
+        <v>0.00966557211209609</v>
       </c>
       <c r="F3">
-        <v>0.9002924253388984</v>
+        <v>0.9004514315783032</v>
       </c>
       <c r="G3">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H3">
         <v>2</v>
@@ -11426,19 +11426,19 @@
         <v>0.9</v>
       </c>
       <c r="C4">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D4">
         <v>172</v>
       </c>
       <c r="E4">
-        <v>0.005955792488659505</v>
+        <v>0.005873256354375387</v>
       </c>
       <c r="F4">
-        <v>0.9033557367197034</v>
+        <v>0.903377144563739</v>
       </c>
       <c r="G4">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H4">
         <v>2</v>
@@ -11467,19 +11467,19 @@
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D5">
         <v>175</v>
       </c>
       <c r="E5">
-        <v>0.006178230158552155</v>
+        <v>0.007533706570433963</v>
       </c>
       <c r="F5">
-        <v>0.9026733376205642</v>
+        <v>0.9031002120814192</v>
       </c>
       <c r="G5">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H5">
         <v>2</v>
@@ -11508,19 +11508,19 @@
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D6">
         <v>175</v>
       </c>
       <c r="E6">
-        <v>0.005797748795706122</v>
+        <v>0.05660331501848701</v>
       </c>
       <c r="F6">
-        <v>0.9007740581943539</v>
+        <v>0.900827877353394</v>
       </c>
       <c r="G6">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H6">
         <v>2</v>

--- a/on_trucks/Processed_Stand_Alone/2_245-70R19.xlsx
+++ b/on_trucks/Processed_Stand_Alone/2_245-70R19.xlsx
@@ -1994,19 +1994,19 @@
         <v>257</v>
       </c>
       <c r="B2">
-        <v>9.613517961684913E-05</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>8.04019424419404E-05</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>7.018181375311224E-05</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>6.494003781563575E-05</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>7.671980591372089E-08</v>
+        <v>0</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -2033,10 +2033,10 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.66995429990944E-05</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>1.865408493780205E-05</v>
+        <v>0</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -2075,10 +2075,10 @@
         <v>0</v>
       </c>
       <c r="AC2">
-        <v>1.700385655956558E-05</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>1.044691425335334E-05</v>
+        <v>0</v>
       </c>
       <c r="AE2">
         <v>0</v>
@@ -2090,19 +2090,19 @@
         <v>0</v>
       </c>
       <c r="AH2">
-        <v>3.77452353874243E-06</v>
+        <v>0</v>
       </c>
       <c r="AI2">
         <v>0</v>
       </c>
       <c r="AJ2">
-        <v>2.049759773029214E-05</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>1.337345514101466E-05</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>1.743648757569179E-05</v>
+        <v>0</v>
       </c>
       <c r="AM2">
         <v>0</v>
@@ -2135,19 +2135,19 @@
         <v>0</v>
       </c>
       <c r="AW2">
-        <v>3.25087525609813E-05</v>
+        <v>0</v>
       </c>
       <c r="AX2">
-        <v>3.849999867617577E-05</v>
+        <v>0</v>
       </c>
       <c r="AY2">
-        <v>3.321809004760052E-05</v>
+        <v>0</v>
       </c>
       <c r="AZ2">
         <v>0</v>
       </c>
       <c r="BA2">
-        <v>9.950947729250968E-06</v>
+        <v>0</v>
       </c>
       <c r="BB2">
         <v>0</v>
@@ -2192,22 +2192,22 @@
         <v>0</v>
       </c>
       <c r="BP2">
-        <v>0.0001035288072165475</v>
+        <v>0</v>
       </c>
       <c r="BQ2">
-        <v>9.858108177941973E-05</v>
+        <v>0</v>
       </c>
       <c r="BR2">
-        <v>8.04019424419404E-05</v>
+        <v>0</v>
       </c>
       <c r="BS2">
-        <v>4.327466261563183E-05</v>
+        <v>0</v>
       </c>
       <c r="BT2">
-        <v>4.958921276085584E-05</v>
+        <v>0</v>
       </c>
       <c r="BU2">
-        <v>3.450150785149273E-05</v>
+        <v>0</v>
       </c>
       <c r="BV2">
         <v>0</v>
@@ -2234,25 +2234,25 @@
         <v>0</v>
       </c>
       <c r="CD2">
-        <v>5.809684325662788E-05</v>
+        <v>0</v>
       </c>
       <c r="CE2">
-        <v>0.0001360051445231276</v>
+        <v>0</v>
       </c>
       <c r="CF2">
-        <v>0.0001467028350637244</v>
+        <v>0</v>
       </c>
       <c r="CG2">
-        <v>0.0001071625380423439</v>
+        <v>0</v>
       </c>
       <c r="CH2">
-        <v>6.401311710065822E-05</v>
+        <v>0</v>
       </c>
       <c r="CI2">
-        <v>7.712471880641562E-05</v>
+        <v>0</v>
       </c>
       <c r="CJ2">
-        <v>4.884460638650161E-06</v>
+        <v>0</v>
       </c>
       <c r="CK2">
         <v>0</v>
@@ -2264,298 +2264,298 @@
         <v>0</v>
       </c>
       <c r="CN2">
-        <v>0.04255716106081821</v>
+        <v>0.07224683772122442</v>
       </c>
       <c r="CO2">
-        <v>0.003759435899491893</v>
+        <v>0</v>
       </c>
       <c r="CP2">
-        <v>0.1395064090329782</v>
+        <v>0.6409511195322686</v>
       </c>
       <c r="CQ2">
-        <v>0.01957252137157039</v>
+        <v>0</v>
       </c>
       <c r="CR2">
-        <v>0.0007351919197931467</v>
+        <v>0</v>
       </c>
       <c r="CS2">
-        <v>0.01226763621280857</v>
+        <v>0</v>
       </c>
       <c r="CT2">
-        <v>0.02473931695679718</v>
+        <v>0</v>
       </c>
       <c r="CU2">
-        <v>0.005503020109390263</v>
+        <v>0</v>
       </c>
       <c r="CV2">
-        <v>4.317510364169036E-05</v>
+        <v>0</v>
       </c>
       <c r="CW2">
-        <v>0.04643853675320847</v>
+        <v>0.09501498726080121</v>
       </c>
       <c r="CX2">
-        <v>0.004359378821936563</v>
+        <v>0</v>
       </c>
       <c r="CY2">
-        <v>0.002256160041659828</v>
+        <v>0</v>
       </c>
       <c r="CZ2">
-        <v>0.002924440664034383</v>
+        <v>0</v>
       </c>
       <c r="DA2">
-        <v>0.03553544320044438</v>
+        <v>0.03105744124431324</v>
       </c>
       <c r="DB2">
-        <v>0.002619967785628335</v>
+        <v>0</v>
       </c>
       <c r="DC2">
-        <v>0.009490074177752635</v>
+        <v>0</v>
       </c>
       <c r="DD2">
-        <v>0.03917121450034142</v>
+        <v>0.0523848754347353</v>
       </c>
       <c r="DE2">
-        <v>0.001817245981520673</v>
+        <v>0</v>
       </c>
       <c r="DF2">
-        <v>0.003710351385878208</v>
+        <v>0</v>
       </c>
       <c r="DG2">
-        <v>0.0282392320768818</v>
+        <v>0</v>
       </c>
       <c r="DH2">
-        <v>0.02077407575859808</v>
+        <v>0</v>
       </c>
       <c r="DI2">
-        <v>0.008693546828757608</v>
+        <v>0</v>
       </c>
       <c r="DJ2">
-        <v>0.0004199664196674947</v>
+        <v>0</v>
       </c>
       <c r="DK2">
-        <v>0.0001632378371411984</v>
+        <v>0</v>
       </c>
       <c r="DL2">
-        <v>0.008371339806091095</v>
+        <v>0</v>
       </c>
       <c r="DM2">
-        <v>0.002544248418105362</v>
+        <v>0</v>
       </c>
       <c r="DN2">
-        <v>0.000165275876814845</v>
+        <v>0</v>
       </c>
       <c r="DO2">
         <v>0</v>
       </c>
       <c r="DP2">
-        <v>0.006476792938099076</v>
+        <v>0</v>
       </c>
       <c r="DQ2">
-        <v>0.01264733712873633</v>
+        <v>0</v>
       </c>
       <c r="DR2">
-        <v>0.01169709844141234</v>
+        <v>0</v>
       </c>
       <c r="DS2">
-        <v>0.001266244537475501</v>
+        <v>0</v>
       </c>
       <c r="DT2">
-        <v>0.009812155943593168</v>
+        <v>0</v>
       </c>
       <c r="DU2">
-        <v>0.009917969677748184</v>
+        <v>0</v>
       </c>
       <c r="DV2">
-        <v>0.0005965477452642273</v>
+        <v>0</v>
       </c>
       <c r="DW2">
-        <v>0.01595081318079686</v>
+        <v>0</v>
       </c>
       <c r="DX2">
-        <v>0.001356972703158148</v>
+        <v>0</v>
       </c>
       <c r="DY2">
-        <v>0.04871091174555268</v>
+        <v>0.1083447388066573</v>
       </c>
       <c r="DZ2">
-        <v>0.006992898032452919</v>
+        <v>0</v>
       </c>
       <c r="EA2">
-        <v>0.005154638450636373</v>
+        <v>0</v>
       </c>
       <c r="EB2">
-        <v>0.01617270665815892</v>
+        <v>0</v>
       </c>
       <c r="EC2">
         <v>0</v>
       </c>
       <c r="ED2">
-        <v>0.0002984661570120307</v>
+        <v>0</v>
       </c>
       <c r="EE2">
-        <v>0.004784857067217809</v>
+        <v>0</v>
       </c>
       <c r="EF2">
-        <v>0.006804810059246887</v>
+        <v>0</v>
       </c>
       <c r="EG2">
-        <v>0.02689772237939786</v>
+        <v>0</v>
       </c>
       <c r="EH2">
-        <v>0.01804954382717425</v>
+        <v>0</v>
       </c>
       <c r="EI2">
-        <v>0.007936004656713654</v>
+        <v>0</v>
       </c>
       <c r="EJ2">
-        <v>0.01821232012321578</v>
+        <v>0</v>
       </c>
       <c r="EK2">
-        <v>0.004688876397956621</v>
+        <v>0</v>
       </c>
       <c r="EL2">
         <v>0</v>
       </c>
       <c r="EM2">
-        <v>0.001128674359418518</v>
+        <v>0</v>
       </c>
       <c r="EN2">
-        <v>0.008762342120156603</v>
+        <v>0</v>
       </c>
       <c r="EO2">
-        <v>0.004766389766471072</v>
+        <v>0</v>
       </c>
       <c r="EP2">
-        <v>0.008285996471762824</v>
+        <v>0</v>
       </c>
       <c r="EQ2">
-        <v>0.01998388095026498</v>
+        <v>0</v>
       </c>
       <c r="ER2">
-        <v>0.01089314154439236</v>
+        <v>0</v>
       </c>
       <c r="ES2">
-        <v>0.005163358952077494</v>
+        <v>0</v>
       </c>
       <c r="ET2">
-        <v>0.006573569291245954</v>
+        <v>0</v>
       </c>
       <c r="EU2">
-        <v>0.000603633402693722</v>
+        <v>0</v>
       </c>
       <c r="EV2">
-        <v>0.006510016301054996</v>
+        <v>0</v>
       </c>
       <c r="EW2">
-        <v>0.01916073854602026</v>
+        <v>0</v>
       </c>
       <c r="EX2">
-        <v>0.01586845479744259</v>
+        <v>0</v>
       </c>
       <c r="EY2">
-        <v>0.004313912109308791</v>
+        <v>0</v>
       </c>
       <c r="EZ2">
         <v>0</v>
       </c>
       <c r="FA2">
-        <v>0.001544315499263158</v>
+        <v>0</v>
       </c>
       <c r="FB2">
-        <v>0.006915260518261749</v>
+        <v>0</v>
       </c>
       <c r="FC2">
-        <v>0.007048964098911536</v>
+        <v>0</v>
       </c>
       <c r="FD2">
-        <v>0.01056867434311186</v>
+        <v>0</v>
       </c>
       <c r="FE2">
-        <v>0.00135206556497318</v>
+        <v>0</v>
       </c>
       <c r="FF2">
-        <v>0.008327951447652492</v>
+        <v>0</v>
       </c>
       <c r="FG2">
-        <v>0.01665288274110207</v>
+        <v>0</v>
       </c>
       <c r="FH2">
-        <v>0.0201345224862217</v>
+        <v>0</v>
       </c>
       <c r="FI2">
-        <v>0.004362589538238034</v>
+        <v>0</v>
       </c>
       <c r="FJ2">
-        <v>0.0001503544048858662</v>
+        <v>0</v>
       </c>
       <c r="FK2">
-        <v>0.0004638904227602362</v>
+        <v>0</v>
       </c>
       <c r="FL2">
-        <v>0.0005280073414047482</v>
+        <v>0</v>
       </c>
       <c r="FM2">
-        <v>0.008794114928256802</v>
+        <v>0</v>
       </c>
       <c r="FN2">
-        <v>0.005473169589514605</v>
+        <v>0</v>
       </c>
       <c r="FO2">
-        <v>0.002114269412228605</v>
+        <v>0</v>
       </c>
       <c r="FP2">
-        <v>0.0005215701203809176</v>
+        <v>0</v>
       </c>
       <c r="FQ2">
-        <v>0.005433015079484852</v>
+        <v>0</v>
       </c>
       <c r="FR2">
-        <v>0.003098399465242554</v>
+        <v>0</v>
       </c>
       <c r="FS2">
-        <v>0.0001213019225120648</v>
+        <v>0</v>
       </c>
       <c r="FT2">
-        <v>0.001207939000184617</v>
+        <v>0</v>
       </c>
       <c r="FU2">
-        <v>0.002997437816877213</v>
+        <v>0</v>
       </c>
       <c r="FV2">
-        <v>0.0031515470476558</v>
+        <v>0</v>
       </c>
       <c r="FW2">
-        <v>0.007983564875565998</v>
+        <v>0</v>
       </c>
       <c r="FX2">
-        <v>0.008655195006886296</v>
+        <v>0</v>
       </c>
       <c r="FY2">
-        <v>0.001198491403071387</v>
+        <v>0</v>
       </c>
       <c r="FZ2">
         <v>0</v>
       </c>
       <c r="GA2">
-        <v>0.001975767282980892</v>
+        <v>0</v>
       </c>
       <c r="GB2">
-        <v>0.001375221309527262</v>
+        <v>0</v>
       </c>
       <c r="GC2">
-        <v>0.001501447360706657</v>
+        <v>0</v>
       </c>
       <c r="GD2">
-        <v>0.005092064079905182</v>
+        <v>0</v>
       </c>
       <c r="GE2">
-        <v>0.009263553268779113</v>
+        <v>0</v>
       </c>
       <c r="GF2">
-        <v>0.001997621568707597</v>
+        <v>0</v>
       </c>
       <c r="GG2">
-        <v>0.0001924468804461199</v>
+        <v>0</v>
       </c>
       <c r="GH2">
         <v>0</v>
@@ -2567,31 +2567,31 @@
         <v>0</v>
       </c>
       <c r="GK2">
-        <v>0.0003038095121948356</v>
+        <v>0</v>
       </c>
       <c r="GL2">
-        <v>0.00237337356116914</v>
+        <v>0</v>
       </c>
       <c r="GM2">
-        <v>0.006177757721144169</v>
+        <v>0</v>
       </c>
       <c r="GN2">
-        <v>0.01115387473916564</v>
+        <v>0</v>
       </c>
       <c r="GO2">
-        <v>0.009878463270779318</v>
+        <v>0</v>
       </c>
       <c r="GP2">
-        <v>0.0008907737061828584</v>
+        <v>0</v>
       </c>
       <c r="GQ2">
         <v>0</v>
       </c>
       <c r="GR2">
-        <v>0.0006759159855470408</v>
+        <v>0</v>
       </c>
       <c r="GS2">
-        <v>0.003973348395753968</v>
+        <v>0</v>
       </c>
       <c r="GT2">
         <v>0</v>
@@ -2767,25 +2767,25 @@
         <v>258</v>
       </c>
       <c r="B3">
-        <v>0.000453004801612034</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0.0002484703798361035</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>0.0001374195605053674</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>6.065386053708083E-05</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>1.825480530547238E-05</v>
+        <v>0</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1.51712750493088E-05</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -2794,40 +2794,40 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.80567883205994E-05</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>1.534364123557409E-05</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>6.478225117385895E-05</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>7.58778913105102E-05</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>7.755178593054434E-05</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.0002465005994733998</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>0.0003716372553094061</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>0.0003496442978890497</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>0.0001749058590190725</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>1.510270243584423E-05</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>8.211375408806834E-06</v>
+        <v>0</v>
       </c>
       <c r="W3">
         <v>0</v>
@@ -2836,10 +2836,10 @@
         <v>0</v>
       </c>
       <c r="Y3">
-        <v>6.14983251817747E-05</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>5.134507962122861E-05</v>
+        <v>0</v>
       </c>
       <c r="AA3">
         <v>0</v>
@@ -2851,46 +2851,46 @@
         <v>0</v>
       </c>
       <c r="AD3">
-        <v>2.753712712872686E-05</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>1.787692585942627E-05</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>5.634462464991091E-05</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.0002099537471681437</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>0.0001879290195820241</v>
+        <v>0</v>
       </c>
       <c r="AI3">
         <v>0</v>
       </c>
       <c r="AJ3">
-        <v>0.0003473848554468305</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>7.893783562827147E-05</v>
+        <v>0</v>
       </c>
       <c r="AL3">
         <v>0</v>
       </c>
       <c r="AM3">
-        <v>0.000118626645008742</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>0.0001753785204624917</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>8.300405582135248E-05</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>5.002864950833776E-05</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>3.282986325249654E-05</v>
+        <v>0</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2905,40 +2905,40 @@
         <v>0</v>
       </c>
       <c r="AV3">
-        <v>0.0001893090060719796</v>
+        <v>0</v>
       </c>
       <c r="AW3">
-        <v>0.0001767152842837479</v>
+        <v>0</v>
       </c>
       <c r="AX3">
-        <v>0.0002651770343906881</v>
+        <v>0</v>
       </c>
       <c r="AY3">
-        <v>0.0003907492965051845</v>
+        <v>0</v>
       </c>
       <c r="AZ3">
-        <v>0.0003115208009654869</v>
+        <v>0</v>
       </c>
       <c r="BA3">
-        <v>8.593007003691434E-05</v>
+        <v>0</v>
       </c>
       <c r="BB3">
-        <v>0.0001364586634179512</v>
+        <v>0</v>
       </c>
       <c r="BC3">
-        <v>0.0001440764130789031</v>
+        <v>0</v>
       </c>
       <c r="BD3">
-        <v>9.5817059946888E-05</v>
+        <v>0</v>
       </c>
       <c r="BE3">
-        <v>7.987824055763188E-05</v>
+        <v>0</v>
       </c>
       <c r="BF3">
-        <v>0.0003190570392920563</v>
+        <v>0</v>
       </c>
       <c r="BG3">
-        <v>0.0001610283938850866</v>
+        <v>0</v>
       </c>
       <c r="BH3">
         <v>0</v>
@@ -2947,424 +2947,424 @@
         <v>0</v>
       </c>
       <c r="BJ3">
-        <v>3.559575302464256E-06</v>
+        <v>0</v>
       </c>
       <c r="BK3">
-        <v>1.541248361465073E-05</v>
+        <v>0</v>
       </c>
       <c r="BL3">
-        <v>1.984661596597732E-06</v>
+        <v>0</v>
       </c>
       <c r="BM3">
-        <v>3.481692365706478E-05</v>
+        <v>0</v>
       </c>
       <c r="BN3">
-        <v>0.0001096928302708948</v>
+        <v>0</v>
       </c>
       <c r="BO3">
-        <v>0.0001286530104754635</v>
+        <v>0</v>
       </c>
       <c r="BP3">
-        <v>0.0001089622367998778</v>
+        <v>0</v>
       </c>
       <c r="BQ3">
-        <v>0.0001412170079040607</v>
+        <v>0</v>
       </c>
       <c r="BR3">
-        <v>8.063946496119538E-05</v>
+        <v>0</v>
       </c>
       <c r="BS3">
-        <v>6.103452488686193E-05</v>
+        <v>0</v>
       </c>
       <c r="BT3">
-        <v>9.663944793662255E-05</v>
+        <v>0</v>
       </c>
       <c r="BU3">
-        <v>2.782308068321094E-05</v>
+        <v>0</v>
       </c>
       <c r="BV3">
-        <v>0.0001173673811373022</v>
+        <v>0</v>
       </c>
       <c r="BW3">
-        <v>0.0001017744072797937</v>
+        <v>0</v>
       </c>
       <c r="BX3">
         <v>0</v>
       </c>
       <c r="BY3">
-        <v>5.401160840051944E-06</v>
+        <v>0</v>
       </c>
       <c r="BZ3">
         <v>0</v>
       </c>
       <c r="CA3">
-        <v>3.06506334589065E-05</v>
+        <v>0</v>
       </c>
       <c r="CB3">
-        <v>5.735064479946452E-05</v>
+        <v>0</v>
       </c>
       <c r="CC3">
-        <v>1.919990957185193E-05</v>
+        <v>0</v>
       </c>
       <c r="CD3">
-        <v>3.818032320017187E-05</v>
+        <v>0</v>
       </c>
       <c r="CE3">
-        <v>0.0001137318332196951</v>
+        <v>0</v>
       </c>
       <c r="CF3">
-        <v>0.0001604495109783581</v>
+        <v>0</v>
       </c>
       <c r="CG3">
-        <v>0.0001524453045283117</v>
+        <v>0</v>
       </c>
       <c r="CH3">
-        <v>0.0001356535283932353</v>
+        <v>0</v>
       </c>
       <c r="CI3">
-        <v>5.623944614658872E-05</v>
+        <v>0</v>
       </c>
       <c r="CJ3">
-        <v>4.407644677613803E-05</v>
+        <v>0</v>
       </c>
       <c r="CK3">
-        <v>3.304647902191008E-05</v>
+        <v>0</v>
       </c>
       <c r="CL3">
         <v>0</v>
       </c>
       <c r="CM3">
-        <v>0.001584588147551037</v>
+        <v>0</v>
       </c>
       <c r="CN3">
-        <v>0.04410444401910495</v>
+        <v>0.1009668725659436</v>
       </c>
       <c r="CO3">
-        <v>0.09730839222832412</v>
+        <v>0.4837309145143888</v>
       </c>
       <c r="CP3">
-        <v>0.02549899757163615</v>
+        <v>0</v>
       </c>
       <c r="CQ3">
-        <v>8.715618984337712E-05</v>
+        <v>0</v>
       </c>
       <c r="CR3">
-        <v>0.01332220806389348</v>
+        <v>0</v>
       </c>
       <c r="CS3">
-        <v>0.0184930692989309</v>
+        <v>0</v>
       </c>
       <c r="CT3">
-        <v>0.01496628004537122</v>
+        <v>0</v>
       </c>
       <c r="CU3">
-        <v>1.115240223110718E-05</v>
+        <v>0</v>
       </c>
       <c r="CV3">
-        <v>0.07286634012054198</v>
+        <v>0.3078879747855646</v>
       </c>
       <c r="CW3">
-        <v>0.0001285038371119131</v>
+        <v>0</v>
       </c>
       <c r="CX3">
-        <v>0.008093726298102996</v>
+        <v>0</v>
       </c>
       <c r="CY3">
-        <v>0.01617813536831709</v>
+        <v>0</v>
       </c>
       <c r="CZ3">
-        <v>0.02704457401647878</v>
+        <v>0</v>
       </c>
       <c r="DA3">
-        <v>0.001362857762531154</v>
+        <v>0</v>
       </c>
       <c r="DB3">
-        <v>0.0348346958807728</v>
+        <v>0.0342777191347088</v>
       </c>
       <c r="DC3">
-        <v>0.025624604050861</v>
+        <v>0</v>
       </c>
       <c r="DD3">
-        <v>0.003336265018590339</v>
+        <v>0</v>
       </c>
       <c r="DE3">
-        <v>0.01825049285145195</v>
+        <v>0</v>
       </c>
       <c r="DF3">
-        <v>0.01315643659385479</v>
+        <v>0</v>
       </c>
       <c r="DG3">
-        <v>0.03723872366544501</v>
+        <v>0.05157296549873811</v>
       </c>
       <c r="DH3">
-        <v>0.005255923431995005</v>
+        <v>0</v>
       </c>
       <c r="DI3">
-        <v>0.0003792137879939416</v>
+        <v>0</v>
       </c>
       <c r="DJ3">
-        <v>0.002055041123197385</v>
+        <v>0</v>
       </c>
       <c r="DK3">
-        <v>0.005129969566866738</v>
+        <v>0</v>
       </c>
       <c r="DL3">
-        <v>0.003546039371626457</v>
+        <v>0</v>
       </c>
       <c r="DM3">
-        <v>0.0002796066866671154</v>
+        <v>0</v>
       </c>
       <c r="DN3">
-        <v>0.0001618984832543885</v>
+        <v>0</v>
       </c>
       <c r="DO3">
-        <v>0.001449684582602042</v>
+        <v>0</v>
       </c>
       <c r="DP3">
-        <v>0.006754497882169388</v>
+        <v>0</v>
       </c>
       <c r="DQ3">
-        <v>0.007326130813002453</v>
+        <v>0</v>
       </c>
       <c r="DR3">
-        <v>0.003400439951155127</v>
+        <v>0</v>
       </c>
       <c r="DS3">
-        <v>0.006680083589645881</v>
+        <v>0</v>
       </c>
       <c r="DT3">
-        <v>0.01740090566866722</v>
+        <v>0</v>
       </c>
       <c r="DU3">
         <v>0</v>
       </c>
       <c r="DV3">
-        <v>0.01124009539491703</v>
+        <v>0</v>
       </c>
       <c r="DW3">
-        <v>0.0001077493846478672</v>
+        <v>0</v>
       </c>
       <c r="DX3">
-        <v>0.03306743528211741</v>
+        <v>0.02156355350065624</v>
       </c>
       <c r="DY3">
-        <v>0.00840109362624686</v>
+        <v>0</v>
       </c>
       <c r="DZ3">
-        <v>0.002681001037485553</v>
+        <v>0</v>
       </c>
       <c r="EA3">
-        <v>0.01427072902707716</v>
+        <v>0</v>
       </c>
       <c r="EB3">
         <v>0</v>
       </c>
       <c r="EC3">
-        <v>0.0003603785022478373</v>
+        <v>0</v>
       </c>
       <c r="ED3">
-        <v>0.005387295474256652</v>
+        <v>0</v>
       </c>
       <c r="EE3">
-        <v>0.005370583444446749</v>
+        <v>0</v>
       </c>
       <c r="EF3">
-        <v>0.02504304655347304</v>
+        <v>0</v>
       </c>
       <c r="EG3">
-        <v>0.02609333734594388</v>
+        <v>0</v>
       </c>
       <c r="EH3">
-        <v>0.009894207178042232</v>
+        <v>0</v>
       </c>
       <c r="EI3">
-        <v>0.02323280296634615</v>
+        <v>0</v>
       </c>
       <c r="EJ3">
-        <v>0.01031335374281172</v>
+        <v>0</v>
       </c>
       <c r="EK3">
-        <v>0.0002002385748875959</v>
+        <v>0</v>
       </c>
       <c r="EL3">
-        <v>0.0001424283056445519</v>
+        <v>0</v>
       </c>
       <c r="EM3">
-        <v>0.007921764258832729</v>
+        <v>0</v>
       </c>
       <c r="EN3">
-        <v>0.006758859861746523</v>
+        <v>0</v>
       </c>
       <c r="EO3">
-        <v>0.00726909694724217</v>
+        <v>0</v>
       </c>
       <c r="EP3">
-        <v>0.02017831212590243</v>
+        <v>0</v>
       </c>
       <c r="EQ3">
-        <v>0.01402666636161648</v>
+        <v>0</v>
       </c>
       <c r="ER3">
-        <v>0.007581469079339881</v>
+        <v>0</v>
       </c>
       <c r="ES3">
-        <v>0.0108715168454104</v>
+        <v>0</v>
       </c>
       <c r="ET3">
-        <v>0.004066914648991303</v>
+        <v>0</v>
       </c>
       <c r="EU3">
-        <v>0.00168921428321846</v>
+        <v>0</v>
       </c>
       <c r="EV3">
-        <v>0.01319795843549811</v>
+        <v>0</v>
       </c>
       <c r="EW3">
-        <v>0.01342209354528074</v>
+        <v>0</v>
       </c>
       <c r="EX3">
-        <v>0.004102634925421338</v>
+        <v>0</v>
       </c>
       <c r="EY3">
         <v>0</v>
       </c>
       <c r="EZ3">
-        <v>5.144659873898038E-05</v>
+        <v>0</v>
       </c>
       <c r="FA3">
-        <v>0.002937845378158311</v>
+        <v>0</v>
       </c>
       <c r="FB3">
-        <v>0.005743470421546559</v>
+        <v>0</v>
       </c>
       <c r="FC3">
-        <v>0.00900306104830695</v>
+        <v>0</v>
       </c>
       <c r="FD3">
-        <v>0.002999816456042504</v>
+        <v>0</v>
       </c>
       <c r="FE3">
-        <v>0.003015925975890584</v>
+        <v>0</v>
       </c>
       <c r="FF3">
-        <v>0.01172295628501851</v>
+        <v>0</v>
       </c>
       <c r="FG3">
-        <v>0.01540315993846113</v>
+        <v>0</v>
       </c>
       <c r="FH3">
-        <v>0.005342489110930643</v>
+        <v>0</v>
       </c>
       <c r="FI3">
-        <v>0.000147676640755406</v>
+        <v>0</v>
       </c>
       <c r="FJ3">
-        <v>0.002769591462780911</v>
+        <v>0</v>
       </c>
       <c r="FK3">
-        <v>0.0002145608022853441</v>
+        <v>0</v>
       </c>
       <c r="FL3">
-        <v>0.003249683594970279</v>
+        <v>0</v>
       </c>
       <c r="FM3">
-        <v>0.003668717439833463</v>
+        <v>0</v>
       </c>
       <c r="FN3">
-        <v>0.0009745724840668273</v>
+        <v>0</v>
       </c>
       <c r="FO3">
-        <v>0.0001578563815110109</v>
+        <v>0</v>
       </c>
       <c r="FP3">
-        <v>0.004764262065578654</v>
+        <v>0</v>
       </c>
       <c r="FQ3">
-        <v>0.005129969566866738</v>
+        <v>0</v>
       </c>
       <c r="FR3">
-        <v>0.0005779353424805747</v>
+        <v>0</v>
       </c>
       <c r="FS3">
-        <v>0.001067657766053073</v>
+        <v>0</v>
       </c>
       <c r="FT3">
-        <v>0.003578662257463807</v>
+        <v>0</v>
       </c>
       <c r="FU3">
-        <v>0.002204120419779775</v>
+        <v>0</v>
       </c>
       <c r="FV3">
-        <v>0.004996267511879894</v>
+        <v>0</v>
       </c>
       <c r="FW3">
-        <v>0.005639641448277027</v>
+        <v>0</v>
       </c>
       <c r="FX3">
-        <v>0.0002716329767682325</v>
+        <v>0</v>
       </c>
       <c r="FY3">
-        <v>8.769343457830993E-05</v>
+        <v>0</v>
       </c>
       <c r="FZ3">
-        <v>0.002972839192843431</v>
+        <v>0</v>
       </c>
       <c r="GA3">
-        <v>0.004183428322251025</v>
+        <v>0</v>
       </c>
       <c r="GB3">
-        <v>0.002985971864205037</v>
+        <v>0</v>
       </c>
       <c r="GC3">
-        <v>0.006773232853215956</v>
+        <v>0</v>
       </c>
       <c r="GD3">
-        <v>0.01208498374210569</v>
+        <v>0</v>
       </c>
       <c r="GE3">
-        <v>0.005193432578955664</v>
+        <v>0</v>
       </c>
       <c r="GF3">
-        <v>0.001416829136744476</v>
+        <v>0</v>
       </c>
       <c r="GG3">
-        <v>0.0003291040533608316</v>
+        <v>0</v>
       </c>
       <c r="GH3">
-        <v>0.0001595830017697814</v>
+        <v>0</v>
       </c>
       <c r="GI3">
-        <v>5.735064479946452E-05</v>
+        <v>0</v>
       </c>
       <c r="GJ3">
-        <v>0.000145061097676796</v>
+        <v>0</v>
       </c>
       <c r="GK3">
-        <v>0.001645365537672984</v>
+        <v>0</v>
       </c>
       <c r="GL3">
-        <v>0.005603606478727785</v>
+        <v>0</v>
       </c>
       <c r="GM3">
-        <v>0.01172430411023271</v>
+        <v>0</v>
       </c>
       <c r="GN3">
-        <v>0.01289625969516917</v>
+        <v>0</v>
       </c>
       <c r="GO3">
-        <v>0.003801745381643981</v>
+        <v>0</v>
       </c>
       <c r="GP3">
-        <v>0.00113619497904884</v>
+        <v>0</v>
       </c>
       <c r="GQ3">
-        <v>7.704171932889274E-05</v>
+        <v>0</v>
       </c>
       <c r="GR3">
-        <v>0.001121752891480258</v>
+        <v>0</v>
       </c>
       <c r="GS3">
-        <v>0.001686900416316141</v>
+        <v>0</v>
       </c>
       <c r="GT3">
         <v>0</v>
@@ -3543,7 +3543,7 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>6.102342646071303E-06</v>
+        <v>0</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -3552,145 +3552,145 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>2.420100951862945E-06</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>4.25262385864815E-05</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>8.948050097499405E-05</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.0001452735312494843</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.000199750783824377</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>6.52615534442494E-05</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>7.286402513149417E-05</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>1.763510982216349E-05</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>9.264354376605757E-05</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>4.404582731943705E-05</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>3.057356485673743E-05</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>2.838228610961447E-05</v>
+        <v>0</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>3.837218315398184E-05</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>2.297062195902382E-05</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>5.808307313516663E-06</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>4.431644219110956E-05</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>6.391282602747309E-05</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>0.0002745348165381846</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>0.0001746796156444294</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>0.0001228207525881165</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>0.0001371708121238743</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>3.151166886623203E-05</v>
+        <v>0</v>
       </c>
       <c r="AC4">
         <v>0</v>
       </c>
       <c r="AD4">
-        <v>9.330482513114264E-06</v>
+        <v>0</v>
       </c>
       <c r="AE4">
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>3.063367670603702E-06</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>3.063367670603702E-06</v>
+        <v>0</v>
       </c>
       <c r="AH4">
         <v>0</v>
       </c>
       <c r="AI4">
-        <v>4.404582731943705E-05</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
-        <v>5.987635411432153E-06</v>
+        <v>0</v>
       </c>
       <c r="AK4">
         <v>0</v>
       </c>
       <c r="AL4">
-        <v>0.0002094620914351884</v>
+        <v>0</v>
       </c>
       <c r="AM4">
-        <v>3.747657512555903E-06</v>
+        <v>0</v>
       </c>
       <c r="AN4">
-        <v>4.446465439093208E-05</v>
+        <v>0</v>
       </c>
       <c r="AO4">
-        <v>0.0002255360409562188</v>
+        <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.0001260592790944109</v>
+        <v>0</v>
       </c>
       <c r="AQ4">
-        <v>3.151881805945987E-05</v>
+        <v>0</v>
       </c>
       <c r="AR4">
-        <v>8.675678841327771E-05</v>
+        <v>0</v>
       </c>
       <c r="AS4">
-        <v>0.0001530791476724814</v>
+        <v>0</v>
       </c>
       <c r="AT4">
-        <v>6.210393307514152E-05</v>
+        <v>0</v>
       </c>
       <c r="AU4">
-        <v>0.0001515526858696301</v>
+        <v>0</v>
       </c>
       <c r="AV4">
-        <v>0.0002061996642535213</v>
+        <v>0</v>
       </c>
       <c r="AW4">
-        <v>4.062884610533173E-05</v>
+        <v>0</v>
       </c>
       <c r="AX4">
-        <v>8.57944605840762E-06</v>
+        <v>0</v>
       </c>
       <c r="AY4">
-        <v>5.082388477737457E-05</v>
+        <v>0</v>
       </c>
       <c r="AZ4">
-        <v>2.155702356725735E-05</v>
+        <v>0</v>
       </c>
       <c r="BA4">
         <v>0</v>
@@ -3699,94 +3699,94 @@
         <v>0</v>
       </c>
       <c r="BC4">
-        <v>2.52842913726345E-05</v>
+        <v>0</v>
       </c>
       <c r="BD4">
-        <v>0.000169545812602084</v>
+        <v>0</v>
       </c>
       <c r="BE4">
-        <v>0.0002444231970119579</v>
+        <v>0</v>
       </c>
       <c r="BF4">
-        <v>0.0002142345730912803</v>
+        <v>0</v>
       </c>
       <c r="BG4">
-        <v>0.0002076616372520811</v>
+        <v>0</v>
       </c>
       <c r="BH4">
-        <v>0.0003024382097475597</v>
+        <v>0</v>
       </c>
       <c r="BI4">
-        <v>2.095518775386624E-05</v>
+        <v>0</v>
       </c>
       <c r="BJ4">
-        <v>2.34875628536163E-05</v>
+        <v>0</v>
       </c>
       <c r="BK4">
-        <v>0.0001286077573867436</v>
+        <v>0</v>
       </c>
       <c r="BL4">
-        <v>3.694942767214898E-05</v>
+        <v>0</v>
       </c>
       <c r="BM4">
-        <v>4.362055336840659E-05</v>
+        <v>0</v>
       </c>
       <c r="BN4">
-        <v>2.185177121797295E-05</v>
+        <v>0</v>
       </c>
       <c r="BO4">
-        <v>3.848762471661276E-06</v>
+        <v>0</v>
       </c>
       <c r="BP4">
-        <v>2.872325340459721E-05</v>
+        <v>0</v>
       </c>
       <c r="BQ4">
-        <v>4.314092914151611E-06</v>
+        <v>0</v>
       </c>
       <c r="BR4">
-        <v>9.046319990306282E-05</v>
+        <v>0</v>
       </c>
       <c r="BS4">
-        <v>0.0001558972263833753</v>
+        <v>0</v>
       </c>
       <c r="BT4">
-        <v>6.901213866448262E-05</v>
+        <v>0</v>
       </c>
       <c r="BU4">
-        <v>0.0001523149763510118</v>
+        <v>0</v>
       </c>
       <c r="BV4">
-        <v>9.95429154096665E-05</v>
+        <v>0</v>
       </c>
       <c r="BW4">
-        <v>5.50816465308927E-05</v>
+        <v>0</v>
       </c>
       <c r="BX4">
-        <v>0.0001338228467360806</v>
+        <v>0</v>
       </c>
       <c r="BY4">
-        <v>8.617847610679486E-05</v>
+        <v>0</v>
       </c>
       <c r="BZ4">
-        <v>3.811942625867611E-05</v>
+        <v>0</v>
       </c>
       <c r="CA4">
-        <v>8.105841320155995E-05</v>
+        <v>0</v>
       </c>
       <c r="CB4">
-        <v>8.782904934472498E-06</v>
+        <v>0</v>
       </c>
       <c r="CC4">
         <v>0</v>
       </c>
       <c r="CD4">
-        <v>6.112248470564186E-05</v>
+        <v>0</v>
       </c>
       <c r="CE4">
-        <v>9.757284146492739E-06</v>
+        <v>0</v>
       </c>
       <c r="CF4">
-        <v>1.254318448473337E-06</v>
+        <v>0</v>
       </c>
       <c r="CG4">
         <v>0</v>
@@ -3798,346 +3798,346 @@
         <v>0</v>
       </c>
       <c r="CJ4">
-        <v>1.332359505955794E-05</v>
+        <v>0</v>
       </c>
       <c r="CK4">
-        <v>2.951924093695851E-05</v>
+        <v>0</v>
       </c>
       <c r="CL4">
-        <v>7.144107356207769E-05</v>
+        <v>0</v>
       </c>
       <c r="CM4">
-        <v>0.0001480202380817225</v>
+        <v>0</v>
       </c>
       <c r="CN4">
-        <v>0.1080753026429821</v>
+        <v>0.4485583186041455</v>
       </c>
       <c r="CO4">
-        <v>0.04435322781561809</v>
+        <v>0.08241013457293463</v>
       </c>
       <c r="CP4">
-        <v>0.06662105086550951</v>
+        <v>0.2103614449176635</v>
       </c>
       <c r="CQ4">
-        <v>1.244648629393615E-05</v>
+        <v>0</v>
       </c>
       <c r="CR4">
-        <v>0.003322473595739736</v>
+        <v>0</v>
       </c>
       <c r="CS4">
-        <v>0.001055643403133677</v>
+        <v>0</v>
       </c>
       <c r="CT4">
-        <v>0.05430581019317718</v>
+        <v>0.1395978512917789</v>
       </c>
       <c r="CU4">
-        <v>1.114527209921086E-05</v>
+        <v>0</v>
       </c>
       <c r="CV4">
-        <v>0.02469245722054234</v>
+        <v>0</v>
       </c>
       <c r="CW4">
-        <v>0.008300942857367913</v>
+        <v>0</v>
       </c>
       <c r="CX4">
-        <v>0.002661807705560037</v>
+        <v>0</v>
       </c>
       <c r="CY4">
-        <v>0.0003361830720823636</v>
+        <v>0</v>
       </c>
       <c r="CZ4">
-        <v>0.003354402657036673</v>
+        <v>0</v>
       </c>
       <c r="DA4">
-        <v>0.01686481796091993</v>
+        <v>0</v>
       </c>
       <c r="DB4">
-        <v>0.0143243862626443</v>
+        <v>0</v>
       </c>
       <c r="DC4">
-        <v>0.005523471784106452</v>
+        <v>0</v>
       </c>
       <c r="DD4">
-        <v>0.02213571223584449</v>
+        <v>0</v>
       </c>
       <c r="DE4">
-        <v>0.005679598619045796</v>
+        <v>0</v>
       </c>
       <c r="DF4">
-        <v>0.001735924454536766</v>
+        <v>0</v>
       </c>
       <c r="DG4">
-        <v>0.05073366667494569</v>
+        <v>0.1190722506134774</v>
       </c>
       <c r="DH4">
-        <v>3.568556816210619E-05</v>
+        <v>0</v>
       </c>
       <c r="DI4">
-        <v>0.004548612857819103</v>
+        <v>0</v>
       </c>
       <c r="DJ4">
-        <v>0.005229398934794739</v>
+        <v>0</v>
       </c>
       <c r="DK4">
-        <v>0.002380253047569719</v>
+        <v>0</v>
       </c>
       <c r="DL4">
-        <v>0.01236161057771447</v>
+        <v>0</v>
       </c>
       <c r="DM4">
-        <v>0.0001191992850390259</v>
+        <v>0</v>
       </c>
       <c r="DN4">
-        <v>7.144974343452557E-06</v>
+        <v>0</v>
       </c>
       <c r="DO4">
-        <v>0.004887324845455992</v>
+        <v>0</v>
       </c>
       <c r="DP4">
-        <v>0.00819872019903582</v>
+        <v>0</v>
       </c>
       <c r="DQ4">
-        <v>0.01080976243591036</v>
+        <v>0</v>
       </c>
       <c r="DR4">
-        <v>0.01100422429340569</v>
+        <v>0</v>
       </c>
       <c r="DS4">
-        <v>0.0002227650632832716</v>
+        <v>0</v>
       </c>
       <c r="DT4">
-        <v>0.0150736539273108</v>
+        <v>0</v>
       </c>
       <c r="DU4">
-        <v>0.001010223816216698</v>
+        <v>0</v>
       </c>
       <c r="DV4">
-        <v>0.007486725182409681</v>
+        <v>0</v>
       </c>
       <c r="DW4">
-        <v>0.005294626469044121</v>
+        <v>0</v>
       </c>
       <c r="DX4">
-        <v>0.01932112908626294</v>
+        <v>0</v>
       </c>
       <c r="DY4">
-        <v>0.01650800758953695</v>
+        <v>0</v>
       </c>
       <c r="DZ4">
-        <v>0.004161187812217649</v>
+        <v>0</v>
       </c>
       <c r="EA4">
-        <v>0.01542994406632905</v>
+        <v>0</v>
       </c>
       <c r="EB4">
-        <v>0.003368642217217265</v>
+        <v>0</v>
       </c>
       <c r="EC4">
-        <v>0.00178483420035308</v>
+        <v>0</v>
       </c>
       <c r="ED4">
-        <v>0.003567492935022032</v>
+        <v>0</v>
       </c>
       <c r="EE4">
-        <v>1.611213757794338E-05</v>
+        <v>0</v>
       </c>
       <c r="EF4">
-        <v>0.0185885738863139</v>
+        <v>0</v>
       </c>
       <c r="EG4">
-        <v>0.0261704003522531</v>
+        <v>0</v>
       </c>
       <c r="EH4">
-        <v>0.01042603704277974</v>
+        <v>0</v>
       </c>
       <c r="EI4">
-        <v>0.02019231620694831</v>
+        <v>0</v>
       </c>
       <c r="EJ4">
-        <v>0.01317302099879678</v>
+        <v>0</v>
       </c>
       <c r="EK4">
-        <v>0.0002587662734286659</v>
+        <v>0</v>
       </c>
       <c r="EL4">
-        <v>0.0001203295398737801</v>
+        <v>0</v>
       </c>
       <c r="EM4">
-        <v>0.003270768401320395</v>
+        <v>0</v>
       </c>
       <c r="EN4">
-        <v>0.01302329112109479</v>
+        <v>0</v>
       </c>
       <c r="EO4">
-        <v>0.007351117912650903</v>
+        <v>0</v>
       </c>
       <c r="EP4">
-        <v>0.01945503089426752</v>
+        <v>0</v>
       </c>
       <c r="EQ4">
-        <v>0.02546379174149579</v>
+        <v>0</v>
       </c>
       <c r="ER4">
-        <v>0.01083969580582038</v>
+        <v>0</v>
       </c>
       <c r="ES4">
-        <v>0.008091719406522903</v>
+        <v>0</v>
       </c>
       <c r="ET4">
-        <v>0.006216147671733679</v>
+        <v>0</v>
       </c>
       <c r="EU4">
-        <v>0.0003017243208850365</v>
+        <v>0</v>
       </c>
       <c r="EV4">
-        <v>0.008586739510069311</v>
+        <v>0</v>
       </c>
       <c r="EW4">
-        <v>0.01696044967536943</v>
+        <v>0</v>
       </c>
       <c r="EX4">
-        <v>0.009108280459302375</v>
+        <v>0</v>
       </c>
       <c r="EY4">
-        <v>0.00237426467282806</v>
+        <v>0</v>
       </c>
       <c r="EZ4">
-        <v>0.000772203553111608</v>
+        <v>0</v>
       </c>
       <c r="FA4">
-        <v>0.003419843586600287</v>
+        <v>0</v>
       </c>
       <c r="FB4">
-        <v>0.007351011164971443</v>
+        <v>0</v>
       </c>
       <c r="FC4">
-        <v>0.0132883465095925</v>
+        <v>0</v>
       </c>
       <c r="FD4">
-        <v>0.00851294855091746</v>
+        <v>0</v>
       </c>
       <c r="FE4">
-        <v>6.013886936825367E-05</v>
+        <v>0</v>
       </c>
       <c r="FF4">
-        <v>0.01024725418840038</v>
+        <v>0</v>
       </c>
       <c r="FG4">
-        <v>0.01216235858067605</v>
+        <v>0</v>
       </c>
       <c r="FH4">
-        <v>0.01151016527482436</v>
+        <v>0</v>
       </c>
       <c r="FI4">
-        <v>0.001914293123918041</v>
+        <v>0</v>
       </c>
       <c r="FJ4">
-        <v>0.0002587662734286659</v>
+        <v>0</v>
       </c>
       <c r="FK4">
-        <v>0.0003328037726990625</v>
+        <v>0</v>
       </c>
       <c r="FL4">
-        <v>0.004219477847793768</v>
+        <v>0</v>
       </c>
       <c r="FM4">
-        <v>0.006216147671733679</v>
+        <v>0</v>
       </c>
       <c r="FN4">
-        <v>0.003892397255385753</v>
+        <v>0</v>
       </c>
       <c r="FO4">
-        <v>0.00269889697169183</v>
+        <v>0</v>
       </c>
       <c r="FP4">
-        <v>9.203446171609366E-05</v>
+        <v>0</v>
       </c>
       <c r="FQ4">
-        <v>0.003506561119479857</v>
+        <v>0</v>
       </c>
       <c r="FR4">
-        <v>0.0007456731531574841</v>
+        <v>0</v>
       </c>
       <c r="FS4">
-        <v>6.953477810436276E-06</v>
+        <v>0</v>
       </c>
       <c r="FT4">
-        <v>0.002643822772487329</v>
+        <v>0</v>
       </c>
       <c r="FU4">
-        <v>0.001353558168459043</v>
+        <v>0</v>
       </c>
       <c r="FV4">
-        <v>0.002528289268790401</v>
+        <v>0</v>
       </c>
       <c r="FW4">
-        <v>0.009237625231881149</v>
+        <v>0</v>
       </c>
       <c r="FX4">
-        <v>0.003506561119479857</v>
+        <v>0</v>
       </c>
       <c r="FY4">
-        <v>0.000145258594577935</v>
+        <v>0</v>
       </c>
       <c r="FZ4">
-        <v>0.0005872542944726906</v>
+        <v>0</v>
       </c>
       <c r="GA4">
-        <v>0.00341393304662397</v>
+        <v>0</v>
       </c>
       <c r="GB4">
-        <v>0.002609267838329335</v>
+        <v>0</v>
       </c>
       <c r="GC4">
-        <v>0.003638745260278605</v>
+        <v>0</v>
       </c>
       <c r="GD4">
-        <v>0.009457336367110075</v>
+        <v>0</v>
       </c>
       <c r="GE4">
-        <v>0.005752407039341073</v>
+        <v>0</v>
       </c>
       <c r="GF4">
-        <v>0.001416855040367103</v>
+        <v>0</v>
       </c>
       <c r="GG4">
-        <v>0.0002079760276763533</v>
+        <v>0</v>
       </c>
       <c r="GH4">
-        <v>5.727205488925158E-05</v>
+        <v>0</v>
       </c>
       <c r="GI4">
-        <v>2.928881401546266E-05</v>
+        <v>0</v>
       </c>
       <c r="GJ4">
-        <v>0.0002355067844455419</v>
+        <v>0</v>
       </c>
       <c r="GK4">
-        <v>0.00218757638744295</v>
+        <v>0</v>
       </c>
       <c r="GL4">
-        <v>0.00555994257399231</v>
+        <v>0</v>
       </c>
       <c r="GM4">
-        <v>0.01248019254302412</v>
+        <v>0</v>
       </c>
       <c r="GN4">
-        <v>0.01427789449683252</v>
+        <v>0</v>
       </c>
       <c r="GO4">
-        <v>0.008368193895426786</v>
+        <v>0</v>
       </c>
       <c r="GP4">
-        <v>0.002138072676328655</v>
+        <v>0</v>
       </c>
       <c r="GQ4">
-        <v>0.0004857087385722519</v>
+        <v>0</v>
       </c>
       <c r="GR4">
-        <v>0.0009747335642937012</v>
+        <v>0</v>
       </c>
       <c r="GS4">
-        <v>0.002576956206154939</v>
+        <v>0</v>
       </c>
       <c r="GT4">
         <v>0</v>
@@ -4313,10 +4313,10 @@
         <v>260</v>
       </c>
       <c r="B5">
-        <v>9.595293826899174E-05</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>0.0002221312065458249</v>
+        <v>0</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -4331,7 +4331,7 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4.881091118112438E-05</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -4340,28 +4340,28 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.0002078966152306072</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.000185173031789818</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.0001227344701181897</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0.0003250102465200573</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.000163787003399894</v>
+        <v>0</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>3.545869299354948E-05</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>2.066720636321032E-05</v>
+        <v>0</v>
       </c>
       <c r="S5">
         <v>0</v>
@@ -4373,10 +4373,10 @@
         <v>0</v>
       </c>
       <c r="V5">
-        <v>5.940133475344669E-05</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>5.646953282067685E-05</v>
+        <v>0</v>
       </c>
       <c r="X5">
         <v>0</v>
@@ -4394,28 +4394,28 @@
         <v>0</v>
       </c>
       <c r="AC5">
-        <v>0.0001427169696556926</v>
+        <v>0</v>
       </c>
       <c r="AD5">
-        <v>0.0002267934761864603</v>
+        <v>0</v>
       </c>
       <c r="AE5">
-        <v>8.591466590761357E-05</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>1.822545476313253E-05</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>4.931267708160307E-05</v>
+        <v>0</v>
       </c>
       <c r="AH5">
-        <v>1.107508145673801E-05</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>3.951636915793539E-05</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
-        <v>6.727769917915872E-06</v>
+        <v>0</v>
       </c>
       <c r="AK5">
         <v>0</v>
@@ -4445,19 +4445,19 @@
         <v>0</v>
       </c>
       <c r="AT5">
-        <v>0.0001596898216028477</v>
+        <v>0</v>
       </c>
       <c r="AU5">
-        <v>2.851456470074622E-05</v>
+        <v>0</v>
       </c>
       <c r="AV5">
-        <v>9.753821521449664E-05</v>
+        <v>0</v>
       </c>
       <c r="AW5">
-        <v>0.0002186604078299742</v>
+        <v>0</v>
       </c>
       <c r="AX5">
-        <v>4.721370994741528E-05</v>
+        <v>0</v>
       </c>
       <c r="AY5">
         <v>0</v>
@@ -4490,25 +4490,25 @@
         <v>0</v>
       </c>
       <c r="BI5">
-        <v>1.508998001863251E-05</v>
+        <v>0</v>
       </c>
       <c r="BJ5">
-        <v>1.460154903372126E-05</v>
+        <v>0</v>
       </c>
       <c r="BK5">
-        <v>0.0001103991337718076</v>
+        <v>0</v>
       </c>
       <c r="BL5">
-        <v>0.0001987770958648245</v>
+        <v>0</v>
       </c>
       <c r="BM5">
-        <v>3.630027993331305E-05</v>
+        <v>0</v>
       </c>
       <c r="BN5">
-        <v>4.533376413798357E-05</v>
+        <v>0</v>
       </c>
       <c r="BO5">
-        <v>2.685188172134482E-06</v>
+        <v>0</v>
       </c>
       <c r="BP5">
         <v>0</v>
@@ -4544,16 +4544,16 @@
         <v>0</v>
       </c>
       <c r="CA5">
-        <v>6.441126001136006E-05</v>
+        <v>0</v>
       </c>
       <c r="CB5">
-        <v>3.961184614508715E-05</v>
+        <v>0</v>
       </c>
       <c r="CC5">
-        <v>9.950100387179386E-05</v>
+        <v>0</v>
       </c>
       <c r="CD5">
-        <v>7.297096500110881E-05</v>
+        <v>0</v>
       </c>
       <c r="CE5">
         <v>0</v>
@@ -4562,10 +4562,10 @@
         <v>0</v>
       </c>
       <c r="CG5">
-        <v>3.923026085606287E-05</v>
+        <v>0</v>
       </c>
       <c r="CH5">
-        <v>3.942024886824063E-06</v>
+        <v>0</v>
       </c>
       <c r="CI5">
         <v>0</v>
@@ -4580,337 +4580,337 @@
         <v>0</v>
       </c>
       <c r="CM5">
-        <v>0.004115459845321347</v>
+        <v>0</v>
       </c>
       <c r="CN5">
-        <v>0.06152590430843754</v>
+        <v>0.2084040848861578</v>
       </c>
       <c r="CO5">
-        <v>0.09517622747111647</v>
+        <v>0.4322601801769685</v>
       </c>
       <c r="CP5">
-        <v>0.06063044027653669</v>
+        <v>0.2024470817190378</v>
       </c>
       <c r="CQ5">
-        <v>0.0003649252535259642</v>
+        <v>0</v>
       </c>
       <c r="CR5">
-        <v>0.00869829372162257</v>
+        <v>0</v>
       </c>
       <c r="CS5">
-        <v>0.004571549853606752</v>
+        <v>0</v>
       </c>
       <c r="CT5">
-        <v>0.03102807013338039</v>
+        <v>0.005519671555268791</v>
       </c>
       <c r="CU5">
-        <v>0.0002915503267937689</v>
+        <v>0</v>
       </c>
       <c r="CV5">
-        <v>0.02641318506909108</v>
+        <v>0</v>
       </c>
       <c r="CW5">
-        <v>0.0006685896649569934</v>
+        <v>0</v>
       </c>
       <c r="CX5">
-        <v>0.008589772212527821</v>
+        <v>0</v>
       </c>
       <c r="CY5">
-        <v>0.0001277957889977646</v>
+        <v>0</v>
       </c>
       <c r="CZ5">
-        <v>0.004919607484558603</v>
+        <v>0</v>
       </c>
       <c r="DA5">
-        <v>0.0003930058632707869</v>
+        <v>0</v>
       </c>
       <c r="DB5">
-        <v>0.006110244233490898</v>
+        <v>0</v>
       </c>
       <c r="DC5">
-        <v>0.01209790465872252</v>
+        <v>0</v>
       </c>
       <c r="DD5">
-        <v>0.001509365620025587</v>
+        <v>0</v>
       </c>
       <c r="DE5">
-        <v>0.002756986067890127</v>
+        <v>0</v>
       </c>
       <c r="DF5">
-        <v>0.008537625382402917</v>
+        <v>0</v>
       </c>
       <c r="DG5">
-        <v>0.03423935374684248</v>
+        <v>0.02688248008182322</v>
       </c>
       <c r="DH5">
-        <v>0.003201833305508717</v>
+        <v>0</v>
       </c>
       <c r="DI5">
-        <v>0.002591501328580413</v>
+        <v>0</v>
       </c>
       <c r="DJ5">
-        <v>0.001931729030439578</v>
+        <v>0</v>
       </c>
       <c r="DK5">
-        <v>0.003509773863890975</v>
+        <v>0</v>
       </c>
       <c r="DL5">
-        <v>0.006693587551284116</v>
+        <v>0</v>
       </c>
       <c r="DM5">
-        <v>7.19676751948385E-05</v>
+        <v>0</v>
       </c>
       <c r="DN5">
-        <v>7.976370545094067E-05</v>
+        <v>0</v>
       </c>
       <c r="DO5">
-        <v>0.006058378117202967</v>
+        <v>0</v>
       </c>
       <c r="DP5">
-        <v>0.01645523881083317</v>
+        <v>0</v>
       </c>
       <c r="DQ5">
-        <v>0.01767307505677164</v>
+        <v>0</v>
       </c>
       <c r="DR5">
-        <v>0.00307716681837431</v>
+        <v>0</v>
       </c>
       <c r="DS5">
-        <v>0.004899822099776811</v>
+        <v>0</v>
       </c>
       <c r="DT5">
-        <v>0.01263449964453436</v>
+        <v>0</v>
       </c>
       <c r="DU5">
-        <v>4.220860643364129E-05</v>
+        <v>0</v>
       </c>
       <c r="DV5">
-        <v>0.0124824100169705</v>
+        <v>0</v>
       </c>
       <c r="DW5">
-        <v>0.0004038528415438262</v>
+        <v>0</v>
       </c>
       <c r="DX5">
-        <v>0.04891131012644868</v>
+        <v>0.124486501580744</v>
       </c>
       <c r="DY5">
-        <v>0.01969512216305935</v>
+        <v>0</v>
       </c>
       <c r="DZ5">
-        <v>0.01074451307221263</v>
+        <v>0</v>
       </c>
       <c r="EA5">
-        <v>0.02450818575137171</v>
+        <v>0</v>
       </c>
       <c r="EB5">
         <v>0</v>
       </c>
       <c r="EC5">
-        <v>0.0007779546263672189</v>
+        <v>0</v>
       </c>
       <c r="ED5">
-        <v>0.004653078871983872</v>
+        <v>0</v>
       </c>
       <c r="EE5">
-        <v>0.003135796585334068</v>
+        <v>0</v>
       </c>
       <c r="EF5">
-        <v>0.01816259400946339</v>
+        <v>0</v>
       </c>
       <c r="EG5">
-        <v>0.02499959327093362</v>
+        <v>0</v>
       </c>
       <c r="EH5">
-        <v>0.01193589123236737</v>
+        <v>0</v>
       </c>
       <c r="EI5">
-        <v>0.02295347575977436</v>
+        <v>0</v>
       </c>
       <c r="EJ5">
-        <v>0.00957015621335802</v>
+        <v>0</v>
       </c>
       <c r="EK5">
         <v>0</v>
       </c>
       <c r="EL5">
-        <v>0.0009441210848765664</v>
+        <v>0</v>
       </c>
       <c r="EM5">
-        <v>0.006021577682650467</v>
+        <v>0</v>
       </c>
       <c r="EN5">
-        <v>0.005849254475978181</v>
+        <v>0</v>
       </c>
       <c r="EO5">
-        <v>0.004982047155372546</v>
+        <v>0</v>
       </c>
       <c r="EP5">
-        <v>0.01877836360700963</v>
+        <v>0</v>
       </c>
       <c r="EQ5">
-        <v>0.01918528573976767</v>
+        <v>0</v>
       </c>
       <c r="ER5">
-        <v>0.005419647257100814</v>
+        <v>0</v>
       </c>
       <c r="ES5">
-        <v>0.005974758869716486</v>
+        <v>0</v>
       </c>
       <c r="ET5">
-        <v>0.002276092410831425</v>
+        <v>0</v>
       </c>
       <c r="EU5">
-        <v>0.004444201561184275</v>
+        <v>0</v>
       </c>
       <c r="EV5">
-        <v>0.02029597278814918</v>
+        <v>0</v>
       </c>
       <c r="EW5">
-        <v>0.01736455199701143</v>
+        <v>0</v>
       </c>
       <c r="EX5">
-        <v>0.006629473075573573</v>
+        <v>0</v>
       </c>
       <c r="EY5">
         <v>0</v>
       </c>
       <c r="EZ5">
-        <v>0.0001539051402712434</v>
+        <v>0</v>
       </c>
       <c r="FA5">
-        <v>0.005856192161162442</v>
+        <v>0</v>
       </c>
       <c r="FB5">
-        <v>0.007614552479150308</v>
+        <v>0</v>
       </c>
       <c r="FC5">
-        <v>0.01120698206044858</v>
+        <v>0</v>
       </c>
       <c r="FD5">
-        <v>0.004373182674558939</v>
+        <v>0</v>
       </c>
       <c r="FE5">
-        <v>0.004345864398493872</v>
+        <v>0</v>
       </c>
       <c r="FF5">
-        <v>0.01972614890687229</v>
+        <v>0</v>
       </c>
       <c r="FG5">
-        <v>0.01881692949363525</v>
+        <v>0</v>
       </c>
       <c r="FH5">
-        <v>0.007555812201283467</v>
+        <v>0</v>
       </c>
       <c r="FI5">
-        <v>0.001015621339266885</v>
+        <v>0</v>
       </c>
       <c r="FJ5">
-        <v>0.0005931680177435438</v>
+        <v>0</v>
       </c>
       <c r="FK5">
-        <v>4.592546736390306E-05</v>
+        <v>0</v>
       </c>
       <c r="FL5">
-        <v>0.008769758785952146</v>
+        <v>0</v>
       </c>
       <c r="FM5">
-        <v>0.008728349461753729</v>
+        <v>0</v>
       </c>
       <c r="FN5">
-        <v>0.003001872893940061</v>
+        <v>0</v>
       </c>
       <c r="FO5">
-        <v>0.001729015122656814</v>
+        <v>0</v>
       </c>
       <c r="FP5">
-        <v>0.003300996476730904</v>
+        <v>0</v>
       </c>
       <c r="FQ5">
-        <v>0.004432101826831957</v>
+        <v>0</v>
       </c>
       <c r="FR5">
-        <v>9.802770996771969E-05</v>
+        <v>0</v>
       </c>
       <c r="FS5">
-        <v>0.0007589996866864745</v>
+        <v>0</v>
       </c>
       <c r="FT5">
-        <v>0.004772874207730275</v>
+        <v>0</v>
       </c>
       <c r="FU5">
-        <v>0.002950537250172359</v>
+        <v>0</v>
       </c>
       <c r="FV5">
-        <v>0.007346392721553767</v>
+        <v>0</v>
       </c>
       <c r="FW5">
-        <v>0.01100774380135852</v>
+        <v>0</v>
       </c>
       <c r="FX5">
-        <v>0.001742160979875009</v>
+        <v>0</v>
       </c>
       <c r="FY5">
-        <v>0.0002710693282840624</v>
+        <v>0</v>
       </c>
       <c r="FZ5">
-        <v>0.0004890276913773134</v>
+        <v>0</v>
       </c>
       <c r="GA5">
-        <v>0.002280934623688103</v>
+        <v>0</v>
       </c>
       <c r="GB5">
-        <v>0.001123048931545065</v>
+        <v>0</v>
       </c>
       <c r="GC5">
-        <v>0.004110927788988568</v>
+        <v>0</v>
       </c>
       <c r="GD5">
-        <v>0.01224431245269677</v>
+        <v>0</v>
       </c>
       <c r="GE5">
-        <v>0.004250589476905802</v>
+        <v>0</v>
       </c>
       <c r="GF5">
-        <v>0.0007661537554534025</v>
+        <v>0</v>
       </c>
       <c r="GG5">
-        <v>0.0002048386292015217</v>
+        <v>0</v>
       </c>
       <c r="GH5">
-        <v>8.149019637944907E-05</v>
+        <v>0</v>
       </c>
       <c r="GI5">
         <v>0</v>
       </c>
       <c r="GJ5">
-        <v>0.0001272595993530535</v>
+        <v>0</v>
       </c>
       <c r="GK5">
-        <v>0.00227948144559239</v>
+        <v>0</v>
       </c>
       <c r="GL5">
-        <v>0.005911841561888983</v>
+        <v>0</v>
       </c>
       <c r="GM5">
-        <v>0.01330879061558678</v>
+        <v>0</v>
       </c>
       <c r="GN5">
-        <v>0.0142262116320923</v>
+        <v>0</v>
       </c>
       <c r="GO5">
-        <v>0.002884941061159255</v>
+        <v>0</v>
       </c>
       <c r="GP5">
-        <v>0.0002299796387347846</v>
+        <v>0</v>
       </c>
       <c r="GQ5">
-        <v>0.0001152787650569704</v>
+        <v>0</v>
       </c>
       <c r="GR5">
-        <v>0.00417459860777286</v>
+        <v>0</v>
       </c>
       <c r="GS5">
-        <v>0.0047721773638627</v>
+        <v>0</v>
       </c>
       <c r="GT5">
         <v>0</v>
@@ -5092,10 +5092,10 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>5.64422106546333E-05</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0.0001599990431406819</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5104,7 +5104,7 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>3.89980511482452E-05</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -5113,28 +5113,28 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1.130496965638115E-05</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.0001345752032149857</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.0002270986026995958</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0.0002737002241250392</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.0002752732390484402</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.000169891577023029</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>8.27557361208113E-05</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>3.023199349199623E-05</v>
+        <v>0</v>
       </c>
       <c r="S6">
         <v>0</v>
@@ -5143,46 +5143,46 @@
         <v>0</v>
       </c>
       <c r="U6">
-        <v>1.652318696654144E-05</v>
+        <v>0</v>
       </c>
       <c r="V6">
         <v>0</v>
       </c>
       <c r="W6">
-        <v>4.093323815756029E-06</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>2.688276093027239E-05</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <v>4.149705026128066E-05</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>3.345254195317245E-05</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>0.0001323147017336466</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>7.708707236883045E-05</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>7.433134616120868E-05</v>
+        <v>0</v>
       </c>
       <c r="AD6">
-        <v>0.0001634183346196271</v>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <v>0.0001914731554505117</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>0.0001121916907004313</v>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <v>0.0001487699023601026</v>
+        <v>0</v>
       </c>
       <c r="AH6">
-        <v>7.579571857456869E-07</v>
+        <v>0</v>
       </c>
       <c r="AI6">
         <v>0</v>
@@ -5194,10 +5194,10 @@
         <v>0</v>
       </c>
       <c r="AL6">
-        <v>9.306762878966931E-06</v>
+        <v>0</v>
       </c>
       <c r="AM6">
-        <v>4.529449040068839E-05</v>
+        <v>0</v>
       </c>
       <c r="AN6">
         <v>0</v>
@@ -5209,40 +5209,40 @@
         <v>0</v>
       </c>
       <c r="AQ6">
-        <v>2.837407684639916E-05</v>
+        <v>0</v>
       </c>
       <c r="AR6">
-        <v>3.810996036020435E-05</v>
+        <v>0</v>
       </c>
       <c r="AS6">
-        <v>1.420204181810198E-05</v>
+        <v>0</v>
       </c>
       <c r="AT6">
-        <v>0.0001370501448062735</v>
+        <v>0</v>
       </c>
       <c r="AU6">
-        <v>0.0001721487227124854</v>
+        <v>0</v>
       </c>
       <c r="AV6">
         <v>0</v>
       </c>
       <c r="AW6">
-        <v>0.0002270986026995958</v>
+        <v>0</v>
       </c>
       <c r="AX6">
-        <v>5.585726106896764E-05</v>
+        <v>0</v>
       </c>
       <c r="AY6">
         <v>0</v>
       </c>
       <c r="AZ6">
-        <v>4.476148747163791E-05</v>
+        <v>0</v>
       </c>
       <c r="BA6">
-        <v>8.27557361208113E-05</v>
+        <v>0</v>
       </c>
       <c r="BB6">
-        <v>1.975394204368565E-05</v>
+        <v>0</v>
       </c>
       <c r="BC6">
         <v>0</v>
@@ -5251,31 +5251,31 @@
         <v>0</v>
       </c>
       <c r="BE6">
-        <v>3.104342897787609E-05</v>
+        <v>0</v>
       </c>
       <c r="BF6">
-        <v>9.323048486887195E-05</v>
+        <v>0</v>
       </c>
       <c r="BG6">
-        <v>4.951484947118939E-05</v>
+        <v>0</v>
       </c>
       <c r="BH6">
-        <v>7.061506609891611E-05</v>
+        <v>0</v>
       </c>
       <c r="BI6">
-        <v>0.000272090866476413</v>
+        <v>0</v>
       </c>
       <c r="BJ6">
-        <v>0.0003275235397339064</v>
+        <v>0</v>
       </c>
       <c r="BK6">
-        <v>0.0002179626646533917</v>
+        <v>0</v>
       </c>
       <c r="BL6">
-        <v>0.000236924221090073</v>
+        <v>0</v>
       </c>
       <c r="BM6">
-        <v>6.503771594838567E-05</v>
+        <v>0</v>
       </c>
       <c r="BN6">
         <v>0</v>
@@ -5287,403 +5287,403 @@
         <v>0</v>
       </c>
       <c r="BQ6">
-        <v>6.738367993255218E-06</v>
+        <v>0</v>
       </c>
       <c r="BR6">
         <v>0</v>
       </c>
       <c r="BS6">
-        <v>6.153623261153741E-05</v>
+        <v>0</v>
       </c>
       <c r="BT6">
-        <v>9.306762878966931E-06</v>
+        <v>0</v>
       </c>
       <c r="BU6">
-        <v>4.647109614714048E-06</v>
+        <v>0</v>
       </c>
       <c r="BV6">
-        <v>1.294979451915612E-05</v>
+        <v>0</v>
       </c>
       <c r="BW6">
-        <v>3.094021583858256E-05</v>
+        <v>0</v>
       </c>
       <c r="BX6">
-        <v>6.092901459197554E-05</v>
+        <v>0</v>
       </c>
       <c r="BY6">
-        <v>2.490136316413924E-05</v>
+        <v>0</v>
       </c>
       <c r="BZ6">
-        <v>6.007066814076241E-06</v>
+        <v>0</v>
       </c>
       <c r="CA6">
-        <v>2.953577686651857E-06</v>
+        <v>0</v>
       </c>
       <c r="CB6">
-        <v>1.105101534744596E-05</v>
+        <v>0</v>
       </c>
       <c r="CC6">
         <v>0</v>
       </c>
       <c r="CD6">
-        <v>3.023199349199623E-05</v>
+        <v>0</v>
       </c>
       <c r="CE6">
-        <v>1.777324749125449E-05</v>
+        <v>0</v>
       </c>
       <c r="CF6">
-        <v>2.052792989734141E-06</v>
+        <v>0</v>
       </c>
       <c r="CG6">
-        <v>1.623889830244454E-05</v>
+        <v>0</v>
       </c>
       <c r="CH6">
-        <v>8.849543747916867E-07</v>
+        <v>0</v>
       </c>
       <c r="CI6">
-        <v>1.865592994485515E-05</v>
+        <v>0</v>
       </c>
       <c r="CJ6">
-        <v>6.234516878376134E-05</v>
+        <v>0</v>
       </c>
       <c r="CK6">
         <v>0</v>
       </c>
       <c r="CL6">
-        <v>6.471469343213075E-08</v>
+        <v>0</v>
       </c>
       <c r="CM6">
-        <v>2.138870854637282E-05</v>
+        <v>0</v>
       </c>
       <c r="CN6">
-        <v>0.05147999814743006</v>
+        <v>0.1792969958553075</v>
       </c>
       <c r="CO6">
-        <v>0.002496751889470953</v>
+        <v>0</v>
       </c>
       <c r="CP6">
-        <v>0.09419327954605945</v>
+        <v>0.536538343709402</v>
       </c>
       <c r="CQ6">
-        <v>0.009821756680412136</v>
+        <v>0</v>
       </c>
       <c r="CR6">
-        <v>0.0008792946013838723</v>
+        <v>0</v>
       </c>
       <c r="CS6">
-        <v>0.01225365097481185</v>
+        <v>0</v>
       </c>
       <c r="CT6">
-        <v>0.04391230178632225</v>
+        <v>0.1160030048607541</v>
       </c>
       <c r="CU6">
-        <v>0.003359855250807488</v>
+        <v>0</v>
       </c>
       <c r="CV6">
-        <v>0.00432811801055662</v>
+        <v>0</v>
       </c>
       <c r="CW6">
-        <v>0.03050215272459581</v>
+        <v>0.003844454431772051</v>
       </c>
       <c r="CX6">
-        <v>0.006236698098022084</v>
+        <v>0</v>
       </c>
       <c r="CY6">
-        <v>0.0009226732301295742</v>
+        <v>0</v>
       </c>
       <c r="CZ6">
-        <v>4.204858116843929E-05</v>
+        <v>0</v>
       </c>
       <c r="DA6">
-        <v>0.02120922372201694</v>
+        <v>0</v>
       </c>
       <c r="DB6">
-        <v>0.007486226404159821</v>
+        <v>0</v>
       </c>
       <c r="DC6">
-        <v>0.001185941013527498</v>
+        <v>0</v>
       </c>
       <c r="DD6">
-        <v>0.0270562292805779</v>
+        <v>0</v>
       </c>
       <c r="DE6">
-        <v>0.001694406091813055</v>
+        <v>0</v>
       </c>
       <c r="DF6">
-        <v>0.001361066869582193</v>
+        <v>0</v>
       </c>
       <c r="DG6">
-        <v>0.03874721217117406</v>
+        <v>0.07280371144468005</v>
       </c>
       <c r="DH6">
-        <v>0.007717332077808228</v>
+        <v>0</v>
       </c>
       <c r="DI6">
-        <v>0.0131699193956492</v>
+        <v>0</v>
       </c>
       <c r="DJ6">
-        <v>0.0003583592602201775</v>
+        <v>0</v>
       </c>
       <c r="DK6">
-        <v>1.087165878946967E-05</v>
+        <v>0</v>
       </c>
       <c r="DL6">
-        <v>0.01149074524820034</v>
+        <v>0</v>
       </c>
       <c r="DM6">
-        <v>0.0006887819787517239</v>
+        <v>0</v>
       </c>
       <c r="DN6">
-        <v>0.0002652410641546162</v>
+        <v>0</v>
       </c>
       <c r="DO6">
-        <v>0.001739402953525616</v>
+        <v>0</v>
       </c>
       <c r="DP6">
-        <v>0.01067667221007357</v>
+        <v>0</v>
       </c>
       <c r="DQ6">
-        <v>0.012411579549456</v>
+        <v>0</v>
       </c>
       <c r="DR6">
-        <v>0.01484262137254461</v>
+        <v>0</v>
       </c>
       <c r="DS6">
-        <v>0.000272758518801731</v>
+        <v>0</v>
       </c>
       <c r="DT6">
-        <v>0.01412527427722411</v>
+        <v>0</v>
       </c>
       <c r="DU6">
-        <v>0.009340854674230532</v>
+        <v>0</v>
       </c>
       <c r="DV6">
-        <v>0.003116221354245621</v>
+        <v>0</v>
       </c>
       <c r="DW6">
-        <v>0.01625842996785294</v>
+        <v>0</v>
       </c>
       <c r="DX6">
-        <v>0.01034509593056939</v>
+        <v>0</v>
       </c>
       <c r="DY6">
-        <v>0.04098423212489454</v>
+        <v>0.09151348969808425</v>
       </c>
       <c r="DZ6">
-        <v>0.008709110323786325</v>
+        <v>0</v>
       </c>
       <c r="EA6">
-        <v>0.01866560159250194</v>
+        <v>0</v>
       </c>
       <c r="EB6">
-        <v>0.01409421166513741</v>
+        <v>0</v>
       </c>
       <c r="EC6">
-        <v>0.0008799236971630515</v>
+        <v>0</v>
       </c>
       <c r="ED6">
-        <v>0.0007877108937474407</v>
+        <v>0</v>
       </c>
       <c r="EE6">
-        <v>0.001600824576087319</v>
+        <v>0</v>
       </c>
       <c r="EF6">
-        <v>0.008227975916495234</v>
+        <v>0</v>
       </c>
       <c r="EG6">
-        <v>0.0253666131108648</v>
+        <v>0</v>
       </c>
       <c r="EH6">
-        <v>0.01827755184339216</v>
+        <v>0</v>
       </c>
       <c r="EI6">
-        <v>0.01795827078465459</v>
+        <v>0</v>
       </c>
       <c r="EJ6">
-        <v>0.02236177895882379</v>
+        <v>0</v>
       </c>
       <c r="EK6">
-        <v>0.004678012906824634</v>
+        <v>0</v>
       </c>
       <c r="EL6">
-        <v>5.924424178159162E-06</v>
+        <v>0</v>
       </c>
       <c r="EM6">
-        <v>0.002081778972691448</v>
+        <v>0</v>
       </c>
       <c r="EN6">
-        <v>0.008815789946008226</v>
+        <v>0</v>
       </c>
       <c r="EO6">
-        <v>0.003262874568336814</v>
+        <v>0</v>
       </c>
       <c r="EP6">
-        <v>0.009286765319455038</v>
+        <v>0</v>
       </c>
       <c r="EQ6">
-        <v>0.02239773601841462</v>
+        <v>0</v>
       </c>
       <c r="ER6">
-        <v>0.01154862714866773</v>
+        <v>0</v>
       </c>
       <c r="ES6">
-        <v>0.006021645631184454</v>
+        <v>0</v>
       </c>
       <c r="ET6">
-        <v>0.00911830056002815</v>
+        <v>0</v>
       </c>
       <c r="EU6">
-        <v>0.0001001526520878646</v>
+        <v>0</v>
       </c>
       <c r="EV6">
-        <v>0.008468668336255805</v>
+        <v>0</v>
       </c>
       <c r="EW6">
-        <v>0.02071204762779765</v>
+        <v>0</v>
       </c>
       <c r="EX6">
-        <v>0.01328808434080574</v>
+        <v>0</v>
       </c>
       <c r="EY6">
-        <v>0.002671828760981451</v>
+        <v>0</v>
       </c>
       <c r="EZ6">
         <v>0</v>
       </c>
       <c r="FA6">
-        <v>0.002180368732326651</v>
+        <v>0</v>
       </c>
       <c r="FB6">
-        <v>0.004186635420632859</v>
+        <v>0</v>
       </c>
       <c r="FC6">
-        <v>0.009156036690181267</v>
+        <v>0</v>
       </c>
       <c r="FD6">
-        <v>0.01081027580134834</v>
+        <v>0</v>
       </c>
       <c r="FE6">
-        <v>0.0007741309255887873</v>
+        <v>0</v>
       </c>
       <c r="FF6">
-        <v>0.01135074060912545</v>
+        <v>0</v>
       </c>
       <c r="FG6">
-        <v>0.0182873247107377</v>
+        <v>0</v>
       </c>
       <c r="FH6">
-        <v>0.02103550088748788</v>
+        <v>0</v>
       </c>
       <c r="FI6">
-        <v>0.003198041871237883</v>
+        <v>0</v>
       </c>
       <c r="FJ6">
         <v>0</v>
       </c>
       <c r="FK6">
-        <v>0.0005428921522187531</v>
+        <v>0</v>
       </c>
       <c r="FL6">
-        <v>0.001427431210200121</v>
+        <v>0</v>
       </c>
       <c r="FM6">
-        <v>0.007178838171681625</v>
+        <v>0</v>
       </c>
       <c r="FN6">
-        <v>0.004286247043939565</v>
+        <v>0</v>
       </c>
       <c r="FO6">
-        <v>0.002227692810666637</v>
+        <v>0</v>
       </c>
       <c r="FP6">
-        <v>3.272248592304128E-05</v>
+        <v>0</v>
       </c>
       <c r="FQ6">
-        <v>0.007362261749073964</v>
+        <v>0</v>
       </c>
       <c r="FR6">
-        <v>0.002426331247936431</v>
+        <v>0</v>
       </c>
       <c r="FS6">
-        <v>7.693609178597686E-05</v>
+        <v>0</v>
       </c>
       <c r="FT6">
-        <v>0.002793062602857931</v>
+        <v>0</v>
       </c>
       <c r="FU6">
-        <v>0.003001417810653733</v>
+        <v>0</v>
       </c>
       <c r="FV6">
-        <v>0.002482870731477861</v>
+        <v>0</v>
       </c>
       <c r="FW6">
-        <v>0.009875764895145094</v>
+        <v>0</v>
       </c>
       <c r="FX6">
-        <v>0.006912426361894741</v>
+        <v>0</v>
       </c>
       <c r="FY6">
-        <v>0.0008539446089141738</v>
+        <v>0</v>
       </c>
       <c r="FZ6">
-        <v>1.373921801374335E-05</v>
+        <v>0</v>
       </c>
       <c r="GA6">
-        <v>0.002609225511767332</v>
+        <v>0</v>
       </c>
       <c r="GB6">
-        <v>0.00189732621900649</v>
+        <v>0</v>
       </c>
       <c r="GC6">
-        <v>0.00275059099958032</v>
+        <v>0</v>
       </c>
       <c r="GD6">
-        <v>0.009261576845756432</v>
+        <v>0</v>
       </c>
       <c r="GE6">
-        <v>0.01260979465608411</v>
+        <v>0</v>
       </c>
       <c r="GF6">
-        <v>0.003325120901536663</v>
+        <v>0</v>
       </c>
       <c r="GG6">
-        <v>0.0008698567722929853</v>
+        <v>0</v>
       </c>
       <c r="GH6">
-        <v>0.0002636960776064025</v>
+        <v>0</v>
       </c>
       <c r="GI6">
         <v>0</v>
       </c>
       <c r="GJ6">
-        <v>0.0001851722004040962</v>
+        <v>0</v>
       </c>
       <c r="GK6">
-        <v>0.0006284708556009551</v>
+        <v>0</v>
       </c>
       <c r="GL6">
-        <v>0.00347131622533843</v>
+        <v>0</v>
       </c>
       <c r="GM6">
-        <v>0.007463610670846985</v>
+        <v>0</v>
       </c>
       <c r="GN6">
-        <v>0.01372659818772878</v>
+        <v>0</v>
       </c>
       <c r="GO6">
-        <v>0.01092908135214935</v>
+        <v>0</v>
       </c>
       <c r="GP6">
-        <v>0.001784986527866742</v>
+        <v>0</v>
       </c>
       <c r="GQ6">
-        <v>0.0002771665968632342</v>
+        <v>0</v>
       </c>
       <c r="GR6">
-        <v>0.000676927388485235</v>
+        <v>0</v>
       </c>
       <c r="GS6">
-        <v>0.003301441031591891</v>
+        <v>0</v>
       </c>
       <c r="GT6">
         <v>0</v>
@@ -6645,601 +6645,601 @@
         <v>257</v>
       </c>
       <c r="B2">
-        <v>9.613517961684913E-05</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0.0001765371220587895</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>0.0002467189358119018</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0.0003116589736275375</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.0003117356934334512</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0003117356934334512</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>0.0003117356934334512</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.0003117356934334512</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.0003117356934334512</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0.0003117356934334512</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.0003117356934334512</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.0003117356934334512</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.0003117356934334512</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.0003384352364325456</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.0003570893213703477</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.0003570893213703477</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>0.0003570893213703477</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>0.0003570893213703477</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>0.0003570893213703477</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>0.0003570893213703477</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>0.0003570893213703477</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>0.0003570893213703477</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>0.0003570893213703477</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <v>0.0003570893213703477</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>0.0003570893213703477</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>0.0003570893213703477</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.0003570893213703477</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>0.0003740931779299133</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>0.0003845400921832667</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>0.0003845400921832667</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>0.0003845400921832667</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.0003845400921832667</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>0.0003883146157220091</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>0.0003883146157220091</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>0.0004088122134523012</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>0.0004221856685933159</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>0.0004396221561690077</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>0.0004396221561690077</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>0.0004396221561690077</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>0.0004396221561690077</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.0004396221561690077</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>0.0004396221561690077</v>
+        <v>0</v>
       </c>
       <c r="AR2">
-        <v>0.0004396221561690077</v>
+        <v>0</v>
       </c>
       <c r="AS2">
-        <v>0.0004396221561690077</v>
+        <v>0</v>
       </c>
       <c r="AT2">
-        <v>0.0004396221561690077</v>
+        <v>0</v>
       </c>
       <c r="AU2">
-        <v>0.0004396221561690077</v>
+        <v>0</v>
       </c>
       <c r="AV2">
-        <v>0.0004396221561690077</v>
+        <v>0</v>
       </c>
       <c r="AW2">
-        <v>0.000472130908729989</v>
+        <v>0</v>
       </c>
       <c r="AX2">
-        <v>0.0005106309074061647</v>
+        <v>0</v>
       </c>
       <c r="AY2">
-        <v>0.0005438489974537653</v>
+        <v>0</v>
       </c>
       <c r="AZ2">
-        <v>0.0005438489974537653</v>
+        <v>0</v>
       </c>
       <c r="BA2">
-        <v>0.0005537999451830163</v>
+        <v>0</v>
       </c>
       <c r="BB2">
-        <v>0.0005537999451830163</v>
+        <v>0</v>
       </c>
       <c r="BC2">
-        <v>0.0005537999451830163</v>
+        <v>0</v>
       </c>
       <c r="BD2">
-        <v>0.0005537999451830163</v>
+        <v>0</v>
       </c>
       <c r="BE2">
-        <v>0.0005537999451830163</v>
+        <v>0</v>
       </c>
       <c r="BF2">
-        <v>0.0005537999451830163</v>
+        <v>0</v>
       </c>
       <c r="BG2">
-        <v>0.0005537999451830163</v>
+        <v>0</v>
       </c>
       <c r="BH2">
-        <v>0.0005537999451830163</v>
+        <v>0</v>
       </c>
       <c r="BI2">
-        <v>0.0005537999451830163</v>
+        <v>0</v>
       </c>
       <c r="BJ2">
-        <v>0.0005537999451830163</v>
+        <v>0</v>
       </c>
       <c r="BK2">
-        <v>0.0005537999451830163</v>
+        <v>0</v>
       </c>
       <c r="BL2">
-        <v>0.0005537999451830163</v>
+        <v>0</v>
       </c>
       <c r="BM2">
-        <v>0.0005537999451830163</v>
+        <v>0</v>
       </c>
       <c r="BN2">
-        <v>0.0005537999451830163</v>
+        <v>0</v>
       </c>
       <c r="BO2">
-        <v>0.0005537999451830163</v>
+        <v>0</v>
       </c>
       <c r="BP2">
-        <v>0.0006573287523995638</v>
+        <v>0</v>
       </c>
       <c r="BQ2">
-        <v>0.0007559098341789835</v>
+        <v>0</v>
       </c>
       <c r="BR2">
-        <v>0.0008363117766209239</v>
+        <v>0</v>
       </c>
       <c r="BS2">
-        <v>0.0008795864392365557</v>
+        <v>0</v>
       </c>
       <c r="BT2">
-        <v>0.0009291756519974115</v>
+        <v>0</v>
       </c>
       <c r="BU2">
-        <v>0.0009636771598489043</v>
+        <v>0</v>
       </c>
       <c r="BV2">
-        <v>0.0009636771598489043</v>
+        <v>0</v>
       </c>
       <c r="BW2">
-        <v>0.0009636771598489043</v>
+        <v>0</v>
       </c>
       <c r="BX2">
-        <v>0.0009636771598489043</v>
+        <v>0</v>
       </c>
       <c r="BY2">
-        <v>0.0009636771598489043</v>
+        <v>0</v>
       </c>
       <c r="BZ2">
-        <v>0.0009636771598489043</v>
+        <v>0</v>
       </c>
       <c r="CA2">
-        <v>0.0009636771598489043</v>
+        <v>0</v>
       </c>
       <c r="CB2">
-        <v>0.0009636771598489043</v>
+        <v>0</v>
       </c>
       <c r="CC2">
-        <v>0.0009636771598489043</v>
+        <v>0</v>
       </c>
       <c r="CD2">
-        <v>0.001021774003105532</v>
+        <v>0</v>
       </c>
       <c r="CE2">
-        <v>0.00115777914762866</v>
+        <v>0</v>
       </c>
       <c r="CF2">
-        <v>0.001304481982692384</v>
+        <v>0</v>
       </c>
       <c r="CG2">
-        <v>0.001411644520734728</v>
+        <v>0</v>
       </c>
       <c r="CH2">
-        <v>0.001475657637835386</v>
+        <v>0</v>
       </c>
       <c r="CI2">
-        <v>0.001552782356641802</v>
+        <v>0</v>
       </c>
       <c r="CJ2">
-        <v>0.001557666817280452</v>
+        <v>0</v>
       </c>
       <c r="CK2">
-        <v>0.001557666817280452</v>
+        <v>0</v>
       </c>
       <c r="CL2">
-        <v>0.001557666817280452</v>
+        <v>0</v>
       </c>
       <c r="CM2">
-        <v>0.001557666817280452</v>
+        <v>0</v>
       </c>
       <c r="CN2">
-        <v>0.04411482787809866</v>
+        <v>0.07224683772122442</v>
       </c>
       <c r="CO2">
-        <v>0.04787426377759055</v>
+        <v>0.07224683772122442</v>
       </c>
       <c r="CP2">
-        <v>0.1873806728105688</v>
+        <v>0.713197957253493</v>
       </c>
       <c r="CQ2">
-        <v>0.2069531941821392</v>
+        <v>0.713197957253493</v>
       </c>
       <c r="CR2">
-        <v>0.2076883861019323</v>
+        <v>0.713197957253493</v>
       </c>
       <c r="CS2">
-        <v>0.2199560223147409</v>
+        <v>0.713197957253493</v>
       </c>
       <c r="CT2">
-        <v>0.2446953392715381</v>
+        <v>0.713197957253493</v>
       </c>
       <c r="CU2">
-        <v>0.2501983593809283</v>
+        <v>0.713197957253493</v>
       </c>
       <c r="CV2">
-        <v>0.25024153448457</v>
+        <v>0.713197957253493</v>
       </c>
       <c r="CW2">
-        <v>0.2966800712377785</v>
+        <v>0.8082129445142943</v>
       </c>
       <c r="CX2">
-        <v>0.3010394500597151</v>
+        <v>0.8082129445142943</v>
       </c>
       <c r="CY2">
-        <v>0.3032956101013749</v>
+        <v>0.8082129445142943</v>
       </c>
       <c r="CZ2">
-        <v>0.3062200507654093</v>
+        <v>0.8082129445142943</v>
       </c>
       <c r="DA2">
-        <v>0.3417554939658536</v>
+        <v>0.8392703857586075</v>
       </c>
       <c r="DB2">
-        <v>0.344375461751482</v>
+        <v>0.8392703857586075</v>
       </c>
       <c r="DC2">
-        <v>0.3538655359292346</v>
+        <v>0.8392703857586075</v>
       </c>
       <c r="DD2">
-        <v>0.3930367504295761</v>
+        <v>0.8916552611933428</v>
       </c>
       <c r="DE2">
-        <v>0.3948539964110968</v>
+        <v>0.8916552611933428</v>
       </c>
       <c r="DF2">
-        <v>0.398564347796975</v>
+        <v>0.8916552611933428</v>
       </c>
       <c r="DG2">
-        <v>0.4268035798738568</v>
+        <v>0.8916552611933428</v>
       </c>
       <c r="DH2">
-        <v>0.4475776556324548</v>
+        <v>0.8916552611933428</v>
       </c>
       <c r="DI2">
-        <v>0.4562712024612124</v>
+        <v>0.8916552611933428</v>
       </c>
       <c r="DJ2">
-        <v>0.45669116888088</v>
+        <v>0.8916552611933428</v>
       </c>
       <c r="DK2">
-        <v>0.4568544067180211</v>
+        <v>0.8916552611933428</v>
       </c>
       <c r="DL2">
-        <v>0.4652257465241122</v>
+        <v>0.8916552611933428</v>
       </c>
       <c r="DM2">
-        <v>0.4677699949422176</v>
+        <v>0.8916552611933428</v>
       </c>
       <c r="DN2">
-        <v>0.4679352708190325</v>
+        <v>0.8916552611933428</v>
       </c>
       <c r="DO2">
-        <v>0.4679352708190325</v>
+        <v>0.8916552611933428</v>
       </c>
       <c r="DP2">
-        <v>0.4744120637571315</v>
+        <v>0.8916552611933428</v>
       </c>
       <c r="DQ2">
-        <v>0.4870594008858679</v>
+        <v>0.8916552611933428</v>
       </c>
       <c r="DR2">
-        <v>0.4987564993272802</v>
+        <v>0.8916552611933428</v>
       </c>
       <c r="DS2">
-        <v>0.5000227438647556</v>
+        <v>0.8916552611933428</v>
       </c>
       <c r="DT2">
-        <v>0.5098348998083488</v>
+        <v>0.8916552611933428</v>
       </c>
       <c r="DU2">
-        <v>0.519752869486097</v>
+        <v>0.8916552611933428</v>
       </c>
       <c r="DV2">
-        <v>0.5203494172313612</v>
+        <v>0.8916552611933428</v>
       </c>
       <c r="DW2">
-        <v>0.536300230412158</v>
+        <v>0.8916552611933428</v>
       </c>
       <c r="DX2">
-        <v>0.5376572031153162</v>
+        <v>0.8916552611933428</v>
       </c>
       <c r="DY2">
-        <v>0.5863681148608688</v>
+        <v>1</v>
       </c>
       <c r="DZ2">
-        <v>0.5933610128933218</v>
+        <v>1</v>
       </c>
       <c r="EA2">
-        <v>0.5985156513439581</v>
+        <v>1</v>
       </c>
       <c r="EB2">
-        <v>0.6146883580021171</v>
+        <v>1</v>
       </c>
       <c r="EC2">
-        <v>0.6146883580021171</v>
+        <v>1</v>
       </c>
       <c r="ED2">
-        <v>0.6149868241591291</v>
+        <v>1</v>
       </c>
       <c r="EE2">
-        <v>0.6197716812263468</v>
+        <v>1</v>
       </c>
       <c r="EF2">
-        <v>0.6265764912855938</v>
+        <v>1</v>
       </c>
       <c r="EG2">
-        <v>0.6534742136649916</v>
+        <v>1</v>
       </c>
       <c r="EH2">
-        <v>0.6715237574921659</v>
+        <v>1</v>
       </c>
       <c r="EI2">
-        <v>0.6794597621488795</v>
+        <v>1</v>
       </c>
       <c r="EJ2">
-        <v>0.6976720822720953</v>
+        <v>1</v>
       </c>
       <c r="EK2">
-        <v>0.7023609586700519</v>
+        <v>1</v>
       </c>
       <c r="EL2">
-        <v>0.7023609586700519</v>
+        <v>1</v>
       </c>
       <c r="EM2">
-        <v>0.7034896330294704</v>
+        <v>1</v>
       </c>
       <c r="EN2">
-        <v>0.712251975149627</v>
+        <v>1</v>
       </c>
       <c r="EO2">
-        <v>0.717018364916098</v>
+        <v>1</v>
       </c>
       <c r="EP2">
-        <v>0.7253043613878609</v>
+        <v>1</v>
       </c>
       <c r="EQ2">
-        <v>0.7452882423381259</v>
+        <v>1</v>
       </c>
       <c r="ER2">
-        <v>0.7561813838825182</v>
+        <v>1</v>
       </c>
       <c r="ES2">
-        <v>0.7613447428345957</v>
+        <v>1</v>
       </c>
       <c r="ET2">
-        <v>0.7679183121258417</v>
+        <v>1</v>
       </c>
       <c r="EU2">
-        <v>0.7685219455285355</v>
+        <v>1</v>
       </c>
       <c r="EV2">
-        <v>0.7750319618295904</v>
+        <v>1</v>
       </c>
       <c r="EW2">
-        <v>0.7941927003756107</v>
+        <v>1</v>
       </c>
       <c r="EX2">
-        <v>0.8100611551730533</v>
+        <v>1</v>
       </c>
       <c r="EY2">
-        <v>0.8143750672823621</v>
+        <v>1</v>
       </c>
       <c r="EZ2">
-        <v>0.8143750672823621</v>
+        <v>1</v>
       </c>
       <c r="FA2">
-        <v>0.8159193827816252</v>
+        <v>1</v>
       </c>
       <c r="FB2">
-        <v>0.822834643299887</v>
+        <v>1</v>
       </c>
       <c r="FC2">
-        <v>0.8298836073987985</v>
+        <v>1</v>
       </c>
       <c r="FD2">
-        <v>0.8404522817419103</v>
+        <v>1</v>
       </c>
       <c r="FE2">
-        <v>0.8418043473068835</v>
+        <v>1</v>
       </c>
       <c r="FF2">
-        <v>0.850132298754536</v>
+        <v>1</v>
       </c>
       <c r="FG2">
-        <v>0.8667851814956381</v>
+        <v>1</v>
       </c>
       <c r="FH2">
-        <v>0.8869197039818598</v>
+        <v>1</v>
       </c>
       <c r="FI2">
-        <v>0.8912822935200978</v>
+        <v>1</v>
       </c>
       <c r="FJ2">
-        <v>0.8914326479249837</v>
+        <v>1</v>
       </c>
       <c r="FK2">
-        <v>0.8918965383477439</v>
+        <v>1</v>
       </c>
       <c r="FL2">
-        <v>0.8924245456891486</v>
+        <v>1</v>
       </c>
       <c r="FM2">
-        <v>0.9012186606174054</v>
+        <v>1</v>
       </c>
       <c r="FN2">
-        <v>0.90669183020692</v>
+        <v>1</v>
       </c>
       <c r="FO2">
-        <v>0.9088060996191486</v>
+        <v>1</v>
       </c>
       <c r="FP2">
-        <v>0.9093276697395295</v>
+        <v>1</v>
       </c>
       <c r="FQ2">
-        <v>0.9147606848190144</v>
+        <v>1</v>
       </c>
       <c r="FR2">
-        <v>0.917859084284257</v>
+        <v>1</v>
       </c>
       <c r="FS2">
-        <v>0.917980386206769</v>
+        <v>1</v>
       </c>
       <c r="FT2">
-        <v>0.9191883252069536</v>
+        <v>1</v>
       </c>
       <c r="FU2">
-        <v>0.9221857630238308</v>
+        <v>1</v>
       </c>
       <c r="FV2">
-        <v>0.9253373100714866</v>
+        <v>1</v>
       </c>
       <c r="FW2">
-        <v>0.9333208749470525</v>
+        <v>1</v>
       </c>
       <c r="FX2">
-        <v>0.9419760699539388</v>
+        <v>1</v>
       </c>
       <c r="FY2">
-        <v>0.9431745613570102</v>
+        <v>1</v>
       </c>
       <c r="FZ2">
-        <v>0.9431745613570102</v>
+        <v>1</v>
       </c>
       <c r="GA2">
-        <v>0.945150328639991</v>
+        <v>1</v>
       </c>
       <c r="GB2">
-        <v>0.9465255499495183</v>
+        <v>1</v>
       </c>
       <c r="GC2">
-        <v>0.948026997310225</v>
+        <v>1</v>
       </c>
       <c r="GD2">
-        <v>0.9531190613901301</v>
+        <v>1</v>
       </c>
       <c r="GE2">
-        <v>0.9623826146589093</v>
+        <v>1</v>
       </c>
       <c r="GF2">
-        <v>0.9643802362276169</v>
+        <v>1</v>
       </c>
       <c r="GG2">
-        <v>0.9645726831080631</v>
+        <v>1</v>
       </c>
       <c r="GH2">
-        <v>0.9645726831080631</v>
+        <v>1</v>
       </c>
       <c r="GI2">
-        <v>0.9645726831080631</v>
+        <v>1</v>
       </c>
       <c r="GJ2">
-        <v>0.9645726831080631</v>
+        <v>1</v>
       </c>
       <c r="GK2">
-        <v>0.964876492620258</v>
+        <v>1</v>
       </c>
       <c r="GL2">
-        <v>0.9672498661814272</v>
+        <v>1</v>
       </c>
       <c r="GM2">
-        <v>0.9734276239025713</v>
+        <v>1</v>
       </c>
       <c r="GN2">
-        <v>0.9845814986417369</v>
+        <v>1</v>
       </c>
       <c r="GO2">
-        <v>0.9944599619125163</v>
+        <v>1</v>
       </c>
       <c r="GP2">
-        <v>0.9953507356186991</v>
+        <v>1</v>
       </c>
       <c r="GQ2">
-        <v>0.9953507356186991</v>
+        <v>1</v>
       </c>
       <c r="GR2">
-        <v>0.9960266516042462</v>
+        <v>1</v>
       </c>
       <c r="GS2">
         <v>1</v>
@@ -7418,772 +7418,772 @@
         <v>258</v>
       </c>
       <c r="B3">
-        <v>0.000453004801612034</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0.0007014751814481376</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>0.0008388947419535049</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0.0008995486024905858</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.0009178034077960581</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0009178034077960581</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0009329746828453669</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.0009329746828453669</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.0009329746828453669</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.0009510314711659662</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.0009663751124015403</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.0009663751124015403</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0.001031157363575399</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0.00110703525488591</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.001184587040816454</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.001431087640289854</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>0.00180272489559926</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>0.002152369193488309</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>0.002327275052507382</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>0.002342377754943226</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>0.002350589130352033</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>0.002350589130352033</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>0.002350589130352033</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>0.002412087455533808</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>0.002463432535155036</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>0.002463432535155036</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.002463432535155036</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>0.002463432535155036</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>0.002490969662283763</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>0.002508846588143189</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.002565191212793101</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.002775144959961244</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>0.002963073979543269</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>0.002963073979543269</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>0.003310458834990099</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>0.003389396670618371</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>0.003389396670618371</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>0.003508023315627112</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>0.003683401836089604</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>0.003766405891910957</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.003816434541419294</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>0.003849264404671791</v>
+        <v>0</v>
       </c>
       <c r="AR3">
-        <v>0.003849264404671791</v>
+        <v>0</v>
       </c>
       <c r="AS3">
-        <v>0.003849264404671791</v>
+        <v>0</v>
       </c>
       <c r="AT3">
-        <v>0.003849264404671791</v>
+        <v>0</v>
       </c>
       <c r="AU3">
-        <v>0.003849264404671791</v>
+        <v>0</v>
       </c>
       <c r="AV3">
-        <v>0.004038573410743771</v>
+        <v>0</v>
       </c>
       <c r="AW3">
-        <v>0.004215288695027518</v>
+        <v>0</v>
       </c>
       <c r="AX3">
-        <v>0.004480465729418207</v>
+        <v>0</v>
       </c>
       <c r="AY3">
-        <v>0.004871215025923391</v>
+        <v>0</v>
       </c>
       <c r="AZ3">
-        <v>0.005182735826888878</v>
+        <v>0</v>
       </c>
       <c r="BA3">
-        <v>0.005268665896925792</v>
+        <v>0</v>
       </c>
       <c r="BB3">
-        <v>0.005405124560343743</v>
+        <v>0</v>
       </c>
       <c r="BC3">
-        <v>0.005549200973422647</v>
+        <v>0</v>
       </c>
       <c r="BD3">
-        <v>0.005645018033369535</v>
+        <v>0</v>
       </c>
       <c r="BE3">
-        <v>0.005724896273927168</v>
+        <v>0</v>
       </c>
       <c r="BF3">
-        <v>0.006043953313219223</v>
+        <v>0</v>
       </c>
       <c r="BG3">
-        <v>0.00620498170710431</v>
+        <v>0</v>
       </c>
       <c r="BH3">
-        <v>0.00620498170710431</v>
+        <v>0</v>
       </c>
       <c r="BI3">
-        <v>0.00620498170710431</v>
+        <v>0</v>
       </c>
       <c r="BJ3">
-        <v>0.006208541282406774</v>
+        <v>0</v>
       </c>
       <c r="BK3">
-        <v>0.006223953766021424</v>
+        <v>0</v>
       </c>
       <c r="BL3">
-        <v>0.006225938427618022</v>
+        <v>0</v>
       </c>
       <c r="BM3">
-        <v>0.006260755351275087</v>
+        <v>0</v>
       </c>
       <c r="BN3">
-        <v>0.006370448181545982</v>
+        <v>0</v>
       </c>
       <c r="BO3">
-        <v>0.006499101192021446</v>
+        <v>0</v>
       </c>
       <c r="BP3">
-        <v>0.006608063428821324</v>
+        <v>0</v>
       </c>
       <c r="BQ3">
-        <v>0.006749280436725385</v>
+        <v>0</v>
       </c>
       <c r="BR3">
-        <v>0.00682991990168658</v>
+        <v>0</v>
       </c>
       <c r="BS3">
-        <v>0.006890954426573442</v>
+        <v>0</v>
       </c>
       <c r="BT3">
-        <v>0.006987593874510064</v>
+        <v>0</v>
       </c>
       <c r="BU3">
-        <v>0.007015416955193275</v>
+        <v>0</v>
       </c>
       <c r="BV3">
-        <v>0.007132784336330578</v>
+        <v>0</v>
       </c>
       <c r="BW3">
-        <v>0.007234558743610372</v>
+        <v>0</v>
       </c>
       <c r="BX3">
-        <v>0.007234558743610372</v>
+        <v>0</v>
       </c>
       <c r="BY3">
-        <v>0.007239959904450423</v>
+        <v>0</v>
       </c>
       <c r="BZ3">
-        <v>0.007239959904450423</v>
+        <v>0</v>
       </c>
       <c r="CA3">
-        <v>0.007270610537909329</v>
+        <v>0</v>
       </c>
       <c r="CB3">
-        <v>0.007327961182708793</v>
+        <v>0</v>
       </c>
       <c r="CC3">
-        <v>0.007347161092280645</v>
+        <v>0</v>
       </c>
       <c r="CD3">
-        <v>0.007385341415480817</v>
+        <v>0</v>
       </c>
       <c r="CE3">
-        <v>0.007499073248700513</v>
+        <v>0</v>
       </c>
       <c r="CF3">
-        <v>0.00765952275967887</v>
+        <v>0</v>
       </c>
       <c r="CG3">
-        <v>0.007811968064207182</v>
+        <v>0</v>
       </c>
       <c r="CH3">
-        <v>0.007947621592600417</v>
+        <v>0</v>
       </c>
       <c r="CI3">
-        <v>0.008003861038747005</v>
+        <v>0</v>
       </c>
       <c r="CJ3">
-        <v>0.008047937485523142</v>
+        <v>0</v>
       </c>
       <c r="CK3">
-        <v>0.008080983964545053</v>
+        <v>0</v>
       </c>
       <c r="CL3">
-        <v>0.008080983964545053</v>
+        <v>0</v>
       </c>
       <c r="CM3">
-        <v>0.00966557211209609</v>
+        <v>0</v>
       </c>
       <c r="CN3">
-        <v>0.05377001613120104</v>
+        <v>0.1009668725659436</v>
       </c>
       <c r="CO3">
-        <v>0.1510784083595252</v>
+        <v>0.5846977870803324</v>
       </c>
       <c r="CP3">
-        <v>0.1765774059311613</v>
+        <v>0.5846977870803324</v>
       </c>
       <c r="CQ3">
-        <v>0.1766645621210047</v>
+        <v>0.5846977870803324</v>
       </c>
       <c r="CR3">
-        <v>0.1899867701848982</v>
+        <v>0.5846977870803324</v>
       </c>
       <c r="CS3">
-        <v>0.2084798394838291</v>
+        <v>0.5846977870803324</v>
       </c>
       <c r="CT3">
-        <v>0.2234461195292003</v>
+        <v>0.5846977870803324</v>
       </c>
       <c r="CU3">
-        <v>0.2234572719314314</v>
+        <v>0.5846977870803324</v>
       </c>
       <c r="CV3">
-        <v>0.2963236120519734</v>
+        <v>0.892585761865897</v>
       </c>
       <c r="CW3">
-        <v>0.2964521158890853</v>
+        <v>0.892585761865897</v>
       </c>
       <c r="CX3">
-        <v>0.3045458421871883</v>
+        <v>0.892585761865897</v>
       </c>
       <c r="CY3">
-        <v>0.3207239775555054</v>
+        <v>0.892585761865897</v>
       </c>
       <c r="CZ3">
-        <v>0.3477685515719842</v>
+        <v>0.892585761865897</v>
       </c>
       <c r="DA3">
-        <v>0.3491314093345153</v>
+        <v>0.892585761865897</v>
       </c>
       <c r="DB3">
-        <v>0.3839661052152881</v>
+        <v>0.9268634810006058</v>
       </c>
       <c r="DC3">
-        <v>0.4095907092661491</v>
+        <v>0.9268634810006058</v>
       </c>
       <c r="DD3">
-        <v>0.4129269742847395</v>
+        <v>0.9268634810006058</v>
       </c>
       <c r="DE3">
-        <v>0.4311774671361914</v>
+        <v>0.9268634810006058</v>
       </c>
       <c r="DF3">
-        <v>0.4443339037300462</v>
+        <v>0.9268634810006058</v>
       </c>
       <c r="DG3">
-        <v>0.4815726273954912</v>
+        <v>0.9784364464993439</v>
       </c>
       <c r="DH3">
-        <v>0.4868285508274862</v>
+        <v>0.9784364464993439</v>
       </c>
       <c r="DI3">
-        <v>0.4872077646154802</v>
+        <v>0.9784364464993439</v>
       </c>
       <c r="DJ3">
-        <v>0.4892628057386775</v>
+        <v>0.9784364464993439</v>
       </c>
       <c r="DK3">
-        <v>0.4943927753055443</v>
+        <v>0.9784364464993439</v>
       </c>
       <c r="DL3">
-        <v>0.4979388146771707</v>
+        <v>0.9784364464993439</v>
       </c>
       <c r="DM3">
-        <v>0.4982184213638378</v>
+        <v>0.9784364464993439</v>
       </c>
       <c r="DN3">
-        <v>0.4983803198470922</v>
+        <v>0.9784364464993439</v>
       </c>
       <c r="DO3">
-        <v>0.4998300044296942</v>
+        <v>0.9784364464993439</v>
       </c>
       <c r="DP3">
-        <v>0.5065845023118636</v>
+        <v>0.9784364464993439</v>
       </c>
       <c r="DQ3">
-        <v>0.5139106331248661</v>
+        <v>0.9784364464993439</v>
       </c>
       <c r="DR3">
-        <v>0.5173110730760212</v>
+        <v>0.9784364464993439</v>
       </c>
       <c r="DS3">
-        <v>0.5239911566656671</v>
+        <v>0.9784364464993439</v>
       </c>
       <c r="DT3">
-        <v>0.5413920623343343</v>
+        <v>0.9784364464993439</v>
       </c>
       <c r="DU3">
-        <v>0.5413920623343343</v>
+        <v>0.9784364464993439</v>
       </c>
       <c r="DV3">
-        <v>0.5526321577292513</v>
+        <v>0.9784364464993439</v>
       </c>
       <c r="DW3">
-        <v>0.5527399071138992</v>
+        <v>0.9784364464993439</v>
       </c>
       <c r="DX3">
-        <v>0.5858073423960166</v>
+        <v>1</v>
       </c>
       <c r="DY3">
-        <v>0.5942084360222635</v>
+        <v>1</v>
       </c>
       <c r="DZ3">
-        <v>0.5968894370597491</v>
+        <v>1</v>
       </c>
       <c r="EA3">
-        <v>0.6111601660868262</v>
+        <v>1</v>
       </c>
       <c r="EB3">
-        <v>0.6111601660868262</v>
+        <v>1</v>
       </c>
       <c r="EC3">
-        <v>0.611520544589074</v>
+        <v>1</v>
       </c>
       <c r="ED3">
-        <v>0.6169078400633307</v>
+        <v>1</v>
       </c>
       <c r="EE3">
-        <v>0.6222784235077774</v>
+        <v>1</v>
       </c>
       <c r="EF3">
-        <v>0.6473214700612504</v>
+        <v>1</v>
       </c>
       <c r="EG3">
-        <v>0.6734148074071943</v>
+        <v>1</v>
       </c>
       <c r="EH3">
-        <v>0.6833090145852365</v>
+        <v>1</v>
       </c>
       <c r="EI3">
-        <v>0.7065418175515826</v>
+        <v>1</v>
       </c>
       <c r="EJ3">
-        <v>0.7168551712943944</v>
+        <v>1</v>
       </c>
       <c r="EK3">
-        <v>0.717055409869282</v>
+        <v>1</v>
       </c>
       <c r="EL3">
-        <v>0.7171978381749265</v>
+        <v>1</v>
       </c>
       <c r="EM3">
-        <v>0.7251196024337593</v>
+        <v>1</v>
       </c>
       <c r="EN3">
-        <v>0.7318784622955058</v>
+        <v>1</v>
       </c>
       <c r="EO3">
-        <v>0.739147559242748</v>
+        <v>1</v>
       </c>
       <c r="EP3">
-        <v>0.7593258713686504</v>
+        <v>1</v>
       </c>
       <c r="EQ3">
-        <v>0.7733525377302669</v>
+        <v>1</v>
       </c>
       <c r="ER3">
-        <v>0.7809340068096068</v>
+        <v>1</v>
       </c>
       <c r="ES3">
-        <v>0.7918055236550172</v>
+        <v>1</v>
       </c>
       <c r="ET3">
-        <v>0.7958724383040086</v>
+        <v>1</v>
       </c>
       <c r="EU3">
-        <v>0.797561652587227</v>
+        <v>1</v>
       </c>
       <c r="EV3">
-        <v>0.8107596110227251</v>
+        <v>1</v>
       </c>
       <c r="EW3">
-        <v>0.8241817045680059</v>
+        <v>1</v>
       </c>
       <c r="EX3">
-        <v>0.8282843394934272</v>
+        <v>1</v>
       </c>
       <c r="EY3">
-        <v>0.8282843394934272</v>
+        <v>1</v>
       </c>
       <c r="EZ3">
-        <v>0.8283357860921662</v>
+        <v>1</v>
       </c>
       <c r="FA3">
-        <v>0.8312736314703245</v>
+        <v>1</v>
       </c>
       <c r="FB3">
-        <v>0.8370171018918711</v>
+        <v>1</v>
       </c>
       <c r="FC3">
-        <v>0.846020162940178</v>
+        <v>1</v>
       </c>
       <c r="FD3">
-        <v>0.8490199793962205</v>
+        <v>1</v>
       </c>
       <c r="FE3">
-        <v>0.8520359053721112</v>
+        <v>1</v>
       </c>
       <c r="FF3">
-        <v>0.8637588616571297</v>
+        <v>1</v>
       </c>
       <c r="FG3">
-        <v>0.8791620215955908</v>
+        <v>1</v>
       </c>
       <c r="FH3">
-        <v>0.8845045107065214</v>
+        <v>1</v>
       </c>
       <c r="FI3">
-        <v>0.8846521873472768</v>
+        <v>1</v>
       </c>
       <c r="FJ3">
-        <v>0.8874217788100577</v>
+        <v>1</v>
       </c>
       <c r="FK3">
-        <v>0.887636339612343</v>
+        <v>1</v>
       </c>
       <c r="FL3">
-        <v>0.8908860232073132</v>
+        <v>1</v>
       </c>
       <c r="FM3">
-        <v>0.8945547406471467</v>
+        <v>1</v>
       </c>
       <c r="FN3">
-        <v>0.8955293131312135</v>
+        <v>1</v>
       </c>
       <c r="FO3">
-        <v>0.8956871695127245</v>
+        <v>1</v>
       </c>
       <c r="FP3">
-        <v>0.9004514315783032</v>
+        <v>1</v>
       </c>
       <c r="FQ3">
-        <v>0.9055814011451699</v>
+        <v>1</v>
       </c>
       <c r="FR3">
-        <v>0.9061593364876506</v>
+        <v>1</v>
       </c>
       <c r="FS3">
-        <v>0.9072269942537037</v>
+        <v>1</v>
       </c>
       <c r="FT3">
-        <v>0.9108056565111675</v>
+        <v>1</v>
       </c>
       <c r="FU3">
-        <v>0.9130097769309473</v>
+        <v>1</v>
       </c>
       <c r="FV3">
-        <v>0.9180060444428272</v>
+        <v>1</v>
       </c>
       <c r="FW3">
-        <v>0.9236456858911042</v>
+        <v>1</v>
       </c>
       <c r="FX3">
-        <v>0.9239173188678724</v>
+        <v>1</v>
       </c>
       <c r="FY3">
-        <v>0.9240050123024507</v>
+        <v>1</v>
       </c>
       <c r="FZ3">
-        <v>0.9269778514952941</v>
+        <v>1</v>
       </c>
       <c r="GA3">
-        <v>0.9311612798175452</v>
+        <v>1</v>
       </c>
       <c r="GB3">
-        <v>0.9341472516817502</v>
+        <v>1</v>
       </c>
       <c r="GC3">
-        <v>0.9409204845349661</v>
+        <v>1</v>
       </c>
       <c r="GD3">
-        <v>0.9530054682770718</v>
+        <v>1</v>
       </c>
       <c r="GE3">
-        <v>0.9581989008560274</v>
+        <v>1</v>
       </c>
       <c r="GF3">
-        <v>0.9596157299927719</v>
+        <v>1</v>
       </c>
       <c r="GG3">
-        <v>0.9599448340461327</v>
+        <v>1</v>
       </c>
       <c r="GH3">
-        <v>0.9601044170479025</v>
+        <v>1</v>
       </c>
       <c r="GI3">
-        <v>0.960161767692702</v>
+        <v>1</v>
       </c>
       <c r="GJ3">
-        <v>0.9603068287903788</v>
+        <v>1</v>
       </c>
       <c r="GK3">
-        <v>0.9619521943280518</v>
+        <v>1</v>
       </c>
       <c r="GL3">
-        <v>0.9675558008067796</v>
+        <v>1</v>
       </c>
       <c r="GM3">
-        <v>0.9792801049170123</v>
+        <v>1</v>
       </c>
       <c r="GN3">
-        <v>0.9921763646121815</v>
+        <v>1</v>
       </c>
       <c r="GO3">
-        <v>0.9959781099938255</v>
+        <v>1</v>
       </c>
       <c r="GP3">
-        <v>0.9971143049728743</v>
+        <v>1</v>
       </c>
       <c r="GQ3">
-        <v>0.9971913466922032</v>
+        <v>1</v>
       </c>
       <c r="GR3">
-        <v>0.9983130995836835</v>
+        <v>1</v>
       </c>
       <c r="GS3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="GT3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="GU3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="GV3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="GW3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="GX3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="GY3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="GZ3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HA3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HB3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HC3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HD3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HE3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HF3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HG3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HH3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HI3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HJ3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HK3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HL3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HM3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HN3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HO3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HP3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HQ3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HR3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HS3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HT3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HU3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HV3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HW3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HX3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HY3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HZ3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IA3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IB3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IC3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="ID3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IE3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IF3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IG3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IH3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="II3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IJ3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IK3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IL3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IM3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IN3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IO3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IP3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IQ3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IR3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IS3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IT3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IU3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IV3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IW3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:257">
@@ -8194,598 +8194,598 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>6.102342646071303E-06</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>6.102342646071303E-06</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>6.102342646071303E-06</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>8.522443597934248E-06</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>5.104868218441575E-05</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0.0001405291831594098</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.0002858027144088942</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.0004855534982332712</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.0005508150516775205</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.0006236790768090147</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.0006413141866311782</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0.0007339577303972358</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.0007780035577166729</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.0008085771225734103</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.0008369594086830248</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>0.0008369594086830248</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>0.0008753315918370066</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>0.0008983022137960305</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>0.0009041105211095472</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>0.0009484269633006567</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>0.00101233978932813</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>0.001286874605866315</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>0.001461554221510744</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>0.00158437497409886</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>0.001721545786222735</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.001753057455088967</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>0.001753057455088967</v>
+        <v>0</v>
       </c>
       <c r="AD4">
-        <v>0.001762387937602081</v>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <v>0.001762387937602081</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>0.001765451305272685</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.001768514672943288</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <v>0.001768514672943288</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>0.001812560500262726</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
-        <v>0.001818548135674158</v>
+        <v>0</v>
       </c>
       <c r="AK4">
-        <v>0.001818548135674158</v>
+        <v>0</v>
       </c>
       <c r="AL4">
-        <v>0.002028010227109346</v>
+        <v>0</v>
       </c>
       <c r="AM4">
-        <v>0.002031757884621902</v>
+        <v>0</v>
       </c>
       <c r="AN4">
-        <v>0.002076222539012834</v>
+        <v>0</v>
       </c>
       <c r="AO4">
-        <v>0.002301758579969053</v>
+        <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.002427817859063464</v>
+        <v>0</v>
       </c>
       <c r="AQ4">
-        <v>0.002459336677122924</v>
+        <v>0</v>
       </c>
       <c r="AR4">
-        <v>0.002546093465536201</v>
+        <v>0</v>
       </c>
       <c r="AS4">
-        <v>0.002699172613208683</v>
+        <v>0</v>
       </c>
       <c r="AT4">
-        <v>0.002761276546283824</v>
+        <v>0</v>
       </c>
       <c r="AU4">
-        <v>0.002912829232153454</v>
+        <v>0</v>
       </c>
       <c r="AV4">
-        <v>0.003119028896406975</v>
+        <v>0</v>
       </c>
       <c r="AW4">
-        <v>0.003159657742512307</v>
+        <v>0</v>
       </c>
       <c r="AX4">
-        <v>0.003168237188570715</v>
+        <v>0</v>
       </c>
       <c r="AY4">
-        <v>0.003219061073348089</v>
+        <v>0</v>
       </c>
       <c r="AZ4">
-        <v>0.003240618096915346</v>
+        <v>0</v>
       </c>
       <c r="BA4">
-        <v>0.003240618096915346</v>
+        <v>0</v>
       </c>
       <c r="BB4">
-        <v>0.003240618096915346</v>
+        <v>0</v>
       </c>
       <c r="BC4">
-        <v>0.003265902388287981</v>
+        <v>0</v>
       </c>
       <c r="BD4">
-        <v>0.003435448200890065</v>
+        <v>0</v>
       </c>
       <c r="BE4">
-        <v>0.003679871397902023</v>
+        <v>0</v>
       </c>
       <c r="BF4">
-        <v>0.003894105970993303</v>
+        <v>0</v>
       </c>
       <c r="BG4">
-        <v>0.004101767608245385</v>
+        <v>0</v>
       </c>
       <c r="BH4">
-        <v>0.004404205817992945</v>
+        <v>0</v>
       </c>
       <c r="BI4">
-        <v>0.004425161005746811</v>
+        <v>0</v>
       </c>
       <c r="BJ4">
-        <v>0.004448648568600427</v>
+        <v>0</v>
       </c>
       <c r="BK4">
-        <v>0.00457725632598717</v>
+        <v>0</v>
       </c>
       <c r="BL4">
-        <v>0.00461420575365932</v>
+        <v>0</v>
       </c>
       <c r="BM4">
-        <v>0.004657826307027726</v>
+        <v>0</v>
       </c>
       <c r="BN4">
-        <v>0.004679678078245699</v>
+        <v>0</v>
       </c>
       <c r="BO4">
-        <v>0.004683526840717361</v>
+        <v>0</v>
       </c>
       <c r="BP4">
-        <v>0.004712250094121958</v>
+        <v>0</v>
       </c>
       <c r="BQ4">
-        <v>0.004716564187036109</v>
+        <v>0</v>
       </c>
       <c r="BR4">
-        <v>0.004807027386939172</v>
+        <v>0</v>
       </c>
       <c r="BS4">
-        <v>0.004962924613322547</v>
+        <v>0</v>
       </c>
       <c r="BT4">
-        <v>0.00503193675198703</v>
+        <v>0</v>
       </c>
       <c r="BU4">
-        <v>0.005184251728338042</v>
+        <v>0</v>
       </c>
       <c r="BV4">
-        <v>0.005283794643747708</v>
+        <v>0</v>
       </c>
       <c r="BW4">
-        <v>0.005338876290278601</v>
+        <v>0</v>
       </c>
       <c r="BX4">
-        <v>0.005472699137014681</v>
+        <v>0</v>
       </c>
       <c r="BY4">
-        <v>0.005558877613121476</v>
+        <v>0</v>
       </c>
       <c r="BZ4">
-        <v>0.005596997039380152</v>
+        <v>0</v>
       </c>
       <c r="CA4">
-        <v>0.005678055452581712</v>
+        <v>0</v>
       </c>
       <c r="CB4">
-        <v>0.005686838357516185</v>
+        <v>0</v>
       </c>
       <c r="CC4">
-        <v>0.005686838357516185</v>
+        <v>0</v>
       </c>
       <c r="CD4">
-        <v>0.005747960842221827</v>
+        <v>0</v>
       </c>
       <c r="CE4">
-        <v>0.00575771812636832</v>
+        <v>0</v>
       </c>
       <c r="CF4">
-        <v>0.005758972444816793</v>
+        <v>0</v>
       </c>
       <c r="CG4">
-        <v>0.005758972444816793</v>
+        <v>0</v>
       </c>
       <c r="CH4">
-        <v>0.005758972444816793</v>
+        <v>0</v>
       </c>
       <c r="CI4">
-        <v>0.005758972444816793</v>
+        <v>0</v>
       </c>
       <c r="CJ4">
-        <v>0.005772296039876351</v>
+        <v>0</v>
       </c>
       <c r="CK4">
-        <v>0.005801815280813309</v>
+        <v>0</v>
       </c>
       <c r="CL4">
-        <v>0.005873256354375387</v>
+        <v>0</v>
       </c>
       <c r="CM4">
-        <v>0.006021276592457109</v>
+        <v>0</v>
       </c>
       <c r="CN4">
-        <v>0.1140965792354392</v>
+        <v>0.4485583186041455</v>
       </c>
       <c r="CO4">
-        <v>0.1584498070510573</v>
+        <v>0.5309684531770802</v>
       </c>
       <c r="CP4">
-        <v>0.2250708579165668</v>
+        <v>0.7413298980947437</v>
       </c>
       <c r="CQ4">
-        <v>0.2250833044028608</v>
+        <v>0.7413298980947437</v>
       </c>
       <c r="CR4">
-        <v>0.2284057779986005</v>
+        <v>0.7413298980947437</v>
       </c>
       <c r="CS4">
-        <v>0.2294614214017342</v>
+        <v>0.7413298980947437</v>
       </c>
       <c r="CT4">
-        <v>0.2837672315949114</v>
+        <v>0.8809277493865226</v>
       </c>
       <c r="CU4">
-        <v>0.2837783768670106</v>
+        <v>0.8809277493865226</v>
       </c>
       <c r="CV4">
-        <v>0.3084708340875529</v>
+        <v>0.8809277493865226</v>
       </c>
       <c r="CW4">
-        <v>0.3167717769449209</v>
+        <v>0.8809277493865226</v>
       </c>
       <c r="CX4">
-        <v>0.3194335846504809</v>
+        <v>0.8809277493865226</v>
       </c>
       <c r="CY4">
-        <v>0.3197697677225633</v>
+        <v>0.8809277493865226</v>
       </c>
       <c r="CZ4">
-        <v>0.3231241703796</v>
+        <v>0.8809277493865226</v>
       </c>
       <c r="DA4">
-        <v>0.3399889883405199</v>
+        <v>0.8809277493865226</v>
       </c>
       <c r="DB4">
-        <v>0.3543133746031642</v>
+        <v>0.8809277493865226</v>
       </c>
       <c r="DC4">
-        <v>0.3598368463872706</v>
+        <v>0.8809277493865226</v>
       </c>
       <c r="DD4">
-        <v>0.3819725586231151</v>
+        <v>0.8809277493865226</v>
       </c>
       <c r="DE4">
-        <v>0.387652157242161</v>
+        <v>0.8809277493865226</v>
       </c>
       <c r="DF4">
-        <v>0.3893880816966977</v>
+        <v>0.8809277493865226</v>
       </c>
       <c r="DG4">
-        <v>0.4401217483716434</v>
+        <v>1</v>
       </c>
       <c r="DH4">
-        <v>0.4401574339398054</v>
+        <v>1</v>
       </c>
       <c r="DI4">
-        <v>0.4447060467976245</v>
+        <v>1</v>
       </c>
       <c r="DJ4">
-        <v>0.4499354457324193</v>
+        <v>1</v>
       </c>
       <c r="DK4">
-        <v>0.452315698779989</v>
+        <v>1</v>
       </c>
       <c r="DL4">
-        <v>0.4646773093577035</v>
+        <v>1</v>
       </c>
       <c r="DM4">
-        <v>0.4647965086427425</v>
+        <v>1</v>
       </c>
       <c r="DN4">
-        <v>0.4648036536170859</v>
+        <v>1</v>
       </c>
       <c r="DO4">
-        <v>0.4696909784625419</v>
+        <v>1</v>
       </c>
       <c r="DP4">
-        <v>0.4778896986615778</v>
+        <v>1</v>
       </c>
       <c r="DQ4">
-        <v>0.4886994610974881</v>
+        <v>1</v>
       </c>
       <c r="DR4">
-        <v>0.4997036853908938</v>
+        <v>1</v>
       </c>
       <c r="DS4">
-        <v>0.4999264504541771</v>
+        <v>1</v>
       </c>
       <c r="DT4">
-        <v>0.5150001043814879</v>
+        <v>1</v>
       </c>
       <c r="DU4">
-        <v>0.5160103281977046</v>
+        <v>1</v>
       </c>
       <c r="DV4">
-        <v>0.5234970533801143</v>
+        <v>1</v>
       </c>
       <c r="DW4">
-        <v>0.5287916798491584</v>
+        <v>1</v>
       </c>
       <c r="DX4">
-        <v>0.5481128089354214</v>
+        <v>1</v>
       </c>
       <c r="DY4">
-        <v>0.5646208165249583</v>
+        <v>1</v>
       </c>
       <c r="DZ4">
-        <v>0.568782004337176</v>
+        <v>1</v>
       </c>
       <c r="EA4">
-        <v>0.584211948403505</v>
+        <v>1</v>
       </c>
       <c r="EB4">
-        <v>0.5875805906207222</v>
+        <v>1</v>
       </c>
       <c r="EC4">
-        <v>0.5893654248210752</v>
+        <v>1</v>
       </c>
       <c r="ED4">
-        <v>0.5929329177560972</v>
+        <v>1</v>
       </c>
       <c r="EE4">
-        <v>0.5929490298936752</v>
+        <v>1</v>
       </c>
       <c r="EF4">
-        <v>0.611537603779989</v>
+        <v>1</v>
       </c>
       <c r="EG4">
-        <v>0.6377080041322422</v>
+        <v>1</v>
       </c>
       <c r="EH4">
-        <v>0.6481340411750219</v>
+        <v>1</v>
       </c>
       <c r="EI4">
-        <v>0.6683263573819702</v>
+        <v>1</v>
       </c>
       <c r="EJ4">
-        <v>0.681499378380767</v>
+        <v>1</v>
       </c>
       <c r="EK4">
-        <v>0.6817581446541957</v>
+        <v>1</v>
       </c>
       <c r="EL4">
-        <v>0.6818784741940694</v>
+        <v>1</v>
       </c>
       <c r="EM4">
-        <v>0.6851492425953898</v>
+        <v>1</v>
       </c>
       <c r="EN4">
-        <v>0.6981725337164846</v>
+        <v>1</v>
       </c>
       <c r="EO4">
-        <v>0.7055236516291354</v>
+        <v>1</v>
       </c>
       <c r="EP4">
-        <v>0.7249786825234029</v>
+        <v>1</v>
       </c>
       <c r="EQ4">
-        <v>0.7504424742648987</v>
+        <v>1</v>
       </c>
       <c r="ER4">
-        <v>0.7612821700707191</v>
+        <v>1</v>
       </c>
       <c r="ES4">
-        <v>0.7693738894772419</v>
+        <v>1</v>
       </c>
       <c r="ET4">
-        <v>0.7755900371489757</v>
+        <v>1</v>
       </c>
       <c r="EU4">
-        <v>0.7758917614698607</v>
+        <v>1</v>
       </c>
       <c r="EV4">
-        <v>0.78447850097993</v>
+        <v>1</v>
       </c>
       <c r="EW4">
-        <v>0.8014389506552995</v>
+        <v>1</v>
       </c>
       <c r="EX4">
-        <v>0.8105472311146018</v>
+        <v>1</v>
       </c>
       <c r="EY4">
-        <v>0.8129214957874299</v>
+        <v>1</v>
       </c>
       <c r="EZ4">
-        <v>0.8136936993405415</v>
+        <v>1</v>
       </c>
       <c r="FA4">
-        <v>0.8171135429271418</v>
+        <v>1</v>
       </c>
       <c r="FB4">
-        <v>0.8244645540921132</v>
+        <v>1</v>
       </c>
       <c r="FC4">
-        <v>0.8377529006017057</v>
+        <v>1</v>
       </c>
       <c r="FD4">
-        <v>0.8462658491526232</v>
+        <v>1</v>
       </c>
       <c r="FE4">
-        <v>0.8463259880219914</v>
+        <v>1</v>
       </c>
       <c r="FF4">
-        <v>0.8565732422103918</v>
+        <v>1</v>
       </c>
       <c r="FG4">
-        <v>0.8687356007910678</v>
+        <v>1</v>
       </c>
       <c r="FH4">
-        <v>0.8802457660658922</v>
+        <v>1</v>
       </c>
       <c r="FI4">
-        <v>0.8821600591898102</v>
+        <v>1</v>
       </c>
       <c r="FJ4">
-        <v>0.8824188254632389</v>
+        <v>1</v>
       </c>
       <c r="FK4">
-        <v>0.882751629235938</v>
+        <v>1</v>
       </c>
       <c r="FL4">
-        <v>0.8869711070837317</v>
+        <v>1</v>
       </c>
       <c r="FM4">
-        <v>0.8931872547554655</v>
+        <v>1</v>
       </c>
       <c r="FN4">
-        <v>0.8970796520108512</v>
+        <v>1</v>
       </c>
       <c r="FO4">
-        <v>0.8997785489825429</v>
+        <v>1</v>
       </c>
       <c r="FP4">
-        <v>0.8998705834442591</v>
+        <v>1</v>
       </c>
       <c r="FQ4">
-        <v>0.903377144563739</v>
+        <v>1</v>
       </c>
       <c r="FR4">
-        <v>0.9041228177168964</v>
+        <v>1</v>
       </c>
       <c r="FS4">
-        <v>0.9041297711947068</v>
+        <v>1</v>
       </c>
       <c r="FT4">
-        <v>0.9067735939671941</v>
+        <v>1</v>
       </c>
       <c r="FU4">
-        <v>0.9081271521356532</v>
+        <v>1</v>
       </c>
       <c r="FV4">
-        <v>0.9106554414044437</v>
+        <v>1</v>
       </c>
       <c r="FW4">
-        <v>0.9198930666363248</v>
+        <v>1</v>
       </c>
       <c r="FX4">
-        <v>0.9233996277558046</v>
+        <v>1</v>
       </c>
       <c r="FY4">
-        <v>0.9235448863503826</v>
+        <v>1</v>
       </c>
       <c r="FZ4">
-        <v>0.9241321406448553</v>
+        <v>1</v>
       </c>
       <c r="GA4">
-        <v>0.9275460736914792</v>
+        <v>1</v>
       </c>
       <c r="GB4">
-        <v>0.9301553415298086</v>
+        <v>1</v>
       </c>
       <c r="GC4">
-        <v>0.9337940867900872</v>
+        <v>1</v>
       </c>
       <c r="GD4">
-        <v>0.9432514231571973</v>
+        <v>1</v>
       </c>
       <c r="GE4">
-        <v>0.9490038301965384</v>
+        <v>1</v>
       </c>
       <c r="GF4">
-        <v>0.9504206852369056</v>
+        <v>1</v>
       </c>
       <c r="GG4">
-        <v>0.9506286612645819</v>
+        <v>1</v>
       </c>
       <c r="GH4">
-        <v>0.9506859333194712</v>
+        <v>1</v>
       </c>
       <c r="GI4">
-        <v>0.9507152221334866</v>
+        <v>1</v>
       </c>
       <c r="GJ4">
-        <v>0.9509507289179321</v>
+        <v>1</v>
       </c>
       <c r="GK4">
-        <v>0.953138305305375</v>
+        <v>1</v>
       </c>
       <c r="GL4">
-        <v>0.9586982478793673</v>
+        <v>1</v>
       </c>
       <c r="GM4">
-        <v>0.9711784404223914</v>
+        <v>1</v>
       </c>
       <c r="GN4">
-        <v>0.9854563349192239</v>
+        <v>1</v>
       </c>
       <c r="GO4">
-        <v>0.9938245288146507</v>
+        <v>1</v>
       </c>
       <c r="GP4">
-        <v>0.9959626014909794</v>
+        <v>1</v>
       </c>
       <c r="GQ4">
-        <v>0.9964483102295516</v>
+        <v>1</v>
       </c>
       <c r="GR4">
-        <v>0.9974230437938453</v>
+        <v>1</v>
       </c>
       <c r="GS4">
         <v>1</v>
@@ -8964,772 +8964,772 @@
         <v>260</v>
       </c>
       <c r="B5">
-        <v>9.595293826899174E-05</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>0.0003180841448148166</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>0.0003180841448148166</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0.0003180841448148166</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.0003180841448148166</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0003180841448148166</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>0.000366895055995941</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.000366895055995941</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.000366895055995941</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.0005747916712265481</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.0007599647030163662</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.0008826991731345559</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0.001207709419654613</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.001371496423054507</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.001371496423054507</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.001406955116048056</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>0.001427622322411267</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>0.001427622322411267</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>0.001427622322411267</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>0.001427622322411267</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>0.001487023657164714</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>0.00154349318998539</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>0.00154349318998539</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>0.00154349318998539</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>0.00154349318998539</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>0.00154349318998539</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.00154349318998539</v>
+        <v>0</v>
       </c>
       <c r="AC5">
-        <v>0.001686210159641083</v>
+        <v>0</v>
       </c>
       <c r="AD5">
-        <v>0.001913003635827543</v>
+        <v>0</v>
       </c>
       <c r="AE5">
-        <v>0.001998918301735157</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>0.00201714375649829</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.002066456433579893</v>
+        <v>0</v>
       </c>
       <c r="AH5">
-        <v>0.002077531515036631</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>0.002117047884194566</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
-        <v>0.002123775654112483</v>
+        <v>0</v>
       </c>
       <c r="AK5">
-        <v>0.002123775654112483</v>
+        <v>0</v>
       </c>
       <c r="AL5">
-        <v>0.002123775654112483</v>
+        <v>0</v>
       </c>
       <c r="AM5">
-        <v>0.002123775654112483</v>
+        <v>0</v>
       </c>
       <c r="AN5">
-        <v>0.002123775654112483</v>
+        <v>0</v>
       </c>
       <c r="AO5">
-        <v>0.002123775654112483</v>
+        <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.002123775654112483</v>
+        <v>0</v>
       </c>
       <c r="AQ5">
-        <v>0.002123775654112483</v>
+        <v>0</v>
       </c>
       <c r="AR5">
-        <v>0.002123775654112483</v>
+        <v>0</v>
       </c>
       <c r="AS5">
-        <v>0.002123775654112483</v>
+        <v>0</v>
       </c>
       <c r="AT5">
-        <v>0.00228346547571533</v>
+        <v>0</v>
       </c>
       <c r="AU5">
-        <v>0.002311980040416076</v>
+        <v>0</v>
       </c>
       <c r="AV5">
-        <v>0.002409518255630573</v>
+        <v>0</v>
       </c>
       <c r="AW5">
-        <v>0.002628178663460547</v>
+        <v>0</v>
       </c>
       <c r="AX5">
-        <v>0.002675392373407962</v>
+        <v>0</v>
       </c>
       <c r="AY5">
-        <v>0.002675392373407962</v>
+        <v>0</v>
       </c>
       <c r="AZ5">
-        <v>0.002675392373407962</v>
+        <v>0</v>
       </c>
       <c r="BA5">
-        <v>0.002675392373407962</v>
+        <v>0</v>
       </c>
       <c r="BB5">
-        <v>0.002675392373407962</v>
+        <v>0</v>
       </c>
       <c r="BC5">
-        <v>0.002675392373407962</v>
+        <v>0</v>
       </c>
       <c r="BD5">
-        <v>0.002675392373407962</v>
+        <v>0</v>
       </c>
       <c r="BE5">
-        <v>0.002675392373407962</v>
+        <v>0</v>
       </c>
       <c r="BF5">
-        <v>0.002675392373407962</v>
+        <v>0</v>
       </c>
       <c r="BG5">
-        <v>0.002675392373407962</v>
+        <v>0</v>
       </c>
       <c r="BH5">
-        <v>0.002675392373407962</v>
+        <v>0</v>
       </c>
       <c r="BI5">
-        <v>0.002690482353426595</v>
+        <v>0</v>
       </c>
       <c r="BJ5">
-        <v>0.002705083902460316</v>
+        <v>0</v>
       </c>
       <c r="BK5">
-        <v>0.002815483036232124</v>
+        <v>0</v>
       </c>
       <c r="BL5">
-        <v>0.003014260132096948</v>
+        <v>0</v>
       </c>
       <c r="BM5">
-        <v>0.003050560412030261</v>
+        <v>0</v>
       </c>
       <c r="BN5">
-        <v>0.003095894176168245</v>
+        <v>0</v>
       </c>
       <c r="BO5">
-        <v>0.00309857936434038</v>
+        <v>0</v>
       </c>
       <c r="BP5">
-        <v>0.00309857936434038</v>
+        <v>0</v>
       </c>
       <c r="BQ5">
-        <v>0.00309857936434038</v>
+        <v>0</v>
       </c>
       <c r="BR5">
-        <v>0.00309857936434038</v>
+        <v>0</v>
       </c>
       <c r="BS5">
-        <v>0.00309857936434038</v>
+        <v>0</v>
       </c>
       <c r="BT5">
-        <v>0.00309857936434038</v>
+        <v>0</v>
       </c>
       <c r="BU5">
-        <v>0.00309857936434038</v>
+        <v>0</v>
       </c>
       <c r="BV5">
-        <v>0.00309857936434038</v>
+        <v>0</v>
       </c>
       <c r="BW5">
-        <v>0.00309857936434038</v>
+        <v>0</v>
       </c>
       <c r="BX5">
-        <v>0.00309857936434038</v>
+        <v>0</v>
       </c>
       <c r="BY5">
-        <v>0.00309857936434038</v>
+        <v>0</v>
       </c>
       <c r="BZ5">
-        <v>0.00309857936434038</v>
+        <v>0</v>
       </c>
       <c r="CA5">
-        <v>0.00316299062435174</v>
+        <v>0</v>
       </c>
       <c r="CB5">
-        <v>0.003202602470496827</v>
+        <v>0</v>
       </c>
       <c r="CC5">
-        <v>0.003302103474368621</v>
+        <v>0</v>
       </c>
       <c r="CD5">
-        <v>0.00337507443936973</v>
+        <v>0</v>
       </c>
       <c r="CE5">
-        <v>0.00337507443936973</v>
+        <v>0</v>
       </c>
       <c r="CF5">
-        <v>0.00337507443936973</v>
+        <v>0</v>
       </c>
       <c r="CG5">
-        <v>0.003414304700225793</v>
+        <v>0</v>
       </c>
       <c r="CH5">
-        <v>0.003418246725112617</v>
+        <v>0</v>
       </c>
       <c r="CI5">
-        <v>0.003418246725112617</v>
+        <v>0</v>
       </c>
       <c r="CJ5">
-        <v>0.003418246725112617</v>
+        <v>0</v>
       </c>
       <c r="CK5">
-        <v>0.003418246725112617</v>
+        <v>0</v>
       </c>
       <c r="CL5">
-        <v>0.003418246725112617</v>
+        <v>0</v>
       </c>
       <c r="CM5">
-        <v>0.007533706570433963</v>
+        <v>0</v>
       </c>
       <c r="CN5">
-        <v>0.0690596108788715</v>
+        <v>0.2084040848861578</v>
       </c>
       <c r="CO5">
-        <v>0.164235838349988</v>
+        <v>0.6406642650631263</v>
       </c>
       <c r="CP5">
-        <v>0.2248662786265246</v>
+        <v>0.8431113467821642</v>
       </c>
       <c r="CQ5">
-        <v>0.2252312038800506</v>
+        <v>0.8431113467821642</v>
       </c>
       <c r="CR5">
-        <v>0.2339294976016732</v>
+        <v>0.8431113467821642</v>
       </c>
       <c r="CS5">
-        <v>0.2385010474552799</v>
+        <v>0.8431113467821642</v>
       </c>
       <c r="CT5">
-        <v>0.2695291175886603</v>
+        <v>0.8486310183374329</v>
       </c>
       <c r="CU5">
-        <v>0.2698206679154541</v>
+        <v>0.8486310183374329</v>
       </c>
       <c r="CV5">
-        <v>0.2962338529845452</v>
+        <v>0.8486310183374329</v>
       </c>
       <c r="CW5">
-        <v>0.2969024426495022</v>
+        <v>0.8486310183374329</v>
       </c>
       <c r="CX5">
-        <v>0.30549221486203</v>
+        <v>0.8486310183374329</v>
       </c>
       <c r="CY5">
-        <v>0.3056200106510277</v>
+        <v>0.8486310183374329</v>
       </c>
       <c r="CZ5">
-        <v>0.3105396181355863</v>
+        <v>0.8486310183374329</v>
       </c>
       <c r="DA5">
-        <v>0.3109326239988571</v>
+        <v>0.8486310183374329</v>
       </c>
       <c r="DB5">
-        <v>0.317042868232348</v>
+        <v>0.8486310183374329</v>
       </c>
       <c r="DC5">
-        <v>0.3291407728910705</v>
+        <v>0.8486310183374329</v>
       </c>
       <c r="DD5">
-        <v>0.3306501385110961</v>
+        <v>0.8486310183374329</v>
       </c>
       <c r="DE5">
-        <v>0.3334071245789862</v>
+        <v>0.8486310183374329</v>
       </c>
       <c r="DF5">
-        <v>0.3419447499613892</v>
+        <v>0.8486310183374329</v>
       </c>
       <c r="DG5">
-        <v>0.3761841037082317</v>
+        <v>0.8755134984192562</v>
       </c>
       <c r="DH5">
-        <v>0.3793859370137404</v>
+        <v>0.8755134984192562</v>
       </c>
       <c r="DI5">
-        <v>0.3819774383423208</v>
+        <v>0.8755134984192562</v>
       </c>
       <c r="DJ5">
-        <v>0.3839091673727604</v>
+        <v>0.8755134984192562</v>
       </c>
       <c r="DK5">
-        <v>0.3874189412366514</v>
+        <v>0.8755134984192562</v>
       </c>
       <c r="DL5">
-        <v>0.3941125287879355</v>
+        <v>0.8755134984192562</v>
       </c>
       <c r="DM5">
-        <v>0.3941844964631304</v>
+        <v>0.8755134984192562</v>
       </c>
       <c r="DN5">
-        <v>0.3942642601685813</v>
+        <v>0.8755134984192562</v>
       </c>
       <c r="DO5">
-        <v>0.4003226382857842</v>
+        <v>0.8755134984192562</v>
       </c>
       <c r="DP5">
-        <v>0.4167778770966174</v>
+        <v>0.8755134984192562</v>
       </c>
       <c r="DQ5">
-        <v>0.434450952153389</v>
+        <v>0.8755134984192562</v>
       </c>
       <c r="DR5">
-        <v>0.4375281189717634</v>
+        <v>0.8755134984192562</v>
       </c>
       <c r="DS5">
-        <v>0.4424279410715402</v>
+        <v>0.8755134984192562</v>
       </c>
       <c r="DT5">
-        <v>0.4550624407160745</v>
+        <v>0.8755134984192562</v>
       </c>
       <c r="DU5">
-        <v>0.4551046493225081</v>
+        <v>0.8755134984192562</v>
       </c>
       <c r="DV5">
-        <v>0.4675870593394786</v>
+        <v>0.8755134984192562</v>
       </c>
       <c r="DW5">
-        <v>0.4679909121810224</v>
+        <v>0.8755134984192562</v>
       </c>
       <c r="DX5">
-        <v>0.5169022223074711</v>
+        <v>1</v>
       </c>
       <c r="DY5">
-        <v>0.5365973444705304</v>
+        <v>1</v>
       </c>
       <c r="DZ5">
-        <v>0.547341857542743</v>
+        <v>1</v>
       </c>
       <c r="EA5">
-        <v>0.5718500432941147</v>
+        <v>1</v>
       </c>
       <c r="EB5">
-        <v>0.5718500432941147</v>
+        <v>1</v>
       </c>
       <c r="EC5">
-        <v>0.5726279979204819</v>
+        <v>1</v>
       </c>
       <c r="ED5">
-        <v>0.5772810767924658</v>
+        <v>1</v>
       </c>
       <c r="EE5">
-        <v>0.5804168733777998</v>
+        <v>1</v>
       </c>
       <c r="EF5">
-        <v>0.5985794673872632</v>
+        <v>1</v>
       </c>
       <c r="EG5">
-        <v>0.6235790606581968</v>
+        <v>1</v>
       </c>
       <c r="EH5">
-        <v>0.6355149518905642</v>
+        <v>1</v>
       </c>
       <c r="EI5">
-        <v>0.6584684276503385</v>
+        <v>1</v>
       </c>
       <c r="EJ5">
-        <v>0.6680385838636965</v>
+        <v>1</v>
       </c>
       <c r="EK5">
-        <v>0.6680385838636965</v>
+        <v>1</v>
       </c>
       <c r="EL5">
-        <v>0.668982704948573</v>
+        <v>1</v>
       </c>
       <c r="EM5">
-        <v>0.6750042826312235</v>
+        <v>1</v>
       </c>
       <c r="EN5">
-        <v>0.6808535371072016</v>
+        <v>1</v>
       </c>
       <c r="EO5">
-        <v>0.6858355842625742</v>
+        <v>1</v>
       </c>
       <c r="EP5">
-        <v>0.7046139478695838</v>
+        <v>1</v>
       </c>
       <c r="EQ5">
-        <v>0.7237992336093514</v>
+        <v>1</v>
       </c>
       <c r="ER5">
-        <v>0.7292188808664523</v>
+        <v>1</v>
       </c>
       <c r="ES5">
-        <v>0.7351936397361687</v>
+        <v>1</v>
       </c>
       <c r="ET5">
-        <v>0.7374697321470001</v>
+        <v>1</v>
       </c>
       <c r="EU5">
-        <v>0.7419139337081844</v>
+        <v>1</v>
       </c>
       <c r="EV5">
-        <v>0.7622099064963336</v>
+        <v>1</v>
       </c>
       <c r="EW5">
-        <v>0.7795744584933451</v>
+        <v>1</v>
       </c>
       <c r="EX5">
-        <v>0.7862039315689187</v>
+        <v>1</v>
       </c>
       <c r="EY5">
-        <v>0.7862039315689187</v>
+        <v>1</v>
       </c>
       <c r="EZ5">
-        <v>0.7863578367091899</v>
+        <v>1</v>
       </c>
       <c r="FA5">
-        <v>0.7922140288703523</v>
+        <v>1</v>
       </c>
       <c r="FB5">
-        <v>0.7998285813495026</v>
+        <v>1</v>
       </c>
       <c r="FC5">
-        <v>0.8110355634099512</v>
+        <v>1</v>
       </c>
       <c r="FD5">
-        <v>0.8154087460845101</v>
+        <v>1</v>
       </c>
       <c r="FE5">
-        <v>0.8197546104830039</v>
+        <v>1</v>
       </c>
       <c r="FF5">
-        <v>0.8394807593898762</v>
+        <v>1</v>
       </c>
       <c r="FG5">
-        <v>0.8582976888835114</v>
+        <v>1</v>
       </c>
       <c r="FH5">
-        <v>0.8658535010847949</v>
+        <v>1</v>
       </c>
       <c r="FI5">
-        <v>0.8668691224240618</v>
+        <v>1</v>
       </c>
       <c r="FJ5">
-        <v>0.8674622904418053</v>
+        <v>1</v>
       </c>
       <c r="FK5">
-        <v>0.8675082159091693</v>
+        <v>1</v>
       </c>
       <c r="FL5">
-        <v>0.8762779746951214</v>
+        <v>1</v>
       </c>
       <c r="FM5">
-        <v>0.8850063241568751</v>
+        <v>1</v>
       </c>
       <c r="FN5">
-        <v>0.8880081970508151</v>
+        <v>1</v>
       </c>
       <c r="FO5">
-        <v>0.8897372121734719</v>
+        <v>1</v>
       </c>
       <c r="FP5">
-        <v>0.8930382086502028</v>
+        <v>1</v>
       </c>
       <c r="FQ5">
-        <v>0.8974703104770347</v>
+        <v>1</v>
       </c>
       <c r="FR5">
-        <v>0.8975683381870024</v>
+        <v>1</v>
       </c>
       <c r="FS5">
-        <v>0.8983273378736889</v>
+        <v>1</v>
       </c>
       <c r="FT5">
-        <v>0.9031002120814192</v>
+        <v>1</v>
       </c>
       <c r="FU5">
-        <v>0.9060507493315916</v>
+        <v>1</v>
       </c>
       <c r="FV5">
-        <v>0.9133971420531454</v>
+        <v>1</v>
       </c>
       <c r="FW5">
-        <v>0.9244048858545039</v>
+        <v>1</v>
       </c>
       <c r="FX5">
-        <v>0.9261470468343789</v>
+        <v>1</v>
       </c>
       <c r="FY5">
-        <v>0.9264181161626629</v>
+        <v>1</v>
       </c>
       <c r="FZ5">
-        <v>0.9269071438540402</v>
+        <v>1</v>
       </c>
       <c r="GA5">
-        <v>0.9291880784777282</v>
+        <v>1</v>
       </c>
       <c r="GB5">
-        <v>0.9303111274092732</v>
+        <v>1</v>
       </c>
       <c r="GC5">
-        <v>0.9344220551982618</v>
+        <v>1</v>
       </c>
       <c r="GD5">
-        <v>0.9466663676509586</v>
+        <v>1</v>
       </c>
       <c r="GE5">
-        <v>0.9509169571278644</v>
+        <v>1</v>
       </c>
       <c r="GF5">
-        <v>0.9516831108833178</v>
+        <v>1</v>
       </c>
       <c r="GG5">
-        <v>0.9518879495125193</v>
+        <v>1</v>
       </c>
       <c r="GH5">
-        <v>0.9519694397088988</v>
+        <v>1</v>
       </c>
       <c r="GI5">
-        <v>0.9519694397088988</v>
+        <v>1</v>
       </c>
       <c r="GJ5">
-        <v>0.9520966993082518</v>
+        <v>1</v>
       </c>
       <c r="GK5">
-        <v>0.9543761807538442</v>
+        <v>1</v>
       </c>
       <c r="GL5">
-        <v>0.9602880223157332</v>
+        <v>1</v>
       </c>
       <c r="GM5">
-        <v>0.9735968129313199</v>
+        <v>1</v>
       </c>
       <c r="GN5">
-        <v>0.9878230245634122</v>
+        <v>1</v>
       </c>
       <c r="GO5">
-        <v>0.9907079656245714</v>
+        <v>1</v>
       </c>
       <c r="GP5">
-        <v>0.9909379452633063</v>
+        <v>1</v>
       </c>
       <c r="GQ5">
-        <v>0.9910532240283633</v>
+        <v>1</v>
       </c>
       <c r="GR5">
-        <v>0.9952278226361361</v>
+        <v>1</v>
       </c>
       <c r="GS5">
-        <v>0.9999999999999988</v>
+        <v>1</v>
       </c>
       <c r="GT5">
-        <v>0.9999999999999988</v>
+        <v>1</v>
       </c>
       <c r="GU5">
-        <v>0.9999999999999988</v>
+        <v>1</v>
       </c>
       <c r="GV5">
-        <v>0.9999999999999988</v>
+        <v>1</v>
       </c>
       <c r="GW5">
-        <v>0.9999999999999988</v>
+        <v>1</v>
       </c>
       <c r="GX5">
-        <v>0.9999999999999988</v>
+        <v>1</v>
       </c>
       <c r="GY5">
-        <v>0.9999999999999988</v>
+        <v>1</v>
       </c>
       <c r="GZ5">
-        <v>0.9999999999999988</v>
+        <v>1</v>
       </c>
       <c r="HA5">
-        <v>0.9999999999999988</v>
+        <v>1</v>
       </c>
       <c r="HB5">
-        <v>0.9999999999999988</v>
+        <v>1</v>
       </c>
       <c r="HC5">
-        <v>0.9999999999999988</v>
+        <v>1</v>
       </c>
       <c r="HD5">
-        <v>0.9999999999999988</v>
+        <v>1</v>
       </c>
       <c r="HE5">
-        <v>0.9999999999999988</v>
+        <v>1</v>
       </c>
       <c r="HF5">
-        <v>0.9999999999999988</v>
+        <v>1</v>
       </c>
       <c r="HG5">
-        <v>0.9999999999999988</v>
+        <v>1</v>
       </c>
       <c r="HH5">
-        <v>0.9999999999999988</v>
+        <v>1</v>
       </c>
       <c r="HI5">
-        <v>0.9999999999999988</v>
+        <v>1</v>
       </c>
       <c r="HJ5">
-        <v>0.9999999999999988</v>
+        <v>1</v>
       </c>
       <c r="HK5">
-        <v>0.9999999999999988</v>
+        <v>1</v>
       </c>
       <c r="HL5">
-        <v>0.9999999999999988</v>
+        <v>1</v>
       </c>
       <c r="HM5">
-        <v>0.9999999999999988</v>
+        <v>1</v>
       </c>
       <c r="HN5">
-        <v>0.9999999999999988</v>
+        <v>1</v>
       </c>
       <c r="HO5">
-        <v>0.9999999999999988</v>
+        <v>1</v>
       </c>
       <c r="HP5">
-        <v>0.9999999999999988</v>
+        <v>1</v>
       </c>
       <c r="HQ5">
-        <v>0.9999999999999988</v>
+        <v>1</v>
       </c>
       <c r="HR5">
-        <v>0.9999999999999988</v>
+        <v>1</v>
       </c>
       <c r="HS5">
-        <v>0.9999999999999988</v>
+        <v>1</v>
       </c>
       <c r="HT5">
-        <v>0.9999999999999988</v>
+        <v>1</v>
       </c>
       <c r="HU5">
-        <v>0.9999999999999988</v>
+        <v>1</v>
       </c>
       <c r="HV5">
-        <v>0.9999999999999988</v>
+        <v>1</v>
       </c>
       <c r="HW5">
-        <v>0.9999999999999988</v>
+        <v>1</v>
       </c>
       <c r="HX5">
-        <v>0.9999999999999988</v>
+        <v>1</v>
       </c>
       <c r="HY5">
-        <v>0.9999999999999988</v>
+        <v>1</v>
       </c>
       <c r="HZ5">
-        <v>0.9999999999999988</v>
+        <v>1</v>
       </c>
       <c r="IA5">
-        <v>0.9999999999999988</v>
+        <v>1</v>
       </c>
       <c r="IB5">
-        <v>0.9999999999999988</v>
+        <v>1</v>
       </c>
       <c r="IC5">
-        <v>0.9999999999999988</v>
+        <v>1</v>
       </c>
       <c r="ID5">
-        <v>0.9999999999999988</v>
+        <v>1</v>
       </c>
       <c r="IE5">
-        <v>0.9999999999999988</v>
+        <v>1</v>
       </c>
       <c r="IF5">
-        <v>0.9999999999999988</v>
+        <v>1</v>
       </c>
       <c r="IG5">
-        <v>0.9999999999999988</v>
+        <v>1</v>
       </c>
       <c r="IH5">
-        <v>0.9999999999999988</v>
+        <v>1</v>
       </c>
       <c r="II5">
-        <v>0.9999999999999988</v>
+        <v>1</v>
       </c>
       <c r="IJ5">
-        <v>0.9999999999999988</v>
+        <v>1</v>
       </c>
       <c r="IK5">
-        <v>0.9999999999999988</v>
+        <v>1</v>
       </c>
       <c r="IL5">
-        <v>0.9999999999999988</v>
+        <v>1</v>
       </c>
       <c r="IM5">
-        <v>0.9999999999999988</v>
+        <v>1</v>
       </c>
       <c r="IN5">
-        <v>0.9999999999999988</v>
+        <v>1</v>
       </c>
       <c r="IO5">
-        <v>0.9999999999999988</v>
+        <v>1</v>
       </c>
       <c r="IP5">
-        <v>0.9999999999999988</v>
+        <v>1</v>
       </c>
       <c r="IQ5">
-        <v>0.9999999999999988</v>
+        <v>1</v>
       </c>
       <c r="IR5">
-        <v>0.9999999999999988</v>
+        <v>1</v>
       </c>
       <c r="IS5">
-        <v>0.9999999999999988</v>
+        <v>1</v>
       </c>
       <c r="IT5">
-        <v>0.9999999999999988</v>
+        <v>1</v>
       </c>
       <c r="IU5">
-        <v>0.9999999999999988</v>
+        <v>1</v>
       </c>
       <c r="IV5">
-        <v>0.9999999999999988</v>
+        <v>1</v>
       </c>
       <c r="IW5">
-        <v>0.9999999999999988</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:257">
@@ -9743,595 +9743,595 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>5.64422106546333E-05</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0.0002164412537953152</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.0002164412537953152</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0002164412537953152</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>0.0002554393049435604</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.0002554393049435604</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.0002554393049435604</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.0002667442745999415</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.0004013194778149272</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.0006284180805145229</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0.0009021183046395622</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.001177391543688002</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.001347283120711032</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.001430038856831843</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>0.001460270850323839</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>0.001460270850323839</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>0.001460270850323839</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>0.001476794037290381</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>0.001476794037290381</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>0.001480887361106137</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>0.001507770122036409</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <v>0.00154926717229769</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>0.001582719714250862</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>0.001715034415984509</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.001792121488353339</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>0.001866452834514548</v>
+        <v>0</v>
       </c>
       <c r="AD6">
-        <v>0.002029871169134175</v>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <v>0.002221344324584686</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>0.002333536015285118</v>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <v>0.00248230591764522</v>
+        <v>0</v>
       </c>
       <c r="AH6">
-        <v>0.002483063874830966</v>
+        <v>0</v>
       </c>
       <c r="AI6">
-        <v>0.002483063874830966</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
-        <v>0.002483063874830966</v>
+        <v>0</v>
       </c>
       <c r="AK6">
-        <v>0.002483063874830966</v>
+        <v>0</v>
       </c>
       <c r="AL6">
-        <v>0.002492370637709932</v>
+        <v>0</v>
       </c>
       <c r="AM6">
-        <v>0.002537665128110621</v>
+        <v>0</v>
       </c>
       <c r="AN6">
-        <v>0.002537665128110621</v>
+        <v>0</v>
       </c>
       <c r="AO6">
-        <v>0.002537665128110621</v>
+        <v>0</v>
       </c>
       <c r="AP6">
-        <v>0.002537665128110621</v>
+        <v>0</v>
       </c>
       <c r="AQ6">
-        <v>0.00256603920495702</v>
+        <v>0</v>
       </c>
       <c r="AR6">
-        <v>0.002604149165317224</v>
+        <v>0</v>
       </c>
       <c r="AS6">
-        <v>0.002618351207135326</v>
+        <v>0</v>
       </c>
       <c r="AT6">
-        <v>0.0027554013519416</v>
+        <v>0</v>
       </c>
       <c r="AU6">
-        <v>0.002927550074654085</v>
+        <v>0</v>
       </c>
       <c r="AV6">
-        <v>0.002927550074654085</v>
+        <v>0</v>
       </c>
       <c r="AW6">
-        <v>0.003154648677353681</v>
+        <v>0</v>
       </c>
       <c r="AX6">
-        <v>0.003210505938422648</v>
+        <v>0</v>
       </c>
       <c r="AY6">
-        <v>0.003210505938422648</v>
+        <v>0</v>
       </c>
       <c r="AZ6">
-        <v>0.003255267425894286</v>
+        <v>0</v>
       </c>
       <c r="BA6">
-        <v>0.003338023162015098</v>
+        <v>0</v>
       </c>
       <c r="BB6">
-        <v>0.003357777104058783</v>
+        <v>0</v>
       </c>
       <c r="BC6">
-        <v>0.003357777104058783</v>
+        <v>0</v>
       </c>
       <c r="BD6">
-        <v>0.003357777104058783</v>
+        <v>0</v>
       </c>
       <c r="BE6">
-        <v>0.003388820533036659</v>
+        <v>0</v>
       </c>
       <c r="BF6">
-        <v>0.003482051017905531</v>
+        <v>0</v>
       </c>
       <c r="BG6">
-        <v>0.00353156586737672</v>
+        <v>0</v>
       </c>
       <c r="BH6">
-        <v>0.003602180933475637</v>
+        <v>0</v>
       </c>
       <c r="BI6">
-        <v>0.00387427179995205</v>
+        <v>0</v>
       </c>
       <c r="BJ6">
-        <v>0.004201795339685956</v>
+        <v>0</v>
       </c>
       <c r="BK6">
-        <v>0.004419758004339348</v>
+        <v>0</v>
       </c>
       <c r="BL6">
-        <v>0.00465668222542942</v>
+        <v>0</v>
       </c>
       <c r="BM6">
-        <v>0.004721719941377807</v>
+        <v>0</v>
       </c>
       <c r="BN6">
-        <v>0.004721719941377807</v>
+        <v>0</v>
       </c>
       <c r="BO6">
-        <v>0.004721719941377807</v>
+        <v>0</v>
       </c>
       <c r="BP6">
-        <v>0.004721719941377807</v>
+        <v>0</v>
       </c>
       <c r="BQ6">
-        <v>0.004728458309371061</v>
+        <v>0</v>
       </c>
       <c r="BR6">
-        <v>0.004728458309371061</v>
+        <v>0</v>
       </c>
       <c r="BS6">
-        <v>0.004789994541982599</v>
+        <v>0</v>
       </c>
       <c r="BT6">
-        <v>0.004799301304861566</v>
+        <v>0</v>
       </c>
       <c r="BU6">
-        <v>0.00480394841447628</v>
+        <v>0</v>
       </c>
       <c r="BV6">
-        <v>0.004816898208995436</v>
+        <v>0</v>
       </c>
       <c r="BW6">
-        <v>0.004847838424834019</v>
+        <v>0</v>
       </c>
       <c r="BX6">
-        <v>0.004908767439425994</v>
+        <v>0</v>
       </c>
       <c r="BY6">
-        <v>0.004933668802590134</v>
+        <v>0</v>
       </c>
       <c r="BZ6">
-        <v>0.00493967586940421</v>
+        <v>0</v>
       </c>
       <c r="CA6">
-        <v>0.004942629447090862</v>
+        <v>0</v>
       </c>
       <c r="CB6">
-        <v>0.004953680462438308</v>
+        <v>0</v>
       </c>
       <c r="CC6">
-        <v>0.004953680462438308</v>
+        <v>0</v>
       </c>
       <c r="CD6">
-        <v>0.004983912455930305</v>
+        <v>0</v>
       </c>
       <c r="CE6">
-        <v>0.005001685703421559</v>
+        <v>0</v>
       </c>
       <c r="CF6">
-        <v>0.005003738496411294</v>
+        <v>0</v>
       </c>
       <c r="CG6">
-        <v>0.005019977394713738</v>
+        <v>0</v>
       </c>
       <c r="CH6">
-        <v>0.00502086234908853</v>
+        <v>0</v>
       </c>
       <c r="CI6">
-        <v>0.005039518279033385</v>
+        <v>0</v>
       </c>
       <c r="CJ6">
-        <v>0.005101863447817146</v>
+        <v>0</v>
       </c>
       <c r="CK6">
-        <v>0.005101863447817146</v>
+        <v>0</v>
       </c>
       <c r="CL6">
-        <v>0.005101928162510578</v>
+        <v>0</v>
       </c>
       <c r="CM6">
-        <v>0.005123316871056951</v>
+        <v>0</v>
       </c>
       <c r="CN6">
-        <v>0.05660331501848701</v>
+        <v>0.1792969958553075</v>
       </c>
       <c r="CO6">
-        <v>0.05910006690795797</v>
+        <v>0.1792969958553075</v>
       </c>
       <c r="CP6">
-        <v>0.1532933464540174</v>
+        <v>0.7158353395647096</v>
       </c>
       <c r="CQ6">
-        <v>0.1631151031344296</v>
+        <v>0.7158353395647096</v>
       </c>
       <c r="CR6">
-        <v>0.1639943977358134</v>
+        <v>0.7158353395647096</v>
       </c>
       <c r="CS6">
-        <v>0.1762480487106253</v>
+        <v>0.7158353395647096</v>
       </c>
       <c r="CT6">
-        <v>0.2201603504969475</v>
+        <v>0.8318383444254637</v>
       </c>
       <c r="CU6">
-        <v>0.223520205747755</v>
+        <v>0.8318383444254637</v>
       </c>
       <c r="CV6">
-        <v>0.2278483237583116</v>
+        <v>0.8318383444254637</v>
       </c>
       <c r="CW6">
-        <v>0.2583504764829074</v>
+        <v>0.8356827988572357</v>
       </c>
       <c r="CX6">
-        <v>0.2645871745809295</v>
+        <v>0.8356827988572357</v>
       </c>
       <c r="CY6">
-        <v>0.2655098478110591</v>
+        <v>0.8356827988572357</v>
       </c>
       <c r="CZ6">
-        <v>0.2655518963922275</v>
+        <v>0.8356827988572357</v>
       </c>
       <c r="DA6">
-        <v>0.2867611201142445</v>
+        <v>0.8356827988572357</v>
       </c>
       <c r="DB6">
-        <v>0.2942473465184043</v>
+        <v>0.8356827988572357</v>
       </c>
       <c r="DC6">
-        <v>0.2954332875319318</v>
+        <v>0.8356827988572357</v>
       </c>
       <c r="DD6">
-        <v>0.3224895168125096</v>
+        <v>0.8356827988572357</v>
       </c>
       <c r="DE6">
-        <v>0.3241839229043227</v>
+        <v>0.8356827988572357</v>
       </c>
       <c r="DF6">
-        <v>0.3255449897739049</v>
+        <v>0.8356827988572357</v>
       </c>
       <c r="DG6">
-        <v>0.3642922019450789</v>
+        <v>0.9084865103019157</v>
       </c>
       <c r="DH6">
-        <v>0.3720095340228872</v>
+        <v>0.9084865103019157</v>
       </c>
       <c r="DI6">
-        <v>0.3851794534185364</v>
+        <v>0.9084865103019157</v>
       </c>
       <c r="DJ6">
-        <v>0.3855378126787565</v>
+        <v>0.9084865103019157</v>
       </c>
       <c r="DK6">
-        <v>0.385548684337546</v>
+        <v>0.9084865103019157</v>
       </c>
       <c r="DL6">
-        <v>0.3970394295857463</v>
+        <v>0.9084865103019157</v>
       </c>
       <c r="DM6">
-        <v>0.3977282115644981</v>
+        <v>0.9084865103019157</v>
       </c>
       <c r="DN6">
-        <v>0.3979934526286527</v>
+        <v>0.9084865103019157</v>
       </c>
       <c r="DO6">
-        <v>0.3997328555821782</v>
+        <v>0.9084865103019157</v>
       </c>
       <c r="DP6">
-        <v>0.4104095277922518</v>
+        <v>0.9084865103019157</v>
       </c>
       <c r="DQ6">
-        <v>0.4228211073417078</v>
+        <v>0.9084865103019157</v>
       </c>
       <c r="DR6">
-        <v>0.4376637287142524</v>
+        <v>0.9084865103019157</v>
       </c>
       <c r="DS6">
-        <v>0.4379364872330541</v>
+        <v>0.9084865103019157</v>
       </c>
       <c r="DT6">
-        <v>0.4520617615102782</v>
+        <v>0.9084865103019157</v>
       </c>
       <c r="DU6">
-        <v>0.4614026161845087</v>
+        <v>0.9084865103019157</v>
       </c>
       <c r="DV6">
-        <v>0.4645188375387543</v>
+        <v>0.9084865103019157</v>
       </c>
       <c r="DW6">
-        <v>0.4807772675066073</v>
+        <v>0.9084865103019157</v>
       </c>
       <c r="DX6">
-        <v>0.4911223634371766</v>
+        <v>0.9084865103019157</v>
       </c>
       <c r="DY6">
-        <v>0.5321065955620712</v>
+        <v>1</v>
       </c>
       <c r="DZ6">
-        <v>0.5408157058858575</v>
+        <v>1</v>
       </c>
       <c r="EA6">
-        <v>0.5594813074783594</v>
+        <v>1</v>
       </c>
       <c r="EB6">
-        <v>0.5735755191434969</v>
+        <v>1</v>
       </c>
       <c r="EC6">
-        <v>0.57445544284066</v>
+        <v>1</v>
       </c>
       <c r="ED6">
-        <v>0.5752431537344074</v>
+        <v>1</v>
       </c>
       <c r="EE6">
-        <v>0.5768439783104947</v>
+        <v>1</v>
       </c>
       <c r="EF6">
-        <v>0.58507195422699</v>
+        <v>1</v>
       </c>
       <c r="EG6">
-        <v>0.6104385673378548</v>
+        <v>1</v>
       </c>
       <c r="EH6">
-        <v>0.628716119181247</v>
+        <v>1</v>
       </c>
       <c r="EI6">
-        <v>0.6466743899659017</v>
+        <v>1</v>
       </c>
       <c r="EJ6">
-        <v>0.6690361689247254</v>
+        <v>1</v>
       </c>
       <c r="EK6">
-        <v>0.6737141818315501</v>
+        <v>1</v>
       </c>
       <c r="EL6">
-        <v>0.6737201062557282</v>
+        <v>1</v>
       </c>
       <c r="EM6">
-        <v>0.6758018852284197</v>
+        <v>1</v>
       </c>
       <c r="EN6">
-        <v>0.6846176751744278</v>
+        <v>1</v>
       </c>
       <c r="EO6">
-        <v>0.6878805497427647</v>
+        <v>1</v>
       </c>
       <c r="EP6">
-        <v>0.6971673150622197</v>
+        <v>1</v>
       </c>
       <c r="EQ6">
-        <v>0.7195650510806344</v>
+        <v>1</v>
       </c>
       <c r="ER6">
-        <v>0.7311136782293022</v>
+        <v>1</v>
       </c>
       <c r="ES6">
-        <v>0.7371353238604866</v>
+        <v>1</v>
       </c>
       <c r="ET6">
-        <v>0.7462536244205148</v>
+        <v>1</v>
       </c>
       <c r="EU6">
-        <v>0.7463537770726026</v>
+        <v>1</v>
       </c>
       <c r="EV6">
-        <v>0.7548224454088585</v>
+        <v>1</v>
       </c>
       <c r="EW6">
-        <v>0.7755344930366561</v>
+        <v>1</v>
       </c>
       <c r="EX6">
-        <v>0.7888225773774619</v>
+        <v>1</v>
       </c>
       <c r="EY6">
-        <v>0.7914944061384434</v>
+        <v>1</v>
       </c>
       <c r="EZ6">
-        <v>0.7914944061384434</v>
+        <v>1</v>
       </c>
       <c r="FA6">
-        <v>0.79367477487077</v>
+        <v>1</v>
       </c>
       <c r="FB6">
-        <v>0.7978614102914029</v>
+        <v>1</v>
       </c>
       <c r="FC6">
-        <v>0.8070174469815842</v>
+        <v>1</v>
       </c>
       <c r="FD6">
-        <v>0.8178277227829325</v>
+        <v>1</v>
       </c>
       <c r="FE6">
-        <v>0.8186018537085212</v>
+        <v>1</v>
       </c>
       <c r="FF6">
-        <v>0.8299525943176467</v>
+        <v>1</v>
       </c>
       <c r="FG6">
-        <v>0.8482399190283844</v>
+        <v>1</v>
       </c>
       <c r="FH6">
-        <v>0.8692754199158722</v>
+        <v>1</v>
       </c>
       <c r="FI6">
-        <v>0.87247346178711</v>
+        <v>1</v>
       </c>
       <c r="FJ6">
-        <v>0.87247346178711</v>
+        <v>1</v>
       </c>
       <c r="FK6">
-        <v>0.8730163539393287</v>
+        <v>1</v>
       </c>
       <c r="FL6">
-        <v>0.8744437851495289</v>
+        <v>1</v>
       </c>
       <c r="FM6">
-        <v>0.8816226233212106</v>
+        <v>1</v>
       </c>
       <c r="FN6">
-        <v>0.8859088703651501</v>
+        <v>1</v>
       </c>
       <c r="FO6">
-        <v>0.8881365631758167</v>
+        <v>1</v>
       </c>
       <c r="FP6">
-        <v>0.8881692856617397</v>
+        <v>1</v>
       </c>
       <c r="FQ6">
-        <v>0.8955315474108136</v>
+        <v>1</v>
       </c>
       <c r="FR6">
-        <v>0.8979578786587501</v>
+        <v>1</v>
       </c>
       <c r="FS6">
-        <v>0.898034814750536</v>
+        <v>1</v>
       </c>
       <c r="FT6">
-        <v>0.900827877353394</v>
+        <v>1</v>
       </c>
       <c r="FU6">
-        <v>0.9038292951640478</v>
+        <v>1</v>
       </c>
       <c r="FV6">
-        <v>0.9063121658955257</v>
+        <v>1</v>
       </c>
       <c r="FW6">
-        <v>0.9161879307906707</v>
+        <v>1</v>
       </c>
       <c r="FX6">
-        <v>0.9231003571525654</v>
+        <v>1</v>
       </c>
       <c r="FY6">
-        <v>0.9239543017614796</v>
+        <v>1</v>
       </c>
       <c r="FZ6">
-        <v>0.9239680409794934</v>
+        <v>1</v>
       </c>
       <c r="GA6">
-        <v>0.9265772664912607</v>
+        <v>1</v>
       </c>
       <c r="GB6">
-        <v>0.9284745927102672</v>
+        <v>1</v>
       </c>
       <c r="GC6">
-        <v>0.9312251837098475</v>
+        <v>1</v>
       </c>
       <c r="GD6">
-        <v>0.940486760555604</v>
+        <v>1</v>
       </c>
       <c r="GE6">
-        <v>0.9530965552116881</v>
+        <v>1</v>
       </c>
       <c r="GF6">
-        <v>0.9564216761132248</v>
+        <v>1</v>
       </c>
       <c r="GG6">
-        <v>0.9572915328855178</v>
+        <v>1</v>
       </c>
       <c r="GH6">
-        <v>0.9575552289631243</v>
+        <v>1</v>
       </c>
       <c r="GI6">
-        <v>0.9575552289631243</v>
+        <v>1</v>
       </c>
       <c r="GJ6">
-        <v>0.9577404011635284</v>
+        <v>1</v>
       </c>
       <c r="GK6">
-        <v>0.9583688720191293</v>
+        <v>1</v>
       </c>
       <c r="GL6">
-        <v>0.9618401882444678</v>
+        <v>1</v>
       </c>
       <c r="GM6">
-        <v>0.9693037989153148</v>
+        <v>1</v>
       </c>
       <c r="GN6">
-        <v>0.9830303971030436</v>
+        <v>1</v>
       </c>
       <c r="GO6">
-        <v>0.9939594784551929</v>
+        <v>1</v>
       </c>
       <c r="GP6">
-        <v>0.9957444649830597</v>
+        <v>1</v>
       </c>
       <c r="GQ6">
-        <v>0.996021631579923</v>
+        <v>1</v>
       </c>
       <c r="GR6">
-        <v>0.9966985589684082</v>
+        <v>1</v>
       </c>
       <c r="GS6">
         <v>1</v>
@@ -10570,16 +10570,16 @@
         <v>91</v>
       </c>
       <c r="D2">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="E2">
-        <v>0.04411482787809866</v>
+        <v>0.07224683772122442</v>
       </c>
       <c r="F2">
-        <v>0.5000227438647556</v>
+        <v>0.713197957253493</v>
       </c>
       <c r="G2">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="H2">
         <v>2</v>
@@ -10608,19 +10608,19 @@
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D3">
-        <v>119</v>
+        <v>92</v>
       </c>
       <c r="E3">
-        <v>0.00966557211209609</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.5065845023118636</v>
+        <v>0.5846977870803324</v>
       </c>
       <c r="G3">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="H3">
         <v>2</v>
@@ -10652,16 +10652,16 @@
         <v>89</v>
       </c>
       <c r="D4">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="E4">
-        <v>0.005873256354375387</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5150001043814879</v>
+        <v>0.5309684531770802</v>
       </c>
       <c r="G4">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="H4">
         <v>2</v>
@@ -10690,19 +10690,19 @@
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D5">
-        <v>127</v>
+        <v>92</v>
       </c>
       <c r="E5">
-        <v>0.007533706570433963</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.5169022223074711</v>
+        <v>0.6406642650631263</v>
       </c>
       <c r="G5">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="H5">
         <v>2</v>
@@ -10731,19 +10731,19 @@
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D6">
-        <v>128</v>
+        <v>93</v>
       </c>
       <c r="E6">
-        <v>0.05660331501848701</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.5321065955620712</v>
+        <v>0.7158353395647096</v>
       </c>
       <c r="G6">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="H6">
         <v>2</v>
@@ -10829,16 +10829,16 @@
         <v>91</v>
       </c>
       <c r="D2">
-        <v>140</v>
+        <v>93</v>
       </c>
       <c r="E2">
-        <v>0.04411482787809866</v>
+        <v>0.07224683772122442</v>
       </c>
       <c r="F2">
-        <v>0.7023609586700519</v>
+        <v>0.713197957253493</v>
       </c>
       <c r="G2">
-        <v>49</v>
+        <v>2</v>
       </c>
       <c r="H2">
         <v>2</v>
@@ -10867,19 +10867,19 @@
         <v>0.7</v>
       </c>
       <c r="C3">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D3">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="E3">
-        <v>0.00966557211209609</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7065418175515826</v>
+        <v>0.892585761865897</v>
       </c>
       <c r="G3">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="H3">
         <v>2</v>
@@ -10911,16 +10911,16 @@
         <v>89</v>
       </c>
       <c r="D4">
-        <v>144</v>
+        <v>93</v>
       </c>
       <c r="E4">
-        <v>0.005873256354375387</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7055236516291354</v>
+        <v>0.7413298980947437</v>
       </c>
       <c r="G4">
-        <v>55</v>
+        <v>4</v>
       </c>
       <c r="H4">
         <v>2</v>
@@ -10949,19 +10949,19 @@
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D5">
-        <v>145</v>
+        <v>93</v>
       </c>
       <c r="E5">
-        <v>0.007533706570433963</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7046139478695838</v>
+        <v>0.8431113467821642</v>
       </c>
       <c r="G5">
-        <v>55</v>
+        <v>4</v>
       </c>
       <c r="H5">
         <v>2</v>
@@ -10990,19 +10990,19 @@
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D6">
-        <v>146</v>
+        <v>93</v>
       </c>
       <c r="E6">
-        <v>0.05660331501848701</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7195650510806344</v>
+        <v>0.7158353395647096</v>
       </c>
       <c r="G6">
-        <v>55</v>
+        <v>4</v>
       </c>
       <c r="H6">
         <v>2</v>
@@ -11088,16 +11088,16 @@
         <v>91</v>
       </c>
       <c r="D2">
-        <v>153</v>
+        <v>100</v>
       </c>
       <c r="E2">
-        <v>0.04411482787809866</v>
+        <v>0.07224683772122442</v>
       </c>
       <c r="F2">
-        <v>0.8100611551730533</v>
+        <v>0.8082129445142943</v>
       </c>
       <c r="G2">
-        <v>62</v>
+        <v>9</v>
       </c>
       <c r="H2">
         <v>2</v>
@@ -11126,19 +11126,19 @@
         <v>0.8</v>
       </c>
       <c r="C3">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D3">
-        <v>151</v>
+        <v>99</v>
       </c>
       <c r="E3">
-        <v>0.00966557211209609</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8107596110227251</v>
+        <v>0.892585761865897</v>
       </c>
       <c r="G3">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="H3">
         <v>2</v>
@@ -11170,16 +11170,16 @@
         <v>89</v>
       </c>
       <c r="D4">
-        <v>152</v>
+        <v>97</v>
       </c>
       <c r="E4">
-        <v>0.005873256354375387</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8014389506552995</v>
+        <v>0.8809277493865226</v>
       </c>
       <c r="G4">
-        <v>63</v>
+        <v>8</v>
       </c>
       <c r="H4">
         <v>2</v>
@@ -11208,19 +11208,19 @@
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D5">
-        <v>158</v>
+        <v>93</v>
       </c>
       <c r="E5">
-        <v>0.007533706570433963</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8110355634099512</v>
+        <v>0.8431113467821642</v>
       </c>
       <c r="G5">
-        <v>68</v>
+        <v>4</v>
       </c>
       <c r="H5">
         <v>2</v>
@@ -11249,19 +11249,19 @@
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D6">
-        <v>158</v>
+        <v>97</v>
       </c>
       <c r="E6">
-        <v>0.05660331501848701</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8070174469815842</v>
+        <v>0.8318383444254637</v>
       </c>
       <c r="G6">
-        <v>67</v>
+        <v>8</v>
       </c>
       <c r="H6">
         <v>2</v>
@@ -11347,16 +11347,16 @@
         <v>91</v>
       </c>
       <c r="D2">
-        <v>168</v>
+        <v>128</v>
       </c>
       <c r="E2">
-        <v>0.04411482787809866</v>
+        <v>0.07224683772122442</v>
       </c>
       <c r="F2">
-        <v>0.9012186606174054</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="H2">
         <v>2</v>
@@ -11385,19 +11385,19 @@
         <v>0.9</v>
       </c>
       <c r="C3">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D3">
-        <v>171</v>
+        <v>105</v>
       </c>
       <c r="E3">
-        <v>0.00966557211209609</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9004514315783032</v>
+        <v>0.9268634810006058</v>
       </c>
       <c r="G3">
-        <v>81</v>
+        <v>16</v>
       </c>
       <c r="H3">
         <v>2</v>
@@ -11429,16 +11429,16 @@
         <v>89</v>
       </c>
       <c r="D4">
-        <v>172</v>
+        <v>110</v>
       </c>
       <c r="E4">
-        <v>0.005873256354375387</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.903377144563739</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>83</v>
+        <v>21</v>
       </c>
       <c r="H4">
         <v>2</v>
@@ -11467,19 +11467,19 @@
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D5">
-        <v>175</v>
+        <v>127</v>
       </c>
       <c r="E5">
-        <v>0.007533706570433963</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9031002120814192</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="H5">
         <v>2</v>
@@ -11508,19 +11508,19 @@
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D6">
-        <v>175</v>
+        <v>110</v>
       </c>
       <c r="E6">
-        <v>0.05660331501848701</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.900827877353394</v>
+        <v>0.9084865103019157</v>
       </c>
       <c r="G6">
-        <v>84</v>
+        <v>21</v>
       </c>
       <c r="H6">
         <v>2</v>

--- a/on_trucks/Processed_Stand_Alone/2_245-70R19.xlsx
+++ b/on_trucks/Processed_Stand_Alone/2_245-70R19.xlsx
@@ -668,34 +668,34 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1053773997229228</v>
+        <v>0.0970281470890567</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.4754299486949791</v>
+        <v>0.3471024419624646</v>
       </c>
       <c r="G2">
-        <v>0.01764567738245761</v>
+        <v>0.03774076030232729</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.01889828299158882</v>
       </c>
       <c r="J2">
-        <v>0.03736719061048996</v>
+        <v>0.05106817428187318</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.00144939465531818</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.120192501423347</v>
+        <v>0.1070399038557725</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -707,16 +707,16 @@
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.07857570041381515</v>
+        <v>0.07891608145202116</v>
       </c>
       <c r="R2">
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>0.01173374193621909</v>
       </c>
       <c r="T2">
-        <v>0.09245333706544444</v>
+        <v>0.08829431762362937</v>
       </c>
       <c r="U2">
         <v>0</v>
@@ -725,13 +725,13 @@
         <v>0</v>
       </c>
       <c r="W2">
-        <v>0.05072626805011146</v>
+        <v>0.06009597825228947</v>
       </c>
       <c r="X2">
-        <v>0.02223197663643263</v>
+        <v>0.04084009188429363</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <v>0.009679151319853337</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -740,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>0.008848039210353258</v>
       </c>
       <c r="AC2">
         <v>0</v>
@@ -752,13 +752,13 @@
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>0</v>
+        <v>0.003961178486546742</v>
       </c>
       <c r="AG2">
-        <v>0</v>
+        <v>0.01987769686843175</v>
       </c>
       <c r="AH2">
-        <v>0</v>
+        <v>0.01742661782796084</v>
       </c>
       <c r="AI2">
         <v>0</v>
@@ -775,67 +775,67 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1157560362815046</v>
+        <v>0.09854416000318851</v>
       </c>
       <c r="E3">
-        <v>0.3305290605593705</v>
+        <v>0.2330765455177927</v>
       </c>
       <c r="F3">
-        <v>0.04064980570912141</v>
+        <v>0.05149811965484324</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.02070768782553846</v>
       </c>
       <c r="I3">
-        <v>0.0123683631912524</v>
+        <v>0.03378281327260134</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.02486491549511197</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2318616941807993</v>
+        <v>0.1712719673311986</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.007486862149117706</v>
       </c>
       <c r="O3">
-        <v>0.003023467219881161</v>
+        <v>0.02792923295616515</v>
       </c>
       <c r="P3">
-        <v>0.04688896912620713</v>
+        <v>0.05540628987751536</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
       <c r="R3">
-        <v>0.0783360344024198</v>
+        <v>0.07510452117666075</v>
       </c>
       <c r="S3">
-        <v>0.04115685235359094</v>
+        <v>0.05181573028065167</v>
       </c>
       <c r="T3">
         <v>0</v>
       </c>
       <c r="U3">
-        <v>0.01138913366041452</v>
+        <v>0.03316943044581053</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>0.02028851533805935</v>
       </c>
       <c r="W3">
-        <v>0.08804058331543828</v>
+        <v>0.08118338568956357</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>0.0003111467737024797</v>
       </c>
       <c r="Y3">
         <v>0</v>
@@ -859,16 +859,16 @@
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>0</v>
+        <v>0.004100466973406413</v>
       </c>
       <c r="AG3">
-        <v>0</v>
+        <v>0.005545907479461775</v>
       </c>
       <c r="AH3">
         <v>0</v>
       </c>
       <c r="AI3">
-        <v>0</v>
+        <v>0.003912301759610604</v>
       </c>
     </row>
     <row r="4" spans="1:35">
@@ -882,13 +882,13 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.3463687420169566</v>
+        <v>0.267697872423024</v>
       </c>
       <c r="E4">
-        <v>0.1096997359588677</v>
+        <v>0.1023049648399309</v>
       </c>
       <c r="F4">
-        <v>0.1924042549591197</v>
+        <v>0.1601018901557684</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -900,16 +900,16 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1466644422304322</v>
+        <v>0.128137245754266</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.03667802334704749</v>
+        <v>0.05127473673054472</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.008729979241712029</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -921,25 +921,25 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.007605529892070243</v>
+        <v>0.03095782112213192</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>0.02436404045456285</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>0.001520954460595205</v>
       </c>
       <c r="T4">
-        <v>0.0271820630238504</v>
+        <v>0.04463861434888496</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>0.001926187203758723</v>
       </c>
       <c r="V4">
         <v>0</v>
       </c>
       <c r="W4">
-        <v>0.1333972085716555</v>
+        <v>0.1188656204284269</v>
       </c>
       <c r="X4">
         <v>0</v>
@@ -948,13 +948,13 @@
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>0.0007576779395359327</v>
       </c>
       <c r="AA4">
         <v>0</v>
       </c>
       <c r="AB4">
-        <v>0</v>
+        <v>0.01926958647855174</v>
       </c>
       <c r="AC4">
         <v>0</v>
@@ -966,13 +966,13 @@
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>0</v>
+        <v>0.008464656702729702</v>
       </c>
       <c r="AG4">
-        <v>0</v>
+        <v>0.01524170953016677</v>
       </c>
       <c r="AH4">
-        <v>0</v>
+        <v>0.01574644218540905</v>
       </c>
       <c r="AI4">
         <v>0</v>
@@ -989,52 +989,52 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.2030340400246083</v>
+        <v>0.1699381866687051</v>
       </c>
       <c r="E5">
-        <v>0.343958207933921</v>
+        <v>0.2698911913434624</v>
       </c>
       <c r="F5">
-        <v>0.1992839267499666</v>
+        <v>0.1672783512747339</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.01302205892713113</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.0007642138200509482</v>
       </c>
       <c r="J5">
-        <v>0.07531217882944308</v>
+        <v>0.07934915585516636</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.05598550447514212</v>
+        <v>0.06564136392180488</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.01269971281314523</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.00179806439692147</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>0.005334664029461026</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>0.02312006976184358</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -1043,10 +1043,10 @@
         <v>0</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>0.01254481883694029</v>
       </c>
       <c r="W5">
-        <v>0.08876071152139267</v>
+        <v>0.08888776992661573</v>
       </c>
       <c r="X5">
         <v>0</v>
@@ -1061,7 +1061,7 @@
         <v>0</v>
       </c>
       <c r="AB5">
-        <v>0</v>
+        <v>0.007067393818963948</v>
       </c>
       <c r="AC5">
         <v>0</v>
@@ -1070,19 +1070,19 @@
         <v>0</v>
       </c>
       <c r="AE5">
-        <v>0</v>
+        <v>0.005180603869660278</v>
       </c>
       <c r="AF5">
-        <v>0.01428262739587988</v>
+        <v>0.0360628471244822</v>
       </c>
       <c r="AG5">
-        <v>0.01938280306964649</v>
+        <v>0.03968023859483758</v>
       </c>
       <c r="AH5">
         <v>0</v>
       </c>
       <c r="AI5">
-        <v>0</v>
+        <v>0.001739295016074048</v>
       </c>
     </row>
     <row r="6" spans="1:35">
@@ -1096,37 +1096,37 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1763793183666734</v>
+        <v>0.1388051851009481</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.37208130721365</v>
+        <v>0.2645271122890964</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.01618865391889772</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.02334667192637406</v>
       </c>
       <c r="J6">
-        <v>0.1417059526039964</v>
+        <v>0.116530488806513</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>1.872226687216292E-05</v>
       </c>
       <c r="M6">
-        <v>0.08026387285316523</v>
+        <v>0.07705916446160589</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.005636421467963808</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -1135,16 +1135,16 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.03768590580245786</v>
+        <v>0.0497064323564967</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>0.009314272983460343</v>
       </c>
       <c r="S6">
         <v>0</v>
       </c>
       <c r="T6">
-        <v>0.0644754798913834</v>
+        <v>0.06691646125223237</v>
       </c>
       <c r="U6">
         <v>0</v>
@@ -1153,13 +1153,13 @@
         <v>0</v>
       </c>
       <c r="W6">
-        <v>0.1180407534631549</v>
+        <v>0.101327605786227</v>
       </c>
       <c r="X6">
-        <v>0</v>
+        <v>0.009994507555092324</v>
       </c>
       <c r="Y6">
-        <v>0.000851745698178119</v>
+        <v>0.02604360898944434</v>
       </c>
       <c r="Z6">
         <v>0</v>
@@ -1168,7 +1168,7 @@
         <v>0</v>
       </c>
       <c r="AB6">
-        <v>0</v>
+        <v>0.02110114137775293</v>
       </c>
       <c r="AC6">
         <v>0</v>
@@ -1180,13 +1180,13 @@
         <v>0</v>
       </c>
       <c r="AF6">
-        <v>0</v>
+        <v>0.01870500537803805</v>
       </c>
       <c r="AG6">
-        <v>0</v>
+        <v>0.0238115176163373</v>
       </c>
       <c r="AH6">
-        <v>0.008515664107340773</v>
+        <v>0.03096702646664768</v>
       </c>
       <c r="AI6">
         <v>0</v>
@@ -1323,100 +1323,100 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1053773997229228</v>
+        <v>0.0970281470890567</v>
       </c>
       <c r="E2">
-        <v>0.1053773997229228</v>
+        <v>0.0970281470890567</v>
       </c>
       <c r="F2">
-        <v>0.5808073484179019</v>
+        <v>0.4441305890515213</v>
       </c>
       <c r="G2">
-        <v>0.5984530258003595</v>
+        <v>0.4818713493538486</v>
       </c>
       <c r="H2">
-        <v>0.5984530258003595</v>
+        <v>0.4818713493538486</v>
       </c>
       <c r="I2">
-        <v>0.5984530258003595</v>
+        <v>0.5007696323454374</v>
       </c>
       <c r="J2">
-        <v>0.6358202164108495</v>
+        <v>0.5518378066273105</v>
       </c>
       <c r="K2">
-        <v>0.6358202164108495</v>
+        <v>0.5532872012826286</v>
       </c>
       <c r="L2">
-        <v>0.6358202164108495</v>
+        <v>0.5532872012826286</v>
       </c>
       <c r="M2">
-        <v>0.7560127178341965</v>
+        <v>0.6603271051384012</v>
       </c>
       <c r="N2">
-        <v>0.7560127178341965</v>
+        <v>0.6603271051384012</v>
       </c>
       <c r="O2">
-        <v>0.7560127178341965</v>
+        <v>0.6603271051384012</v>
       </c>
       <c r="P2">
-        <v>0.7560127178341965</v>
+        <v>0.6603271051384012</v>
       </c>
       <c r="Q2">
-        <v>0.8345884182480117</v>
+        <v>0.7392431865904223</v>
       </c>
       <c r="R2">
-        <v>0.8345884182480117</v>
+        <v>0.7392431865904223</v>
       </c>
       <c r="S2">
-        <v>0.8345884182480117</v>
+        <v>0.7509769285266414</v>
       </c>
       <c r="T2">
-        <v>0.9270417553134561</v>
+        <v>0.8392712461502708</v>
       </c>
       <c r="U2">
-        <v>0.9270417553134561</v>
+        <v>0.8392712461502708</v>
       </c>
       <c r="V2">
-        <v>0.9270417553134561</v>
+        <v>0.8392712461502708</v>
       </c>
       <c r="W2">
-        <v>0.9777680233635676</v>
+        <v>0.8993672244025603</v>
       </c>
       <c r="X2">
-        <v>1</v>
+        <v>0.9402073162868539</v>
       </c>
       <c r="Y2">
-        <v>1</v>
+        <v>0.9498864676067073</v>
       </c>
       <c r="Z2">
-        <v>1</v>
+        <v>0.9498864676067073</v>
       </c>
       <c r="AA2">
-        <v>1</v>
+        <v>0.9498864676067073</v>
       </c>
       <c r="AB2">
-        <v>1</v>
+        <v>0.9587345068170605</v>
       </c>
       <c r="AC2">
-        <v>1</v>
+        <v>0.9587345068170605</v>
       </c>
       <c r="AD2">
-        <v>1</v>
+        <v>0.9587345068170605</v>
       </c>
       <c r="AE2">
-        <v>1</v>
+        <v>0.9587345068170605</v>
       </c>
       <c r="AF2">
-        <v>1</v>
+        <v>0.9626956853036073</v>
       </c>
       <c r="AG2">
-        <v>1</v>
+        <v>0.982573382172039</v>
       </c>
       <c r="AH2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AI2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:35">
@@ -1430,100 +1430,100 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1157560362815046</v>
+        <v>0.09854416000318851</v>
       </c>
       <c r="E3">
-        <v>0.4462850968408751</v>
+        <v>0.3316207055209813</v>
       </c>
       <c r="F3">
-        <v>0.4869349025499966</v>
+        <v>0.3831188251758245</v>
       </c>
       <c r="G3">
-        <v>0.4869349025499966</v>
+        <v>0.3831188251758245</v>
       </c>
       <c r="H3">
-        <v>0.4869349025499966</v>
+        <v>0.403826513001363</v>
       </c>
       <c r="I3">
-        <v>0.4993032657412489</v>
+        <v>0.4376093262739643</v>
       </c>
       <c r="J3">
-        <v>0.4993032657412489</v>
+        <v>0.4624742417690763</v>
       </c>
       <c r="K3">
-        <v>0.4993032657412489</v>
+        <v>0.4624742417690763</v>
       </c>
       <c r="L3">
-        <v>0.7311649599220482</v>
+        <v>0.6337462091002749</v>
       </c>
       <c r="M3">
-        <v>0.7311649599220482</v>
+        <v>0.6337462091002749</v>
       </c>
       <c r="N3">
-        <v>0.7311649599220482</v>
+        <v>0.6412330712493927</v>
       </c>
       <c r="O3">
-        <v>0.7341884271419293</v>
+        <v>0.6691623042055578</v>
       </c>
       <c r="P3">
-        <v>0.7810773962681364</v>
+        <v>0.7245685940830732</v>
       </c>
       <c r="Q3">
-        <v>0.7810773962681364</v>
+        <v>0.7245685940830732</v>
       </c>
       <c r="R3">
-        <v>0.8594134306705562</v>
+        <v>0.7996731152597339</v>
       </c>
       <c r="S3">
-        <v>0.9005702830241471</v>
+        <v>0.8514888455403856</v>
       </c>
       <c r="T3">
-        <v>0.9005702830241471</v>
+        <v>0.8514888455403856</v>
       </c>
       <c r="U3">
-        <v>0.9119594166845616</v>
+        <v>0.8846582759861962</v>
       </c>
       <c r="V3">
-        <v>0.9119594166845616</v>
+        <v>0.9049467913242555</v>
       </c>
       <c r="W3">
-        <v>0.9999999999999999</v>
+        <v>0.9861301770138191</v>
       </c>
       <c r="X3">
-        <v>0.9999999999999999</v>
+        <v>0.9864413237875216</v>
       </c>
       <c r="Y3">
-        <v>0.9999999999999999</v>
+        <v>0.9864413237875216</v>
       </c>
       <c r="Z3">
-        <v>0.9999999999999999</v>
+        <v>0.9864413237875216</v>
       </c>
       <c r="AA3">
-        <v>0.9999999999999999</v>
+        <v>0.9864413237875216</v>
       </c>
       <c r="AB3">
-        <v>0.9999999999999999</v>
+        <v>0.9864413237875216</v>
       </c>
       <c r="AC3">
-        <v>0.9999999999999999</v>
+        <v>0.9864413237875216</v>
       </c>
       <c r="AD3">
-        <v>0.9999999999999999</v>
+        <v>0.9864413237875216</v>
       </c>
       <c r="AE3">
-        <v>0.9999999999999999</v>
+        <v>0.9864413237875216</v>
       </c>
       <c r="AF3">
-        <v>0.9999999999999999</v>
+        <v>0.990541790760928</v>
       </c>
       <c r="AG3">
-        <v>0.9999999999999999</v>
+        <v>0.9960876982403898</v>
       </c>
       <c r="AH3">
-        <v>0.9999999999999999</v>
+        <v>0.9960876982403898</v>
       </c>
       <c r="AI3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:35">
@@ -1537,94 +1537,94 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.3463687420169566</v>
+        <v>0.267697872423024</v>
       </c>
       <c r="E4">
-        <v>0.4560684779758243</v>
+        <v>0.3700028372629549</v>
       </c>
       <c r="F4">
-        <v>0.648472732934944</v>
+        <v>0.5301047274187233</v>
       </c>
       <c r="G4">
-        <v>0.648472732934944</v>
+        <v>0.5301047274187233</v>
       </c>
       <c r="H4">
-        <v>0.648472732934944</v>
+        <v>0.5301047274187233</v>
       </c>
       <c r="I4">
-        <v>0.648472732934944</v>
+        <v>0.5301047274187233</v>
       </c>
       <c r="J4">
-        <v>0.7951371751653762</v>
+        <v>0.6582419731729894</v>
       </c>
       <c r="K4">
-        <v>0.7951371751653762</v>
+        <v>0.6582419731729894</v>
       </c>
       <c r="L4">
-        <v>0.8318151985124237</v>
+        <v>0.7095167099035341</v>
       </c>
       <c r="M4">
-        <v>0.8318151985124237</v>
+        <v>0.7182466891452461</v>
       </c>
       <c r="N4">
-        <v>0.8318151985124237</v>
+        <v>0.7182466891452461</v>
       </c>
       <c r="O4">
-        <v>0.8318151985124237</v>
+        <v>0.7182466891452461</v>
       </c>
       <c r="P4">
-        <v>0.8318151985124237</v>
+        <v>0.7182466891452461</v>
       </c>
       <c r="Q4">
-        <v>0.8394207284044939</v>
+        <v>0.7492045102673781</v>
       </c>
       <c r="R4">
-        <v>0.8394207284044939</v>
+        <v>0.773568550721941</v>
       </c>
       <c r="S4">
-        <v>0.8394207284044939</v>
+        <v>0.7750895051825362</v>
       </c>
       <c r="T4">
-        <v>0.8666027914283443</v>
+        <v>0.8197281195314211</v>
       </c>
       <c r="U4">
-        <v>0.8666027914283443</v>
+        <v>0.8216543067351798</v>
       </c>
       <c r="V4">
-        <v>0.8666027914283443</v>
+        <v>0.8216543067351798</v>
       </c>
       <c r="W4">
-        <v>0.9999999999999998</v>
+        <v>0.9405199271636067</v>
       </c>
       <c r="X4">
-        <v>0.9999999999999998</v>
+        <v>0.9405199271636067</v>
       </c>
       <c r="Y4">
-        <v>0.9999999999999998</v>
+        <v>0.9405199271636067</v>
       </c>
       <c r="Z4">
-        <v>0.9999999999999998</v>
+        <v>0.9412776051031426</v>
       </c>
       <c r="AA4">
-        <v>0.9999999999999998</v>
+        <v>0.9412776051031426</v>
       </c>
       <c r="AB4">
-        <v>0.9999999999999998</v>
+        <v>0.9605471915816943</v>
       </c>
       <c r="AC4">
-        <v>0.9999999999999998</v>
+        <v>0.9605471915816943</v>
       </c>
       <c r="AD4">
-        <v>0.9999999999999998</v>
+        <v>0.9605471915816943</v>
       </c>
       <c r="AE4">
-        <v>0.9999999999999998</v>
+        <v>0.9605471915816943</v>
       </c>
       <c r="AF4">
-        <v>0.9999999999999998</v>
+        <v>0.969011848284424</v>
       </c>
       <c r="AG4">
-        <v>0.9999999999999998</v>
+        <v>0.9842535578145908</v>
       </c>
       <c r="AH4">
         <v>0.9999999999999998</v>
@@ -1644,97 +1644,97 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.2030340400246083</v>
+        <v>0.1699381866687051</v>
       </c>
       <c r="E5">
-        <v>0.5469922479585292</v>
+        <v>0.4398293780121675</v>
       </c>
       <c r="F5">
-        <v>0.7462761747084957</v>
+        <v>0.6071077292869015</v>
       </c>
       <c r="G5">
-        <v>0.7462761747084957</v>
+        <v>0.6071077292869015</v>
       </c>
       <c r="H5">
-        <v>0.7462761747084957</v>
+        <v>0.6201297882140326</v>
       </c>
       <c r="I5">
-        <v>0.7462761747084957</v>
+        <v>0.6208940020340836</v>
       </c>
       <c r="J5">
-        <v>0.8215883535379388</v>
+        <v>0.70024315788925</v>
       </c>
       <c r="K5">
-        <v>0.8215883535379388</v>
+        <v>0.70024315788925</v>
       </c>
       <c r="L5">
-        <v>0.877573858013081</v>
+        <v>0.7658845218110548</v>
       </c>
       <c r="M5">
-        <v>0.877573858013081</v>
+        <v>0.7658845218110548</v>
       </c>
       <c r="N5">
-        <v>0.877573858013081</v>
+        <v>0.7785842346242</v>
       </c>
       <c r="O5">
-        <v>0.877573858013081</v>
+        <v>0.7785842346242</v>
       </c>
       <c r="P5">
-        <v>0.877573858013081</v>
+        <v>0.7803822990211214</v>
       </c>
       <c r="Q5">
-        <v>0.877573858013081</v>
+        <v>0.7803822990211214</v>
       </c>
       <c r="R5">
-        <v>0.877573858013081</v>
+        <v>0.7857169630505825</v>
       </c>
       <c r="S5">
-        <v>0.877573858013081</v>
+        <v>0.808837032812426</v>
       </c>
       <c r="T5">
-        <v>0.877573858013081</v>
+        <v>0.808837032812426</v>
       </c>
       <c r="U5">
-        <v>0.877573858013081</v>
+        <v>0.808837032812426</v>
       </c>
       <c r="V5">
-        <v>0.877573858013081</v>
+        <v>0.8213818516493663</v>
       </c>
       <c r="W5">
-        <v>0.9663345695344736</v>
+        <v>0.910269621575982</v>
       </c>
       <c r="X5">
-        <v>0.9663345695344736</v>
+        <v>0.910269621575982</v>
       </c>
       <c r="Y5">
-        <v>0.9663345695344736</v>
+        <v>0.910269621575982</v>
       </c>
       <c r="Z5">
-        <v>0.9663345695344736</v>
+        <v>0.910269621575982</v>
       </c>
       <c r="AA5">
-        <v>0.9663345695344736</v>
+        <v>0.910269621575982</v>
       </c>
       <c r="AB5">
-        <v>0.9663345695344736</v>
+        <v>0.9173370153949459</v>
       </c>
       <c r="AC5">
-        <v>0.9663345695344736</v>
+        <v>0.9173370153949459</v>
       </c>
       <c r="AD5">
-        <v>0.9663345695344736</v>
+        <v>0.9173370153949459</v>
       </c>
       <c r="AE5">
-        <v>0.9663345695344736</v>
+        <v>0.9225176192646062</v>
       </c>
       <c r="AF5">
-        <v>0.9806171969303535</v>
+        <v>0.9585804663890883</v>
       </c>
       <c r="AG5">
-        <v>1</v>
+        <v>0.9982607049839259</v>
       </c>
       <c r="AH5">
-        <v>1</v>
+        <v>0.9982607049839259</v>
       </c>
       <c r="AI5">
         <v>1</v>
@@ -1751,94 +1751,94 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1763793183666734</v>
+        <v>0.1388051851009481</v>
       </c>
       <c r="E6">
-        <v>0.1763793183666734</v>
+        <v>0.1388051851009481</v>
       </c>
       <c r="F6">
-        <v>0.5484606255803234</v>
+        <v>0.4033322973900445</v>
       </c>
       <c r="G6">
-        <v>0.5484606255803234</v>
+        <v>0.4195209513089422</v>
       </c>
       <c r="H6">
-        <v>0.5484606255803234</v>
+        <v>0.4195209513089422</v>
       </c>
       <c r="I6">
-        <v>0.5484606255803234</v>
+        <v>0.4428676232353163</v>
       </c>
       <c r="J6">
-        <v>0.6901665781843198</v>
+        <v>0.5593981120418293</v>
       </c>
       <c r="K6">
-        <v>0.6901665781843198</v>
+        <v>0.5593981120418293</v>
       </c>
       <c r="L6">
-        <v>0.6901665781843198</v>
+        <v>0.5594168343087015</v>
       </c>
       <c r="M6">
-        <v>0.7704304510374851</v>
+        <v>0.6364759987703074</v>
       </c>
       <c r="N6">
-        <v>0.7704304510374851</v>
+        <v>0.6421124202382712</v>
       </c>
       <c r="O6">
-        <v>0.7704304510374851</v>
+        <v>0.6421124202382712</v>
       </c>
       <c r="P6">
-        <v>0.7704304510374851</v>
+        <v>0.6421124202382712</v>
       </c>
       <c r="Q6">
-        <v>0.808116356839943</v>
+        <v>0.6918188525947679</v>
       </c>
       <c r="R6">
-        <v>0.808116356839943</v>
+        <v>0.7011331255782283</v>
       </c>
       <c r="S6">
-        <v>0.808116356839943</v>
+        <v>0.7011331255782283</v>
       </c>
       <c r="T6">
-        <v>0.8725918367313263</v>
+        <v>0.7680495868304607</v>
       </c>
       <c r="U6">
-        <v>0.8725918367313263</v>
+        <v>0.7680495868304607</v>
       </c>
       <c r="V6">
-        <v>0.8725918367313263</v>
+        <v>0.7680495868304607</v>
       </c>
       <c r="W6">
-        <v>0.9906325901944812</v>
+        <v>0.8693771926166876</v>
       </c>
       <c r="X6">
-        <v>0.9906325901944812</v>
+        <v>0.8793717001717799</v>
       </c>
       <c r="Y6">
-        <v>0.9914843358926594</v>
+        <v>0.9054153091612243</v>
       </c>
       <c r="Z6">
-        <v>0.9914843358926594</v>
+        <v>0.9054153091612243</v>
       </c>
       <c r="AA6">
-        <v>0.9914843358926594</v>
+        <v>0.9054153091612243</v>
       </c>
       <c r="AB6">
-        <v>0.9914843358926594</v>
+        <v>0.9265164505389771</v>
       </c>
       <c r="AC6">
-        <v>0.9914843358926594</v>
+        <v>0.9265164505389771</v>
       </c>
       <c r="AD6">
-        <v>0.9914843358926594</v>
+        <v>0.9265164505389771</v>
       </c>
       <c r="AE6">
-        <v>0.9914843358926594</v>
+        <v>0.9265164505389771</v>
       </c>
       <c r="AF6">
-        <v>0.9914843358926594</v>
+        <v>0.9452214559170152</v>
       </c>
       <c r="AG6">
-        <v>0.9914843358926594</v>
+        <v>0.9690329735333525</v>
       </c>
       <c r="AH6">
         <v>1</v>
@@ -1912,16 +1912,16 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.5808073484179019</v>
+        <v>0.5007696323454374</v>
       </c>
       <c r="G2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H2">
         <v>2</v>
@@ -1959,7 +1959,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7311649599220482</v>
+        <v>0.6337462091002749</v>
       </c>
       <c r="G3">
         <v>10</v>
@@ -2000,7 +2000,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.648472732934944</v>
+        <v>0.5301047274187233</v>
       </c>
       <c r="G4">
         <v>4</v>
@@ -2035,16 +2035,16 @@
         <v>1</v>
       </c>
       <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0.6071077292869015</v>
+      </c>
+      <c r="G5">
         <v>4</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0.5469922479585292</v>
-      </c>
-      <c r="G5">
-        <v>3</v>
       </c>
       <c r="H5">
         <v>2</v>
@@ -2076,16 +2076,16 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.5484606255803234</v>
+        <v>0.5593981120418293</v>
       </c>
       <c r="G6">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H6">
         <v>2</v>
@@ -2171,16 +2171,16 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7560127178341965</v>
+        <v>0.7392431865904223</v>
       </c>
       <c r="G2">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="H2">
         <v>2</v>
@@ -2212,16 +2212,16 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7311649599220482</v>
+        <v>0.7245685940830732</v>
       </c>
       <c r="G3">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H3">
         <v>2</v>
@@ -2253,16 +2253,16 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7951371751653762</v>
+        <v>0.7095167099035341</v>
       </c>
       <c r="G4">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H4">
         <v>2</v>
@@ -2294,16 +2294,16 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7462761747084957</v>
+        <v>0.70024315788925</v>
       </c>
       <c r="G5">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H5">
         <v>2</v>
@@ -2335,16 +2335,16 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7704304510374851</v>
+        <v>0.7011331255782283</v>
       </c>
       <c r="G6">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H6">
         <v>2</v>
@@ -2430,16 +2430,16 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8345884182480117</v>
+        <v>0.8392712461502708</v>
       </c>
       <c r="G2">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H2">
         <v>2</v>
@@ -2471,16 +2471,16 @@
         <v>1</v>
       </c>
       <c r="D3">
+        <v>18</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0.8514888455403856</v>
+      </c>
+      <c r="G3">
         <v>17</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0.8594134306705562</v>
-      </c>
-      <c r="G3">
-        <v>16</v>
       </c>
       <c r="H3">
         <v>2</v>
@@ -2512,16 +2512,16 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8318151985124237</v>
+        <v>0.8197281195314211</v>
       </c>
       <c r="G4">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="H4">
         <v>2</v>
@@ -2553,16 +2553,16 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8215883535379388</v>
+        <v>0.808837032812426</v>
       </c>
       <c r="G5">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="H5">
         <v>2</v>
@@ -2594,16 +2594,16 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.808116356839943</v>
+        <v>0.8693771926166876</v>
       </c>
       <c r="G6">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="H6">
         <v>2</v>
@@ -2689,16 +2689,16 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9270417553134561</v>
+        <v>0.9402073162868539</v>
       </c>
       <c r="G2">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H2">
         <v>2</v>
@@ -2730,16 +2730,16 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9005702830241471</v>
+        <v>0.9049467913242555</v>
       </c>
       <c r="G3">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H3">
         <v>2</v>
@@ -2777,7 +2777,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9999999999999998</v>
+        <v>0.9405199271636067</v>
       </c>
       <c r="G4">
         <v>21</v>
@@ -2818,7 +2818,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9663345695344736</v>
+        <v>0.910269621575982</v>
       </c>
       <c r="G5">
         <v>21</v>
@@ -2853,16 +2853,16 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9906325901944812</v>
+        <v>0.9054153091612243</v>
       </c>
       <c r="G6">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H6">
         <v>2</v>
